--- a/database/industries/urea/khorasan/product/monthly.xlsx
+++ b/database/industries/urea/khorasan/product/monthly.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\urea\khorasan\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE0625F0-8E35-4AA6-8B3A-4303ADFB8F0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91CF0DA4-628F-49D5-BD4C-E948D1155C71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2652" yWindow="2652" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2640" yWindow="1704" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1212" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1241" uniqueCount="87">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -35,12 +35,6 @@
   </si>
   <si>
     <t>مقدار تولید</t>
-  </si>
-  <si>
-    <t>ماه 6 منتهی به 1397/06</t>
-  </si>
-  <si>
-    <t>ماه 7 منتهی به 1397/07</t>
   </si>
   <si>
     <t>ماه 8 منتهی به 1397/08</t>
@@ -185,6 +179,12 @@
   </si>
   <si>
     <t>ماه 7 منتهی به 1401/07</t>
+  </si>
+  <si>
+    <t>ماه 8 منتهی به 1401/08</t>
+  </si>
+  <si>
+    <t>ماه 9 منتهی به 1401/09</t>
   </si>
   <si>
     <t>اوره</t>
@@ -1439,154 +1439,154 @@
       </c>
       <c r="D11" s="11"/>
       <c r="E11" s="11">
-        <v>53212</v>
+        <v>51354</v>
       </c>
       <c r="F11" s="11">
-        <v>51382</v>
+        <v>51339</v>
       </c>
       <c r="G11" s="11">
-        <v>51354</v>
+        <v>51224</v>
       </c>
       <c r="H11" s="11">
-        <v>51339</v>
+        <v>51278</v>
       </c>
       <c r="I11" s="11">
-        <v>51224</v>
+        <v>50091</v>
       </c>
       <c r="J11" s="11">
-        <v>51278</v>
+        <v>53710</v>
       </c>
       <c r="K11" s="11">
-        <v>50091</v>
+        <v>53731</v>
       </c>
       <c r="L11" s="11">
-        <v>53710</v>
+        <v>53716</v>
       </c>
       <c r="M11" s="11">
-        <v>53731</v>
+        <v>53704</v>
       </c>
       <c r="N11" s="11">
         <v>53716</v>
       </c>
       <c r="O11" s="11">
-        <v>53704</v>
+        <v>53834</v>
       </c>
       <c r="P11" s="11">
-        <v>53716</v>
+        <v>52058</v>
       </c>
       <c r="Q11" s="11">
-        <v>53834</v>
+        <v>51291</v>
       </c>
       <c r="R11" s="11">
-        <v>52058</v>
+        <v>48472</v>
       </c>
       <c r="S11" s="11">
-        <v>51291</v>
+        <v>39548</v>
       </c>
       <c r="T11" s="11">
-        <v>48472</v>
+        <v>20399</v>
       </c>
       <c r="U11" s="11">
-        <v>39548</v>
+        <v>41346</v>
       </c>
       <c r="V11" s="11">
-        <v>20399</v>
+        <v>40433</v>
       </c>
       <c r="W11" s="11">
-        <v>41346</v>
+        <v>47457</v>
       </c>
       <c r="X11" s="11">
-        <v>40433</v>
+        <v>15691</v>
       </c>
       <c r="Y11" s="11">
-        <v>47457</v>
+        <v>32210</v>
       </c>
       <c r="Z11" s="11">
-        <v>15691</v>
+        <v>53078</v>
       </c>
       <c r="AA11" s="11">
-        <v>32210</v>
+        <v>53170</v>
       </c>
       <c r="AB11" s="11">
-        <v>53078</v>
+        <v>51384</v>
       </c>
       <c r="AC11" s="11">
-        <v>53170</v>
+        <v>51372</v>
       </c>
       <c r="AD11" s="11">
-        <v>51384</v>
+        <v>50473</v>
       </c>
       <c r="AE11" s="11">
-        <v>51372</v>
+        <v>27459</v>
       </c>
       <c r="AF11" s="11">
-        <v>50473</v>
+        <v>29484</v>
       </c>
       <c r="AG11" s="11">
-        <v>27459</v>
+        <v>51095</v>
       </c>
       <c r="AH11" s="11">
-        <v>29484</v>
+        <v>53131</v>
       </c>
       <c r="AI11" s="11">
-        <v>51095</v>
+        <v>53107</v>
       </c>
       <c r="AJ11" s="11">
-        <v>53131</v>
+        <v>53127</v>
       </c>
       <c r="AK11" s="11">
-        <v>53107</v>
+        <v>53044</v>
       </c>
       <c r="AL11" s="11">
-        <v>53127</v>
+        <v>53080</v>
       </c>
       <c r="AM11" s="11">
-        <v>53044</v>
+        <v>49666</v>
       </c>
       <c r="AN11" s="11">
-        <v>53080</v>
+        <v>51404</v>
       </c>
       <c r="AO11" s="11">
-        <v>49666</v>
+        <v>51366</v>
       </c>
       <c r="AP11" s="11">
-        <v>51404</v>
+        <v>51348</v>
       </c>
       <c r="AQ11" s="11">
-        <v>51366</v>
+        <v>45940</v>
       </c>
       <c r="AR11" s="11">
-        <v>51348</v>
+        <v>5880</v>
       </c>
       <c r="AS11" s="11">
-        <v>45940</v>
+        <v>47514</v>
       </c>
       <c r="AT11" s="11">
-        <v>5880</v>
+        <v>52878</v>
       </c>
       <c r="AU11" s="11">
-        <v>47514</v>
+        <v>52908</v>
       </c>
       <c r="AV11" s="11">
-        <v>52878</v>
+        <v>52744</v>
       </c>
       <c r="AW11" s="11">
-        <v>52908</v>
+        <v>52863</v>
       </c>
       <c r="AX11" s="11">
-        <v>52744</v>
+        <v>52876</v>
       </c>
       <c r="AY11" s="11">
-        <v>52863</v>
+        <v>52970</v>
       </c>
       <c r="AZ11" s="11">
-        <v>52876</v>
+        <v>49925</v>
       </c>
       <c r="BA11" s="11">
-        <v>52970</v>
+        <v>50864</v>
       </c>
       <c r="BB11" s="11">
-        <v>49925</v>
+        <v>43382</v>
       </c>
     </row>
     <row r="12" spans="2:54" x14ac:dyDescent="0.3">
@@ -1598,136 +1598,136 @@
       </c>
       <c r="D12" s="13"/>
       <c r="E12" s="13">
+        <v>29994</v>
+      </c>
+      <c r="F12" s="13">
+        <v>29970</v>
+      </c>
+      <c r="G12" s="13">
+        <v>29906</v>
+      </c>
+      <c r="H12" s="13">
+        <v>29841</v>
+      </c>
+      <c r="I12" s="13">
+        <v>28859</v>
+      </c>
+      <c r="J12" s="13">
+        <v>30917</v>
+      </c>
+      <c r="K12" s="13">
+        <v>30989</v>
+      </c>
+      <c r="L12" s="13">
+        <v>31000</v>
+      </c>
+      <c r="M12" s="13">
+        <v>30899</v>
+      </c>
+      <c r="N12" s="13">
+        <v>30812</v>
+      </c>
+      <c r="O12" s="13">
+        <v>30721</v>
+      </c>
+      <c r="P12" s="13">
+        <v>29789</v>
+      </c>
+      <c r="Q12" s="13">
+        <v>29366</v>
+      </c>
+      <c r="R12" s="13">
+        <v>28019</v>
+      </c>
+      <c r="S12" s="13">
+        <v>21402</v>
+      </c>
+      <c r="T12" s="13">
+        <v>10332</v>
+      </c>
+      <c r="U12" s="13">
+        <v>18866</v>
+      </c>
+      <c r="V12" s="13">
+        <v>21607</v>
+      </c>
+      <c r="W12" s="13">
+        <v>25227</v>
+      </c>
+      <c r="X12" s="13">
+        <v>8460</v>
+      </c>
+      <c r="Y12" s="13">
+        <v>19051</v>
+      </c>
+      <c r="Z12" s="13">
+        <v>31516</v>
+      </c>
+      <c r="AA12" s="13">
+        <v>31366</v>
+      </c>
+      <c r="AB12" s="13">
+        <v>29980</v>
+      </c>
+      <c r="AC12" s="13">
+        <v>30070</v>
+      </c>
+      <c r="AD12" s="13">
+        <v>29493</v>
+      </c>
+      <c r="AE12" s="13">
+        <v>14118</v>
+      </c>
+      <c r="AF12" s="13">
+        <v>12740</v>
+      </c>
+      <c r="AG12" s="13">
+        <v>28960</v>
+      </c>
+      <c r="AH12" s="13">
+        <v>31008</v>
+      </c>
+      <c r="AI12" s="13">
+        <v>31043</v>
+      </c>
+      <c r="AJ12" s="13">
+        <v>30170</v>
+      </c>
+      <c r="AK12" s="13">
+        <v>31002</v>
+      </c>
+      <c r="AL12" s="13">
         <v>30993</v>
       </c>
-      <c r="F12" s="13">
+      <c r="AM12" s="13">
+        <v>30938</v>
+      </c>
+      <c r="AN12" s="13">
         <v>30000</v>
       </c>
-      <c r="G12" s="13">
-        <v>29994</v>
-      </c>
-      <c r="H12" s="13">
-        <v>29970</v>
-      </c>
-      <c r="I12" s="13">
-        <v>29906</v>
-      </c>
-      <c r="J12" s="13">
-        <v>29841</v>
-      </c>
-      <c r="K12" s="13">
-        <v>28859</v>
-      </c>
-      <c r="L12" s="13">
-        <v>30917</v>
-      </c>
-      <c r="M12" s="13">
-        <v>30989</v>
-      </c>
-      <c r="N12" s="13">
-        <v>31000</v>
-      </c>
-      <c r="O12" s="13">
-        <v>30899</v>
-      </c>
-      <c r="P12" s="13">
-        <v>30812</v>
-      </c>
-      <c r="Q12" s="13">
-        <v>30721</v>
-      </c>
-      <c r="R12" s="13">
-        <v>29789</v>
-      </c>
-      <c r="S12" s="13">
-        <v>29366</v>
-      </c>
-      <c r="T12" s="13">
-        <v>28019</v>
-      </c>
-      <c r="U12" s="13">
-        <v>21402</v>
-      </c>
-      <c r="V12" s="13">
-        <v>10332</v>
-      </c>
-      <c r="W12" s="13">
-        <v>18866</v>
-      </c>
-      <c r="X12" s="13">
-        <v>21607</v>
-      </c>
-      <c r="Y12" s="13">
-        <v>25227</v>
-      </c>
-      <c r="Z12" s="13">
-        <v>8460</v>
-      </c>
-      <c r="AA12" s="13">
-        <v>19051</v>
-      </c>
-      <c r="AB12" s="13">
-        <v>31516</v>
-      </c>
-      <c r="AC12" s="13">
-        <v>31366</v>
-      </c>
-      <c r="AD12" s="13">
-        <v>29980</v>
-      </c>
-      <c r="AE12" s="13">
-        <v>30070</v>
-      </c>
-      <c r="AF12" s="13">
-        <v>29493</v>
-      </c>
-      <c r="AG12" s="13">
-        <v>14118</v>
-      </c>
-      <c r="AH12" s="13">
-        <v>12740</v>
-      </c>
-      <c r="AI12" s="13">
-        <v>28960</v>
-      </c>
-      <c r="AJ12" s="13">
-        <v>31008</v>
-      </c>
-      <c r="AK12" s="13">
-        <v>31043</v>
-      </c>
-      <c r="AL12" s="13">
-        <v>30170</v>
-      </c>
-      <c r="AM12" s="13">
-        <v>31002</v>
-      </c>
-      <c r="AN12" s="13">
-        <v>30993</v>
-      </c>
       <c r="AO12" s="13">
-        <v>30938</v>
+        <v>30000</v>
       </c>
       <c r="AP12" s="13">
         <v>30000</v>
       </c>
       <c r="AQ12" s="13">
-        <v>30000</v>
+        <v>27000</v>
       </c>
       <c r="AR12" s="13">
-        <v>30000</v>
+        <v>2807</v>
       </c>
       <c r="AS12" s="13">
-        <v>27000</v>
+        <v>27684</v>
       </c>
       <c r="AT12" s="13">
-        <v>2807</v>
+        <v>31005</v>
       </c>
       <c r="AU12" s="13">
-        <v>27684</v>
+        <v>31000</v>
       </c>
       <c r="AV12" s="13">
-        <v>31005</v>
+        <v>31000</v>
       </c>
       <c r="AW12" s="13">
         <v>31000</v>
@@ -1736,16 +1736,16 @@
         <v>31000</v>
       </c>
       <c r="AY12" s="13">
-        <v>31000</v>
+        <v>31040</v>
       </c>
       <c r="AZ12" s="13">
-        <v>31000</v>
+        <v>30000</v>
       </c>
       <c r="BA12" s="13">
-        <v>31040</v>
+        <v>30000</v>
       </c>
       <c r="BB12" s="13">
-        <v>30000</v>
+        <v>26796</v>
       </c>
     </row>
     <row r="13" spans="2:54" x14ac:dyDescent="0.3">
@@ -1966,17 +1966,17 @@
       <c r="U14" s="13">
         <v>0</v>
       </c>
-      <c r="V14" s="13">
-        <v>0</v>
-      </c>
-      <c r="W14" s="13">
-        <v>0</v>
-      </c>
-      <c r="X14" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="Y14" s="13" t="s">
-        <v>60</v>
+      <c r="V14" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="W14" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="X14" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y14" s="13">
+        <v>0</v>
       </c>
       <c r="Z14" s="13">
         <v>0</v>
@@ -2002,11 +2002,11 @@
       <c r="AG14" s="13">
         <v>0</v>
       </c>
-      <c r="AH14" s="13">
-        <v>0</v>
-      </c>
-      <c r="AI14" s="13">
-        <v>0</v>
+      <c r="AH14" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="AI14" s="13" t="s">
+        <v>60</v>
       </c>
       <c r="AJ14" s="13" t="s">
         <v>60</v>
@@ -2075,7 +2075,7 @@
       </c>
       <c r="D15" s="11"/>
       <c r="E15" s="11">
-        <v>1879</v>
+        <v>1818</v>
       </c>
       <c r="F15" s="11">
         <v>1818</v>
@@ -2087,142 +2087,142 @@
         <v>1818</v>
       </c>
       <c r="I15" s="11">
-        <v>1818</v>
+        <v>1734</v>
       </c>
       <c r="J15" s="11">
-        <v>1818</v>
+        <v>1876</v>
       </c>
       <c r="K15" s="11">
-        <v>1734</v>
+        <v>1879</v>
       </c>
       <c r="L15" s="11">
-        <v>1876</v>
+        <v>1885</v>
       </c>
       <c r="M15" s="11">
-        <v>1879</v>
+        <v>1891</v>
       </c>
       <c r="N15" s="11">
-        <v>1885</v>
+        <v>1891</v>
       </c>
       <c r="O15" s="11">
         <v>1891</v>
       </c>
       <c r="P15" s="11">
-        <v>1891</v>
+        <v>1830</v>
       </c>
       <c r="Q15" s="11">
-        <v>1891</v>
+        <v>1822</v>
       </c>
       <c r="R15" s="11">
-        <v>1830</v>
+        <v>1706</v>
       </c>
       <c r="S15" s="11">
-        <v>1822</v>
+        <v>1218</v>
       </c>
       <c r="T15" s="11">
-        <v>1706</v>
+        <v>509</v>
       </c>
       <c r="U15" s="11">
-        <v>1218</v>
+        <v>1235</v>
       </c>
       <c r="V15" s="11">
-        <v>509</v>
+        <v>1175</v>
       </c>
       <c r="W15" s="11">
-        <v>1235</v>
+        <v>1791</v>
       </c>
       <c r="X15" s="11">
-        <v>1175</v>
+        <v>589</v>
       </c>
       <c r="Y15" s="11">
-        <v>1791</v>
+        <v>1026</v>
       </c>
       <c r="Z15" s="11">
-        <v>589</v>
+        <v>1858</v>
       </c>
       <c r="AA15" s="11">
-        <v>1026</v>
+        <v>1879</v>
       </c>
       <c r="AB15" s="11">
-        <v>1858</v>
+        <v>1818</v>
       </c>
       <c r="AC15" s="11">
+        <v>1818</v>
+      </c>
+      <c r="AD15" s="11">
+        <v>1808</v>
+      </c>
+      <c r="AE15" s="11">
+        <v>951</v>
+      </c>
+      <c r="AF15" s="11">
+        <v>981</v>
+      </c>
+      <c r="AG15" s="11">
+        <v>1804</v>
+      </c>
+      <c r="AH15" s="11">
+        <v>1881</v>
+      </c>
+      <c r="AI15" s="11">
         <v>1879</v>
       </c>
-      <c r="AD15" s="11">
-        <v>1818</v>
-      </c>
-      <c r="AE15" s="11">
-        <v>1818</v>
-      </c>
-      <c r="AF15" s="11">
-        <v>1808</v>
-      </c>
-      <c r="AG15" s="11">
-        <v>951</v>
-      </c>
-      <c r="AH15" s="11">
-        <v>981</v>
-      </c>
-      <c r="AI15" s="11">
-        <v>1804</v>
-      </c>
       <c r="AJ15" s="11">
-        <v>1881</v>
+        <v>1878</v>
       </c>
       <c r="AK15" s="11">
         <v>1879</v>
       </c>
       <c r="AL15" s="11">
-        <v>1878</v>
+        <v>1879</v>
       </c>
       <c r="AM15" s="11">
-        <v>1879</v>
+        <v>1803</v>
       </c>
       <c r="AN15" s="11">
-        <v>1879</v>
+        <v>1818</v>
       </c>
       <c r="AO15" s="11">
-        <v>1803</v>
+        <v>1818</v>
       </c>
       <c r="AP15" s="11">
         <v>1818</v>
       </c>
       <c r="AQ15" s="11">
-        <v>1818</v>
+        <v>1576</v>
       </c>
       <c r="AR15" s="11">
-        <v>1818</v>
+        <v>0</v>
       </c>
       <c r="AS15" s="11">
-        <v>1576</v>
+        <v>1434</v>
       </c>
       <c r="AT15" s="11">
-        <v>0</v>
+        <v>1879</v>
       </c>
       <c r="AU15" s="11">
-        <v>1434</v>
+        <v>1879</v>
       </c>
       <c r="AV15" s="11">
-        <v>1879</v>
+        <v>1697</v>
       </c>
       <c r="AW15" s="11">
         <v>1879</v>
       </c>
       <c r="AX15" s="11">
-        <v>1697</v>
+        <v>1879</v>
       </c>
       <c r="AY15" s="11">
-        <v>1879</v>
+        <v>1880</v>
       </c>
       <c r="AZ15" s="11">
-        <v>1879</v>
+        <v>787</v>
       </c>
       <c r="BA15" s="11">
-        <v>1880</v>
+        <v>1818</v>
       </c>
       <c r="BB15" s="11">
-        <v>787</v>
+        <v>888</v>
       </c>
     </row>
     <row r="16" spans="2:54" x14ac:dyDescent="0.3">
@@ -2287,11 +2287,11 @@
       <c r="V16" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="W16" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="X16" s="13" t="s">
-        <v>60</v>
+      <c r="W16" s="13">
+        <v>0</v>
+      </c>
+      <c r="X16" s="13">
+        <v>0</v>
       </c>
       <c r="Y16" s="13">
         <v>0</v>
@@ -2320,11 +2320,11 @@
       <c r="AG16" s="13">
         <v>0</v>
       </c>
-      <c r="AH16" s="13">
-        <v>0</v>
-      </c>
-      <c r="AI16" s="13">
-        <v>0</v>
+      <c r="AH16" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="AI16" s="13" t="s">
+        <v>60</v>
       </c>
       <c r="AJ16" s="13" t="s">
         <v>60</v>
@@ -2443,17 +2443,17 @@
       <c r="U17" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="V17" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="W17" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="X17" s="11">
-        <v>0</v>
-      </c>
-      <c r="Y17" s="11">
-        <v>0</v>
+      <c r="V17" s="11">
+        <v>0</v>
+      </c>
+      <c r="W17" s="11">
+        <v>0</v>
+      </c>
+      <c r="X17" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="Y17" s="11" t="s">
+        <v>60</v>
       </c>
       <c r="Z17" s="11" t="s">
         <v>60</v>
@@ -2515,14 +2515,14 @@
       <c r="AS17" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="AT17" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="AU17" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="AV17" s="11" t="s">
-        <v>60</v>
+      <c r="AT17" s="11">
+        <v>0</v>
+      </c>
+      <c r="AU17" s="11">
+        <v>0</v>
+      </c>
+      <c r="AV17" s="11">
+        <v>0</v>
       </c>
       <c r="AW17" s="11">
         <v>0</v>
@@ -2552,154 +2552,154 @@
       </c>
       <c r="D18" s="13"/>
       <c r="E18" s="13">
-        <v>26964</v>
+        <v>26097</v>
       </c>
       <c r="F18" s="13">
-        <v>26100</v>
+        <v>26091</v>
       </c>
       <c r="G18" s="13">
-        <v>26097</v>
+        <v>26149</v>
       </c>
       <c r="H18" s="13">
-        <v>26091</v>
+        <v>26188</v>
       </c>
       <c r="I18" s="13">
-        <v>26149</v>
+        <v>25554</v>
       </c>
       <c r="J18" s="13">
-        <v>26188</v>
+        <v>27296</v>
       </c>
       <c r="K18" s="13">
-        <v>25554</v>
+        <v>27239</v>
       </c>
       <c r="L18" s="13">
-        <v>27296</v>
+        <v>27250</v>
       </c>
       <c r="M18" s="13">
-        <v>27239</v>
+        <v>27151</v>
       </c>
       <c r="N18" s="13">
-        <v>27250</v>
+        <v>27154</v>
       </c>
       <c r="O18" s="13">
-        <v>27151</v>
+        <v>27259</v>
       </c>
       <c r="P18" s="13">
-        <v>27154</v>
+        <v>26329</v>
       </c>
       <c r="Q18" s="13">
-        <v>27259</v>
+        <v>26072</v>
       </c>
       <c r="R18" s="13">
-        <v>26329</v>
+        <v>24872</v>
       </c>
       <c r="S18" s="13">
-        <v>26072</v>
+        <v>18610</v>
       </c>
       <c r="T18" s="13">
-        <v>24872</v>
+        <v>10907</v>
       </c>
       <c r="U18" s="13">
-        <v>18610</v>
+        <v>21178</v>
       </c>
       <c r="V18" s="13">
-        <v>10907</v>
+        <v>20726</v>
       </c>
       <c r="W18" s="13">
-        <v>21178</v>
+        <v>24038</v>
       </c>
       <c r="X18" s="13">
-        <v>20726</v>
+        <v>7920</v>
       </c>
       <c r="Y18" s="13">
-        <v>24038</v>
+        <v>16402</v>
       </c>
       <c r="Z18" s="13">
-        <v>7920</v>
+        <v>27179</v>
       </c>
       <c r="AA18" s="13">
-        <v>16402</v>
+        <v>27207</v>
       </c>
       <c r="AB18" s="13">
-        <v>27179</v>
+        <v>26204</v>
       </c>
       <c r="AC18" s="13">
-        <v>27207</v>
+        <v>26181</v>
       </c>
       <c r="AD18" s="13">
-        <v>26204</v>
+        <v>25679</v>
       </c>
       <c r="AE18" s="13">
-        <v>26181</v>
+        <v>13270</v>
       </c>
       <c r="AF18" s="13">
-        <v>25679</v>
+        <v>14863</v>
       </c>
       <c r="AG18" s="13">
-        <v>13270</v>
+        <v>25947</v>
       </c>
       <c r="AH18" s="13">
-        <v>14863</v>
+        <v>27097</v>
       </c>
       <c r="AI18" s="13">
-        <v>25947</v>
+        <v>27075</v>
       </c>
       <c r="AJ18" s="13">
-        <v>27097</v>
+        <v>27096</v>
       </c>
       <c r="AK18" s="13">
-        <v>27075</v>
+        <v>27199</v>
       </c>
       <c r="AL18" s="13">
-        <v>27096</v>
+        <v>27242</v>
       </c>
       <c r="AM18" s="13">
-        <v>27199</v>
+        <v>25376</v>
       </c>
       <c r="AN18" s="13">
-        <v>27242</v>
+        <v>26327</v>
       </c>
       <c r="AO18" s="13">
-        <v>25376</v>
+        <v>26286</v>
       </c>
       <c r="AP18" s="13">
-        <v>26327</v>
+        <v>26277</v>
       </c>
       <c r="AQ18" s="13">
-        <v>26286</v>
+        <v>23636</v>
       </c>
       <c r="AR18" s="13">
-        <v>26277</v>
+        <v>3365</v>
       </c>
       <c r="AS18" s="13">
-        <v>23636</v>
+        <v>24208</v>
       </c>
       <c r="AT18" s="13">
-        <v>3365</v>
+        <v>27054</v>
       </c>
       <c r="AU18" s="13">
-        <v>24208</v>
+        <v>27039</v>
       </c>
       <c r="AV18" s="13">
-        <v>27054</v>
+        <v>27040</v>
       </c>
       <c r="AW18" s="13">
-        <v>27039</v>
+        <v>26985</v>
       </c>
       <c r="AX18" s="13">
-        <v>27040</v>
+        <v>27032</v>
       </c>
       <c r="AY18" s="13">
-        <v>26985</v>
+        <v>27152</v>
       </c>
       <c r="AZ18" s="13">
-        <v>27032</v>
+        <v>27000</v>
       </c>
       <c r="BA18" s="13">
-        <v>27152</v>
+        <v>26330</v>
       </c>
       <c r="BB18" s="13">
-        <v>27000</v>
+        <v>23462</v>
       </c>
     </row>
     <row r="19" spans="2:54" x14ac:dyDescent="0.3">
@@ -2711,154 +2711,154 @@
       </c>
       <c r="D19" s="11"/>
       <c r="E19" s="11">
-        <v>6057</v>
+        <v>5773</v>
       </c>
       <c r="F19" s="11">
-        <v>5812</v>
+        <v>5805</v>
       </c>
       <c r="G19" s="11">
-        <v>5773</v>
+        <v>5846</v>
       </c>
       <c r="H19" s="11">
-        <v>5805</v>
+        <v>5853</v>
       </c>
       <c r="I19" s="11">
-        <v>5846</v>
+        <v>5557</v>
       </c>
       <c r="J19" s="11">
-        <v>5853</v>
+        <v>6032</v>
       </c>
       <c r="K19" s="11">
-        <v>5557</v>
+        <v>6056</v>
       </c>
       <c r="L19" s="11">
-        <v>6032</v>
+        <v>6064</v>
       </c>
       <c r="M19" s="11">
-        <v>6056</v>
+        <v>6019</v>
       </c>
       <c r="N19" s="11">
-        <v>6064</v>
+        <v>5992</v>
       </c>
       <c r="O19" s="11">
-        <v>6019</v>
+        <v>6036</v>
       </c>
       <c r="P19" s="11">
-        <v>5992</v>
+        <v>5858</v>
       </c>
       <c r="Q19" s="11">
-        <v>6036</v>
+        <v>5801</v>
       </c>
       <c r="R19" s="11">
-        <v>5858</v>
+        <v>5438</v>
       </c>
       <c r="S19" s="11">
-        <v>5801</v>
+        <v>3902</v>
       </c>
       <c r="T19" s="11">
-        <v>5438</v>
+        <v>1783</v>
       </c>
       <c r="U19" s="11">
-        <v>3902</v>
+        <v>4002</v>
       </c>
       <c r="V19" s="11">
-        <v>1783</v>
+        <v>3795</v>
       </c>
       <c r="W19" s="11">
-        <v>4002</v>
+        <v>5666</v>
       </c>
       <c r="X19" s="11">
-        <v>3795</v>
+        <v>1800</v>
       </c>
       <c r="Y19" s="11">
-        <v>5666</v>
+        <v>3377</v>
       </c>
       <c r="Z19" s="11">
-        <v>1800</v>
+        <v>5983</v>
       </c>
       <c r="AA19" s="11">
-        <v>3377</v>
+        <v>6033</v>
       </c>
       <c r="AB19" s="11">
-        <v>5983</v>
+        <v>5844</v>
       </c>
       <c r="AC19" s="11">
+        <v>5844</v>
+      </c>
+      <c r="AD19" s="11">
+        <v>5739</v>
+      </c>
+      <c r="AE19" s="11">
+        <v>2958</v>
+      </c>
+      <c r="AF19" s="11">
+        <v>3220</v>
+      </c>
+      <c r="AG19" s="11">
+        <v>5740</v>
+      </c>
+      <c r="AH19" s="11">
+        <v>6076</v>
+      </c>
+      <c r="AI19" s="11">
+        <v>6078</v>
+      </c>
+      <c r="AJ19" s="11">
+        <v>6087</v>
+      </c>
+      <c r="AK19" s="11">
+        <v>5985</v>
+      </c>
+      <c r="AL19" s="11">
+        <v>5980</v>
+      </c>
+      <c r="AM19" s="11">
+        <v>5745</v>
+      </c>
+      <c r="AN19" s="11">
+        <v>5820</v>
+      </c>
+      <c r="AO19" s="11">
+        <v>5814</v>
+      </c>
+      <c r="AP19" s="11">
+        <v>5822</v>
+      </c>
+      <c r="AQ19" s="11">
+        <v>5051</v>
+      </c>
+      <c r="AR19" s="11">
+        <v>0</v>
+      </c>
+      <c r="AS19" s="11">
+        <v>4566</v>
+      </c>
+      <c r="AT19" s="11">
+        <v>6049</v>
+      </c>
+      <c r="AU19" s="11">
+        <v>6043</v>
+      </c>
+      <c r="AV19" s="11">
+        <v>5427</v>
+      </c>
+      <c r="AW19" s="11">
+        <v>6002</v>
+      </c>
+      <c r="AX19" s="11">
         <v>6033</v>
       </c>
-      <c r="AD19" s="11">
-        <v>5844</v>
-      </c>
-      <c r="AE19" s="11">
-        <v>5844</v>
-      </c>
-      <c r="AF19" s="11">
-        <v>5739</v>
-      </c>
-      <c r="AG19" s="11">
-        <v>2958</v>
-      </c>
-      <c r="AH19" s="11">
-        <v>3220</v>
-      </c>
-      <c r="AI19" s="11">
-        <v>5740</v>
-      </c>
-      <c r="AJ19" s="11">
-        <v>6076</v>
-      </c>
-      <c r="AK19" s="11">
-        <v>6078</v>
-      </c>
-      <c r="AL19" s="11">
-        <v>6087</v>
-      </c>
-      <c r="AM19" s="11">
-        <v>5985</v>
-      </c>
-      <c r="AN19" s="11">
-        <v>5980</v>
-      </c>
-      <c r="AO19" s="11">
-        <v>5745</v>
-      </c>
-      <c r="AP19" s="11">
-        <v>5820</v>
-      </c>
-      <c r="AQ19" s="11">
-        <v>5814</v>
-      </c>
-      <c r="AR19" s="11">
-        <v>5822</v>
-      </c>
-      <c r="AS19" s="11">
-        <v>5051</v>
-      </c>
-      <c r="AT19" s="11">
-        <v>0</v>
-      </c>
-      <c r="AU19" s="11">
-        <v>4566</v>
-      </c>
-      <c r="AV19" s="11">
-        <v>6049</v>
-      </c>
-      <c r="AW19" s="11">
-        <v>6043</v>
-      </c>
-      <c r="AX19" s="11">
-        <v>5427</v>
-      </c>
       <c r="AY19" s="11">
-        <v>6002</v>
+        <v>6066</v>
       </c>
       <c r="AZ19" s="11">
-        <v>6033</v>
+        <v>2698</v>
       </c>
       <c r="BA19" s="11">
-        <v>6066</v>
+        <v>5862</v>
       </c>
       <c r="BB19" s="11">
-        <v>2698</v>
+        <v>2897</v>
       </c>
     </row>
     <row r="20" spans="2:54" x14ac:dyDescent="0.3">
@@ -2870,154 +2870,154 @@
       </c>
       <c r="D20" s="13"/>
       <c r="E20" s="13">
-        <v>1413</v>
+        <v>1380</v>
       </c>
       <c r="F20" s="13">
-        <v>1378</v>
+        <v>1366</v>
       </c>
       <c r="G20" s="13">
+        <v>1412</v>
+      </c>
+      <c r="H20" s="13">
+        <v>1412</v>
+      </c>
+      <c r="I20" s="13">
+        <v>1338</v>
+      </c>
+      <c r="J20" s="13">
+        <v>1416</v>
+      </c>
+      <c r="K20" s="13">
+        <v>1442</v>
+      </c>
+      <c r="L20" s="13">
+        <v>1442</v>
+      </c>
+      <c r="M20" s="13">
+        <v>1429</v>
+      </c>
+      <c r="N20" s="13">
+        <v>1457</v>
+      </c>
+      <c r="O20" s="13">
+        <v>1430</v>
+      </c>
+      <c r="P20" s="13">
+        <v>1426</v>
+      </c>
+      <c r="Q20" s="13">
+        <v>1433</v>
+      </c>
+      <c r="R20" s="13">
+        <v>1407</v>
+      </c>
+      <c r="S20" s="13">
+        <v>988</v>
+      </c>
+      <c r="T20" s="13">
+        <v>677</v>
+      </c>
+      <c r="U20" s="13">
+        <v>1238</v>
+      </c>
+      <c r="V20" s="13">
+        <v>1183</v>
+      </c>
+      <c r="W20" s="13">
+        <v>1407</v>
+      </c>
+      <c r="X20" s="13">
+        <v>512</v>
+      </c>
+      <c r="Y20" s="13">
+        <v>857</v>
+      </c>
+      <c r="Z20" s="13">
+        <v>1360</v>
+      </c>
+      <c r="AA20" s="13">
+        <v>1395</v>
+      </c>
+      <c r="AB20" s="13">
+        <v>1356</v>
+      </c>
+      <c r="AC20" s="13">
+        <v>1367</v>
+      </c>
+      <c r="AD20" s="13">
+        <v>1403</v>
+      </c>
+      <c r="AE20" s="13">
+        <v>977</v>
+      </c>
+      <c r="AF20" s="13">
+        <v>806</v>
+      </c>
+      <c r="AG20" s="13">
+        <v>1334</v>
+      </c>
+      <c r="AH20" s="13">
+        <v>1397</v>
+      </c>
+      <c r="AI20" s="13">
+        <v>1412</v>
+      </c>
+      <c r="AJ20" s="13">
+        <v>1420</v>
+      </c>
+      <c r="AK20" s="13">
+        <v>1346</v>
+      </c>
+      <c r="AL20" s="13">
+        <v>1332</v>
+      </c>
+      <c r="AM20" s="13">
+        <v>1316</v>
+      </c>
+      <c r="AN20" s="13">
+        <v>1289</v>
+      </c>
+      <c r="AO20" s="13">
+        <v>1345</v>
+      </c>
+      <c r="AP20" s="13">
+        <v>1355</v>
+      </c>
+      <c r="AQ20" s="13">
+        <v>1272</v>
+      </c>
+      <c r="AR20" s="13">
+        <v>0</v>
+      </c>
+      <c r="AS20" s="13">
+        <v>1205</v>
+      </c>
+      <c r="AT20" s="13">
+        <v>1341</v>
+      </c>
+      <c r="AU20" s="13">
+        <v>1350</v>
+      </c>
+      <c r="AV20" s="13">
+        <v>1331</v>
+      </c>
+      <c r="AW20" s="13">
+        <v>1366</v>
+      </c>
+      <c r="AX20" s="13">
         <v>1380</v>
       </c>
-      <c r="H20" s="13">
-        <v>1366</v>
-      </c>
-      <c r="I20" s="13">
-        <v>1412</v>
-      </c>
-      <c r="J20" s="13">
-        <v>1412</v>
-      </c>
-      <c r="K20" s="13">
-        <v>1338</v>
-      </c>
-      <c r="L20" s="13">
-        <v>1416</v>
-      </c>
-      <c r="M20" s="13">
-        <v>1442</v>
-      </c>
-      <c r="N20" s="13">
-        <v>1442</v>
-      </c>
-      <c r="O20" s="13">
-        <v>1429</v>
-      </c>
-      <c r="P20" s="13">
-        <v>1457</v>
-      </c>
-      <c r="Q20" s="13">
-        <v>1430</v>
-      </c>
-      <c r="R20" s="13">
-        <v>1426</v>
-      </c>
-      <c r="S20" s="13">
-        <v>1433</v>
-      </c>
-      <c r="T20" s="13">
-        <v>1407</v>
-      </c>
-      <c r="U20" s="13">
-        <v>988</v>
-      </c>
-      <c r="V20" s="13">
-        <v>677</v>
-      </c>
-      <c r="W20" s="13">
-        <v>1238</v>
-      </c>
-      <c r="X20" s="13">
-        <v>1183</v>
-      </c>
-      <c r="Y20" s="13">
-        <v>1407</v>
-      </c>
-      <c r="Z20" s="13">
-        <v>512</v>
-      </c>
-      <c r="AA20" s="13">
-        <v>857</v>
-      </c>
-      <c r="AB20" s="13">
-        <v>1360</v>
-      </c>
-      <c r="AC20" s="13">
-        <v>1395</v>
-      </c>
-      <c r="AD20" s="13">
-        <v>1356</v>
-      </c>
-      <c r="AE20" s="13">
-        <v>1367</v>
-      </c>
-      <c r="AF20" s="13">
-        <v>1403</v>
-      </c>
-      <c r="AG20" s="13">
-        <v>977</v>
-      </c>
-      <c r="AH20" s="13">
-        <v>806</v>
-      </c>
-      <c r="AI20" s="13">
-        <v>1334</v>
-      </c>
-      <c r="AJ20" s="13">
-        <v>1397</v>
-      </c>
-      <c r="AK20" s="13">
-        <v>1412</v>
-      </c>
-      <c r="AL20" s="13">
-        <v>1420</v>
-      </c>
-      <c r="AM20" s="13">
-        <v>1346</v>
-      </c>
-      <c r="AN20" s="13">
-        <v>1332</v>
-      </c>
-      <c r="AO20" s="13">
-        <v>1316</v>
-      </c>
-      <c r="AP20" s="13">
-        <v>1289</v>
-      </c>
-      <c r="AQ20" s="13">
-        <v>1345</v>
-      </c>
-      <c r="AR20" s="13">
-        <v>1355</v>
-      </c>
-      <c r="AS20" s="13">
-        <v>1272</v>
-      </c>
-      <c r="AT20" s="13">
-        <v>0</v>
-      </c>
-      <c r="AU20" s="13">
-        <v>1205</v>
-      </c>
-      <c r="AV20" s="13">
-        <v>1341</v>
-      </c>
-      <c r="AW20" s="13">
+      <c r="AY20" s="13">
         <v>1350</v>
       </c>
-      <c r="AX20" s="13">
-        <v>1331</v>
-      </c>
-      <c r="AY20" s="13">
-        <v>1366</v>
-      </c>
       <c r="AZ20" s="13">
-        <v>1380</v>
+        <v>762</v>
       </c>
       <c r="BA20" s="13">
-        <v>1350</v>
+        <v>1260</v>
       </c>
       <c r="BB20" s="13">
-        <v>762</v>
+        <v>757</v>
       </c>
     </row>
     <row r="21" spans="2:54" x14ac:dyDescent="0.3">
@@ -3079,17 +3079,17 @@
       <c r="U21" s="11">
         <v>0</v>
       </c>
-      <c r="V21" s="11">
-        <v>0</v>
-      </c>
-      <c r="W21" s="11">
-        <v>0</v>
-      </c>
-      <c r="X21" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="Y21" s="11" t="s">
-        <v>60</v>
+      <c r="V21" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="W21" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="X21" s="11">
+        <v>0</v>
+      </c>
+      <c r="Y21" s="11">
+        <v>0</v>
       </c>
       <c r="Z21" s="11">
         <v>0</v>
@@ -3115,11 +3115,11 @@
       <c r="AG21" s="11">
         <v>0</v>
       </c>
-      <c r="AH21" s="11">
-        <v>0</v>
-      </c>
-      <c r="AI21" s="11">
-        <v>0</v>
+      <c r="AH21" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="AI21" s="11" t="s">
+        <v>60</v>
       </c>
       <c r="AJ21" s="11" t="s">
         <v>60</v>
@@ -3238,17 +3238,17 @@
       <c r="U22" s="13">
         <v>0</v>
       </c>
-      <c r="V22" s="13">
-        <v>0</v>
-      </c>
-      <c r="W22" s="13">
-        <v>0</v>
-      </c>
-      <c r="X22" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="Y22" s="13" t="s">
-        <v>60</v>
+      <c r="V22" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="W22" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="X22" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y22" s="13">
+        <v>0</v>
       </c>
       <c r="Z22" s="13">
         <v>0</v>
@@ -3310,14 +3310,14 @@
       <c r="AS22" s="13">
         <v>0</v>
       </c>
-      <c r="AT22" s="13">
-        <v>0</v>
-      </c>
-      <c r="AU22" s="13">
-        <v>0</v>
-      </c>
-      <c r="AV22" s="13">
-        <v>0</v>
+      <c r="AT22" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="AU22" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="AV22" s="13" t="s">
+        <v>60</v>
       </c>
       <c r="AW22" s="13" t="s">
         <v>60</v>
@@ -3556,17 +3556,17 @@
       <c r="U24" s="13">
         <v>0</v>
       </c>
-      <c r="V24" s="13">
-        <v>0</v>
-      </c>
-      <c r="W24" s="13">
-        <v>0</v>
-      </c>
-      <c r="X24" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="Y24" s="13" t="s">
-        <v>60</v>
+      <c r="V24" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="W24" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="X24" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y24" s="13">
+        <v>0</v>
       </c>
       <c r="Z24" s="13">
         <v>0</v>
@@ -3628,14 +3628,14 @@
       <c r="AS24" s="13">
         <v>0</v>
       </c>
-      <c r="AT24" s="13">
-        <v>0</v>
-      </c>
-      <c r="AU24" s="13">
-        <v>0</v>
-      </c>
-      <c r="AV24" s="13">
-        <v>0</v>
+      <c r="AT24" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="AU24" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="AV24" s="13" t="s">
+        <v>60</v>
       </c>
       <c r="AW24" s="13" t="s">
         <v>60</v>
@@ -3715,17 +3715,17 @@
       <c r="U25" s="11">
         <v>0</v>
       </c>
-      <c r="V25" s="11">
-        <v>0</v>
-      </c>
-      <c r="W25" s="11">
-        <v>0</v>
-      </c>
-      <c r="X25" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="Y25" s="11" t="s">
-        <v>60</v>
+      <c r="V25" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="W25" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="X25" s="11">
+        <v>0</v>
+      </c>
+      <c r="Y25" s="11">
+        <v>0</v>
       </c>
       <c r="Z25" s="11">
         <v>0</v>
@@ -3751,11 +3751,11 @@
       <c r="AG25" s="11">
         <v>0</v>
       </c>
-      <c r="AH25" s="11">
-        <v>0</v>
-      </c>
-      <c r="AI25" s="11">
-        <v>0</v>
+      <c r="AH25" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="AI25" s="11" t="s">
+        <v>60</v>
       </c>
       <c r="AJ25" s="11" t="s">
         <v>60</v>
@@ -3935,11 +3935,11 @@
       <c r="W27" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="X27" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="Y27" s="17" t="s">
-        <v>60</v>
+      <c r="X27" s="17">
+        <v>0</v>
+      </c>
+      <c r="Y27" s="17">
+        <v>0</v>
       </c>
       <c r="Z27" s="17">
         <v>0</v>
@@ -4036,154 +4036,154 @@
       <c r="C28" s="19"/>
       <c r="D28" s="19"/>
       <c r="E28" s="19">
-        <v>120518</v>
+        <v>116416</v>
       </c>
       <c r="F28" s="19">
-        <v>116490</v>
+        <v>116389</v>
       </c>
       <c r="G28" s="19">
-        <v>116416</v>
+        <v>116355</v>
       </c>
       <c r="H28" s="19">
-        <v>116389</v>
+        <v>116390</v>
       </c>
       <c r="I28" s="19">
-        <v>116355</v>
+        <v>113133</v>
       </c>
       <c r="J28" s="19">
-        <v>116390</v>
+        <v>121247</v>
       </c>
       <c r="K28" s="19">
-        <v>113133</v>
+        <v>121336</v>
       </c>
       <c r="L28" s="19">
-        <v>121247</v>
+        <v>121357</v>
       </c>
       <c r="M28" s="19">
-        <v>121336</v>
+        <v>121093</v>
       </c>
       <c r="N28" s="19">
-        <v>121357</v>
+        <v>121022</v>
       </c>
       <c r="O28" s="19">
-        <v>121093</v>
+        <v>121171</v>
       </c>
       <c r="P28" s="19">
-        <v>121022</v>
+        <v>117290</v>
       </c>
       <c r="Q28" s="19">
-        <v>121171</v>
+        <v>115785</v>
       </c>
       <c r="R28" s="19">
-        <v>117290</v>
+        <v>109914</v>
       </c>
       <c r="S28" s="19">
-        <v>115785</v>
+        <v>85668</v>
       </c>
       <c r="T28" s="19">
-        <v>109914</v>
+        <v>44607</v>
       </c>
       <c r="U28" s="19">
-        <v>85668</v>
+        <v>87865</v>
       </c>
       <c r="V28" s="19">
-        <v>44607</v>
+        <v>88919</v>
       </c>
       <c r="W28" s="19">
-        <v>87865</v>
+        <v>105586</v>
       </c>
       <c r="X28" s="19">
-        <v>88919</v>
+        <v>34972</v>
       </c>
       <c r="Y28" s="19">
-        <v>105586</v>
+        <v>72923</v>
       </c>
       <c r="Z28" s="19">
-        <v>34972</v>
+        <v>120974</v>
       </c>
       <c r="AA28" s="19">
-        <v>72923</v>
+        <v>121050</v>
       </c>
       <c r="AB28" s="19">
-        <v>120974</v>
+        <v>116586</v>
       </c>
       <c r="AC28" s="19">
-        <v>121050</v>
+        <v>116652</v>
       </c>
       <c r="AD28" s="19">
-        <v>116586</v>
+        <v>114595</v>
       </c>
       <c r="AE28" s="19">
-        <v>116652</v>
+        <v>59733</v>
       </c>
       <c r="AF28" s="19">
-        <v>114595</v>
+        <v>62094</v>
       </c>
       <c r="AG28" s="19">
-        <v>59733</v>
+        <v>114880</v>
       </c>
       <c r="AH28" s="19">
-        <v>62094</v>
+        <v>120590</v>
       </c>
       <c r="AI28" s="19">
-        <v>114880</v>
+        <v>120594</v>
       </c>
       <c r="AJ28" s="19">
-        <v>120590</v>
+        <v>119778</v>
       </c>
       <c r="AK28" s="19">
-        <v>120594</v>
+        <v>120455</v>
       </c>
       <c r="AL28" s="19">
-        <v>119778</v>
+        <v>120506</v>
       </c>
       <c r="AM28" s="19">
-        <v>120455</v>
+        <v>114844</v>
       </c>
       <c r="AN28" s="19">
-        <v>120506</v>
+        <v>116658</v>
       </c>
       <c r="AO28" s="19">
-        <v>114844</v>
+        <v>116629</v>
       </c>
       <c r="AP28" s="19">
-        <v>116658</v>
+        <v>116620</v>
       </c>
       <c r="AQ28" s="19">
-        <v>116629</v>
+        <v>104475</v>
       </c>
       <c r="AR28" s="19">
-        <v>116620</v>
+        <v>12052</v>
       </c>
       <c r="AS28" s="19">
-        <v>104475</v>
+        <v>106611</v>
       </c>
       <c r="AT28" s="19">
-        <v>12052</v>
+        <v>120206</v>
       </c>
       <c r="AU28" s="19">
-        <v>106611</v>
+        <v>120219</v>
       </c>
       <c r="AV28" s="19">
-        <v>120206</v>
+        <v>119239</v>
       </c>
       <c r="AW28" s="19">
-        <v>120219</v>
+        <v>120095</v>
       </c>
       <c r="AX28" s="19">
-        <v>119239</v>
+        <v>120200</v>
       </c>
       <c r="AY28" s="19">
-        <v>120095</v>
+        <v>120458</v>
       </c>
       <c r="AZ28" s="19">
-        <v>120200</v>
+        <v>111172</v>
       </c>
       <c r="BA28" s="19">
-        <v>120458</v>
+        <v>116134</v>
       </c>
       <c r="BB28" s="19">
-        <v>111172</v>
+        <v>98182</v>
       </c>
     </row>
     <row r="29" spans="2:54" x14ac:dyDescent="0.3">
@@ -4680,16 +4680,16 @@
         <v>0</v>
       </c>
       <c r="V35" s="11">
-        <v>0</v>
+        <v>12044</v>
       </c>
       <c r="W35" s="11">
-        <v>0</v>
+        <v>44146</v>
       </c>
       <c r="X35" s="11">
-        <v>12044</v>
+        <v>0</v>
       </c>
       <c r="Y35" s="11">
-        <v>44146</v>
+        <v>0</v>
       </c>
       <c r="Z35" s="11">
         <v>0</v>
@@ -4716,67 +4716,67 @@
         <v>0</v>
       </c>
       <c r="AH35" s="11">
-        <v>0</v>
+        <v>10772</v>
       </c>
       <c r="AI35" s="11">
-        <v>0</v>
+        <v>11744</v>
       </c>
       <c r="AJ35" s="11">
-        <v>10772</v>
+        <v>28965</v>
       </c>
       <c r="AK35" s="11">
-        <v>11744</v>
+        <v>31368</v>
       </c>
       <c r="AL35" s="11">
-        <v>28965</v>
+        <v>16854</v>
       </c>
       <c r="AM35" s="11">
-        <v>31368</v>
+        <v>43079</v>
       </c>
       <c r="AN35" s="11">
-        <v>16854</v>
+        <v>31384</v>
       </c>
       <c r="AO35" s="11">
-        <v>43079</v>
+        <v>13733</v>
       </c>
       <c r="AP35" s="11">
-        <v>31384</v>
+        <v>33445</v>
       </c>
       <c r="AQ35" s="11">
-        <v>13733</v>
+        <v>3346</v>
       </c>
       <c r="AR35" s="11">
-        <v>33445</v>
+        <v>6378</v>
       </c>
       <c r="AS35" s="11">
-        <v>3346</v>
+        <v>25855</v>
       </c>
       <c r="AT35" s="11">
-        <v>6378</v>
+        <v>11734</v>
       </c>
       <c r="AU35" s="11">
-        <v>25855</v>
+        <v>11847</v>
       </c>
       <c r="AV35" s="11">
-        <v>11734</v>
+        <v>40787</v>
       </c>
       <c r="AW35" s="11">
-        <v>11847</v>
+        <v>38770</v>
       </c>
       <c r="AX35" s="11">
-        <v>40787</v>
+        <v>77842</v>
       </c>
       <c r="AY35" s="11">
-        <v>38770</v>
+        <v>26739</v>
       </c>
       <c r="AZ35" s="11">
-        <v>77842</v>
+        <v>30565</v>
       </c>
       <c r="BA35" s="11">
-        <v>26739</v>
+        <v>22900</v>
       </c>
       <c r="BB35" s="11">
-        <v>30565</v>
+        <v>19039</v>
       </c>
     </row>
     <row r="36" spans="2:54" x14ac:dyDescent="0.3">
@@ -4875,67 +4875,67 @@
         <v>0</v>
       </c>
       <c r="AH36" s="13">
-        <v>0</v>
+        <v>263</v>
       </c>
       <c r="AI36" s="13">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="AJ36" s="13">
-        <v>263</v>
+        <v>218</v>
       </c>
       <c r="AK36" s="13">
-        <v>180</v>
+        <v>119</v>
       </c>
       <c r="AL36" s="13">
-        <v>218</v>
+        <v>0</v>
       </c>
       <c r="AM36" s="13">
-        <v>119</v>
+        <v>39</v>
       </c>
       <c r="AN36" s="13">
-        <v>0</v>
+        <v>197</v>
       </c>
       <c r="AO36" s="13">
-        <v>39</v>
+        <v>858</v>
       </c>
       <c r="AP36" s="13">
-        <v>197</v>
+        <v>1265</v>
       </c>
       <c r="AQ36" s="13">
-        <v>858</v>
+        <v>1315</v>
       </c>
       <c r="AR36" s="13">
-        <v>1265</v>
+        <v>278</v>
       </c>
       <c r="AS36" s="13">
-        <v>1315</v>
+        <v>80</v>
       </c>
       <c r="AT36" s="13">
-        <v>278</v>
+        <v>1449</v>
       </c>
       <c r="AU36" s="13">
-        <v>80</v>
+        <v>2214</v>
       </c>
       <c r="AV36" s="13">
-        <v>119</v>
+        <v>2569</v>
       </c>
       <c r="AW36" s="13">
-        <v>2214</v>
+        <v>2294</v>
       </c>
       <c r="AX36" s="13">
-        <v>2569</v>
+        <v>3097</v>
       </c>
       <c r="AY36" s="13">
-        <v>2294</v>
+        <v>3751</v>
       </c>
       <c r="AZ36" s="13">
-        <v>3097</v>
+        <v>4159</v>
       </c>
       <c r="BA36" s="13">
-        <v>3751</v>
+        <v>3758</v>
       </c>
       <c r="BB36" s="13">
-        <v>4159</v>
+        <v>1897</v>
       </c>
     </row>
     <row r="37" spans="2:54" x14ac:dyDescent="0.3">
@@ -4947,154 +4947,154 @@
       </c>
       <c r="D37" s="11"/>
       <c r="E37" s="11">
-        <v>5671</v>
+        <v>3872</v>
       </c>
       <c r="F37" s="11">
-        <v>5529</v>
+        <v>3430</v>
       </c>
       <c r="G37" s="11">
-        <v>3872</v>
+        <v>2309</v>
       </c>
       <c r="H37" s="11">
-        <v>3430</v>
+        <v>3334</v>
       </c>
       <c r="I37" s="11">
-        <v>2309</v>
+        <v>4397</v>
       </c>
       <c r="J37" s="11">
-        <v>3334</v>
+        <v>3554</v>
       </c>
       <c r="K37" s="11">
-        <v>4397</v>
+        <v>4881</v>
       </c>
       <c r="L37" s="11">
-        <v>3554</v>
+        <v>3954</v>
       </c>
       <c r="M37" s="11">
-        <v>4881</v>
+        <v>2403</v>
       </c>
       <c r="N37" s="11">
-        <v>3954</v>
+        <v>3721</v>
       </c>
       <c r="O37" s="11">
-        <v>2403</v>
+        <v>3236</v>
       </c>
       <c r="P37" s="11">
-        <v>3721</v>
+        <v>3315</v>
       </c>
       <c r="Q37" s="11">
-        <v>3236</v>
+        <v>7335</v>
       </c>
       <c r="R37" s="11">
-        <v>3315</v>
+        <v>5347</v>
       </c>
       <c r="S37" s="11">
-        <v>7335</v>
+        <v>3601</v>
       </c>
       <c r="T37" s="11">
-        <v>5347</v>
+        <v>722</v>
       </c>
       <c r="U37" s="11">
-        <v>3601</v>
+        <v>360</v>
       </c>
       <c r="V37" s="11">
-        <v>722</v>
+        <v>460</v>
       </c>
       <c r="W37" s="11">
-        <v>360</v>
+        <v>1499</v>
       </c>
       <c r="X37" s="11">
-        <v>460</v>
+        <v>827</v>
       </c>
       <c r="Y37" s="11">
-        <v>1499</v>
+        <v>1291</v>
       </c>
       <c r="Z37" s="11">
-        <v>827</v>
+        <v>4250</v>
       </c>
       <c r="AA37" s="11">
-        <v>1291</v>
+        <v>3394</v>
       </c>
       <c r="AB37" s="11">
-        <v>4250</v>
+        <v>1609</v>
       </c>
       <c r="AC37" s="11">
-        <v>3394</v>
+        <v>3248</v>
       </c>
       <c r="AD37" s="11">
-        <v>1609</v>
+        <v>2191</v>
       </c>
       <c r="AE37" s="11">
-        <v>3248</v>
+        <v>1030</v>
       </c>
       <c r="AF37" s="11">
-        <v>2191</v>
+        <v>591</v>
       </c>
       <c r="AG37" s="11">
-        <v>1030</v>
+        <v>2746</v>
       </c>
       <c r="AH37" s="11">
-        <v>591</v>
+        <v>2603</v>
       </c>
       <c r="AI37" s="11">
-        <v>2746</v>
+        <v>1579</v>
       </c>
       <c r="AJ37" s="11">
-        <v>2603</v>
+        <v>913</v>
       </c>
       <c r="AK37" s="11">
-        <v>1579</v>
+        <v>230</v>
       </c>
       <c r="AL37" s="11">
-        <v>913</v>
+        <v>1589</v>
       </c>
       <c r="AM37" s="11">
-        <v>230</v>
+        <v>1755</v>
       </c>
       <c r="AN37" s="11">
-        <v>1589</v>
+        <v>385</v>
       </c>
       <c r="AO37" s="11">
-        <v>1755</v>
+        <v>1940</v>
       </c>
       <c r="AP37" s="11">
-        <v>385</v>
+        <v>955</v>
       </c>
       <c r="AQ37" s="11">
-        <v>1940</v>
+        <v>430</v>
       </c>
       <c r="AR37" s="11">
-        <v>955</v>
+        <v>265</v>
       </c>
       <c r="AS37" s="11">
-        <v>430</v>
+        <v>474</v>
       </c>
       <c r="AT37" s="11">
-        <v>265</v>
+        <v>910</v>
       </c>
       <c r="AU37" s="11">
-        <v>474</v>
+        <v>553</v>
       </c>
       <c r="AV37" s="11">
-        <v>910</v>
+        <v>296</v>
       </c>
       <c r="AW37" s="11">
-        <v>553</v>
+        <v>2975</v>
       </c>
       <c r="AX37" s="11">
-        <v>296</v>
+        <v>920</v>
       </c>
       <c r="AY37" s="11">
-        <v>2975</v>
+        <v>110</v>
       </c>
       <c r="AZ37" s="11">
-        <v>920</v>
+        <v>1066</v>
       </c>
       <c r="BA37" s="11">
-        <v>110</v>
+        <v>594</v>
       </c>
       <c r="BB37" s="11">
-        <v>1066</v>
+        <v>4242</v>
       </c>
     </row>
     <row r="38" spans="2:54" x14ac:dyDescent="0.3">
@@ -5106,97 +5106,97 @@
       </c>
       <c r="D38" s="13"/>
       <c r="E38" s="13">
-        <v>14720</v>
+        <v>18597</v>
       </c>
       <c r="F38" s="13">
-        <v>9530</v>
+        <v>29930</v>
       </c>
       <c r="G38" s="13">
-        <v>18597</v>
+        <v>37541</v>
       </c>
       <c r="H38" s="13">
-        <v>29930</v>
+        <v>35504</v>
       </c>
       <c r="I38" s="13">
-        <v>37541</v>
+        <v>31575</v>
       </c>
       <c r="J38" s="13">
-        <v>35504</v>
+        <v>10253</v>
       </c>
       <c r="K38" s="13">
-        <v>31575</v>
+        <v>15388</v>
       </c>
       <c r="L38" s="13">
-        <v>10253</v>
+        <v>44718</v>
       </c>
       <c r="M38" s="13">
-        <v>15388</v>
+        <v>34852</v>
       </c>
       <c r="N38" s="13">
-        <v>44718</v>
+        <v>27926</v>
       </c>
       <c r="O38" s="13">
-        <v>34852</v>
+        <v>31680</v>
       </c>
       <c r="P38" s="13">
-        <v>27926</v>
+        <v>27241</v>
       </c>
       <c r="Q38" s="13">
-        <v>31680</v>
+        <v>24236</v>
       </c>
       <c r="R38" s="13">
-        <v>27241</v>
+        <v>37692</v>
       </c>
       <c r="S38" s="13">
-        <v>24236</v>
+        <v>48917</v>
       </c>
       <c r="T38" s="13">
-        <v>37692</v>
+        <v>8861</v>
       </c>
       <c r="U38" s="13">
-        <v>48917</v>
-      </c>
-      <c r="V38" s="13">
-        <v>8861</v>
-      </c>
-      <c r="W38" s="13">
         <v>44470</v>
       </c>
-      <c r="X38" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="Y38" s="13" t="s">
-        <v>60</v>
+      <c r="V38" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="W38" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="X38" s="13">
+        <v>7613</v>
+      </c>
+      <c r="Y38" s="13">
+        <v>7621</v>
       </c>
       <c r="Z38" s="13">
-        <v>7613</v>
+        <v>17148</v>
       </c>
       <c r="AA38" s="13">
-        <v>7621</v>
+        <v>23002</v>
       </c>
       <c r="AB38" s="13">
-        <v>17148</v>
+        <v>22386</v>
       </c>
       <c r="AC38" s="13">
-        <v>23002</v>
+        <v>26850</v>
       </c>
       <c r="AD38" s="13">
-        <v>22386</v>
+        <v>40056</v>
       </c>
       <c r="AE38" s="13">
-        <v>26850</v>
+        <v>35203</v>
       </c>
       <c r="AF38" s="13">
-        <v>40056</v>
+        <v>13981</v>
       </c>
       <c r="AG38" s="13">
-        <v>35203</v>
-      </c>
-      <c r="AH38" s="13">
-        <v>13981</v>
-      </c>
-      <c r="AI38" s="13">
         <v>21137</v>
+      </c>
+      <c r="AH38" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="AI38" s="13" t="s">
+        <v>60</v>
       </c>
       <c r="AJ38" s="13" t="s">
         <v>60</v>
@@ -5352,67 +5352,67 @@
         <v>0</v>
       </c>
       <c r="AH39" s="11">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AI39" s="11">
-        <v>0</v>
+        <v>392</v>
       </c>
       <c r="AJ39" s="11">
-        <v>100</v>
+        <v>1214</v>
       </c>
       <c r="AK39" s="11">
-        <v>392</v>
+        <v>507</v>
       </c>
       <c r="AL39" s="11">
-        <v>1214</v>
+        <v>508</v>
       </c>
       <c r="AM39" s="11">
+        <v>1733</v>
+      </c>
+      <c r="AN39" s="11">
+        <v>534</v>
+      </c>
+      <c r="AO39" s="11">
+        <v>476</v>
+      </c>
+      <c r="AP39" s="11">
+        <v>407</v>
+      </c>
+      <c r="AQ39" s="11">
+        <v>200</v>
+      </c>
+      <c r="AR39" s="11">
+        <v>200</v>
+      </c>
+      <c r="AS39" s="11">
+        <v>300</v>
+      </c>
+      <c r="AT39" s="11">
         <v>507</v>
       </c>
-      <c r="AN39" s="11">
-        <v>508</v>
-      </c>
-      <c r="AO39" s="11">
-        <v>1733</v>
-      </c>
-      <c r="AP39" s="11">
-        <v>534</v>
-      </c>
-      <c r="AQ39" s="11">
-        <v>476</v>
-      </c>
-      <c r="AR39" s="11">
-        <v>407</v>
-      </c>
-      <c r="AS39" s="11">
-        <v>200</v>
-      </c>
-      <c r="AT39" s="11">
-        <v>200</v>
-      </c>
       <c r="AU39" s="11">
-        <v>300</v>
+        <v>460</v>
       </c>
       <c r="AV39" s="11">
-        <v>507</v>
+        <v>345</v>
       </c>
       <c r="AW39" s="11">
-        <v>460</v>
+        <v>0</v>
       </c>
       <c r="AX39" s="11">
-        <v>345</v>
+        <v>0</v>
       </c>
       <c r="AY39" s="11">
-        <v>0</v>
+        <v>598</v>
       </c>
       <c r="AZ39" s="11">
         <v>0</v>
       </c>
       <c r="BA39" s="11">
-        <v>598</v>
+        <v>674</v>
       </c>
       <c r="BB39" s="11">
-        <v>0</v>
+        <v>410</v>
       </c>
     </row>
     <row r="40" spans="2:54" x14ac:dyDescent="0.3">
@@ -5477,11 +5477,11 @@
       <c r="V40" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="W40" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="X40" s="13" t="s">
-        <v>60</v>
+      <c r="W40" s="13">
+        <v>0</v>
+      </c>
+      <c r="X40" s="13">
+        <v>0</v>
       </c>
       <c r="Y40" s="13">
         <v>0</v>
@@ -5510,11 +5510,11 @@
       <c r="AG40" s="13">
         <v>0</v>
       </c>
-      <c r="AH40" s="13">
-        <v>0</v>
-      </c>
-      <c r="AI40" s="13">
-        <v>0</v>
+      <c r="AH40" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="AI40" s="13" t="s">
+        <v>60</v>
       </c>
       <c r="AJ40" s="13" t="s">
         <v>60</v>
@@ -5633,18 +5633,18 @@
       <c r="U41" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="V41" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="W41" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="X41" s="11">
+      <c r="V41" s="11">
         <v>1289</v>
       </c>
-      <c r="Y41" s="11">
+      <c r="W41" s="11">
         <v>1204</v>
       </c>
+      <c r="X41" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="Y41" s="11" t="s">
+        <v>60</v>
+      </c>
       <c r="Z41" s="11" t="s">
         <v>60</v>
       </c>
@@ -5705,32 +5705,32 @@
       <c r="AS41" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="AT41" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="AU41" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="AV41" s="11" t="s">
-        <v>60</v>
+      <c r="AT41" s="11">
+        <v>703</v>
+      </c>
+      <c r="AU41" s="11">
+        <v>1355</v>
+      </c>
+      <c r="AV41" s="11">
+        <v>1574</v>
       </c>
       <c r="AW41" s="11">
-        <v>1355</v>
+        <v>1507</v>
       </c>
       <c r="AX41" s="11">
-        <v>1574</v>
+        <v>1682</v>
       </c>
       <c r="AY41" s="11">
-        <v>1507</v>
+        <v>1252</v>
       </c>
       <c r="AZ41" s="11">
-        <v>1682</v>
+        <v>1157</v>
       </c>
       <c r="BA41" s="11">
-        <v>1252</v>
+        <v>1499</v>
       </c>
       <c r="BB41" s="11">
-        <v>1157</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="42" spans="2:54" x14ac:dyDescent="0.3">
@@ -6219,97 +6219,97 @@
       </c>
       <c r="D45" s="11"/>
       <c r="E45" s="11">
-        <v>74</v>
+        <v>230</v>
       </c>
       <c r="F45" s="11">
-        <v>21</v>
+        <v>496</v>
       </c>
       <c r="G45" s="11">
-        <v>230</v>
+        <v>387</v>
       </c>
       <c r="H45" s="11">
-        <v>496</v>
+        <v>285</v>
       </c>
       <c r="I45" s="11">
-        <v>387</v>
+        <v>552</v>
       </c>
       <c r="J45" s="11">
-        <v>285</v>
+        <v>414</v>
       </c>
       <c r="K45" s="11">
-        <v>552</v>
+        <v>118</v>
       </c>
       <c r="L45" s="11">
-        <v>414</v>
+        <v>83</v>
       </c>
       <c r="M45" s="11">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="N45" s="11">
-        <v>83</v>
+        <v>104</v>
       </c>
       <c r="O45" s="11">
-        <v>123</v>
+        <v>146</v>
       </c>
       <c r="P45" s="11">
-        <v>104</v>
+        <v>128</v>
       </c>
       <c r="Q45" s="11">
-        <v>146</v>
+        <v>80</v>
       </c>
       <c r="R45" s="11">
-        <v>128</v>
+        <v>41</v>
       </c>
       <c r="S45" s="11">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="T45" s="11">
-        <v>41</v>
+        <v>0</v>
       </c>
       <c r="U45" s="11">
         <v>0</v>
       </c>
-      <c r="V45" s="11">
-        <v>0</v>
-      </c>
-      <c r="W45" s="11">
-        <v>0</v>
-      </c>
-      <c r="X45" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="Y45" s="11" t="s">
-        <v>60</v>
+      <c r="V45" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="W45" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="X45" s="11">
+        <v>0</v>
+      </c>
+      <c r="Y45" s="11">
+        <v>0</v>
       </c>
       <c r="Z45" s="11">
         <v>0</v>
       </c>
       <c r="AA45" s="11">
-        <v>0</v>
+        <v>139</v>
       </c>
       <c r="AB45" s="11">
-        <v>0</v>
+        <v>771</v>
       </c>
       <c r="AC45" s="11">
-        <v>139</v>
+        <v>523</v>
       </c>
       <c r="AD45" s="11">
-        <v>771</v>
+        <v>529</v>
       </c>
       <c r="AE45" s="11">
-        <v>523</v>
+        <v>365</v>
       </c>
       <c r="AF45" s="11">
-        <v>529</v>
+        <v>0</v>
       </c>
       <c r="AG45" s="11">
-        <v>365</v>
-      </c>
-      <c r="AH45" s="11">
-        <v>0</v>
-      </c>
-      <c r="AI45" s="11">
         <v>142</v>
+      </c>
+      <c r="AH45" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="AI45" s="11" t="s">
+        <v>60</v>
       </c>
       <c r="AJ45" s="11" t="s">
         <v>60</v>
@@ -6378,136 +6378,136 @@
       </c>
       <c r="D46" s="13"/>
       <c r="E46" s="13">
-        <v>1802</v>
+        <v>1576</v>
       </c>
       <c r="F46" s="13">
-        <v>1618</v>
+        <v>1807</v>
       </c>
       <c r="G46" s="13">
-        <v>1576</v>
+        <v>1836</v>
       </c>
       <c r="H46" s="13">
-        <v>1807</v>
+        <v>1937</v>
       </c>
       <c r="I46" s="13">
-        <v>1836</v>
+        <v>1898</v>
       </c>
       <c r="J46" s="13">
-        <v>1937</v>
+        <v>2380</v>
       </c>
       <c r="K46" s="13">
-        <v>1898</v>
+        <v>2579</v>
       </c>
       <c r="L46" s="13">
-        <v>2380</v>
+        <v>2211</v>
       </c>
       <c r="M46" s="13">
-        <v>2579</v>
+        <v>2241</v>
       </c>
       <c r="N46" s="13">
-        <v>2211</v>
+        <v>1746</v>
       </c>
       <c r="O46" s="13">
-        <v>2241</v>
+        <v>1986</v>
       </c>
       <c r="P46" s="13">
-        <v>1746</v>
+        <v>2057</v>
       </c>
       <c r="Q46" s="13">
-        <v>1986</v>
+        <v>2142</v>
       </c>
       <c r="R46" s="13">
-        <v>2057</v>
+        <v>2216</v>
       </c>
       <c r="S46" s="13">
-        <v>2142</v>
+        <v>2188</v>
       </c>
       <c r="T46" s="13">
-        <v>2216</v>
+        <v>1665</v>
       </c>
       <c r="U46" s="13">
-        <v>2188</v>
-      </c>
-      <c r="V46" s="13">
-        <v>1665</v>
-      </c>
-      <c r="W46" s="13">
-        <v>0</v>
-      </c>
-      <c r="X46" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="Y46" s="13" t="s">
-        <v>60</v>
+        <v>0</v>
+      </c>
+      <c r="V46" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="W46" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="X46" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y46" s="13">
+        <v>88</v>
       </c>
       <c r="Z46" s="13">
-        <v>0</v>
+        <v>571</v>
       </c>
       <c r="AA46" s="13">
-        <v>88</v>
+        <v>1516</v>
       </c>
       <c r="AB46" s="13">
-        <v>571</v>
+        <v>1949</v>
       </c>
       <c r="AC46" s="13">
-        <v>1516</v>
+        <v>1826</v>
       </c>
       <c r="AD46" s="13">
-        <v>1949</v>
+        <v>1687</v>
       </c>
       <c r="AE46" s="13">
-        <v>1826</v>
+        <v>824</v>
       </c>
       <c r="AF46" s="13">
-        <v>1687</v>
+        <v>0</v>
       </c>
       <c r="AG46" s="13">
-        <v>824</v>
+        <v>732</v>
       </c>
       <c r="AH46" s="13">
-        <v>0</v>
+        <v>1942</v>
       </c>
       <c r="AI46" s="13">
-        <v>732</v>
+        <v>1921</v>
       </c>
       <c r="AJ46" s="13">
-        <v>1942</v>
+        <v>1491</v>
       </c>
       <c r="AK46" s="13">
-        <v>1921</v>
+        <v>1444</v>
       </c>
       <c r="AL46" s="13">
-        <v>1491</v>
+        <v>1321</v>
       </c>
       <c r="AM46" s="13">
-        <v>1444</v>
+        <v>1181</v>
       </c>
       <c r="AN46" s="13">
-        <v>1321</v>
+        <v>1172</v>
       </c>
       <c r="AO46" s="13">
-        <v>1181</v>
+        <v>1918</v>
       </c>
       <c r="AP46" s="13">
-        <v>1172</v>
+        <v>2464</v>
       </c>
       <c r="AQ46" s="13">
-        <v>1918</v>
+        <v>2664</v>
       </c>
       <c r="AR46" s="13">
-        <v>2464</v>
+        <v>2048</v>
       </c>
       <c r="AS46" s="13">
-        <v>2664</v>
-      </c>
-      <c r="AT46" s="13">
-        <v>2048</v>
-      </c>
-      <c r="AU46" s="13">
         <v>1549</v>
       </c>
-      <c r="AV46" s="13">
-        <v>1330</v>
+      <c r="AT46" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="AU46" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="AV46" s="13" t="s">
+        <v>60</v>
       </c>
       <c r="AW46" s="13" t="s">
         <v>60</v>
@@ -6537,154 +6537,154 @@
       </c>
       <c r="D47" s="11"/>
       <c r="E47" s="11">
-        <v>16243</v>
+        <v>11109</v>
       </c>
       <c r="F47" s="11">
-        <v>25478</v>
+        <v>15799</v>
       </c>
       <c r="G47" s="11">
-        <v>11109</v>
+        <v>5220</v>
       </c>
       <c r="H47" s="11">
-        <v>15799</v>
+        <v>19404</v>
       </c>
       <c r="I47" s="11">
-        <v>5220</v>
+        <v>12454</v>
       </c>
       <c r="J47" s="11">
-        <v>19404</v>
+        <v>22154</v>
       </c>
       <c r="K47" s="11">
-        <v>12454</v>
+        <v>8285</v>
       </c>
       <c r="L47" s="11">
-        <v>22154</v>
+        <v>7633</v>
       </c>
       <c r="M47" s="11">
-        <v>8285</v>
+        <v>4591</v>
       </c>
       <c r="N47" s="11">
-        <v>7633</v>
+        <v>24565</v>
       </c>
       <c r="O47" s="11">
-        <v>4591</v>
+        <v>10944</v>
       </c>
       <c r="P47" s="11">
-        <v>24565</v>
+        <v>14989</v>
       </c>
       <c r="Q47" s="11">
-        <v>10944</v>
+        <v>26</v>
       </c>
       <c r="R47" s="11">
-        <v>14989</v>
+        <v>6682</v>
       </c>
       <c r="S47" s="11">
-        <v>26</v>
+        <v>4706</v>
       </c>
       <c r="T47" s="11">
-        <v>6682</v>
+        <v>4005</v>
       </c>
       <c r="U47" s="11">
-        <v>4706</v>
+        <v>18700</v>
       </c>
       <c r="V47" s="11">
-        <v>4005</v>
+        <v>22442</v>
       </c>
       <c r="W47" s="11">
-        <v>18700</v>
+        <v>21188</v>
       </c>
       <c r="X47" s="11">
-        <v>22442</v>
+        <v>6713</v>
       </c>
       <c r="Y47" s="11">
-        <v>21188</v>
+        <v>9897</v>
       </c>
       <c r="Z47" s="11">
-        <v>6713</v>
+        <v>16176</v>
       </c>
       <c r="AA47" s="11">
-        <v>9897</v>
+        <v>8603</v>
       </c>
       <c r="AB47" s="11">
-        <v>16176</v>
+        <v>16034</v>
       </c>
       <c r="AC47" s="11">
-        <v>8603</v>
+        <v>14940</v>
       </c>
       <c r="AD47" s="11">
-        <v>16034</v>
+        <v>16641</v>
       </c>
       <c r="AE47" s="11">
-        <v>14940</v>
+        <v>8217</v>
       </c>
       <c r="AF47" s="11">
-        <v>16641</v>
+        <v>7790</v>
       </c>
       <c r="AG47" s="11">
-        <v>8217</v>
+        <v>20719</v>
       </c>
       <c r="AH47" s="11">
-        <v>7790</v>
+        <v>26222</v>
       </c>
       <c r="AI47" s="11">
-        <v>20719</v>
+        <v>23595</v>
       </c>
       <c r="AJ47" s="11">
-        <v>26222</v>
+        <v>11048</v>
       </c>
       <c r="AK47" s="11">
-        <v>23595</v>
+        <v>16038</v>
       </c>
       <c r="AL47" s="11">
-        <v>11048</v>
+        <v>11798</v>
       </c>
       <c r="AM47" s="11">
-        <v>16038</v>
+        <v>11582</v>
       </c>
       <c r="AN47" s="11">
-        <v>11798</v>
+        <v>15692</v>
       </c>
       <c r="AO47" s="11">
-        <v>11582</v>
+        <v>16688</v>
       </c>
       <c r="AP47" s="11">
-        <v>15692</v>
+        <v>19395</v>
       </c>
       <c r="AQ47" s="11">
-        <v>16688</v>
+        <v>14541</v>
       </c>
       <c r="AR47" s="11">
-        <v>19395</v>
+        <v>10672</v>
       </c>
       <c r="AS47" s="11">
-        <v>14541</v>
+        <v>9504</v>
       </c>
       <c r="AT47" s="11">
-        <v>10672</v>
+        <v>15303</v>
       </c>
       <c r="AU47" s="11">
-        <v>9504</v>
+        <v>15558</v>
       </c>
       <c r="AV47" s="11">
-        <v>15303</v>
+        <v>17980</v>
       </c>
       <c r="AW47" s="11">
-        <v>15558</v>
+        <v>10974</v>
       </c>
       <c r="AX47" s="11">
-        <v>17980</v>
+        <v>1813</v>
       </c>
       <c r="AY47" s="11">
-        <v>10974</v>
+        <v>14934</v>
       </c>
       <c r="AZ47" s="11">
-        <v>1813</v>
+        <v>10860</v>
       </c>
       <c r="BA47" s="11">
-        <v>14934</v>
+        <v>14654</v>
       </c>
       <c r="BB47" s="11">
-        <v>10860</v>
+        <v>9411</v>
       </c>
     </row>
     <row r="48" spans="2:54" x14ac:dyDescent="0.3">
@@ -6696,136 +6696,136 @@
       </c>
       <c r="D48" s="13"/>
       <c r="E48" s="13">
-        <v>813</v>
+        <v>959</v>
       </c>
       <c r="F48" s="13">
-        <v>621</v>
+        <v>939</v>
       </c>
       <c r="G48" s="13">
-        <v>959</v>
+        <v>507</v>
       </c>
       <c r="H48" s="13">
-        <v>939</v>
+        <v>514</v>
       </c>
       <c r="I48" s="13">
-        <v>507</v>
+        <v>1011</v>
       </c>
       <c r="J48" s="13">
-        <v>514</v>
+        <v>619</v>
       </c>
       <c r="K48" s="13">
-        <v>1011</v>
+        <v>1975</v>
       </c>
       <c r="L48" s="13">
-        <v>619</v>
+        <v>861</v>
       </c>
       <c r="M48" s="13">
-        <v>1975</v>
+        <v>906</v>
       </c>
       <c r="N48" s="13">
-        <v>861</v>
+        <v>701</v>
       </c>
       <c r="O48" s="13">
-        <v>906</v>
+        <v>725</v>
       </c>
       <c r="P48" s="13">
-        <v>701</v>
+        <v>592</v>
       </c>
       <c r="Q48" s="13">
-        <v>725</v>
+        <v>729</v>
       </c>
       <c r="R48" s="13">
-        <v>592</v>
+        <v>1081</v>
       </c>
       <c r="S48" s="13">
-        <v>729</v>
+        <v>674</v>
       </c>
       <c r="T48" s="13">
-        <v>1081</v>
+        <v>145</v>
       </c>
       <c r="U48" s="13">
-        <v>674</v>
-      </c>
-      <c r="V48" s="13">
-        <v>145</v>
-      </c>
-      <c r="W48" s="13">
         <v>534</v>
       </c>
-      <c r="X48" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="Y48" s="13" t="s">
-        <v>60</v>
+      <c r="V48" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="W48" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="X48" s="13">
+        <v>1077</v>
+      </c>
+      <c r="Y48" s="13">
+        <v>1032</v>
       </c>
       <c r="Z48" s="13">
-        <v>1077</v>
+        <v>1405</v>
       </c>
       <c r="AA48" s="13">
-        <v>1032</v>
+        <v>1280</v>
       </c>
       <c r="AB48" s="13">
-        <v>1405</v>
+        <v>1189</v>
       </c>
       <c r="AC48" s="13">
-        <v>1280</v>
+        <v>1203</v>
       </c>
       <c r="AD48" s="13">
-        <v>1189</v>
+        <v>1061</v>
       </c>
       <c r="AE48" s="13">
-        <v>1203</v>
+        <v>760</v>
       </c>
       <c r="AF48" s="13">
-        <v>1061</v>
+        <v>543</v>
       </c>
       <c r="AG48" s="13">
-        <v>760</v>
+        <v>1552</v>
       </c>
       <c r="AH48" s="13">
-        <v>543</v>
+        <v>782</v>
       </c>
       <c r="AI48" s="13">
-        <v>1552</v>
+        <v>1245</v>
       </c>
       <c r="AJ48" s="13">
-        <v>782</v>
+        <v>1074</v>
       </c>
       <c r="AK48" s="13">
-        <v>1245</v>
+        <v>1133</v>
       </c>
       <c r="AL48" s="13">
-        <v>1074</v>
+        <v>687</v>
       </c>
       <c r="AM48" s="13">
-        <v>1133</v>
+        <v>1316</v>
       </c>
       <c r="AN48" s="13">
-        <v>687</v>
+        <v>1163</v>
       </c>
       <c r="AO48" s="13">
-        <v>1316</v>
+        <v>1194</v>
       </c>
       <c r="AP48" s="13">
-        <v>1163</v>
+        <v>1192</v>
       </c>
       <c r="AQ48" s="13">
-        <v>1194</v>
+        <v>1371</v>
       </c>
       <c r="AR48" s="13">
-        <v>1192</v>
+        <v>748</v>
       </c>
       <c r="AS48" s="13">
-        <v>1371</v>
-      </c>
-      <c r="AT48" s="13">
-        <v>748</v>
-      </c>
-      <c r="AU48" s="13">
         <v>788</v>
       </c>
-      <c r="AV48" s="13">
-        <v>703</v>
+      <c r="AT48" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="AU48" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="AV48" s="13" t="s">
+        <v>60</v>
       </c>
       <c r="AW48" s="13" t="s">
         <v>60</v>
@@ -6855,97 +6855,97 @@
       </c>
       <c r="D49" s="11"/>
       <c r="E49" s="11">
-        <v>1244</v>
+        <v>280</v>
       </c>
       <c r="F49" s="11">
-        <v>780</v>
+        <v>72</v>
       </c>
       <c r="G49" s="11">
-        <v>280</v>
+        <v>424</v>
       </c>
       <c r="H49" s="11">
+        <v>820</v>
+      </c>
+      <c r="I49" s="11">
+        <v>840</v>
+      </c>
+      <c r="J49" s="11">
+        <v>216</v>
+      </c>
+      <c r="K49" s="11">
+        <v>1548</v>
+      </c>
+      <c r="L49" s="11">
+        <v>600</v>
+      </c>
+      <c r="M49" s="11">
+        <v>800</v>
+      </c>
+      <c r="N49" s="11">
+        <v>1220</v>
+      </c>
+      <c r="O49" s="11">
+        <v>1212</v>
+      </c>
+      <c r="P49" s="11">
+        <v>1286</v>
+      </c>
+      <c r="Q49" s="11">
+        <v>2952</v>
+      </c>
+      <c r="R49" s="11">
+        <v>1968</v>
+      </c>
+      <c r="S49" s="11">
+        <v>1616</v>
+      </c>
+      <c r="T49" s="11">
+        <v>144</v>
+      </c>
+      <c r="U49" s="11">
+        <v>540</v>
+      </c>
+      <c r="V49" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="W49" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="X49" s="11">
+        <v>96</v>
+      </c>
+      <c r="Y49" s="11">
         <v>72</v>
       </c>
-      <c r="I49" s="11">
-        <v>424</v>
-      </c>
-      <c r="J49" s="11">
-        <v>820</v>
-      </c>
-      <c r="K49" s="11">
-        <v>840</v>
-      </c>
-      <c r="L49" s="11">
-        <v>216</v>
-      </c>
-      <c r="M49" s="11">
-        <v>1548</v>
-      </c>
-      <c r="N49" s="11">
-        <v>600</v>
-      </c>
-      <c r="O49" s="11">
-        <v>800</v>
-      </c>
-      <c r="P49" s="11">
-        <v>1220</v>
-      </c>
-      <c r="Q49" s="11">
-        <v>1212</v>
-      </c>
-      <c r="R49" s="11">
-        <v>1286</v>
-      </c>
-      <c r="S49" s="11">
-        <v>2952</v>
-      </c>
-      <c r="T49" s="11">
-        <v>1968</v>
-      </c>
-      <c r="U49" s="11">
-        <v>1616</v>
-      </c>
-      <c r="V49" s="11">
-        <v>144</v>
-      </c>
-      <c r="W49" s="11">
-        <v>540</v>
-      </c>
-      <c r="X49" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="Y49" s="11" t="s">
-        <v>60</v>
-      </c>
       <c r="Z49" s="11">
-        <v>96</v>
+        <v>204</v>
       </c>
       <c r="AA49" s="11">
-        <v>72</v>
+        <v>496</v>
       </c>
       <c r="AB49" s="11">
-        <v>204</v>
+        <v>636</v>
       </c>
       <c r="AC49" s="11">
+        <v>808</v>
+      </c>
+      <c r="AD49" s="11">
+        <v>836</v>
+      </c>
+      <c r="AE49" s="11">
         <v>496</v>
       </c>
-      <c r="AD49" s="11">
-        <v>636</v>
-      </c>
-      <c r="AE49" s="11">
-        <v>808</v>
-      </c>
       <c r="AF49" s="11">
-        <v>836</v>
+        <v>196</v>
       </c>
       <c r="AG49" s="11">
-        <v>496</v>
-      </c>
-      <c r="AH49" s="11">
-        <v>196</v>
-      </c>
-      <c r="AI49" s="11">
         <v>100</v>
+      </c>
+      <c r="AH49" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="AI49" s="11" t="s">
+        <v>60</v>
       </c>
       <c r="AJ49" s="11" t="s">
         <v>60</v>
@@ -7125,11 +7125,11 @@
       <c r="W51" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="X51" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="Y51" s="17" t="s">
-        <v>60</v>
+      <c r="X51" s="17">
+        <v>0</v>
+      </c>
+      <c r="Y51" s="17">
+        <v>0</v>
       </c>
       <c r="Z51" s="17">
         <v>0</v>
@@ -7339,11 +7339,11 @@
       <c r="W53" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="X53" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="Y53" s="17" t="s">
-        <v>60</v>
+      <c r="X53" s="17">
+        <v>0</v>
+      </c>
+      <c r="Y53" s="17">
+        <v>0</v>
       </c>
       <c r="Z53" s="17">
         <v>0</v>
@@ -7440,154 +7440,154 @@
       <c r="C54" s="19"/>
       <c r="D54" s="19"/>
       <c r="E54" s="19">
-        <v>40567</v>
+        <v>36623</v>
       </c>
       <c r="F54" s="19">
-        <v>43577</v>
+        <v>52473</v>
       </c>
       <c r="G54" s="19">
-        <v>36623</v>
+        <v>48224</v>
       </c>
       <c r="H54" s="19">
-        <v>52473</v>
+        <v>61798</v>
       </c>
       <c r="I54" s="19">
-        <v>48224</v>
+        <v>52727</v>
       </c>
       <c r="J54" s="19">
-        <v>61798</v>
+        <v>39590</v>
       </c>
       <c r="K54" s="19">
-        <v>52727</v>
+        <v>34774</v>
       </c>
       <c r="L54" s="19">
-        <v>39590</v>
+        <v>60060</v>
       </c>
       <c r="M54" s="19">
-        <v>34774</v>
+        <v>45916</v>
       </c>
       <c r="N54" s="19">
-        <v>60060</v>
+        <v>59983</v>
       </c>
       <c r="O54" s="19">
-        <v>45916</v>
+        <v>49929</v>
       </c>
       <c r="P54" s="19">
-        <v>59983</v>
+        <v>49608</v>
       </c>
       <c r="Q54" s="19">
-        <v>49929</v>
+        <v>37500</v>
       </c>
       <c r="R54" s="19">
-        <v>49608</v>
+        <v>55027</v>
       </c>
       <c r="S54" s="19">
-        <v>37500</v>
+        <v>61702</v>
       </c>
       <c r="T54" s="19">
-        <v>55027</v>
+        <v>15542</v>
       </c>
       <c r="U54" s="19">
-        <v>61702</v>
+        <v>64604</v>
       </c>
       <c r="V54" s="19">
-        <v>15542</v>
+        <v>36235</v>
       </c>
       <c r="W54" s="19">
-        <v>64604</v>
+        <v>68037</v>
       </c>
       <c r="X54" s="19">
-        <v>36235</v>
+        <v>16326</v>
       </c>
       <c r="Y54" s="19">
-        <v>68037</v>
+        <v>20001</v>
       </c>
       <c r="Z54" s="19">
-        <v>16326</v>
+        <v>39754</v>
       </c>
       <c r="AA54" s="19">
-        <v>20001</v>
+        <v>38430</v>
       </c>
       <c r="AB54" s="19">
-        <v>39754</v>
+        <v>44574</v>
       </c>
       <c r="AC54" s="19">
-        <v>38430</v>
+        <v>49398</v>
       </c>
       <c r="AD54" s="19">
-        <v>44574</v>
+        <v>63001</v>
       </c>
       <c r="AE54" s="19">
-        <v>49398</v>
+        <v>46895</v>
       </c>
       <c r="AF54" s="19">
-        <v>63001</v>
+        <v>23101</v>
       </c>
       <c r="AG54" s="19">
-        <v>46895</v>
+        <v>47128</v>
       </c>
       <c r="AH54" s="19">
-        <v>23101</v>
+        <v>42684</v>
       </c>
       <c r="AI54" s="19">
-        <v>47128</v>
+        <v>40656</v>
       </c>
       <c r="AJ54" s="19">
-        <v>42684</v>
+        <v>44923</v>
       </c>
       <c r="AK54" s="19">
-        <v>40656</v>
+        <v>50839</v>
       </c>
       <c r="AL54" s="19">
-        <v>44923</v>
+        <v>32757</v>
       </c>
       <c r="AM54" s="19">
-        <v>50839</v>
+        <v>60685</v>
       </c>
       <c r="AN54" s="19">
-        <v>32757</v>
+        <v>50527</v>
       </c>
       <c r="AO54" s="19">
-        <v>60685</v>
+        <v>36807</v>
       </c>
       <c r="AP54" s="19">
-        <v>50527</v>
+        <v>59123</v>
       </c>
       <c r="AQ54" s="19">
-        <v>36807</v>
+        <v>23867</v>
       </c>
       <c r="AR54" s="19">
-        <v>59123</v>
+        <v>20589</v>
       </c>
       <c r="AS54" s="19">
-        <v>23867</v>
+        <v>38550</v>
       </c>
       <c r="AT54" s="19">
-        <v>20589</v>
+        <v>30606</v>
       </c>
       <c r="AU54" s="19">
-        <v>38550</v>
+        <v>31987</v>
       </c>
       <c r="AV54" s="19">
-        <v>30606</v>
+        <v>63551</v>
       </c>
       <c r="AW54" s="19">
-        <v>31987</v>
+        <v>56520</v>
       </c>
       <c r="AX54" s="19">
-        <v>63551</v>
+        <v>85354</v>
       </c>
       <c r="AY54" s="19">
-        <v>56520</v>
+        <v>47383</v>
       </c>
       <c r="AZ54" s="19">
-        <v>85354</v>
+        <v>47807</v>
       </c>
       <c r="BA54" s="19">
-        <v>47383</v>
+        <v>44079</v>
       </c>
       <c r="BB54" s="19">
-        <v>47807</v>
+        <v>36405</v>
       </c>
     </row>
     <row r="55" spans="2:54" x14ac:dyDescent="0.3">
@@ -8084,16 +8084,16 @@
         <v>0</v>
       </c>
       <c r="V61" s="11">
-        <v>0</v>
+        <v>326918</v>
       </c>
       <c r="W61" s="11">
-        <v>0</v>
+        <v>1249585</v>
       </c>
       <c r="X61" s="11">
-        <v>326918</v>
+        <v>0</v>
       </c>
       <c r="Y61" s="11">
-        <v>1249585</v>
+        <v>0</v>
       </c>
       <c r="Z61" s="11">
         <v>0</v>
@@ -8120,67 +8120,67 @@
         <v>0</v>
       </c>
       <c r="AH61" s="11">
-        <v>0</v>
+        <v>710423</v>
       </c>
       <c r="AI61" s="11">
-        <v>0</v>
+        <v>838020</v>
       </c>
       <c r="AJ61" s="11">
-        <v>710423</v>
+        <v>1749803</v>
       </c>
       <c r="AK61" s="11">
-        <v>838020</v>
+        <v>1949841</v>
       </c>
       <c r="AL61" s="11">
-        <v>1749803</v>
+        <v>1286243</v>
       </c>
       <c r="AM61" s="11">
-        <v>1949841</v>
+        <v>3693907</v>
       </c>
       <c r="AN61" s="11">
-        <v>1286243</v>
+        <v>2971758</v>
       </c>
       <c r="AO61" s="11">
-        <v>3693907</v>
+        <v>1390588</v>
       </c>
       <c r="AP61" s="11">
-        <v>2971758</v>
+        <v>5771432</v>
       </c>
       <c r="AQ61" s="11">
-        <v>1390588</v>
+        <v>649202</v>
       </c>
       <c r="AR61" s="11">
-        <v>5771432</v>
+        <v>928419</v>
       </c>
       <c r="AS61" s="11">
-        <v>649202</v>
+        <v>3286459</v>
       </c>
       <c r="AT61" s="11">
-        <v>928419</v>
+        <v>1569222</v>
       </c>
       <c r="AU61" s="11">
-        <v>3286459</v>
+        <v>2058045</v>
       </c>
       <c r="AV61" s="11">
-        <v>1569222</v>
+        <v>6024641</v>
       </c>
       <c r="AW61" s="11">
-        <v>2058045</v>
+        <v>5393480</v>
       </c>
       <c r="AX61" s="11">
-        <v>6024641</v>
+        <v>10255317</v>
       </c>
       <c r="AY61" s="11">
-        <v>5393480</v>
+        <v>3831900</v>
       </c>
       <c r="AZ61" s="11">
-        <v>10255317</v>
+        <v>4814331</v>
       </c>
       <c r="BA61" s="11">
-        <v>3831900</v>
+        <v>3680527</v>
       </c>
       <c r="BB61" s="11">
-        <v>4814331</v>
+        <v>2692036</v>
       </c>
     </row>
     <row r="62" spans="2:54" x14ac:dyDescent="0.3">
@@ -8279,67 +8279,67 @@
         <v>0</v>
       </c>
       <c r="AH62" s="13">
-        <v>0</v>
+        <v>7922</v>
       </c>
       <c r="AI62" s="13">
-        <v>0</v>
+        <v>10147</v>
       </c>
       <c r="AJ62" s="13">
-        <v>7922</v>
+        <v>11514</v>
       </c>
       <c r="AK62" s="13">
-        <v>10147</v>
+        <v>6199</v>
       </c>
       <c r="AL62" s="13">
-        <v>11514</v>
+        <v>0</v>
       </c>
       <c r="AM62" s="13">
-        <v>6199</v>
+        <v>2668</v>
       </c>
       <c r="AN62" s="13">
-        <v>0</v>
+        <v>13570</v>
       </c>
       <c r="AO62" s="13">
-        <v>2668</v>
+        <v>70217</v>
       </c>
       <c r="AP62" s="13">
-        <v>13570</v>
+        <v>132653</v>
       </c>
       <c r="AQ62" s="13">
-        <v>70217</v>
+        <v>190495</v>
       </c>
       <c r="AR62" s="13">
-        <v>132653</v>
+        <v>43340</v>
       </c>
       <c r="AS62" s="13">
-        <v>190495</v>
+        <v>12866</v>
       </c>
       <c r="AT62" s="13">
-        <v>43340</v>
+        <v>199663</v>
       </c>
       <c r="AU62" s="13">
-        <v>12866</v>
+        <v>373111</v>
       </c>
       <c r="AV62" s="13">
-        <v>22210</v>
+        <v>466230</v>
       </c>
       <c r="AW62" s="13">
-        <v>373111</v>
+        <v>431603</v>
       </c>
       <c r="AX62" s="13">
-        <v>466230</v>
+        <v>591735</v>
       </c>
       <c r="AY62" s="13">
-        <v>431603</v>
+        <v>731246</v>
       </c>
       <c r="AZ62" s="13">
-        <v>591735</v>
+        <v>847477</v>
       </c>
       <c r="BA62" s="13">
-        <v>731246</v>
+        <v>769776</v>
       </c>
       <c r="BB62" s="13">
-        <v>847477</v>
+        <v>377988</v>
       </c>
     </row>
     <row r="63" spans="2:54" x14ac:dyDescent="0.3">
@@ -8351,154 +8351,154 @@
       </c>
       <c r="D63" s="11"/>
       <c r="E63" s="11">
-        <v>69412</v>
+        <v>90713</v>
       </c>
       <c r="F63" s="11">
-        <v>69491</v>
+        <v>69868</v>
       </c>
       <c r="G63" s="11">
-        <v>90713</v>
+        <v>45414</v>
       </c>
       <c r="H63" s="11">
-        <v>69868</v>
+        <v>58857</v>
       </c>
       <c r="I63" s="11">
-        <v>45414</v>
+        <v>65582</v>
       </c>
       <c r="J63" s="11">
-        <v>58857</v>
+        <v>55751</v>
       </c>
       <c r="K63" s="11">
-        <v>65582</v>
+        <v>86950</v>
       </c>
       <c r="L63" s="11">
-        <v>55751</v>
+        <v>83931</v>
       </c>
       <c r="M63" s="11">
-        <v>86950</v>
+        <v>54988</v>
       </c>
       <c r="N63" s="11">
-        <v>83931</v>
+        <v>85649</v>
       </c>
       <c r="O63" s="11">
-        <v>54988</v>
+        <v>68111</v>
       </c>
       <c r="P63" s="11">
-        <v>85649</v>
+        <v>64947</v>
       </c>
       <c r="Q63" s="11">
-        <v>68111</v>
+        <v>140634</v>
       </c>
       <c r="R63" s="11">
-        <v>64947</v>
+        <v>100402</v>
       </c>
       <c r="S63" s="11">
-        <v>140634</v>
+        <v>69676</v>
       </c>
       <c r="T63" s="11">
-        <v>100402</v>
+        <v>14199</v>
       </c>
       <c r="U63" s="11">
-        <v>69676</v>
+        <v>8867</v>
       </c>
       <c r="V63" s="11">
-        <v>14199</v>
+        <v>11705</v>
       </c>
       <c r="W63" s="11">
-        <v>8867</v>
+        <v>39443</v>
       </c>
       <c r="X63" s="11">
-        <v>11705</v>
+        <v>21855</v>
       </c>
       <c r="Y63" s="11">
-        <v>39443</v>
+        <v>35174</v>
       </c>
       <c r="Z63" s="11">
-        <v>21855</v>
+        <v>139497</v>
       </c>
       <c r="AA63" s="11">
-        <v>35174</v>
+        <v>121118</v>
       </c>
       <c r="AB63" s="11">
-        <v>139497</v>
+        <v>70375</v>
       </c>
       <c r="AC63" s="11">
-        <v>121118</v>
+        <v>159820</v>
       </c>
       <c r="AD63" s="11">
-        <v>70375</v>
+        <v>108828</v>
       </c>
       <c r="AE63" s="11">
-        <v>159820</v>
+        <v>49481</v>
       </c>
       <c r="AF63" s="11">
-        <v>108828</v>
+        <v>29382</v>
       </c>
       <c r="AG63" s="11">
-        <v>49481</v>
+        <v>147671</v>
       </c>
       <c r="AH63" s="11">
-        <v>29382</v>
+        <v>127661</v>
       </c>
       <c r="AI63" s="11">
-        <v>147671</v>
+        <v>92683</v>
       </c>
       <c r="AJ63" s="11">
-        <v>127661</v>
+        <v>53417</v>
       </c>
       <c r="AK63" s="11">
-        <v>92683</v>
+        <v>17454</v>
       </c>
       <c r="AL63" s="11">
-        <v>53417</v>
+        <v>131018</v>
       </c>
       <c r="AM63" s="11">
-        <v>17454</v>
+        <v>152099</v>
       </c>
       <c r="AN63" s="11">
-        <v>131018</v>
+        <v>37169</v>
       </c>
       <c r="AO63" s="11">
-        <v>152099</v>
+        <v>289916</v>
       </c>
       <c r="AP63" s="11">
-        <v>37169</v>
+        <v>159180</v>
       </c>
       <c r="AQ63" s="11">
-        <v>289916</v>
+        <v>87158</v>
       </c>
       <c r="AR63" s="11">
-        <v>159180</v>
+        <v>41028</v>
       </c>
       <c r="AS63" s="11">
-        <v>87158</v>
+        <v>56138</v>
       </c>
       <c r="AT63" s="11">
-        <v>41028</v>
+        <v>117674</v>
       </c>
       <c r="AU63" s="11">
-        <v>56138</v>
+        <v>107031</v>
       </c>
       <c r="AV63" s="11">
-        <v>117674</v>
+        <v>41738</v>
       </c>
       <c r="AW63" s="11">
-        <v>107031</v>
+        <v>367207</v>
       </c>
       <c r="AX63" s="11">
-        <v>41738</v>
+        <v>110629</v>
       </c>
       <c r="AY63" s="11">
-        <v>367207</v>
+        <v>15100</v>
       </c>
       <c r="AZ63" s="11">
-        <v>110629</v>
+        <v>145601</v>
       </c>
       <c r="BA63" s="11">
-        <v>15100</v>
+        <v>74871</v>
       </c>
       <c r="BB63" s="11">
-        <v>145601</v>
+        <v>545754</v>
       </c>
     </row>
     <row r="64" spans="2:54" x14ac:dyDescent="0.3">
@@ -8510,97 +8510,97 @@
       </c>
       <c r="D64" s="13"/>
       <c r="E64" s="13">
-        <v>294061</v>
+        <v>371271</v>
       </c>
       <c r="F64" s="13">
-        <v>204578</v>
+        <v>567355</v>
       </c>
       <c r="G64" s="13">
-        <v>371271</v>
+        <v>690545</v>
       </c>
       <c r="H64" s="13">
-        <v>567355</v>
+        <v>659279</v>
       </c>
       <c r="I64" s="13">
-        <v>690545</v>
+        <v>670485</v>
       </c>
       <c r="J64" s="13">
-        <v>659279</v>
+        <v>215469</v>
       </c>
       <c r="K64" s="13">
-        <v>670485</v>
+        <v>331203</v>
       </c>
       <c r="L64" s="13">
-        <v>215469</v>
+        <v>1060241</v>
       </c>
       <c r="M64" s="13">
-        <v>331203</v>
+        <v>846544</v>
       </c>
       <c r="N64" s="13">
-        <v>1060241</v>
+        <v>718940</v>
       </c>
       <c r="O64" s="13">
-        <v>846544</v>
+        <v>782302</v>
       </c>
       <c r="P64" s="13">
-        <v>718940</v>
+        <v>657713</v>
       </c>
       <c r="Q64" s="13">
-        <v>782302</v>
+        <v>564968</v>
       </c>
       <c r="R64" s="13">
-        <v>657713</v>
+        <v>870517</v>
       </c>
       <c r="S64" s="13">
-        <v>564968</v>
+        <v>1149900</v>
       </c>
       <c r="T64" s="13">
-        <v>870517</v>
+        <v>213473</v>
       </c>
       <c r="U64" s="13">
-        <v>1149900</v>
-      </c>
-      <c r="V64" s="13">
-        <v>213473</v>
-      </c>
-      <c r="W64" s="13">
         <v>1168719</v>
       </c>
-      <c r="X64" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="Y64" s="13" t="s">
-        <v>60</v>
+      <c r="V64" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="W64" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="X64" s="13">
+        <v>214518</v>
+      </c>
+      <c r="Y64" s="13">
+        <v>225348</v>
       </c>
       <c r="Z64" s="13">
-        <v>214518</v>
+        <v>576343</v>
       </c>
       <c r="AA64" s="13">
-        <v>225348</v>
+        <v>923602</v>
       </c>
       <c r="AB64" s="13">
-        <v>576343</v>
+        <v>1030510</v>
       </c>
       <c r="AC64" s="13">
-        <v>923602</v>
+        <v>1393693</v>
       </c>
       <c r="AD64" s="13">
-        <v>1030510</v>
+        <v>2180643</v>
       </c>
       <c r="AE64" s="13">
-        <v>1393693</v>
+        <v>1968007</v>
       </c>
       <c r="AF64" s="13">
-        <v>2180643</v>
+        <v>709926</v>
       </c>
       <c r="AG64" s="13">
-        <v>1968007</v>
-      </c>
-      <c r="AH64" s="13">
-        <v>709926</v>
-      </c>
-      <c r="AI64" s="13">
         <v>1169321</v>
+      </c>
+      <c r="AH64" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="AI64" s="13" t="s">
+        <v>60</v>
       </c>
       <c r="AJ64" s="13" t="s">
         <v>60</v>
@@ -8756,67 +8756,67 @@
         <v>0</v>
       </c>
       <c r="AH65" s="11">
-        <v>0</v>
+        <v>42300</v>
       </c>
       <c r="AI65" s="11">
-        <v>0</v>
+        <v>170859</v>
       </c>
       <c r="AJ65" s="11">
-        <v>42300</v>
+        <v>533976</v>
       </c>
       <c r="AK65" s="11">
-        <v>170859</v>
+        <v>237112</v>
       </c>
       <c r="AL65" s="11">
-        <v>533976</v>
+        <v>282486</v>
       </c>
       <c r="AM65" s="11">
-        <v>237112</v>
+        <v>1014750</v>
       </c>
       <c r="AN65" s="11">
-        <v>282486</v>
+        <v>430547</v>
       </c>
       <c r="AO65" s="11">
-        <v>1014750</v>
+        <v>447606</v>
       </c>
       <c r="AP65" s="11">
-        <v>430547</v>
+        <v>397644</v>
       </c>
       <c r="AQ65" s="11">
-        <v>447606</v>
+        <v>176773</v>
       </c>
       <c r="AR65" s="11">
-        <v>397644</v>
+        <v>154174</v>
       </c>
       <c r="AS65" s="11">
-        <v>176773</v>
+        <v>202630</v>
       </c>
       <c r="AT65" s="11">
-        <v>154174</v>
+        <v>348127</v>
       </c>
       <c r="AU65" s="11">
-        <v>202630</v>
+        <v>284913</v>
       </c>
       <c r="AV65" s="11">
-        <v>348127</v>
+        <v>183796</v>
       </c>
       <c r="AW65" s="11">
-        <v>284913</v>
+        <v>0</v>
       </c>
       <c r="AX65" s="11">
-        <v>183796</v>
+        <v>0</v>
       </c>
       <c r="AY65" s="11">
-        <v>0</v>
+        <v>263567</v>
       </c>
       <c r="AZ65" s="11">
         <v>0</v>
       </c>
       <c r="BA65" s="11">
-        <v>263567</v>
+        <v>284176</v>
       </c>
       <c r="BB65" s="11">
-        <v>0</v>
+        <v>161480</v>
       </c>
     </row>
     <row r="66" spans="2:54" x14ac:dyDescent="0.3">
@@ -8881,11 +8881,11 @@
       <c r="V66" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="W66" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="X66" s="13" t="s">
-        <v>60</v>
+      <c r="W66" s="13">
+        <v>0</v>
+      </c>
+      <c r="X66" s="13">
+        <v>0</v>
       </c>
       <c r="Y66" s="13">
         <v>0</v>
@@ -8914,11 +8914,11 @@
       <c r="AG66" s="13">
         <v>0</v>
       </c>
-      <c r="AH66" s="13">
-        <v>0</v>
-      </c>
-      <c r="AI66" s="13">
-        <v>0</v>
+      <c r="AH66" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="AI66" s="13" t="s">
+        <v>60</v>
       </c>
       <c r="AJ66" s="13" t="s">
         <v>60</v>
@@ -9037,18 +9037,18 @@
       <c r="U67" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="V67" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="W67" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="X67" s="11">
+      <c r="V67" s="11">
         <v>170619</v>
       </c>
-      <c r="Y67" s="11">
+      <c r="W67" s="11">
         <v>176847</v>
       </c>
+      <c r="X67" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="Y67" s="11" t="s">
+        <v>60</v>
+      </c>
       <c r="Z67" s="11" t="s">
         <v>60</v>
       </c>
@@ -9109,32 +9109,32 @@
       <c r="AS67" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="AT67" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="AU67" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="AV67" s="11" t="s">
-        <v>60</v>
+      <c r="AT67" s="11">
+        <v>414455</v>
+      </c>
+      <c r="AU67" s="11">
+        <v>758883</v>
+      </c>
+      <c r="AV67" s="11">
+        <v>888542</v>
       </c>
       <c r="AW67" s="11">
-        <v>758883</v>
+        <v>746878</v>
       </c>
       <c r="AX67" s="11">
-        <v>888542</v>
+        <v>759812</v>
       </c>
       <c r="AY67" s="11">
-        <v>746878</v>
+        <v>546846</v>
       </c>
       <c r="AZ67" s="11">
-        <v>759812</v>
+        <v>489317</v>
       </c>
       <c r="BA67" s="11">
-        <v>546846</v>
+        <v>611076</v>
       </c>
       <c r="BB67" s="11">
-        <v>489317</v>
+        <v>567439</v>
       </c>
     </row>
     <row r="68" spans="2:54" x14ac:dyDescent="0.3">
@@ -9623,97 +9623,97 @@
       </c>
       <c r="D71" s="11"/>
       <c r="E71" s="11">
-        <v>704</v>
+        <v>2793</v>
       </c>
       <c r="F71" s="11">
-        <v>269</v>
+        <v>6407</v>
       </c>
       <c r="G71" s="11">
-        <v>2793</v>
+        <v>5014</v>
       </c>
       <c r="H71" s="11">
-        <v>6407</v>
+        <v>3654</v>
       </c>
       <c r="I71" s="11">
-        <v>5014</v>
+        <v>7984</v>
       </c>
       <c r="J71" s="11">
-        <v>3654</v>
+        <v>5932</v>
       </c>
       <c r="K71" s="11">
-        <v>7984</v>
+        <v>1677</v>
       </c>
       <c r="L71" s="11">
-        <v>5932</v>
+        <v>1245</v>
       </c>
       <c r="M71" s="11">
-        <v>1677</v>
+        <v>2113</v>
       </c>
       <c r="N71" s="11">
-        <v>1245</v>
+        <v>1551</v>
       </c>
       <c r="O71" s="11">
-        <v>2113</v>
+        <v>2170</v>
       </c>
       <c r="P71" s="11">
-        <v>1551</v>
+        <v>1925</v>
       </c>
       <c r="Q71" s="11">
-        <v>2170</v>
+        <v>1210</v>
       </c>
       <c r="R71" s="11">
-        <v>1925</v>
+        <v>618</v>
       </c>
       <c r="S71" s="11">
-        <v>1210</v>
+        <v>0</v>
       </c>
       <c r="T71" s="11">
-        <v>618</v>
+        <v>0</v>
       </c>
       <c r="U71" s="11">
         <v>0</v>
       </c>
-      <c r="V71" s="11">
-        <v>0</v>
-      </c>
-      <c r="W71" s="11">
-        <v>0</v>
-      </c>
-      <c r="X71" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="Y71" s="11" t="s">
-        <v>60</v>
+      <c r="V71" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="W71" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="X71" s="11">
+        <v>0</v>
+      </c>
+      <c r="Y71" s="11">
+        <v>0</v>
       </c>
       <c r="Z71" s="11">
         <v>0</v>
       </c>
       <c r="AA71" s="11">
-        <v>0</v>
+        <v>3360</v>
       </c>
       <c r="AB71" s="11">
-        <v>0</v>
+        <v>19422</v>
       </c>
       <c r="AC71" s="11">
-        <v>3360</v>
+        <v>15145</v>
       </c>
       <c r="AD71" s="11">
-        <v>19422</v>
+        <v>16992</v>
       </c>
       <c r="AE71" s="11">
-        <v>15145</v>
+        <v>11716</v>
       </c>
       <c r="AF71" s="11">
-        <v>16992</v>
+        <v>0</v>
       </c>
       <c r="AG71" s="11">
-        <v>11716</v>
-      </c>
-      <c r="AH71" s="11">
-        <v>0</v>
-      </c>
-      <c r="AI71" s="11">
         <v>4769</v>
+      </c>
+      <c r="AH71" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="AI71" s="11" t="s">
+        <v>60</v>
       </c>
       <c r="AJ71" s="11" t="s">
         <v>60</v>
@@ -9782,136 +9782,136 @@
       </c>
       <c r="D72" s="13"/>
       <c r="E72" s="13">
-        <v>18772</v>
+        <v>21842</v>
       </c>
       <c r="F72" s="13">
-        <v>18127</v>
+        <v>31367</v>
       </c>
       <c r="G72" s="13">
-        <v>21842</v>
+        <v>32247</v>
       </c>
       <c r="H72" s="13">
-        <v>31367</v>
+        <v>29303</v>
       </c>
       <c r="I72" s="13">
-        <v>32247</v>
+        <v>24344</v>
       </c>
       <c r="J72" s="13">
-        <v>29303</v>
+        <v>28716</v>
       </c>
       <c r="K72" s="13">
-        <v>24344</v>
+        <v>29067</v>
       </c>
       <c r="L72" s="13">
-        <v>28716</v>
+        <v>25240</v>
       </c>
       <c r="M72" s="13">
-        <v>29067</v>
+        <v>26393</v>
       </c>
       <c r="N72" s="13">
-        <v>25240</v>
+        <v>21270</v>
       </c>
       <c r="O72" s="13">
-        <v>26393</v>
+        <v>23623</v>
       </c>
       <c r="P72" s="13">
-        <v>21270</v>
+        <v>26943</v>
       </c>
       <c r="Q72" s="13">
-        <v>23623</v>
+        <v>28070</v>
       </c>
       <c r="R72" s="13">
-        <v>26943</v>
+        <v>29386</v>
       </c>
       <c r="S72" s="13">
-        <v>28070</v>
+        <v>28603</v>
       </c>
       <c r="T72" s="13">
-        <v>29386</v>
+        <v>22352</v>
       </c>
       <c r="U72" s="13">
-        <v>28603</v>
-      </c>
-      <c r="V72" s="13">
-        <v>22352</v>
-      </c>
-      <c r="W72" s="13">
-        <v>0</v>
-      </c>
-      <c r="X72" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="Y72" s="13" t="s">
-        <v>60</v>
+        <v>0</v>
+      </c>
+      <c r="V72" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="W72" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="X72" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y72" s="13">
+        <v>1694</v>
       </c>
       <c r="Z72" s="13">
-        <v>0</v>
+        <v>13306</v>
       </c>
       <c r="AA72" s="13">
-        <v>1694</v>
+        <v>36306</v>
       </c>
       <c r="AB72" s="13">
-        <v>13306</v>
+        <v>53495</v>
       </c>
       <c r="AC72" s="13">
-        <v>36306</v>
+        <v>50134</v>
       </c>
       <c r="AD72" s="13">
-        <v>53495</v>
+        <v>48541</v>
       </c>
       <c r="AE72" s="13">
-        <v>50134</v>
+        <v>23780</v>
       </c>
       <c r="AF72" s="13">
-        <v>48541</v>
+        <v>0</v>
       </c>
       <c r="AG72" s="13">
-        <v>23780</v>
+        <v>24849</v>
       </c>
       <c r="AH72" s="13">
-        <v>0</v>
+        <v>72841</v>
       </c>
       <c r="AI72" s="13">
-        <v>24849</v>
+        <v>89374</v>
       </c>
       <c r="AJ72" s="13">
-        <v>72841</v>
+        <v>80898</v>
       </c>
       <c r="AK72" s="13">
-        <v>89374</v>
+        <v>94970</v>
       </c>
       <c r="AL72" s="13">
-        <v>80898</v>
+        <v>93552</v>
       </c>
       <c r="AM72" s="13">
-        <v>94970</v>
+        <v>92792</v>
       </c>
       <c r="AN72" s="13">
-        <v>93552</v>
+        <v>95731</v>
       </c>
       <c r="AO72" s="13">
-        <v>92792</v>
+        <v>180191</v>
       </c>
       <c r="AP72" s="13">
-        <v>95731</v>
+        <v>298146</v>
       </c>
       <c r="AQ72" s="13">
-        <v>180191</v>
+        <v>386754</v>
       </c>
       <c r="AR72" s="13">
-        <v>298146</v>
+        <v>304996</v>
       </c>
       <c r="AS72" s="13">
-        <v>386754</v>
-      </c>
-      <c r="AT72" s="13">
-        <v>304996</v>
-      </c>
-      <c r="AU72" s="13">
         <v>192037</v>
       </c>
-      <c r="AV72" s="13">
-        <v>177453</v>
+      <c r="AT72" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="AU72" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="AV72" s="13" t="s">
+        <v>60</v>
       </c>
       <c r="AW72" s="13" t="s">
         <v>60</v>
@@ -9941,154 +9941,154 @@
       </c>
       <c r="D73" s="11"/>
       <c r="E73" s="11">
-        <v>99488</v>
+        <v>68040</v>
       </c>
       <c r="F73" s="11">
-        <v>156053</v>
+        <v>96765</v>
       </c>
       <c r="G73" s="11">
-        <v>68040</v>
+        <v>31973</v>
       </c>
       <c r="H73" s="11">
-        <v>96765</v>
+        <v>118850</v>
       </c>
       <c r="I73" s="11">
-        <v>31973</v>
+        <v>156165</v>
       </c>
       <c r="J73" s="11">
-        <v>118850</v>
+        <v>325502</v>
       </c>
       <c r="K73" s="11">
-        <v>156165</v>
+        <v>133881</v>
       </c>
       <c r="L73" s="11">
-        <v>325502</v>
+        <v>136507</v>
       </c>
       <c r="M73" s="11">
-        <v>133881</v>
+        <v>78001</v>
       </c>
       <c r="N73" s="11">
-        <v>136507</v>
+        <v>417359</v>
       </c>
       <c r="O73" s="11">
-        <v>78001</v>
+        <v>166327</v>
       </c>
       <c r="P73" s="11">
-        <v>417359</v>
+        <v>267228</v>
       </c>
       <c r="Q73" s="11">
-        <v>166327</v>
+        <v>403</v>
       </c>
       <c r="R73" s="11">
-        <v>267228</v>
+        <v>122628</v>
       </c>
       <c r="S73" s="11">
-        <v>403</v>
+        <v>86355</v>
       </c>
       <c r="T73" s="11">
-        <v>122628</v>
+        <v>73509</v>
       </c>
       <c r="U73" s="11">
-        <v>86355</v>
+        <v>343192</v>
       </c>
       <c r="V73" s="11">
-        <v>73509</v>
+        <v>486796</v>
       </c>
       <c r="W73" s="11">
-        <v>343192</v>
+        <v>471009</v>
       </c>
       <c r="X73" s="11">
-        <v>486796</v>
+        <v>149241</v>
       </c>
       <c r="Y73" s="11">
-        <v>471009</v>
+        <v>220011</v>
       </c>
       <c r="Z73" s="11">
-        <v>149241</v>
+        <v>359581</v>
       </c>
       <c r="AA73" s="11">
-        <v>220011</v>
+        <v>191234</v>
       </c>
       <c r="AB73" s="11">
-        <v>359581</v>
+        <v>577183</v>
       </c>
       <c r="AC73" s="11">
-        <v>191234</v>
+        <v>537840</v>
       </c>
       <c r="AD73" s="11">
-        <v>577183</v>
+        <v>599058</v>
       </c>
       <c r="AE73" s="11">
-        <v>537840</v>
+        <v>295794</v>
       </c>
       <c r="AF73" s="11">
-        <v>599058</v>
+        <v>280422</v>
       </c>
       <c r="AG73" s="11">
-        <v>295794</v>
+        <v>795715</v>
       </c>
       <c r="AH73" s="11">
-        <v>280422</v>
+        <v>1143076</v>
       </c>
       <c r="AI73" s="11">
-        <v>795715</v>
+        <v>1076147</v>
       </c>
       <c r="AJ73" s="11">
-        <v>1143076</v>
+        <v>467487</v>
       </c>
       <c r="AK73" s="11">
-        <v>1076147</v>
+        <v>737725</v>
       </c>
       <c r="AL73" s="11">
-        <v>467487</v>
+        <v>542708</v>
       </c>
       <c r="AM73" s="11">
-        <v>737725</v>
+        <v>558439</v>
       </c>
       <c r="AN73" s="11">
-        <v>542708</v>
+        <v>1071763</v>
       </c>
       <c r="AO73" s="11">
-        <v>558439</v>
+        <v>1138590</v>
       </c>
       <c r="AP73" s="11">
-        <v>1071763</v>
+        <v>1750037</v>
       </c>
       <c r="AQ73" s="11">
-        <v>1138590</v>
+        <v>1312020</v>
       </c>
       <c r="AR73" s="11">
-        <v>1750037</v>
+        <v>962968</v>
       </c>
       <c r="AS73" s="11">
-        <v>1312020</v>
+        <v>857536</v>
       </c>
       <c r="AT73" s="11">
-        <v>962968</v>
+        <v>2220649</v>
       </c>
       <c r="AU73" s="11">
-        <v>857536</v>
+        <v>1379255</v>
       </c>
       <c r="AV73" s="11">
-        <v>2220649</v>
+        <v>2097349</v>
       </c>
       <c r="AW73" s="11">
-        <v>2257652</v>
+        <v>1280048</v>
       </c>
       <c r="AX73" s="11">
-        <v>2097349</v>
+        <v>-284370</v>
       </c>
       <c r="AY73" s="11">
-        <v>1280048</v>
+        <v>1621823</v>
       </c>
       <c r="AZ73" s="11">
-        <v>211485</v>
+        <v>1179429</v>
       </c>
       <c r="BA73" s="11">
-        <v>1621823</v>
+        <v>1591522</v>
       </c>
       <c r="BB73" s="11">
-        <v>1179429</v>
+        <v>1022009</v>
       </c>
     </row>
     <row r="74" spans="2:54" x14ac:dyDescent="0.3">
@@ -10100,136 +10100,136 @@
       </c>
       <c r="D74" s="13"/>
       <c r="E74" s="13">
-        <v>60077</v>
+        <v>154823</v>
       </c>
       <c r="F74" s="13">
-        <v>98054</v>
+        <v>114894</v>
       </c>
       <c r="G74" s="13">
-        <v>154823</v>
+        <v>57133</v>
       </c>
       <c r="H74" s="13">
-        <v>114894</v>
+        <v>45861</v>
       </c>
       <c r="I74" s="13">
-        <v>57133</v>
+        <v>87546</v>
       </c>
       <c r="J74" s="13">
-        <v>45861</v>
+        <v>54189</v>
       </c>
       <c r="K74" s="13">
-        <v>87546</v>
+        <v>184061</v>
       </c>
       <c r="L74" s="13">
-        <v>54189</v>
+        <v>84830</v>
       </c>
       <c r="M74" s="13">
-        <v>184061</v>
+        <v>94909</v>
       </c>
       <c r="N74" s="13">
-        <v>84830</v>
+        <v>76165</v>
       </c>
       <c r="O74" s="13">
-        <v>94909</v>
+        <v>73649</v>
       </c>
       <c r="P74" s="13">
-        <v>76165</v>
+        <v>57400</v>
       </c>
       <c r="Q74" s="13">
-        <v>73649</v>
+        <v>65625</v>
       </c>
       <c r="R74" s="13">
-        <v>57400</v>
+        <v>93198</v>
       </c>
       <c r="S74" s="13">
-        <v>65625</v>
+        <v>62797</v>
       </c>
       <c r="T74" s="13">
-        <v>93198</v>
+        <v>14040</v>
       </c>
       <c r="U74" s="13">
-        <v>62797</v>
-      </c>
-      <c r="V74" s="13">
-        <v>14040</v>
-      </c>
-      <c r="W74" s="13">
         <v>90009</v>
       </c>
-      <c r="X74" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="Y74" s="13" t="s">
-        <v>60</v>
+      <c r="V74" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="W74" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="X74" s="13">
+        <v>195730</v>
+      </c>
+      <c r="Y74" s="13">
+        <v>187355</v>
       </c>
       <c r="Z74" s="13">
-        <v>195730</v>
+        <v>270995</v>
       </c>
       <c r="AA74" s="13">
-        <v>187355</v>
+        <v>218159</v>
       </c>
       <c r="AB74" s="13">
-        <v>270995</v>
+        <v>263785</v>
       </c>
       <c r="AC74" s="13">
-        <v>218159</v>
+        <v>293343</v>
       </c>
       <c r="AD74" s="13">
-        <v>263785</v>
+        <v>284632</v>
       </c>
       <c r="AE74" s="13">
-        <v>293343</v>
+        <v>218598</v>
       </c>
       <c r="AF74" s="13">
-        <v>284632</v>
+        <v>188558</v>
       </c>
       <c r="AG74" s="13">
-        <v>218598</v>
+        <v>505989</v>
       </c>
       <c r="AH74" s="13">
-        <v>188558</v>
+        <v>253843</v>
       </c>
       <c r="AI74" s="13">
-        <v>505989</v>
+        <v>454310</v>
       </c>
       <c r="AJ74" s="13">
-        <v>253843</v>
+        <v>400182</v>
       </c>
       <c r="AK74" s="13">
-        <v>454310</v>
+        <v>421902</v>
       </c>
       <c r="AL74" s="13">
-        <v>400182</v>
+        <v>310702</v>
       </c>
       <c r="AM74" s="13">
-        <v>421902</v>
+        <v>655112</v>
       </c>
       <c r="AN74" s="13">
-        <v>310702</v>
+        <v>723808</v>
       </c>
       <c r="AO74" s="13">
-        <v>655112</v>
+        <v>1053712</v>
       </c>
       <c r="AP74" s="13">
-        <v>723808</v>
+        <v>1111035</v>
       </c>
       <c r="AQ74" s="13">
-        <v>1053712</v>
+        <v>974868</v>
       </c>
       <c r="AR74" s="13">
-        <v>1111035</v>
+        <v>478426</v>
       </c>
       <c r="AS74" s="13">
-        <v>974868</v>
-      </c>
-      <c r="AT74" s="13">
-        <v>478426</v>
-      </c>
-      <c r="AU74" s="13">
         <v>524251</v>
       </c>
-      <c r="AV74" s="13">
-        <v>414455</v>
+      <c r="AT74" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="AU74" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="AV74" s="13" t="s">
+        <v>60</v>
       </c>
       <c r="AW74" s="13" t="s">
         <v>60</v>
@@ -10259,97 +10259,97 @@
       </c>
       <c r="D75" s="11"/>
       <c r="E75" s="11">
-        <v>141536</v>
+        <v>31592</v>
       </c>
       <c r="F75" s="11">
-        <v>83345</v>
+        <v>7586</v>
       </c>
       <c r="G75" s="11">
-        <v>31592</v>
+        <v>45571</v>
       </c>
       <c r="H75" s="11">
-        <v>7586</v>
+        <v>71709</v>
       </c>
       <c r="I75" s="11">
-        <v>45571</v>
+        <v>84404</v>
       </c>
       <c r="J75" s="11">
-        <v>71709</v>
+        <v>22158</v>
       </c>
       <c r="K75" s="11">
-        <v>84404</v>
+        <v>149310</v>
       </c>
       <c r="L75" s="11">
-        <v>22158</v>
+        <v>66080</v>
       </c>
       <c r="M75" s="11">
-        <v>149310</v>
+        <v>85530</v>
       </c>
       <c r="N75" s="11">
-        <v>66080</v>
+        <v>128458</v>
       </c>
       <c r="O75" s="11">
-        <v>85530</v>
+        <v>125532</v>
       </c>
       <c r="P75" s="11">
-        <v>128458</v>
+        <v>126254</v>
       </c>
       <c r="Q75" s="11">
-        <v>125532</v>
+        <v>268380</v>
       </c>
       <c r="R75" s="11">
-        <v>126254</v>
+        <v>175924</v>
       </c>
       <c r="S75" s="11">
-        <v>268380</v>
+        <v>153681</v>
       </c>
       <c r="T75" s="11">
-        <v>175924</v>
+        <v>14151</v>
       </c>
       <c r="U75" s="11">
-        <v>153681</v>
-      </c>
-      <c r="V75" s="11">
-        <v>14151</v>
-      </c>
-      <c r="W75" s="11">
         <v>61958</v>
       </c>
-      <c r="X75" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="Y75" s="11" t="s">
-        <v>60</v>
+      <c r="V75" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="W75" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="X75" s="11">
+        <v>11142</v>
+      </c>
+      <c r="Y75" s="11">
+        <v>9258</v>
       </c>
       <c r="Z75" s="11">
-        <v>11142</v>
+        <v>28107</v>
       </c>
       <c r="AA75" s="11">
-        <v>9258</v>
+        <v>72924</v>
       </c>
       <c r="AB75" s="11">
-        <v>28107</v>
+        <v>100681</v>
       </c>
       <c r="AC75" s="11">
-        <v>72924</v>
+        <v>161004</v>
       </c>
       <c r="AD75" s="11">
-        <v>100681</v>
+        <v>178084</v>
       </c>
       <c r="AE75" s="11">
-        <v>161004</v>
+        <v>137314</v>
       </c>
       <c r="AF75" s="11">
-        <v>178084</v>
+        <v>56460</v>
       </c>
       <c r="AG75" s="11">
-        <v>137314</v>
-      </c>
-      <c r="AH75" s="11">
-        <v>56460</v>
-      </c>
-      <c r="AI75" s="11">
         <v>38640</v>
+      </c>
+      <c r="AH75" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="AI75" s="11" t="s">
+        <v>60</v>
       </c>
       <c r="AJ75" s="11" t="s">
         <v>60</v>
@@ -10531,11 +10531,11 @@
       <c r="W77" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="X77" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="Y77" s="17" t="s">
-        <v>60</v>
+      <c r="X77" s="17">
+        <v>0</v>
+      </c>
+      <c r="Y77" s="17">
+        <v>0</v>
       </c>
       <c r="Z77" s="17">
         <v>0</v>
@@ -10747,11 +10747,11 @@
       <c r="W79" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="X79" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="Y79" s="17" t="s">
-        <v>60</v>
+      <c r="X79" s="17">
+        <v>0</v>
+      </c>
+      <c r="Y79" s="17">
+        <v>0</v>
       </c>
       <c r="Z79" s="17">
         <v>0</v>
@@ -10963,17 +10963,17 @@
       <c r="W81" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="X81" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="Y81" s="11" t="s">
-        <v>60</v>
+      <c r="X81" s="11">
+        <v>0</v>
+      </c>
+      <c r="Y81" s="11">
+        <v>-238</v>
       </c>
       <c r="Z81" s="11">
         <v>0</v>
       </c>
       <c r="AA81" s="11">
-        <v>-238</v>
+        <v>0</v>
       </c>
       <c r="AB81" s="11">
         <v>0</v>
@@ -11003,37 +11003,37 @@
         <v>0</v>
       </c>
       <c r="AK81" s="11">
-        <v>0</v>
+        <v>-4469</v>
       </c>
       <c r="AL81" s="11">
-        <v>0</v>
+        <v>-4759</v>
       </c>
       <c r="AM81" s="11">
-        <v>-4469</v>
+        <v>-3795</v>
       </c>
       <c r="AN81" s="11">
-        <v>-4759</v>
+        <v>-1713</v>
       </c>
       <c r="AO81" s="11">
-        <v>-3795</v>
+        <v>-5940</v>
       </c>
       <c r="AP81" s="11">
-        <v>-1713</v>
+        <v>-7451</v>
       </c>
       <c r="AQ81" s="11">
-        <v>-5940</v>
+        <v>-8693</v>
       </c>
       <c r="AR81" s="11">
-        <v>-7451</v>
+        <v>-7060</v>
       </c>
       <c r="AS81" s="11">
-        <v>-8693</v>
+        <v>-19</v>
       </c>
       <c r="AT81" s="11">
-        <v>-7060</v>
+        <v>0</v>
       </c>
       <c r="AU81" s="11">
-        <v>-19</v>
+        <v>0</v>
       </c>
       <c r="AV81" s="11">
         <v>0</v>
@@ -11051,10 +11051,10 @@
         <v>0</v>
       </c>
       <c r="BA81" s="11">
-        <v>0</v>
+        <v>-486</v>
       </c>
       <c r="BB81" s="11">
-        <v>0</v>
+        <v>-830</v>
       </c>
     </row>
     <row r="82" spans="2:54" x14ac:dyDescent="0.3">
@@ -11064,154 +11064,154 @@
       <c r="C82" s="19"/>
       <c r="D82" s="19"/>
       <c r="E82" s="19">
-        <v>684050</v>
+        <v>741074</v>
       </c>
       <c r="F82" s="19">
-        <v>629917</v>
+        <v>894242</v>
       </c>
       <c r="G82" s="19">
-        <v>741074</v>
+        <v>907897</v>
       </c>
       <c r="H82" s="19">
-        <v>894242</v>
+        <v>987513</v>
       </c>
       <c r="I82" s="19">
-        <v>907897</v>
+        <v>1096510</v>
       </c>
       <c r="J82" s="19">
-        <v>987513</v>
+        <v>707717</v>
       </c>
       <c r="K82" s="19">
-        <v>1096510</v>
+        <v>916149</v>
       </c>
       <c r="L82" s="19">
-        <v>707717</v>
+        <v>1458074</v>
       </c>
       <c r="M82" s="19">
-        <v>916149</v>
+        <v>1188478</v>
       </c>
       <c r="N82" s="19">
-        <v>1458074</v>
+        <v>1449392</v>
       </c>
       <c r="O82" s="19">
-        <v>1188478</v>
+        <v>1241714</v>
       </c>
       <c r="P82" s="19">
-        <v>1449392</v>
+        <v>1202410</v>
       </c>
       <c r="Q82" s="19">
-        <v>1241714</v>
+        <v>1069290</v>
       </c>
       <c r="R82" s="19">
-        <v>1202410</v>
+        <v>1392673</v>
       </c>
       <c r="S82" s="19">
-        <v>1069290</v>
+        <v>1551012</v>
       </c>
       <c r="T82" s="19">
-        <v>1392673</v>
+        <v>351724</v>
       </c>
       <c r="U82" s="19">
-        <v>1551012</v>
+        <v>1672745</v>
       </c>
       <c r="V82" s="19">
-        <v>351724</v>
+        <v>996038</v>
       </c>
       <c r="W82" s="19">
-        <v>1672745</v>
+        <v>1936884</v>
       </c>
       <c r="X82" s="19">
-        <v>996038</v>
+        <v>592486</v>
       </c>
       <c r="Y82" s="19">
-        <v>1936884</v>
+        <v>678602</v>
       </c>
       <c r="Z82" s="19">
-        <v>592486</v>
+        <v>1387829</v>
       </c>
       <c r="AA82" s="19">
-        <v>678602</v>
+        <v>1566703</v>
       </c>
       <c r="AB82" s="19">
-        <v>1387829</v>
+        <v>2115451</v>
       </c>
       <c r="AC82" s="19">
-        <v>1566703</v>
+        <v>2610979</v>
       </c>
       <c r="AD82" s="19">
-        <v>2115451</v>
+        <v>3416778</v>
       </c>
       <c r="AE82" s="19">
-        <v>2610979</v>
+        <v>2704690</v>
       </c>
       <c r="AF82" s="19">
-        <v>3416778</v>
+        <v>1264748</v>
       </c>
       <c r="AG82" s="19">
-        <v>2704690</v>
+        <v>2686954</v>
       </c>
       <c r="AH82" s="19">
-        <v>1264748</v>
+        <v>2358066</v>
       </c>
       <c r="AI82" s="19">
-        <v>2686954</v>
+        <v>2731540</v>
       </c>
       <c r="AJ82" s="19">
-        <v>2358066</v>
+        <v>3297277</v>
       </c>
       <c r="AK82" s="19">
-        <v>2731540</v>
+        <v>3460734</v>
       </c>
       <c r="AL82" s="19">
-        <v>3297277</v>
+        <v>2641950</v>
       </c>
       <c r="AM82" s="19">
-        <v>3460734</v>
+        <v>6165972</v>
       </c>
       <c r="AN82" s="19">
-        <v>2641950</v>
+        <v>5342633</v>
       </c>
       <c r="AO82" s="19">
-        <v>6165972</v>
+        <v>4564880</v>
       </c>
       <c r="AP82" s="19">
-        <v>5342633</v>
+        <v>9612676</v>
       </c>
       <c r="AQ82" s="19">
-        <v>4564880</v>
+        <v>3768577</v>
       </c>
       <c r="AR82" s="19">
-        <v>9612676</v>
+        <v>2906291</v>
       </c>
       <c r="AS82" s="19">
-        <v>3768577</v>
+        <v>5131898</v>
       </c>
       <c r="AT82" s="19">
-        <v>2906291</v>
+        <v>4869790</v>
       </c>
       <c r="AU82" s="19">
-        <v>5131898</v>
+        <v>4961238</v>
       </c>
       <c r="AV82" s="19">
-        <v>4869790</v>
+        <v>9702296</v>
       </c>
       <c r="AW82" s="19">
-        <v>5839635</v>
+        <v>8219216</v>
       </c>
       <c r="AX82" s="19">
-        <v>9702296</v>
+        <v>11433123</v>
       </c>
       <c r="AY82" s="19">
-        <v>8219216</v>
+        <v>7010482</v>
       </c>
       <c r="AZ82" s="19">
-        <v>11928978</v>
+        <v>7476155</v>
       </c>
       <c r="BA82" s="19">
-        <v>7010482</v>
+        <v>7011462</v>
       </c>
       <c r="BB82" s="19">
-        <v>7476155</v>
+        <v>5365876</v>
       </c>
     </row>
     <row r="83" spans="2:54" x14ac:dyDescent="0.3">
@@ -11708,17 +11708,17 @@
         <v>0</v>
       </c>
       <c r="V89" s="11">
-        <v>0</v>
+        <v>27143640</v>
       </c>
       <c r="W89" s="11">
-        <v>0</v>
-      </c>
-      <c r="X89" s="11">
-        <v>27143640</v>
-      </c>
-      <c r="Y89" s="11">
         <v>28305736</v>
       </c>
+      <c r="X89" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="Y89" s="11" t="s">
+        <v>60</v>
+      </c>
       <c r="Z89" s="11" t="s">
         <v>60</v>
       </c>
@@ -11743,68 +11743,68 @@
       <c r="AG89" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="AH89" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="AI89" s="11" t="s">
-        <v>60</v>
+      <c r="AH89" s="11">
+        <v>65950891</v>
+      </c>
+      <c r="AI89" s="11">
+        <v>71357289</v>
       </c>
       <c r="AJ89" s="11">
-        <v>65950891</v>
+        <v>60410944</v>
       </c>
       <c r="AK89" s="11">
-        <v>71357289</v>
+        <v>62160195</v>
       </c>
       <c r="AL89" s="11">
-        <v>60410944</v>
+        <v>76316779</v>
       </c>
       <c r="AM89" s="11">
-        <v>62160195</v>
+        <v>85747278</v>
       </c>
       <c r="AN89" s="11">
-        <v>76316779</v>
+        <v>94690224</v>
       </c>
       <c r="AO89" s="11">
-        <v>85747278</v>
+        <v>101258866</v>
       </c>
       <c r="AP89" s="11">
-        <v>94690224</v>
+        <v>172564868</v>
       </c>
       <c r="AQ89" s="11">
-        <v>101258866</v>
+        <v>194023311</v>
       </c>
       <c r="AR89" s="11">
-        <v>172564868</v>
+        <v>145565851</v>
       </c>
       <c r="AS89" s="11">
-        <v>194023311</v>
+        <v>127111158</v>
       </c>
       <c r="AT89" s="11">
-        <v>145565851</v>
+        <v>133732913</v>
       </c>
       <c r="AU89" s="11">
-        <v>127111158</v>
+        <v>173718663</v>
       </c>
       <c r="AV89" s="11">
-        <v>133732913</v>
+        <v>147709834</v>
       </c>
       <c r="AW89" s="11">
-        <v>173718663</v>
+        <v>139114779</v>
       </c>
       <c r="AX89" s="11">
-        <v>147709834</v>
+        <v>131745292</v>
       </c>
       <c r="AY89" s="11">
-        <v>139114779</v>
+        <v>143308868</v>
       </c>
       <c r="AZ89" s="11">
-        <v>131745292</v>
+        <v>157511238</v>
       </c>
       <c r="BA89" s="11">
-        <v>143308868</v>
+        <v>160721703</v>
       </c>
       <c r="BB89" s="11">
-        <v>157511238</v>
+        <v>141395872</v>
       </c>
     </row>
     <row r="90" spans="2:54" x14ac:dyDescent="0.3">
@@ -11866,11 +11866,11 @@
       <c r="U90" s="13">
         <v>0</v>
       </c>
-      <c r="V90" s="13">
-        <v>0</v>
-      </c>
-      <c r="W90" s="13">
-        <v>0</v>
+      <c r="V90" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="W90" s="13" t="s">
+        <v>60</v>
       </c>
       <c r="X90" s="13" t="s">
         <v>60</v>
@@ -11902,68 +11902,68 @@
       <c r="AG90" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="AH90" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="AI90" s="13" t="s">
-        <v>60</v>
+      <c r="AH90" s="13">
+        <v>30121673</v>
+      </c>
+      <c r="AI90" s="13">
+        <v>56372222</v>
       </c>
       <c r="AJ90" s="13">
-        <v>30121673</v>
+        <v>52816514</v>
       </c>
       <c r="AK90" s="13">
-        <v>56372222</v>
-      </c>
-      <c r="AL90" s="13">
-        <v>52816514</v>
+        <v>52092437</v>
+      </c>
+      <c r="AL90" s="13" t="s">
+        <v>60</v>
       </c>
       <c r="AM90" s="13">
-        <v>52092437</v>
-      </c>
-      <c r="AN90" s="13" t="s">
-        <v>60</v>
+        <v>68410256</v>
+      </c>
+      <c r="AN90" s="13">
+        <v>68883249</v>
       </c>
       <c r="AO90" s="13">
-        <v>68410256</v>
+        <v>81837995</v>
       </c>
       <c r="AP90" s="13">
-        <v>68883249</v>
+        <v>104864032</v>
       </c>
       <c r="AQ90" s="13">
-        <v>81837995</v>
+        <v>144863118</v>
       </c>
       <c r="AR90" s="13">
-        <v>104864032</v>
+        <v>155899281</v>
       </c>
       <c r="AS90" s="13">
-        <v>144863118</v>
+        <v>160825000</v>
       </c>
       <c r="AT90" s="13">
-        <v>155899281</v>
+        <v>137793651</v>
       </c>
       <c r="AU90" s="13">
-        <v>160825000</v>
+        <v>168523487</v>
       </c>
       <c r="AV90" s="13">
-        <v>186638655</v>
+        <v>181483067</v>
       </c>
       <c r="AW90" s="13">
-        <v>168523487</v>
+        <v>188144289</v>
       </c>
       <c r="AX90" s="13">
-        <v>181483067</v>
+        <v>191067162</v>
       </c>
       <c r="AY90" s="13">
-        <v>188144289</v>
+        <v>194945388</v>
       </c>
       <c r="AZ90" s="13">
-        <v>191067162</v>
+        <v>203769416</v>
       </c>
       <c r="BA90" s="13">
-        <v>194945388</v>
+        <v>204836615</v>
       </c>
       <c r="BB90" s="13">
-        <v>203769416</v>
+        <v>199255667</v>
       </c>
     </row>
     <row r="91" spans="2:54" x14ac:dyDescent="0.3">
@@ -11975,154 +11975,154 @@
       </c>
       <c r="D91" s="11"/>
       <c r="E91" s="11">
-        <v>12239817</v>
+        <v>23427944</v>
       </c>
       <c r="F91" s="11">
-        <v>12568457</v>
+        <v>20369679</v>
       </c>
       <c r="G91" s="11">
-        <v>23427944</v>
+        <v>19668255</v>
       </c>
       <c r="H91" s="11">
-        <v>20369679</v>
+        <v>17653569</v>
       </c>
       <c r="I91" s="11">
-        <v>19668255</v>
+        <v>14915169</v>
       </c>
       <c r="J91" s="11">
-        <v>17653569</v>
+        <v>15686832</v>
       </c>
       <c r="K91" s="11">
-        <v>14915169</v>
+        <v>17813973</v>
       </c>
       <c r="L91" s="11">
-        <v>15686832</v>
+        <v>21226859</v>
       </c>
       <c r="M91" s="11">
-        <v>17813973</v>
+        <v>22883063</v>
       </c>
       <c r="N91" s="11">
-        <v>21226859</v>
+        <v>23017737</v>
       </c>
       <c r="O91" s="11">
-        <v>22883063</v>
+        <v>21047899</v>
       </c>
       <c r="P91" s="11">
-        <v>23017737</v>
+        <v>19591855</v>
       </c>
       <c r="Q91" s="11">
-        <v>21047899</v>
+        <v>19173006</v>
       </c>
       <c r="R91" s="11">
-        <v>19591855</v>
+        <v>18777258</v>
       </c>
       <c r="S91" s="11">
-        <v>19173006</v>
+        <v>19349070</v>
       </c>
       <c r="T91" s="11">
-        <v>18777258</v>
+        <v>19666205</v>
       </c>
       <c r="U91" s="11">
-        <v>19349070</v>
+        <v>24630556</v>
       </c>
       <c r="V91" s="11">
-        <v>19666205</v>
+        <v>25445652</v>
       </c>
       <c r="W91" s="11">
-        <v>24630556</v>
+        <v>26312875</v>
       </c>
       <c r="X91" s="11">
-        <v>25445652</v>
+        <v>26426844</v>
       </c>
       <c r="Y91" s="11">
-        <v>26312875</v>
+        <v>27245546</v>
       </c>
       <c r="Z91" s="11">
-        <v>26426844</v>
+        <v>32822824</v>
       </c>
       <c r="AA91" s="11">
-        <v>27245546</v>
+        <v>35685916</v>
       </c>
       <c r="AB91" s="11">
-        <v>32822824</v>
+        <v>43738347</v>
       </c>
       <c r="AC91" s="11">
-        <v>35685916</v>
+        <v>49205665</v>
       </c>
       <c r="AD91" s="11">
-        <v>43738347</v>
+        <v>49670470</v>
       </c>
       <c r="AE91" s="11">
-        <v>49205665</v>
+        <v>48039806</v>
       </c>
       <c r="AF91" s="11">
-        <v>49670470</v>
+        <v>49715736</v>
       </c>
       <c r="AG91" s="11">
-        <v>48039806</v>
+        <v>53776766</v>
       </c>
       <c r="AH91" s="11">
-        <v>49715736</v>
+        <v>49043796</v>
       </c>
       <c r="AI91" s="11">
-        <v>53776766</v>
+        <v>58697277</v>
       </c>
       <c r="AJ91" s="11">
-        <v>49043796</v>
+        <v>58507119</v>
       </c>
       <c r="AK91" s="11">
-        <v>58697277</v>
+        <v>75886957</v>
       </c>
       <c r="AL91" s="11">
-        <v>58507119</v>
+        <v>82453115</v>
       </c>
       <c r="AM91" s="11">
-        <v>75886957</v>
+        <v>86666097</v>
       </c>
       <c r="AN91" s="11">
-        <v>82453115</v>
+        <v>96542857</v>
       </c>
       <c r="AO91" s="11">
-        <v>86666097</v>
+        <v>149441237</v>
       </c>
       <c r="AP91" s="11">
-        <v>96542857</v>
+        <v>166680628</v>
       </c>
       <c r="AQ91" s="11">
-        <v>149441237</v>
+        <v>202693023</v>
       </c>
       <c r="AR91" s="11">
-        <v>166680628</v>
+        <v>154822642</v>
       </c>
       <c r="AS91" s="11">
-        <v>202693023</v>
+        <v>118434599</v>
       </c>
       <c r="AT91" s="11">
-        <v>154822642</v>
+        <v>129312088</v>
       </c>
       <c r="AU91" s="11">
-        <v>118434599</v>
+        <v>193546112</v>
       </c>
       <c r="AV91" s="11">
-        <v>129312088</v>
+        <v>141006757</v>
       </c>
       <c r="AW91" s="11">
-        <v>193546112</v>
+        <v>123430924</v>
       </c>
       <c r="AX91" s="11">
-        <v>141006757</v>
+        <v>120248913</v>
       </c>
       <c r="AY91" s="11">
-        <v>123430924</v>
+        <v>137210359</v>
       </c>
       <c r="AZ91" s="11">
-        <v>120248913</v>
+        <v>136586304</v>
       </c>
       <c r="BA91" s="11">
-        <v>137210359</v>
+        <v>126045455</v>
       </c>
       <c r="BB91" s="11">
-        <v>136586304</v>
+        <v>128654880</v>
       </c>
     </row>
     <row r="92" spans="2:54" x14ac:dyDescent="0.3">
@@ -12134,97 +12134,97 @@
       </c>
       <c r="D92" s="13"/>
       <c r="E92" s="13">
-        <v>19976970</v>
+        <v>19964026</v>
       </c>
       <c r="F92" s="13">
-        <v>21466737</v>
+        <v>18956064</v>
       </c>
       <c r="G92" s="13">
-        <v>19964026</v>
+        <v>18394422</v>
       </c>
       <c r="H92" s="13">
-        <v>18956064</v>
+        <v>18569147</v>
       </c>
       <c r="I92" s="13">
-        <v>18394422</v>
+        <v>21234679</v>
       </c>
       <c r="J92" s="13">
-        <v>18569147</v>
+        <v>21015215</v>
       </c>
       <c r="K92" s="13">
-        <v>21234679</v>
+        <v>21523460</v>
       </c>
       <c r="L92" s="13">
-        <v>21015215</v>
+        <v>23709491</v>
       </c>
       <c r="M92" s="13">
-        <v>21523460</v>
+        <v>24289682</v>
       </c>
       <c r="N92" s="13">
-        <v>23709491</v>
+        <v>25744468</v>
       </c>
       <c r="O92" s="13">
-        <v>24289682</v>
+        <v>24693876</v>
       </c>
       <c r="P92" s="13">
-        <v>25744468</v>
+        <v>24144231</v>
       </c>
       <c r="Q92" s="13">
-        <v>24693876</v>
+        <v>23311107</v>
       </c>
       <c r="R92" s="13">
-        <v>24144231</v>
+        <v>23095538</v>
       </c>
       <c r="S92" s="13">
-        <v>23311107</v>
+        <v>23507165</v>
       </c>
       <c r="T92" s="13">
-        <v>23095538</v>
+        <v>24091299</v>
       </c>
       <c r="U92" s="13">
-        <v>23507165</v>
-      </c>
-      <c r="V92" s="13">
-        <v>24091299</v>
-      </c>
-      <c r="W92" s="13">
         <v>26281066</v>
       </c>
-      <c r="X92" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="Y92" s="13" t="s">
-        <v>60</v>
+      <c r="V92" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="W92" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="X92" s="13">
+        <v>28177854</v>
+      </c>
+      <c r="Y92" s="13">
+        <v>29569348</v>
       </c>
       <c r="Z92" s="13">
-        <v>28177854</v>
+        <v>33609925</v>
       </c>
       <c r="AA92" s="13">
-        <v>29569348</v>
+        <v>40153117</v>
       </c>
       <c r="AB92" s="13">
-        <v>33609925</v>
+        <v>46033682</v>
       </c>
       <c r="AC92" s="13">
-        <v>40153117</v>
+        <v>51906629</v>
       </c>
       <c r="AD92" s="13">
-        <v>46033682</v>
+        <v>54439859</v>
       </c>
       <c r="AE92" s="13">
-        <v>51906629</v>
+        <v>55904525</v>
       </c>
       <c r="AF92" s="13">
-        <v>54439859</v>
+        <v>50777913</v>
       </c>
       <c r="AG92" s="13">
-        <v>55904525</v>
-      </c>
-      <c r="AH92" s="13">
-        <v>50777913</v>
-      </c>
-      <c r="AI92" s="13">
         <v>55321048</v>
+      </c>
+      <c r="AH92" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="AI92" s="13" t="s">
+        <v>60</v>
       </c>
       <c r="AJ92" s="13" t="s">
         <v>60</v>
@@ -12343,11 +12343,11 @@
       <c r="U93" s="11">
         <v>0</v>
       </c>
-      <c r="V93" s="11">
-        <v>0</v>
-      </c>
-      <c r="W93" s="11">
-        <v>0</v>
+      <c r="V93" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="W93" s="11" t="s">
+        <v>60</v>
       </c>
       <c r="X93" s="11" t="s">
         <v>60</v>
@@ -12379,68 +12379,68 @@
       <c r="AG93" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="AH93" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="AI93" s="11" t="s">
-        <v>60</v>
+      <c r="AH93" s="11">
+        <v>423000000</v>
+      </c>
+      <c r="AI93" s="11">
+        <v>435864796</v>
       </c>
       <c r="AJ93" s="11">
-        <v>423000000</v>
+        <v>439848435</v>
       </c>
       <c r="AK93" s="11">
-        <v>435864796</v>
+        <v>467676529</v>
       </c>
       <c r="AL93" s="11">
-        <v>439848435</v>
+        <v>556074803</v>
       </c>
       <c r="AM93" s="11">
-        <v>467676529</v>
+        <v>585545297</v>
       </c>
       <c r="AN93" s="11">
-        <v>556074803</v>
+        <v>806267790</v>
       </c>
       <c r="AO93" s="11">
-        <v>585545297</v>
+        <v>940348740</v>
       </c>
       <c r="AP93" s="11">
-        <v>806267790</v>
+        <v>977012285</v>
       </c>
       <c r="AQ93" s="11">
-        <v>940348740</v>
+        <v>883865000</v>
       </c>
       <c r="AR93" s="11">
-        <v>977012285</v>
+        <v>770870000</v>
       </c>
       <c r="AS93" s="11">
-        <v>883865000</v>
+        <v>675433333</v>
       </c>
       <c r="AT93" s="11">
-        <v>770870000</v>
+        <v>686641026</v>
       </c>
       <c r="AU93" s="11">
-        <v>675433333</v>
+        <v>619376087</v>
       </c>
       <c r="AV93" s="11">
-        <v>686641026</v>
-      </c>
-      <c r="AW93" s="11">
-        <v>619376087</v>
+        <v>532742029</v>
+      </c>
+      <c r="AW93" s="11" t="s">
+        <v>60</v>
       </c>
       <c r="AX93" s="11">
-        <v>532742029</v>
-      </c>
-      <c r="AY93" s="11" t="s">
-        <v>60</v>
+        <v>0</v>
+      </c>
+      <c r="AY93" s="11">
+        <v>440747492</v>
       </c>
       <c r="AZ93" s="11" t="s">
         <v>60</v>
       </c>
       <c r="BA93" s="11">
-        <v>440747492</v>
-      </c>
-      <c r="BB93" s="11" t="s">
-        <v>60</v>
+        <v>421626113</v>
+      </c>
+      <c r="BB93" s="11">
+        <v>393853659</v>
       </c>
     </row>
     <row r="94" spans="2:54" x14ac:dyDescent="0.3">
@@ -12502,18 +12502,18 @@
       <c r="U94" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="V94" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="W94" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="X94" s="13">
+      <c r="V94" s="13">
         <v>132365400</v>
       </c>
-      <c r="Y94" s="13">
+      <c r="W94" s="13">
         <v>146882890</v>
       </c>
+      <c r="X94" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="Y94" s="13" t="s">
+        <v>60</v>
+      </c>
       <c r="Z94" s="13" t="s">
         <v>60</v>
       </c>
@@ -12574,32 +12574,32 @@
       <c r="AS94" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="AT94" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="AU94" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="AV94" s="13" t="s">
-        <v>60</v>
+      <c r="AT94" s="13">
+        <v>589551920</v>
+      </c>
+      <c r="AU94" s="13">
+        <v>560061255</v>
+      </c>
+      <c r="AV94" s="13">
+        <v>564512071</v>
       </c>
       <c r="AW94" s="13">
-        <v>560061255</v>
+        <v>495605839</v>
       </c>
       <c r="AX94" s="13">
-        <v>564512071</v>
+        <v>451731272</v>
       </c>
       <c r="AY94" s="13">
-        <v>495605839</v>
+        <v>436777955</v>
       </c>
       <c r="AZ94" s="13">
-        <v>451731272</v>
+        <v>422918755</v>
       </c>
       <c r="BA94" s="13">
-        <v>436777955</v>
+        <v>407655771</v>
       </c>
       <c r="BB94" s="13">
-        <v>422918755</v>
+        <v>403583926</v>
       </c>
     </row>
     <row r="95" spans="2:54" x14ac:dyDescent="0.3">
@@ -12661,11 +12661,11 @@
       <c r="U95" s="11">
         <v>0</v>
       </c>
-      <c r="V95" s="11">
-        <v>0</v>
-      </c>
-      <c r="W95" s="11">
-        <v>0</v>
+      <c r="V95" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="W95" s="11" t="s">
+        <v>60</v>
       </c>
       <c r="X95" s="11" t="s">
         <v>60</v>
@@ -12820,11 +12820,11 @@
       <c r="U96" s="13">
         <v>0</v>
       </c>
-      <c r="V96" s="13">
-        <v>0</v>
-      </c>
-      <c r="W96" s="13">
-        <v>0</v>
+      <c r="V96" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="W96" s="13" t="s">
+        <v>60</v>
       </c>
       <c r="X96" s="13" t="s">
         <v>60</v>
@@ -12979,11 +12979,11 @@
       <c r="U97" s="11">
         <v>0</v>
       </c>
-      <c r="V97" s="11">
-        <v>0</v>
-      </c>
-      <c r="W97" s="11">
-        <v>0</v>
+      <c r="V97" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="W97" s="11" t="s">
+        <v>60</v>
       </c>
       <c r="X97" s="11" t="s">
         <v>60</v>
@@ -13088,61 +13088,61 @@
       </c>
       <c r="D98" s="13"/>
       <c r="E98" s="13">
-        <v>9513514</v>
+        <v>12143478</v>
       </c>
       <c r="F98" s="13">
-        <v>12809524</v>
+        <v>12917339</v>
       </c>
       <c r="G98" s="13">
-        <v>12143478</v>
+        <v>12956072</v>
       </c>
       <c r="H98" s="13">
-        <v>12917339</v>
+        <v>12821053</v>
       </c>
       <c r="I98" s="13">
-        <v>12956072</v>
+        <v>14463768</v>
       </c>
       <c r="J98" s="13">
-        <v>12821053</v>
+        <v>14328502</v>
       </c>
       <c r="K98" s="13">
-        <v>14463768</v>
+        <v>14211864</v>
       </c>
       <c r="L98" s="13">
-        <v>14328502</v>
+        <v>15000000</v>
       </c>
       <c r="M98" s="13">
-        <v>14211864</v>
+        <v>17178862</v>
       </c>
       <c r="N98" s="13">
-        <v>15000000</v>
+        <v>14913462</v>
       </c>
       <c r="O98" s="13">
-        <v>17178862</v>
+        <v>14863014</v>
       </c>
       <c r="P98" s="13">
-        <v>14913462</v>
+        <v>15039062</v>
       </c>
       <c r="Q98" s="13">
-        <v>14863014</v>
+        <v>15125000</v>
       </c>
       <c r="R98" s="13">
-        <v>15039062</v>
+        <v>15073171</v>
       </c>
       <c r="S98" s="13">
-        <v>15125000</v>
+        <v>0</v>
       </c>
       <c r="T98" s="13">
-        <v>15073171</v>
+        <v>0</v>
       </c>
       <c r="U98" s="13">
         <v>0</v>
       </c>
-      <c r="V98" s="13">
-        <v>0</v>
-      </c>
-      <c r="W98" s="13">
-        <v>0</v>
+      <c r="V98" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="W98" s="13" t="s">
+        <v>60</v>
       </c>
       <c r="X98" s="13" t="s">
         <v>60</v>
@@ -13153,32 +13153,32 @@
       <c r="Z98" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="AA98" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="AB98" s="13" t="s">
-        <v>60</v>
+      <c r="AA98" s="13">
+        <v>24172662</v>
+      </c>
+      <c r="AB98" s="13">
+        <v>25190661</v>
       </c>
       <c r="AC98" s="13">
-        <v>24172662</v>
+        <v>28957935</v>
       </c>
       <c r="AD98" s="13">
-        <v>25190661</v>
+        <v>32120983</v>
       </c>
       <c r="AE98" s="13">
-        <v>28957935</v>
-      </c>
-      <c r="AF98" s="13">
-        <v>32120983</v>
+        <v>32098630</v>
+      </c>
+      <c r="AF98" s="13" t="s">
+        <v>60</v>
       </c>
       <c r="AG98" s="13">
-        <v>32098630</v>
+        <v>33584507</v>
       </c>
       <c r="AH98" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="AI98" s="13">
-        <v>33584507</v>
+      <c r="AI98" s="13" t="s">
+        <v>60</v>
       </c>
       <c r="AJ98" s="13" t="s">
         <v>60</v>
@@ -13247,136 +13247,136 @@
       </c>
       <c r="D99" s="11"/>
       <c r="E99" s="11">
-        <v>10417314</v>
+        <v>13859137</v>
       </c>
       <c r="F99" s="11">
-        <v>11203337</v>
+        <v>17358605</v>
       </c>
       <c r="G99" s="11">
-        <v>13859137</v>
+        <v>17563725</v>
       </c>
       <c r="H99" s="11">
-        <v>17358605</v>
+        <v>15128033</v>
       </c>
       <c r="I99" s="11">
-        <v>17563725</v>
+        <v>12826133</v>
       </c>
       <c r="J99" s="11">
-        <v>15128033</v>
+        <v>12065546</v>
       </c>
       <c r="K99" s="11">
-        <v>12826133</v>
+        <v>11270648</v>
       </c>
       <c r="L99" s="11">
-        <v>12065546</v>
+        <v>11415649</v>
       </c>
       <c r="M99" s="11">
-        <v>11270648</v>
+        <v>11777332</v>
       </c>
       <c r="N99" s="11">
-        <v>11415649</v>
+        <v>12182131</v>
       </c>
       <c r="O99" s="11">
-        <v>11777332</v>
+        <v>11894763</v>
       </c>
       <c r="P99" s="11">
-        <v>12182131</v>
+        <v>13098201</v>
       </c>
       <c r="Q99" s="11">
-        <v>11894763</v>
+        <v>13104575</v>
       </c>
       <c r="R99" s="11">
-        <v>13098201</v>
+        <v>13260830</v>
       </c>
       <c r="S99" s="11">
-        <v>13104575</v>
+        <v>13072669</v>
       </c>
       <c r="T99" s="11">
-        <v>13260830</v>
+        <v>13424625</v>
       </c>
       <c r="U99" s="11">
-        <v>13072669</v>
-      </c>
-      <c r="V99" s="11">
-        <v>13424625</v>
-      </c>
-      <c r="W99" s="11">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="V99" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="W99" s="11" t="s">
+        <v>60</v>
       </c>
       <c r="X99" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="Y99" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="Z99" s="11" t="s">
-        <v>60</v>
+      <c r="Y99" s="11">
+        <v>19250000</v>
+      </c>
+      <c r="Z99" s="11">
+        <v>23302977</v>
       </c>
       <c r="AA99" s="11">
-        <v>19250000</v>
+        <v>23948549</v>
       </c>
       <c r="AB99" s="11">
-        <v>23302977</v>
+        <v>27447409</v>
       </c>
       <c r="AC99" s="11">
-        <v>23948549</v>
+        <v>27455641</v>
       </c>
       <c r="AD99" s="11">
-        <v>27447409</v>
+        <v>28773563</v>
       </c>
       <c r="AE99" s="11">
-        <v>27455641</v>
-      </c>
-      <c r="AF99" s="11">
-        <v>28773563</v>
+        <v>28859223</v>
+      </c>
+      <c r="AF99" s="11" t="s">
+        <v>60</v>
       </c>
       <c r="AG99" s="11">
-        <v>28859223</v>
-      </c>
-      <c r="AH99" s="11" t="s">
-        <v>60</v>
+        <v>33946721</v>
+      </c>
+      <c r="AH99" s="11">
+        <v>37508239</v>
       </c>
       <c r="AI99" s="11">
-        <v>33946721</v>
+        <v>46524727</v>
       </c>
       <c r="AJ99" s="11">
-        <v>37508239</v>
+        <v>54257545</v>
       </c>
       <c r="AK99" s="11">
-        <v>46524727</v>
+        <v>65768698</v>
       </c>
       <c r="AL99" s="11">
-        <v>54257545</v>
+        <v>70819076</v>
       </c>
       <c r="AM99" s="11">
-        <v>65768698</v>
+        <v>78570703</v>
       </c>
       <c r="AN99" s="11">
-        <v>70819076</v>
+        <v>81681741</v>
       </c>
       <c r="AO99" s="11">
-        <v>78570703</v>
+        <v>93947341</v>
       </c>
       <c r="AP99" s="11">
-        <v>81681741</v>
+        <v>121000812</v>
       </c>
       <c r="AQ99" s="11">
-        <v>93947341</v>
+        <v>145177928</v>
       </c>
       <c r="AR99" s="11">
-        <v>121000812</v>
+        <v>148923828</v>
       </c>
       <c r="AS99" s="11">
-        <v>145177928</v>
-      </c>
-      <c r="AT99" s="11">
-        <v>148923828</v>
-      </c>
-      <c r="AU99" s="11">
         <v>123974822</v>
       </c>
-      <c r="AV99" s="11">
-        <v>133423308</v>
+      <c r="AT99" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="AU99" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="AV99" s="11" t="s">
+        <v>60</v>
       </c>
       <c r="AW99" s="11" t="s">
         <v>60</v>
@@ -13406,154 +13406,154 @@
       </c>
       <c r="D100" s="13"/>
       <c r="E100" s="13">
-        <v>6124977</v>
+        <v>6124764</v>
       </c>
       <c r="F100" s="13">
-        <v>6125010</v>
+        <v>6124755</v>
       </c>
       <c r="G100" s="13">
-        <v>6124764</v>
+        <v>6125096</v>
       </c>
       <c r="H100" s="13">
-        <v>6124755</v>
+        <v>6125026</v>
       </c>
       <c r="I100" s="13">
-        <v>6125096</v>
+        <v>12539345</v>
       </c>
       <c r="J100" s="13">
-        <v>6125026</v>
+        <v>14692697</v>
       </c>
       <c r="K100" s="13">
-        <v>12539345</v>
+        <v>16159445</v>
       </c>
       <c r="L100" s="13">
-        <v>14692697</v>
+        <v>17883794</v>
       </c>
       <c r="M100" s="13">
-        <v>16159445</v>
+        <v>16989980</v>
       </c>
       <c r="N100" s="13">
-        <v>17883794</v>
+        <v>16989986</v>
       </c>
       <c r="O100" s="13">
-        <v>16989980</v>
+        <v>15198008</v>
       </c>
       <c r="P100" s="13">
-        <v>16989986</v>
+        <v>17828274</v>
       </c>
       <c r="Q100" s="13">
-        <v>15198008</v>
+        <v>15500000</v>
       </c>
       <c r="R100" s="13">
-        <v>17828274</v>
+        <v>18351990</v>
       </c>
       <c r="S100" s="13">
-        <v>15500000</v>
+        <v>18349979</v>
       </c>
       <c r="T100" s="13">
-        <v>18351990</v>
+        <v>18354307</v>
       </c>
       <c r="U100" s="13">
-        <v>18349979</v>
+        <v>18352513</v>
       </c>
       <c r="V100" s="13">
-        <v>18354307</v>
+        <v>21691293</v>
       </c>
       <c r="W100" s="13">
-        <v>18352513</v>
+        <v>22229989</v>
       </c>
       <c r="X100" s="13">
-        <v>21691293</v>
+        <v>22231640</v>
       </c>
       <c r="Y100" s="13">
-        <v>22229989</v>
+        <v>22230070</v>
       </c>
       <c r="Z100" s="13">
-        <v>22231640</v>
+        <v>22229290</v>
       </c>
       <c r="AA100" s="13">
-        <v>22230070</v>
+        <v>22228757</v>
       </c>
       <c r="AB100" s="13">
-        <v>22229290</v>
+        <v>35997443</v>
       </c>
       <c r="AC100" s="13">
-        <v>22228757</v>
+        <v>36000000</v>
       </c>
       <c r="AD100" s="13">
-        <v>35997443</v>
+        <v>35998918</v>
       </c>
       <c r="AE100" s="13">
-        <v>36000000</v>
+        <v>35997809</v>
       </c>
       <c r="AF100" s="13">
-        <v>35998918</v>
+        <v>35997689</v>
       </c>
       <c r="AG100" s="13">
-        <v>35997809</v>
+        <v>38405087</v>
       </c>
       <c r="AH100" s="13">
-        <v>35997689</v>
+        <v>43592251</v>
       </c>
       <c r="AI100" s="13">
-        <v>38405087</v>
+        <v>45609112</v>
       </c>
       <c r="AJ100" s="13">
-        <v>43592251</v>
+        <v>42314175</v>
       </c>
       <c r="AK100" s="13">
-        <v>45609112</v>
+        <v>45998566</v>
       </c>
       <c r="AL100" s="13">
-        <v>42314175</v>
+        <v>46000000</v>
       </c>
       <c r="AM100" s="13">
-        <v>45998566</v>
+        <v>48216111</v>
       </c>
       <c r="AN100" s="13">
-        <v>46000000</v>
+        <v>68299962</v>
       </c>
       <c r="AO100" s="13">
-        <v>48216111</v>
+        <v>68228068</v>
       </c>
       <c r="AP100" s="13">
-        <v>68299962</v>
+        <v>90231348</v>
       </c>
       <c r="AQ100" s="13">
-        <v>68228068</v>
+        <v>90229008</v>
       </c>
       <c r="AR100" s="13">
-        <v>90231348</v>
+        <v>90233133</v>
       </c>
       <c r="AS100" s="13">
-        <v>90229008</v>
+        <v>90228956</v>
       </c>
       <c r="AT100" s="13">
-        <v>90233133</v>
+        <v>145112004</v>
       </c>
       <c r="AU100" s="13">
-        <v>90228956</v>
+        <v>116648957</v>
       </c>
       <c r="AV100" s="13">
-        <v>145112004</v>
+        <v>116648999</v>
       </c>
       <c r="AW100" s="13">
-        <v>145111968</v>
+        <v>116643703</v>
       </c>
       <c r="AX100" s="13">
-        <v>116648999</v>
+        <v>108603263</v>
       </c>
       <c r="AY100" s="13">
-        <v>116643703</v>
+        <v>108603007</v>
       </c>
       <c r="AZ100" s="13">
-        <v>116649200</v>
+        <v>108603039</v>
       </c>
       <c r="BA100" s="13">
-        <v>108603007</v>
+        <v>108606660</v>
       </c>
       <c r="BB100" s="13">
-        <v>108603039</v>
+        <v>108597280</v>
       </c>
     </row>
     <row r="101" spans="2:54" x14ac:dyDescent="0.3">
@@ -13565,136 +13565,136 @@
       </c>
       <c r="D101" s="11"/>
       <c r="E101" s="11">
-        <v>73895449</v>
+        <v>161442127</v>
       </c>
       <c r="F101" s="11">
-        <v>157896940</v>
+        <v>122357827</v>
       </c>
       <c r="G101" s="11">
-        <v>161442127</v>
+        <v>112688363</v>
       </c>
       <c r="H101" s="11">
-        <v>122357827</v>
+        <v>89223735</v>
       </c>
       <c r="I101" s="11">
-        <v>112688363</v>
+        <v>86593472</v>
       </c>
       <c r="J101" s="11">
-        <v>89223735</v>
+        <v>87542811</v>
       </c>
       <c r="K101" s="11">
-        <v>86593472</v>
+        <v>93195443</v>
       </c>
       <c r="L101" s="11">
-        <v>87542811</v>
+        <v>98524971</v>
       </c>
       <c r="M101" s="11">
-        <v>93195443</v>
+        <v>104756071</v>
       </c>
       <c r="N101" s="11">
-        <v>98524971</v>
+        <v>108651926</v>
       </c>
       <c r="O101" s="11">
-        <v>104756071</v>
+        <v>101584828</v>
       </c>
       <c r="P101" s="11">
-        <v>108651926</v>
+        <v>96959459</v>
       </c>
       <c r="Q101" s="11">
-        <v>101584828</v>
+        <v>90020576</v>
       </c>
       <c r="R101" s="11">
-        <v>96959459</v>
+        <v>86214616</v>
       </c>
       <c r="S101" s="11">
-        <v>90020576</v>
+        <v>93170623</v>
       </c>
       <c r="T101" s="11">
-        <v>86214616</v>
+        <v>96827586</v>
       </c>
       <c r="U101" s="11">
-        <v>93170623</v>
-      </c>
-      <c r="V101" s="11">
-        <v>96827586</v>
-      </c>
-      <c r="W101" s="11">
         <v>168556180</v>
       </c>
-      <c r="X101" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="Y101" s="11" t="s">
-        <v>60</v>
+      <c r="V101" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="W101" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="X101" s="11">
+        <v>181736305</v>
+      </c>
+      <c r="Y101" s="11">
+        <v>181545543</v>
       </c>
       <c r="Z101" s="11">
-        <v>181736305</v>
+        <v>192879004</v>
       </c>
       <c r="AA101" s="11">
-        <v>181545543</v>
+        <v>170436719</v>
       </c>
       <c r="AB101" s="11">
-        <v>192879004</v>
+        <v>221854500</v>
       </c>
       <c r="AC101" s="11">
-        <v>170436719</v>
+        <v>243842893</v>
       </c>
       <c r="AD101" s="11">
-        <v>221854500</v>
+        <v>268267672</v>
       </c>
       <c r="AE101" s="11">
-        <v>243842893</v>
+        <v>287628947</v>
       </c>
       <c r="AF101" s="11">
-        <v>268267672</v>
+        <v>347252302</v>
       </c>
       <c r="AG101" s="11">
-        <v>287628947</v>
+        <v>326023840</v>
       </c>
       <c r="AH101" s="11">
-        <v>347252302</v>
+        <v>324607417</v>
       </c>
       <c r="AI101" s="11">
-        <v>326023840</v>
+        <v>364907631</v>
       </c>
       <c r="AJ101" s="11">
-        <v>324607417</v>
+        <v>372608939</v>
       </c>
       <c r="AK101" s="11">
-        <v>364907631</v>
+        <v>372375993</v>
       </c>
       <c r="AL101" s="11">
-        <v>372608939</v>
+        <v>452259098</v>
       </c>
       <c r="AM101" s="11">
-        <v>372375993</v>
+        <v>497805471</v>
       </c>
       <c r="AN101" s="11">
-        <v>452259098</v>
+        <v>622362855</v>
       </c>
       <c r="AO101" s="11">
-        <v>497805471</v>
+        <v>882505863</v>
       </c>
       <c r="AP101" s="11">
-        <v>622362855</v>
+        <v>932076342</v>
       </c>
       <c r="AQ101" s="11">
-        <v>882505863</v>
+        <v>711063457</v>
       </c>
       <c r="AR101" s="11">
-        <v>932076342</v>
+        <v>639606952</v>
       </c>
       <c r="AS101" s="11">
-        <v>711063457</v>
-      </c>
-      <c r="AT101" s="11">
-        <v>639606952</v>
-      </c>
-      <c r="AU101" s="11">
         <v>665293147</v>
       </c>
-      <c r="AV101" s="11">
-        <v>589551920</v>
+      <c r="AT101" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="AU101" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="AV101" s="11" t="s">
+        <v>60</v>
       </c>
       <c r="AW101" s="11" t="s">
         <v>60</v>
@@ -13724,97 +13724,97 @@
       </c>
       <c r="D102" s="13"/>
       <c r="E102" s="13">
-        <v>113774920</v>
+        <v>112828571</v>
       </c>
       <c r="F102" s="13">
-        <v>106852564</v>
+        <v>105361111</v>
       </c>
       <c r="G102" s="13">
-        <v>112828571</v>
+        <v>107478774</v>
       </c>
       <c r="H102" s="13">
-        <v>105361111</v>
+        <v>87450000</v>
       </c>
       <c r="I102" s="13">
-        <v>107478774</v>
+        <v>100480952</v>
       </c>
       <c r="J102" s="13">
-        <v>87450000</v>
+        <v>102583333</v>
       </c>
       <c r="K102" s="13">
-        <v>100480952</v>
+        <v>96453488</v>
       </c>
       <c r="L102" s="13">
-        <v>102583333</v>
+        <v>110133333</v>
       </c>
       <c r="M102" s="13">
-        <v>96453488</v>
+        <v>106912500</v>
       </c>
       <c r="N102" s="13">
-        <v>110133333</v>
+        <v>105293443</v>
       </c>
       <c r="O102" s="13">
-        <v>106912500</v>
+        <v>103574257</v>
       </c>
       <c r="P102" s="13">
-        <v>105293443</v>
+        <v>98175739</v>
       </c>
       <c r="Q102" s="13">
-        <v>103574257</v>
+        <v>90914634</v>
       </c>
       <c r="R102" s="13">
-        <v>98175739</v>
+        <v>89392276</v>
       </c>
       <c r="S102" s="13">
-        <v>90914634</v>
+        <v>95099629</v>
       </c>
       <c r="T102" s="13">
-        <v>89392276</v>
+        <v>98270833</v>
       </c>
       <c r="U102" s="13">
-        <v>95099629</v>
-      </c>
-      <c r="V102" s="13">
-        <v>98270833</v>
-      </c>
-      <c r="W102" s="13">
         <v>114737037</v>
       </c>
-      <c r="X102" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="Y102" s="13" t="s">
-        <v>60</v>
+      <c r="V102" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="W102" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="X102" s="13">
+        <v>116062500</v>
+      </c>
+      <c r="Y102" s="13">
+        <v>128583333</v>
       </c>
       <c r="Z102" s="13">
-        <v>116062500</v>
+        <v>137779412</v>
       </c>
       <c r="AA102" s="13">
-        <v>128583333</v>
+        <v>147024194</v>
       </c>
       <c r="AB102" s="13">
-        <v>137779412</v>
+        <v>158303459</v>
       </c>
       <c r="AC102" s="13">
-        <v>147024194</v>
+        <v>199262376</v>
       </c>
       <c r="AD102" s="13">
-        <v>158303459</v>
+        <v>213019139</v>
       </c>
       <c r="AE102" s="13">
-        <v>199262376</v>
+        <v>276842742</v>
       </c>
       <c r="AF102" s="13">
-        <v>213019139</v>
+        <v>288061224</v>
       </c>
       <c r="AG102" s="13">
-        <v>276842742</v>
-      </c>
-      <c r="AH102" s="13">
-        <v>288061224</v>
-      </c>
-      <c r="AI102" s="13">
         <v>386400000</v>
+      </c>
+      <c r="AH102" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="AI102" s="13" t="s">
+        <v>60</v>
       </c>
       <c r="AJ102" s="13" t="s">
         <v>60</v>

--- a/database/industries/urea/khorasan/product/monthly.xlsx
+++ b/database/industries/urea/khorasan/product/monthly.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\urea\khorasan\product\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\urea\khorasan\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91CF0DA4-628F-49D5-BD4C-E948D1155C71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D673906-8D45-4530-A924-23AD9D236A48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2640" yWindow="1704" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,12 +20,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1241" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1271" uniqueCount="87">
   <si>
     <t>Pouya Finance</t>
   </si>
   <si>
-    <t>Copyright @2015 - 2022</t>
+    <t>Copyright @2015 - 2023</t>
   </si>
   <si>
     <t>خراسان-پتروشیمی خراسان</t>
@@ -35,12 +35,6 @@
   </si>
   <si>
     <t>مقدار تولید</t>
-  </si>
-  <si>
-    <t>ماه 8 منتهی به 1397/08</t>
-  </si>
-  <si>
-    <t>ماه 9 منتهی به 1397/09</t>
   </si>
   <si>
     <t>ماه 10 منتهی به 1397/10</t>
@@ -185,6 +179,12 @@
   </si>
   <si>
     <t>ماه 9 منتهی به 1401/09</t>
+  </si>
+  <si>
+    <t>ماه 10 منتهی به 1401/10</t>
+  </si>
+  <si>
+    <t>ماه 11 منتهی به 1401/11</t>
   </si>
   <si>
     <t>اوره</t>
@@ -763,12 +763,12 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="54" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -823,7 +823,7 @@
       <c r="BA1" s="1"/>
       <c r="BB1" s="1"/>
     </row>
-    <row r="2" spans="2:54" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:54" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -880,7 +880,7 @@
       <c r="BA2" s="1"/>
       <c r="BB2" s="1"/>
     </row>
-    <row r="3" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -937,7 +937,7 @@
       <c r="BA3" s="1"/>
       <c r="BB3" s="1"/>
     </row>
-    <row r="4" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -992,7 +992,7 @@
       <c r="BA4" s="1"/>
       <c r="BB4" s="1"/>
     </row>
-    <row r="5" spans="2:54" ht="40.799999999999997" x14ac:dyDescent="0.75">
+    <row r="5" spans="2:54" ht="42" x14ac:dyDescent="0.65">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -1049,7 +1049,7 @@
       <c r="BA5" s="4"/>
       <c r="BB5" s="4"/>
     </row>
-    <row r="6" spans="2:54" ht="40.799999999999997" x14ac:dyDescent="0.75">
+    <row r="6" spans="2:54" ht="42" x14ac:dyDescent="0.65">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -1106,7 +1106,7 @@
       <c r="BA6" s="4"/>
       <c r="BB6" s="4"/>
     </row>
-    <row r="7" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -1161,7 +1161,7 @@
       <c r="BA7" s="1"/>
       <c r="BB7" s="1"/>
     </row>
-    <row r="8" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -1318,7 +1318,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="9" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -1373,7 +1373,7 @@
       <c r="BA9" s="1"/>
       <c r="BB9" s="1"/>
     </row>
-    <row r="10" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B10" s="8" t="s">
         <v>4</v>
       </c>
@@ -1430,7 +1430,7 @@
       <c r="BA10" s="9"/>
       <c r="BB10" s="9"/>
     </row>
-    <row r="11" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B11" s="10" t="s">
         <v>55</v>
       </c>
@@ -1439,157 +1439,157 @@
       </c>
       <c r="D11" s="11"/>
       <c r="E11" s="11">
-        <v>51354</v>
+        <v>51224</v>
       </c>
       <c r="F11" s="11">
-        <v>51339</v>
+        <v>51278</v>
       </c>
       <c r="G11" s="11">
-        <v>51224</v>
+        <v>50091</v>
       </c>
       <c r="H11" s="11">
-        <v>51278</v>
+        <v>53710</v>
       </c>
       <c r="I11" s="11">
-        <v>50091</v>
+        <v>53731</v>
       </c>
       <c r="J11" s="11">
-        <v>53710</v>
+        <v>53716</v>
       </c>
       <c r="K11" s="11">
-        <v>53731</v>
+        <v>53704</v>
       </c>
       <c r="L11" s="11">
         <v>53716</v>
       </c>
       <c r="M11" s="11">
-        <v>53704</v>
+        <v>53834</v>
       </c>
       <c r="N11" s="11">
-        <v>53716</v>
+        <v>52058</v>
       </c>
       <c r="O11" s="11">
-        <v>53834</v>
+        <v>51291</v>
       </c>
       <c r="P11" s="11">
-        <v>52058</v>
+        <v>48472</v>
       </c>
       <c r="Q11" s="11">
-        <v>51291</v>
+        <v>39548</v>
       </c>
       <c r="R11" s="11">
-        <v>48472</v>
+        <v>20399</v>
       </c>
       <c r="S11" s="11">
-        <v>39548</v>
+        <v>41346</v>
       </c>
       <c r="T11" s="11">
-        <v>20399</v>
+        <v>40433</v>
       </c>
       <c r="U11" s="11">
-        <v>41346</v>
+        <v>47457</v>
       </c>
       <c r="V11" s="11">
-        <v>40433</v>
+        <v>15691</v>
       </c>
       <c r="W11" s="11">
-        <v>47457</v>
+        <v>32210</v>
       </c>
       <c r="X11" s="11">
-        <v>15691</v>
+        <v>53078</v>
       </c>
       <c r="Y11" s="11">
-        <v>32210</v>
+        <v>53170</v>
       </c>
       <c r="Z11" s="11">
-        <v>53078</v>
+        <v>51384</v>
       </c>
       <c r="AA11" s="11">
-        <v>53170</v>
+        <v>51372</v>
       </c>
       <c r="AB11" s="11">
-        <v>51384</v>
+        <v>50473</v>
       </c>
       <c r="AC11" s="11">
-        <v>51372</v>
+        <v>27459</v>
       </c>
       <c r="AD11" s="11">
-        <v>50473</v>
+        <v>29484</v>
       </c>
       <c r="AE11" s="11">
-        <v>27459</v>
+        <v>51095</v>
       </c>
       <c r="AF11" s="11">
-        <v>29484</v>
+        <v>53131</v>
       </c>
       <c r="AG11" s="11">
-        <v>51095</v>
+        <v>53107</v>
       </c>
       <c r="AH11" s="11">
-        <v>53131</v>
+        <v>53127</v>
       </c>
       <c r="AI11" s="11">
-        <v>53107</v>
+        <v>53044</v>
       </c>
       <c r="AJ11" s="11">
-        <v>53127</v>
+        <v>53080</v>
       </c>
       <c r="AK11" s="11">
-        <v>53044</v>
+        <v>49666</v>
       </c>
       <c r="AL11" s="11">
-        <v>53080</v>
+        <v>51404</v>
       </c>
       <c r="AM11" s="11">
-        <v>49666</v>
+        <v>51366</v>
       </c>
       <c r="AN11" s="11">
-        <v>51404</v>
+        <v>51348</v>
       </c>
       <c r="AO11" s="11">
-        <v>51366</v>
+        <v>45940</v>
       </c>
       <c r="AP11" s="11">
-        <v>51348</v>
+        <v>5880</v>
       </c>
       <c r="AQ11" s="11">
-        <v>45940</v>
+        <v>47514</v>
       </c>
       <c r="AR11" s="11">
-        <v>5880</v>
+        <v>52878</v>
       </c>
       <c r="AS11" s="11">
-        <v>47514</v>
+        <v>52908</v>
       </c>
       <c r="AT11" s="11">
-        <v>52878</v>
+        <v>52744</v>
       </c>
       <c r="AU11" s="11">
-        <v>52908</v>
+        <v>52863</v>
       </c>
       <c r="AV11" s="11">
-        <v>52744</v>
+        <v>52876</v>
       </c>
       <c r="AW11" s="11">
-        <v>52863</v>
+        <v>52970</v>
       </c>
       <c r="AX11" s="11">
-        <v>52876</v>
+        <v>49925</v>
       </c>
       <c r="AY11" s="11">
-        <v>52970</v>
+        <v>50864</v>
       </c>
       <c r="AZ11" s="11">
-        <v>49925</v>
+        <v>43382</v>
       </c>
       <c r="BA11" s="11">
-        <v>50864</v>
+        <v>20595</v>
       </c>
       <c r="BB11" s="11">
-        <v>43382</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="12" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B12" s="12" t="s">
         <v>57</v>
       </c>
@@ -1598,130 +1598,130 @@
       </c>
       <c r="D12" s="13"/>
       <c r="E12" s="13">
-        <v>29994</v>
+        <v>29906</v>
       </c>
       <c r="F12" s="13">
-        <v>29970</v>
+        <v>29841</v>
       </c>
       <c r="G12" s="13">
-        <v>29906</v>
+        <v>28859</v>
       </c>
       <c r="H12" s="13">
-        <v>29841</v>
+        <v>30917</v>
       </c>
       <c r="I12" s="13">
-        <v>28859</v>
+        <v>30989</v>
       </c>
       <c r="J12" s="13">
-        <v>30917</v>
+        <v>31000</v>
       </c>
       <c r="K12" s="13">
-        <v>30989</v>
+        <v>30899</v>
       </c>
       <c r="L12" s="13">
-        <v>31000</v>
+        <v>30812</v>
       </c>
       <c r="M12" s="13">
-        <v>30899</v>
+        <v>30721</v>
       </c>
       <c r="N12" s="13">
-        <v>30812</v>
+        <v>29789</v>
       </c>
       <c r="O12" s="13">
-        <v>30721</v>
+        <v>29366</v>
       </c>
       <c r="P12" s="13">
-        <v>29789</v>
+        <v>28019</v>
       </c>
       <c r="Q12" s="13">
-        <v>29366</v>
+        <v>21402</v>
       </c>
       <c r="R12" s="13">
-        <v>28019</v>
+        <v>10332</v>
       </c>
       <c r="S12" s="13">
-        <v>21402</v>
+        <v>18866</v>
       </c>
       <c r="T12" s="13">
-        <v>10332</v>
+        <v>21607</v>
       </c>
       <c r="U12" s="13">
-        <v>18866</v>
+        <v>25227</v>
       </c>
       <c r="V12" s="13">
-        <v>21607</v>
+        <v>8460</v>
       </c>
       <c r="W12" s="13">
-        <v>25227</v>
+        <v>19051</v>
       </c>
       <c r="X12" s="13">
-        <v>8460</v>
+        <v>31516</v>
       </c>
       <c r="Y12" s="13">
-        <v>19051</v>
+        <v>31366</v>
       </c>
       <c r="Z12" s="13">
-        <v>31516</v>
+        <v>29980</v>
       </c>
       <c r="AA12" s="13">
-        <v>31366</v>
+        <v>30070</v>
       </c>
       <c r="AB12" s="13">
-        <v>29980</v>
+        <v>29493</v>
       </c>
       <c r="AC12" s="13">
-        <v>30070</v>
+        <v>14118</v>
       </c>
       <c r="AD12" s="13">
-        <v>29493</v>
+        <v>12740</v>
       </c>
       <c r="AE12" s="13">
-        <v>14118</v>
+        <v>28960</v>
       </c>
       <c r="AF12" s="13">
-        <v>12740</v>
+        <v>31008</v>
       </c>
       <c r="AG12" s="13">
-        <v>28960</v>
+        <v>31043</v>
       </c>
       <c r="AH12" s="13">
-        <v>31008</v>
+        <v>30170</v>
       </c>
       <c r="AI12" s="13">
-        <v>31043</v>
+        <v>31002</v>
       </c>
       <c r="AJ12" s="13">
-        <v>30170</v>
+        <v>30993</v>
       </c>
       <c r="AK12" s="13">
-        <v>31002</v>
+        <v>30938</v>
       </c>
       <c r="AL12" s="13">
-        <v>30993</v>
+        <v>30000</v>
       </c>
       <c r="AM12" s="13">
-        <v>30938</v>
+        <v>30000</v>
       </c>
       <c r="AN12" s="13">
         <v>30000</v>
       </c>
       <c r="AO12" s="13">
-        <v>30000</v>
+        <v>27000</v>
       </c>
       <c r="AP12" s="13">
-        <v>30000</v>
+        <v>2807</v>
       </c>
       <c r="AQ12" s="13">
-        <v>27000</v>
+        <v>27684</v>
       </c>
       <c r="AR12" s="13">
-        <v>2807</v>
+        <v>31005</v>
       </c>
       <c r="AS12" s="13">
-        <v>27684</v>
+        <v>31000</v>
       </c>
       <c r="AT12" s="13">
-        <v>31005</v>
+        <v>31000</v>
       </c>
       <c r="AU12" s="13">
         <v>31000</v>
@@ -1730,25 +1730,25 @@
         <v>31000</v>
       </c>
       <c r="AW12" s="13">
-        <v>31000</v>
+        <v>31040</v>
       </c>
       <c r="AX12" s="13">
-        <v>31000</v>
+        <v>30000</v>
       </c>
       <c r="AY12" s="13">
-        <v>31040</v>
+        <v>30000</v>
       </c>
       <c r="AZ12" s="13">
-        <v>30000</v>
+        <v>26796</v>
       </c>
       <c r="BA12" s="13">
-        <v>30000</v>
+        <v>12846</v>
       </c>
       <c r="BB12" s="13">
-        <v>26796</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="13" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B13" s="10" t="s">
         <v>58</v>
       </c>
@@ -1907,7 +1907,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B14" s="12" t="s">
         <v>59</v>
       </c>
@@ -1960,17 +1960,17 @@
       <c r="S14" s="13">
         <v>0</v>
       </c>
-      <c r="T14" s="13">
-        <v>0</v>
-      </c>
-      <c r="U14" s="13">
-        <v>0</v>
-      </c>
-      <c r="V14" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="W14" s="13" t="s">
-        <v>60</v>
+      <c r="T14" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="U14" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="V14" s="13">
+        <v>0</v>
+      </c>
+      <c r="W14" s="13">
+        <v>0</v>
       </c>
       <c r="X14" s="13">
         <v>0</v>
@@ -1996,11 +1996,11 @@
       <c r="AE14" s="13">
         <v>0</v>
       </c>
-      <c r="AF14" s="13">
-        <v>0</v>
-      </c>
-      <c r="AG14" s="13">
-        <v>0</v>
+      <c r="AF14" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="AG14" s="13" t="s">
+        <v>60</v>
       </c>
       <c r="AH14" s="13" t="s">
         <v>60</v>
@@ -2066,7 +2066,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="15" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B15" s="10" t="s">
         <v>61</v>
       </c>
@@ -2081,151 +2081,151 @@
         <v>1818</v>
       </c>
       <c r="G15" s="11">
-        <v>1818</v>
+        <v>1734</v>
       </c>
       <c r="H15" s="11">
-        <v>1818</v>
+        <v>1876</v>
       </c>
       <c r="I15" s="11">
-        <v>1734</v>
+        <v>1879</v>
       </c>
       <c r="J15" s="11">
-        <v>1876</v>
+        <v>1885</v>
       </c>
       <c r="K15" s="11">
-        <v>1879</v>
+        <v>1891</v>
       </c>
       <c r="L15" s="11">
-        <v>1885</v>
+        <v>1891</v>
       </c>
       <c r="M15" s="11">
         <v>1891</v>
       </c>
       <c r="N15" s="11">
-        <v>1891</v>
+        <v>1830</v>
       </c>
       <c r="O15" s="11">
-        <v>1891</v>
+        <v>1822</v>
       </c>
       <c r="P15" s="11">
-        <v>1830</v>
+        <v>1706</v>
       </c>
       <c r="Q15" s="11">
-        <v>1822</v>
+        <v>1218</v>
       </c>
       <c r="R15" s="11">
-        <v>1706</v>
+        <v>509</v>
       </c>
       <c r="S15" s="11">
-        <v>1218</v>
+        <v>1235</v>
       </c>
       <c r="T15" s="11">
-        <v>509</v>
+        <v>1175</v>
       </c>
       <c r="U15" s="11">
-        <v>1235</v>
+        <v>1791</v>
       </c>
       <c r="V15" s="11">
-        <v>1175</v>
+        <v>589</v>
       </c>
       <c r="W15" s="11">
-        <v>1791</v>
+        <v>1026</v>
       </c>
       <c r="X15" s="11">
-        <v>589</v>
+        <v>1858</v>
       </c>
       <c r="Y15" s="11">
-        <v>1026</v>
+        <v>1879</v>
       </c>
       <c r="Z15" s="11">
-        <v>1858</v>
+        <v>1818</v>
       </c>
       <c r="AA15" s="11">
+        <v>1818</v>
+      </c>
+      <c r="AB15" s="11">
+        <v>1808</v>
+      </c>
+      <c r="AC15" s="11">
+        <v>951</v>
+      </c>
+      <c r="AD15" s="11">
+        <v>981</v>
+      </c>
+      <c r="AE15" s="11">
+        <v>1804</v>
+      </c>
+      <c r="AF15" s="11">
+        <v>1881</v>
+      </c>
+      <c r="AG15" s="11">
         <v>1879</v>
       </c>
-      <c r="AB15" s="11">
-        <v>1818</v>
-      </c>
-      <c r="AC15" s="11">
-        <v>1818</v>
-      </c>
-      <c r="AD15" s="11">
-        <v>1808</v>
-      </c>
-      <c r="AE15" s="11">
-        <v>951</v>
-      </c>
-      <c r="AF15" s="11">
-        <v>981</v>
-      </c>
-      <c r="AG15" s="11">
-        <v>1804</v>
-      </c>
       <c r="AH15" s="11">
-        <v>1881</v>
+        <v>1878</v>
       </c>
       <c r="AI15" s="11">
         <v>1879</v>
       </c>
       <c r="AJ15" s="11">
-        <v>1878</v>
+        <v>1879</v>
       </c>
       <c r="AK15" s="11">
-        <v>1879</v>
+        <v>1803</v>
       </c>
       <c r="AL15" s="11">
-        <v>1879</v>
+        <v>1818</v>
       </c>
       <c r="AM15" s="11">
-        <v>1803</v>
+        <v>1818</v>
       </c>
       <c r="AN15" s="11">
         <v>1818</v>
       </c>
       <c r="AO15" s="11">
-        <v>1818</v>
+        <v>1576</v>
       </c>
       <c r="AP15" s="11">
-        <v>1818</v>
+        <v>0</v>
       </c>
       <c r="AQ15" s="11">
-        <v>1576</v>
+        <v>1434</v>
       </c>
       <c r="AR15" s="11">
-        <v>0</v>
+        <v>1879</v>
       </c>
       <c r="AS15" s="11">
-        <v>1434</v>
+        <v>1879</v>
       </c>
       <c r="AT15" s="11">
-        <v>1879</v>
+        <v>1697</v>
       </c>
       <c r="AU15" s="11">
         <v>1879</v>
       </c>
       <c r="AV15" s="11">
-        <v>1697</v>
+        <v>1879</v>
       </c>
       <c r="AW15" s="11">
-        <v>1879</v>
+        <v>1880</v>
       </c>
       <c r="AX15" s="11">
-        <v>1879</v>
+        <v>787</v>
       </c>
       <c r="AY15" s="11">
-        <v>1880</v>
+        <v>1818</v>
       </c>
       <c r="AZ15" s="11">
-        <v>787</v>
+        <v>888</v>
       </c>
       <c r="BA15" s="11">
-        <v>1818</v>
+        <v>0</v>
       </c>
       <c r="BB15" s="11">
-        <v>888</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="16" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B16" s="12" t="s">
         <v>62</v>
       </c>
@@ -2281,11 +2281,11 @@
       <c r="T16" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="U16" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="V16" s="13" t="s">
-        <v>60</v>
+      <c r="U16" s="13">
+        <v>0</v>
+      </c>
+      <c r="V16" s="13">
+        <v>0</v>
       </c>
       <c r="W16" s="13">
         <v>0</v>
@@ -2314,11 +2314,11 @@
       <c r="AE16" s="13">
         <v>0</v>
       </c>
-      <c r="AF16" s="13">
-        <v>0</v>
-      </c>
-      <c r="AG16" s="13">
-        <v>0</v>
+      <c r="AF16" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="AG16" s="13" t="s">
+        <v>60</v>
       </c>
       <c r="AH16" s="13" t="s">
         <v>60</v>
@@ -2384,7 +2384,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="17" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B17" s="10" t="s">
         <v>63</v>
       </c>
@@ -2437,17 +2437,17 @@
       <c r="S17" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="T17" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="U17" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="V17" s="11">
-        <v>0</v>
-      </c>
-      <c r="W17" s="11">
-        <v>0</v>
+      <c r="T17" s="11">
+        <v>0</v>
+      </c>
+      <c r="U17" s="11">
+        <v>0</v>
+      </c>
+      <c r="V17" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="W17" s="11" t="s">
+        <v>60</v>
       </c>
       <c r="X17" s="11" t="s">
         <v>60</v>
@@ -2509,11 +2509,11 @@
       <c r="AQ17" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="AR17" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="AS17" s="11" t="s">
-        <v>60</v>
+      <c r="AR17" s="11">
+        <v>0</v>
+      </c>
+      <c r="AS17" s="11">
+        <v>0</v>
       </c>
       <c r="AT17" s="11">
         <v>0</v>
@@ -2543,7 +2543,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B18" s="12" t="s">
         <v>64</v>
       </c>
@@ -2552,157 +2552,157 @@
       </c>
       <c r="D18" s="13"/>
       <c r="E18" s="13">
-        <v>26097</v>
+        <v>26149</v>
       </c>
       <c r="F18" s="13">
-        <v>26091</v>
+        <v>26188</v>
       </c>
       <c r="G18" s="13">
-        <v>26149</v>
+        <v>25554</v>
       </c>
       <c r="H18" s="13">
-        <v>26188</v>
+        <v>27296</v>
       </c>
       <c r="I18" s="13">
-        <v>25554</v>
+        <v>27239</v>
       </c>
       <c r="J18" s="13">
-        <v>27296</v>
+        <v>27250</v>
       </c>
       <c r="K18" s="13">
-        <v>27239</v>
+        <v>27151</v>
       </c>
       <c r="L18" s="13">
-        <v>27250</v>
+        <v>27154</v>
       </c>
       <c r="M18" s="13">
-        <v>27151</v>
+        <v>27259</v>
       </c>
       <c r="N18" s="13">
-        <v>27154</v>
+        <v>26329</v>
       </c>
       <c r="O18" s="13">
-        <v>27259</v>
+        <v>26072</v>
       </c>
       <c r="P18" s="13">
-        <v>26329</v>
+        <v>24872</v>
       </c>
       <c r="Q18" s="13">
-        <v>26072</v>
+        <v>18610</v>
       </c>
       <c r="R18" s="13">
-        <v>24872</v>
+        <v>10907</v>
       </c>
       <c r="S18" s="13">
-        <v>18610</v>
+        <v>21178</v>
       </c>
       <c r="T18" s="13">
-        <v>10907</v>
+        <v>20726</v>
       </c>
       <c r="U18" s="13">
-        <v>21178</v>
+        <v>24038</v>
       </c>
       <c r="V18" s="13">
-        <v>20726</v>
+        <v>7920</v>
       </c>
       <c r="W18" s="13">
-        <v>24038</v>
+        <v>16402</v>
       </c>
       <c r="X18" s="13">
-        <v>7920</v>
+        <v>27179</v>
       </c>
       <c r="Y18" s="13">
-        <v>16402</v>
+        <v>27207</v>
       </c>
       <c r="Z18" s="13">
-        <v>27179</v>
+        <v>26204</v>
       </c>
       <c r="AA18" s="13">
-        <v>27207</v>
+        <v>26181</v>
       </c>
       <c r="AB18" s="13">
-        <v>26204</v>
+        <v>25679</v>
       </c>
       <c r="AC18" s="13">
-        <v>26181</v>
+        <v>13270</v>
       </c>
       <c r="AD18" s="13">
-        <v>25679</v>
+        <v>14863</v>
       </c>
       <c r="AE18" s="13">
-        <v>13270</v>
+        <v>25947</v>
       </c>
       <c r="AF18" s="13">
-        <v>14863</v>
+        <v>27097</v>
       </c>
       <c r="AG18" s="13">
-        <v>25947</v>
+        <v>27075</v>
       </c>
       <c r="AH18" s="13">
-        <v>27097</v>
+        <v>27096</v>
       </c>
       <c r="AI18" s="13">
-        <v>27075</v>
+        <v>27199</v>
       </c>
       <c r="AJ18" s="13">
-        <v>27096</v>
+        <v>27242</v>
       </c>
       <c r="AK18" s="13">
-        <v>27199</v>
+        <v>25376</v>
       </c>
       <c r="AL18" s="13">
-        <v>27242</v>
+        <v>26327</v>
       </c>
       <c r="AM18" s="13">
-        <v>25376</v>
+        <v>26286</v>
       </c>
       <c r="AN18" s="13">
-        <v>26327</v>
+        <v>26277</v>
       </c>
       <c r="AO18" s="13">
-        <v>26286</v>
+        <v>23636</v>
       </c>
       <c r="AP18" s="13">
-        <v>26277</v>
+        <v>3365</v>
       </c>
       <c r="AQ18" s="13">
-        <v>23636</v>
+        <v>24208</v>
       </c>
       <c r="AR18" s="13">
-        <v>3365</v>
+        <v>27054</v>
       </c>
       <c r="AS18" s="13">
-        <v>24208</v>
+        <v>27039</v>
       </c>
       <c r="AT18" s="13">
-        <v>27054</v>
+        <v>27040</v>
       </c>
       <c r="AU18" s="13">
-        <v>27039</v>
+        <v>26985</v>
       </c>
       <c r="AV18" s="13">
-        <v>27040</v>
+        <v>27032</v>
       </c>
       <c r="AW18" s="13">
-        <v>26985</v>
+        <v>27152</v>
       </c>
       <c r="AX18" s="13">
-        <v>27032</v>
+        <v>27000</v>
       </c>
       <c r="AY18" s="13">
-        <v>27152</v>
+        <v>26330</v>
       </c>
       <c r="AZ18" s="13">
-        <v>27000</v>
+        <v>23462</v>
       </c>
       <c r="BA18" s="13">
-        <v>26330</v>
+        <v>11923</v>
       </c>
       <c r="BB18" s="13">
-        <v>23462</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="19" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B19" s="10" t="s">
         <v>65</v>
       </c>
@@ -2711,157 +2711,157 @@
       </c>
       <c r="D19" s="11"/>
       <c r="E19" s="11">
-        <v>5773</v>
+        <v>5846</v>
       </c>
       <c r="F19" s="11">
-        <v>5805</v>
+        <v>5853</v>
       </c>
       <c r="G19" s="11">
-        <v>5846</v>
+        <v>5557</v>
       </c>
       <c r="H19" s="11">
-        <v>5853</v>
+        <v>6032</v>
       </c>
       <c r="I19" s="11">
-        <v>5557</v>
+        <v>6056</v>
       </c>
       <c r="J19" s="11">
-        <v>6032</v>
+        <v>6064</v>
       </c>
       <c r="K19" s="11">
-        <v>6056</v>
+        <v>6019</v>
       </c>
       <c r="L19" s="11">
-        <v>6064</v>
+        <v>5992</v>
       </c>
       <c r="M19" s="11">
-        <v>6019</v>
+        <v>6036</v>
       </c>
       <c r="N19" s="11">
-        <v>5992</v>
+        <v>5858</v>
       </c>
       <c r="O19" s="11">
-        <v>6036</v>
+        <v>5801</v>
       </c>
       <c r="P19" s="11">
-        <v>5858</v>
+        <v>5438</v>
       </c>
       <c r="Q19" s="11">
-        <v>5801</v>
+        <v>3902</v>
       </c>
       <c r="R19" s="11">
-        <v>5438</v>
+        <v>1783</v>
       </c>
       <c r="S19" s="11">
-        <v>3902</v>
+        <v>4002</v>
       </c>
       <c r="T19" s="11">
-        <v>1783</v>
+        <v>3795</v>
       </c>
       <c r="U19" s="11">
-        <v>4002</v>
+        <v>5666</v>
       </c>
       <c r="V19" s="11">
-        <v>3795</v>
+        <v>1800</v>
       </c>
       <c r="W19" s="11">
-        <v>5666</v>
+        <v>3377</v>
       </c>
       <c r="X19" s="11">
-        <v>1800</v>
+        <v>5983</v>
       </c>
       <c r="Y19" s="11">
-        <v>3377</v>
+        <v>6033</v>
       </c>
       <c r="Z19" s="11">
-        <v>5983</v>
+        <v>5844</v>
       </c>
       <c r="AA19" s="11">
+        <v>5844</v>
+      </c>
+      <c r="AB19" s="11">
+        <v>5739</v>
+      </c>
+      <c r="AC19" s="11">
+        <v>2958</v>
+      </c>
+      <c r="AD19" s="11">
+        <v>3220</v>
+      </c>
+      <c r="AE19" s="11">
+        <v>5740</v>
+      </c>
+      <c r="AF19" s="11">
+        <v>6076</v>
+      </c>
+      <c r="AG19" s="11">
+        <v>6078</v>
+      </c>
+      <c r="AH19" s="11">
+        <v>6087</v>
+      </c>
+      <c r="AI19" s="11">
+        <v>5985</v>
+      </c>
+      <c r="AJ19" s="11">
+        <v>5980</v>
+      </c>
+      <c r="AK19" s="11">
+        <v>5745</v>
+      </c>
+      <c r="AL19" s="11">
+        <v>5820</v>
+      </c>
+      <c r="AM19" s="11">
+        <v>5814</v>
+      </c>
+      <c r="AN19" s="11">
+        <v>5822</v>
+      </c>
+      <c r="AO19" s="11">
+        <v>5051</v>
+      </c>
+      <c r="AP19" s="11">
+        <v>0</v>
+      </c>
+      <c r="AQ19" s="11">
+        <v>4566</v>
+      </c>
+      <c r="AR19" s="11">
+        <v>6049</v>
+      </c>
+      <c r="AS19" s="11">
+        <v>6043</v>
+      </c>
+      <c r="AT19" s="11">
+        <v>5427</v>
+      </c>
+      <c r="AU19" s="11">
+        <v>6002</v>
+      </c>
+      <c r="AV19" s="11">
         <v>6033</v>
       </c>
-      <c r="AB19" s="11">
-        <v>5844</v>
-      </c>
-      <c r="AC19" s="11">
-        <v>5844</v>
-      </c>
-      <c r="AD19" s="11">
-        <v>5739</v>
-      </c>
-      <c r="AE19" s="11">
-        <v>2958</v>
-      </c>
-      <c r="AF19" s="11">
-        <v>3220</v>
-      </c>
-      <c r="AG19" s="11">
-        <v>5740</v>
-      </c>
-      <c r="AH19" s="11">
-        <v>6076</v>
-      </c>
-      <c r="AI19" s="11">
-        <v>6078</v>
-      </c>
-      <c r="AJ19" s="11">
-        <v>6087</v>
-      </c>
-      <c r="AK19" s="11">
-        <v>5985</v>
-      </c>
-      <c r="AL19" s="11">
-        <v>5980</v>
-      </c>
-      <c r="AM19" s="11">
-        <v>5745</v>
-      </c>
-      <c r="AN19" s="11">
-        <v>5820</v>
-      </c>
-      <c r="AO19" s="11">
-        <v>5814</v>
-      </c>
-      <c r="AP19" s="11">
-        <v>5822</v>
-      </c>
-      <c r="AQ19" s="11">
-        <v>5051</v>
-      </c>
-      <c r="AR19" s="11">
-        <v>0</v>
-      </c>
-      <c r="AS19" s="11">
-        <v>4566</v>
-      </c>
-      <c r="AT19" s="11">
-        <v>6049</v>
-      </c>
-      <c r="AU19" s="11">
-        <v>6043</v>
-      </c>
-      <c r="AV19" s="11">
-        <v>5427</v>
-      </c>
       <c r="AW19" s="11">
-        <v>6002</v>
+        <v>6066</v>
       </c>
       <c r="AX19" s="11">
-        <v>6033</v>
+        <v>2698</v>
       </c>
       <c r="AY19" s="11">
-        <v>6066</v>
+        <v>5862</v>
       </c>
       <c r="AZ19" s="11">
-        <v>2698</v>
+        <v>2897</v>
       </c>
       <c r="BA19" s="11">
-        <v>5862</v>
+        <v>0</v>
       </c>
       <c r="BB19" s="11">
-        <v>2897</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B20" s="12" t="s">
         <v>66</v>
       </c>
@@ -2870,157 +2870,157 @@
       </c>
       <c r="D20" s="13"/>
       <c r="E20" s="13">
+        <v>1412</v>
+      </c>
+      <c r="F20" s="13">
+        <v>1412</v>
+      </c>
+      <c r="G20" s="13">
+        <v>1338</v>
+      </c>
+      <c r="H20" s="13">
+        <v>1416</v>
+      </c>
+      <c r="I20" s="13">
+        <v>1442</v>
+      </c>
+      <c r="J20" s="13">
+        <v>1442</v>
+      </c>
+      <c r="K20" s="13">
+        <v>1429</v>
+      </c>
+      <c r="L20" s="13">
+        <v>1457</v>
+      </c>
+      <c r="M20" s="13">
+        <v>1430</v>
+      </c>
+      <c r="N20" s="13">
+        <v>1426</v>
+      </c>
+      <c r="O20" s="13">
+        <v>1433</v>
+      </c>
+      <c r="P20" s="13">
+        <v>1407</v>
+      </c>
+      <c r="Q20" s="13">
+        <v>988</v>
+      </c>
+      <c r="R20" s="13">
+        <v>677</v>
+      </c>
+      <c r="S20" s="13">
+        <v>1238</v>
+      </c>
+      <c r="T20" s="13">
+        <v>1183</v>
+      </c>
+      <c r="U20" s="13">
+        <v>1407</v>
+      </c>
+      <c r="V20" s="13">
+        <v>512</v>
+      </c>
+      <c r="W20" s="13">
+        <v>857</v>
+      </c>
+      <c r="X20" s="13">
+        <v>1360</v>
+      </c>
+      <c r="Y20" s="13">
+        <v>1395</v>
+      </c>
+      <c r="Z20" s="13">
+        <v>1356</v>
+      </c>
+      <c r="AA20" s="13">
+        <v>1367</v>
+      </c>
+      <c r="AB20" s="13">
+        <v>1403</v>
+      </c>
+      <c r="AC20" s="13">
+        <v>977</v>
+      </c>
+      <c r="AD20" s="13">
+        <v>806</v>
+      </c>
+      <c r="AE20" s="13">
+        <v>1334</v>
+      </c>
+      <c r="AF20" s="13">
+        <v>1397</v>
+      </c>
+      <c r="AG20" s="13">
+        <v>1412</v>
+      </c>
+      <c r="AH20" s="13">
+        <v>1420</v>
+      </c>
+      <c r="AI20" s="13">
+        <v>1346</v>
+      </c>
+      <c r="AJ20" s="13">
+        <v>1332</v>
+      </c>
+      <c r="AK20" s="13">
+        <v>1316</v>
+      </c>
+      <c r="AL20" s="13">
+        <v>1289</v>
+      </c>
+      <c r="AM20" s="13">
+        <v>1345</v>
+      </c>
+      <c r="AN20" s="13">
+        <v>1355</v>
+      </c>
+      <c r="AO20" s="13">
+        <v>1272</v>
+      </c>
+      <c r="AP20" s="13">
+        <v>0</v>
+      </c>
+      <c r="AQ20" s="13">
+        <v>1205</v>
+      </c>
+      <c r="AR20" s="13">
+        <v>1341</v>
+      </c>
+      <c r="AS20" s="13">
+        <v>1350</v>
+      </c>
+      <c r="AT20" s="13">
+        <v>1331</v>
+      </c>
+      <c r="AU20" s="13">
+        <v>1366</v>
+      </c>
+      <c r="AV20" s="13">
         <v>1380</v>
       </c>
-      <c r="F20" s="13">
-        <v>1366</v>
-      </c>
-      <c r="G20" s="13">
-        <v>1412</v>
-      </c>
-      <c r="H20" s="13">
-        <v>1412</v>
-      </c>
-      <c r="I20" s="13">
-        <v>1338</v>
-      </c>
-      <c r="J20" s="13">
-        <v>1416</v>
-      </c>
-      <c r="K20" s="13">
-        <v>1442</v>
-      </c>
-      <c r="L20" s="13">
-        <v>1442</v>
-      </c>
-      <c r="M20" s="13">
-        <v>1429</v>
-      </c>
-      <c r="N20" s="13">
-        <v>1457</v>
-      </c>
-      <c r="O20" s="13">
-        <v>1430</v>
-      </c>
-      <c r="P20" s="13">
-        <v>1426</v>
-      </c>
-      <c r="Q20" s="13">
-        <v>1433</v>
-      </c>
-      <c r="R20" s="13">
-        <v>1407</v>
-      </c>
-      <c r="S20" s="13">
-        <v>988</v>
-      </c>
-      <c r="T20" s="13">
-        <v>677</v>
-      </c>
-      <c r="U20" s="13">
-        <v>1238</v>
-      </c>
-      <c r="V20" s="13">
-        <v>1183</v>
-      </c>
-      <c r="W20" s="13">
-        <v>1407</v>
-      </c>
-      <c r="X20" s="13">
-        <v>512</v>
-      </c>
-      <c r="Y20" s="13">
-        <v>857</v>
-      </c>
-      <c r="Z20" s="13">
-        <v>1360</v>
-      </c>
-      <c r="AA20" s="13">
-        <v>1395</v>
-      </c>
-      <c r="AB20" s="13">
-        <v>1356</v>
-      </c>
-      <c r="AC20" s="13">
-        <v>1367</v>
-      </c>
-      <c r="AD20" s="13">
-        <v>1403</v>
-      </c>
-      <c r="AE20" s="13">
-        <v>977</v>
-      </c>
-      <c r="AF20" s="13">
-        <v>806</v>
-      </c>
-      <c r="AG20" s="13">
-        <v>1334</v>
-      </c>
-      <c r="AH20" s="13">
-        <v>1397</v>
-      </c>
-      <c r="AI20" s="13">
-        <v>1412</v>
-      </c>
-      <c r="AJ20" s="13">
-        <v>1420</v>
-      </c>
-      <c r="AK20" s="13">
-        <v>1346</v>
-      </c>
-      <c r="AL20" s="13">
-        <v>1332</v>
-      </c>
-      <c r="AM20" s="13">
-        <v>1316</v>
-      </c>
-      <c r="AN20" s="13">
-        <v>1289</v>
-      </c>
-      <c r="AO20" s="13">
-        <v>1345</v>
-      </c>
-      <c r="AP20" s="13">
-        <v>1355</v>
-      </c>
-      <c r="AQ20" s="13">
-        <v>1272</v>
-      </c>
-      <c r="AR20" s="13">
-        <v>0</v>
-      </c>
-      <c r="AS20" s="13">
-        <v>1205</v>
-      </c>
-      <c r="AT20" s="13">
-        <v>1341</v>
-      </c>
-      <c r="AU20" s="13">
+      <c r="AW20" s="13">
         <v>1350</v>
       </c>
-      <c r="AV20" s="13">
-        <v>1331</v>
-      </c>
-      <c r="AW20" s="13">
-        <v>1366</v>
-      </c>
       <c r="AX20" s="13">
-        <v>1380</v>
+        <v>762</v>
       </c>
       <c r="AY20" s="13">
-        <v>1350</v>
+        <v>1260</v>
       </c>
       <c r="AZ20" s="13">
-        <v>762</v>
+        <v>757</v>
       </c>
       <c r="BA20" s="13">
-        <v>1260</v>
+        <v>0</v>
       </c>
       <c r="BB20" s="13">
-        <v>757</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="21" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B21" s="10" t="s">
         <v>67</v>
       </c>
@@ -3073,17 +3073,17 @@
       <c r="S21" s="11">
         <v>0</v>
       </c>
-      <c r="T21" s="11">
-        <v>0</v>
-      </c>
-      <c r="U21" s="11">
-        <v>0</v>
-      </c>
-      <c r="V21" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="W21" s="11" t="s">
-        <v>60</v>
+      <c r="T21" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="U21" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="V21" s="11">
+        <v>0</v>
+      </c>
+      <c r="W21" s="11">
+        <v>0</v>
       </c>
       <c r="X21" s="11">
         <v>0</v>
@@ -3109,11 +3109,11 @@
       <c r="AE21" s="11">
         <v>0</v>
       </c>
-      <c r="AF21" s="11">
-        <v>0</v>
-      </c>
-      <c r="AG21" s="11">
-        <v>0</v>
+      <c r="AF21" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="AG21" s="11" t="s">
+        <v>60</v>
       </c>
       <c r="AH21" s="11" t="s">
         <v>60</v>
@@ -3179,7 +3179,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="22" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B22" s="12" t="s">
         <v>68</v>
       </c>
@@ -3232,17 +3232,17 @@
       <c r="S22" s="13">
         <v>0</v>
       </c>
-      <c r="T22" s="13">
-        <v>0</v>
-      </c>
-      <c r="U22" s="13">
-        <v>0</v>
-      </c>
-      <c r="V22" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="W22" s="13" t="s">
-        <v>60</v>
+      <c r="T22" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="U22" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="V22" s="13">
+        <v>0</v>
+      </c>
+      <c r="W22" s="13">
+        <v>0</v>
       </c>
       <c r="X22" s="13">
         <v>0</v>
@@ -3304,11 +3304,11 @@
       <c r="AQ22" s="13">
         <v>0</v>
       </c>
-      <c r="AR22" s="13">
-        <v>0</v>
-      </c>
-      <c r="AS22" s="13">
-        <v>0</v>
+      <c r="AR22" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="AS22" s="13" t="s">
+        <v>60</v>
       </c>
       <c r="AT22" s="13" t="s">
         <v>60</v>
@@ -3338,7 +3338,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="23" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B23" s="10" t="s">
         <v>69</v>
       </c>
@@ -3497,7 +3497,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B24" s="12" t="s">
         <v>70</v>
       </c>
@@ -3550,17 +3550,17 @@
       <c r="S24" s="13">
         <v>0</v>
       </c>
-      <c r="T24" s="13">
-        <v>0</v>
-      </c>
-      <c r="U24" s="13">
-        <v>0</v>
-      </c>
-      <c r="V24" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="W24" s="13" t="s">
-        <v>60</v>
+      <c r="T24" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="U24" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="V24" s="13">
+        <v>0</v>
+      </c>
+      <c r="W24" s="13">
+        <v>0</v>
       </c>
       <c r="X24" s="13">
         <v>0</v>
@@ -3622,11 +3622,11 @@
       <c r="AQ24" s="13">
         <v>0</v>
       </c>
-      <c r="AR24" s="13">
-        <v>0</v>
-      </c>
-      <c r="AS24" s="13">
-        <v>0</v>
+      <c r="AR24" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="AS24" s="13" t="s">
+        <v>60</v>
       </c>
       <c r="AT24" s="13" t="s">
         <v>60</v>
@@ -3656,7 +3656,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="25" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B25" s="10" t="s">
         <v>71</v>
       </c>
@@ -3709,17 +3709,17 @@
       <c r="S25" s="11">
         <v>0</v>
       </c>
-      <c r="T25" s="11">
-        <v>0</v>
-      </c>
-      <c r="U25" s="11">
-        <v>0</v>
-      </c>
-      <c r="V25" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="W25" s="11" t="s">
-        <v>60</v>
+      <c r="T25" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="U25" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="V25" s="11">
+        <v>0</v>
+      </c>
+      <c r="W25" s="11">
+        <v>0</v>
       </c>
       <c r="X25" s="11">
         <v>0</v>
@@ -3745,11 +3745,11 @@
       <c r="AE25" s="11">
         <v>0</v>
       </c>
-      <c r="AF25" s="11">
-        <v>0</v>
-      </c>
-      <c r="AG25" s="11">
-        <v>0</v>
+      <c r="AF25" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="AG25" s="11" t="s">
+        <v>60</v>
       </c>
       <c r="AH25" s="11" t="s">
         <v>60</v>
@@ -3815,7 +3815,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="26" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B26" s="14" t="s">
         <v>72</v>
       </c>
@@ -3872,7 +3872,7 @@
       <c r="BA26" s="15"/>
       <c r="BB26" s="15"/>
     </row>
-    <row r="27" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B27" s="16" t="s">
         <v>73</v>
       </c>
@@ -3929,11 +3929,11 @@
       <c r="U27" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="V27" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="W27" s="17" t="s">
-        <v>60</v>
+      <c r="V27" s="17">
+        <v>0</v>
+      </c>
+      <c r="W27" s="17">
+        <v>0</v>
       </c>
       <c r="X27" s="17">
         <v>0</v>
@@ -4029,164 +4029,164 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B28" s="18" t="s">
         <v>74</v>
       </c>
       <c r="C28" s="19"/>
       <c r="D28" s="19"/>
       <c r="E28" s="19">
-        <v>116416</v>
+        <v>116355</v>
       </c>
       <c r="F28" s="19">
-        <v>116389</v>
+        <v>116390</v>
       </c>
       <c r="G28" s="19">
-        <v>116355</v>
+        <v>113133</v>
       </c>
       <c r="H28" s="19">
-        <v>116390</v>
+        <v>121247</v>
       </c>
       <c r="I28" s="19">
-        <v>113133</v>
+        <v>121336</v>
       </c>
       <c r="J28" s="19">
-        <v>121247</v>
+        <v>121357</v>
       </c>
       <c r="K28" s="19">
-        <v>121336</v>
+        <v>121093</v>
       </c>
       <c r="L28" s="19">
-        <v>121357</v>
+        <v>121022</v>
       </c>
       <c r="M28" s="19">
-        <v>121093</v>
+        <v>121171</v>
       </c>
       <c r="N28" s="19">
-        <v>121022</v>
+        <v>117290</v>
       </c>
       <c r="O28" s="19">
-        <v>121171</v>
+        <v>115785</v>
       </c>
       <c r="P28" s="19">
-        <v>117290</v>
+        <v>109914</v>
       </c>
       <c r="Q28" s="19">
-        <v>115785</v>
+        <v>85668</v>
       </c>
       <c r="R28" s="19">
-        <v>109914</v>
+        <v>44607</v>
       </c>
       <c r="S28" s="19">
-        <v>85668</v>
+        <v>87865</v>
       </c>
       <c r="T28" s="19">
-        <v>44607</v>
+        <v>88919</v>
       </c>
       <c r="U28" s="19">
-        <v>87865</v>
+        <v>105586</v>
       </c>
       <c r="V28" s="19">
-        <v>88919</v>
+        <v>34972</v>
       </c>
       <c r="W28" s="19">
-        <v>105586</v>
+        <v>72923</v>
       </c>
       <c r="X28" s="19">
-        <v>34972</v>
+        <v>120974</v>
       </c>
       <c r="Y28" s="19">
-        <v>72923</v>
+        <v>121050</v>
       </c>
       <c r="Z28" s="19">
-        <v>120974</v>
+        <v>116586</v>
       </c>
       <c r="AA28" s="19">
-        <v>121050</v>
+        <v>116652</v>
       </c>
       <c r="AB28" s="19">
-        <v>116586</v>
+        <v>114595</v>
       </c>
       <c r="AC28" s="19">
-        <v>116652</v>
+        <v>59733</v>
       </c>
       <c r="AD28" s="19">
-        <v>114595</v>
+        <v>62094</v>
       </c>
       <c r="AE28" s="19">
-        <v>59733</v>
+        <v>114880</v>
       </c>
       <c r="AF28" s="19">
-        <v>62094</v>
+        <v>120590</v>
       </c>
       <c r="AG28" s="19">
-        <v>114880</v>
+        <v>120594</v>
       </c>
       <c r="AH28" s="19">
-        <v>120590</v>
+        <v>119778</v>
       </c>
       <c r="AI28" s="19">
-        <v>120594</v>
+        <v>120455</v>
       </c>
       <c r="AJ28" s="19">
-        <v>119778</v>
+        <v>120506</v>
       </c>
       <c r="AK28" s="19">
-        <v>120455</v>
+        <v>114844</v>
       </c>
       <c r="AL28" s="19">
-        <v>120506</v>
+        <v>116658</v>
       </c>
       <c r="AM28" s="19">
-        <v>114844</v>
+        <v>116629</v>
       </c>
       <c r="AN28" s="19">
-        <v>116658</v>
+        <v>116620</v>
       </c>
       <c r="AO28" s="19">
-        <v>116629</v>
+        <v>104475</v>
       </c>
       <c r="AP28" s="19">
-        <v>116620</v>
+        <v>12052</v>
       </c>
       <c r="AQ28" s="19">
-        <v>104475</v>
+        <v>106611</v>
       </c>
       <c r="AR28" s="19">
-        <v>12052</v>
+        <v>120206</v>
       </c>
       <c r="AS28" s="19">
-        <v>106611</v>
+        <v>120219</v>
       </c>
       <c r="AT28" s="19">
-        <v>120206</v>
+        <v>119239</v>
       </c>
       <c r="AU28" s="19">
-        <v>120219</v>
+        <v>120095</v>
       </c>
       <c r="AV28" s="19">
-        <v>119239</v>
+        <v>120200</v>
       </c>
       <c r="AW28" s="19">
-        <v>120095</v>
+        <v>120458</v>
       </c>
       <c r="AX28" s="19">
-        <v>120200</v>
+        <v>111172</v>
       </c>
       <c r="AY28" s="19">
-        <v>120458</v>
+        <v>116134</v>
       </c>
       <c r="AZ28" s="19">
-        <v>111172</v>
+        <v>98182</v>
       </c>
       <c r="BA28" s="19">
-        <v>116134</v>
+        <v>45364</v>
       </c>
       <c r="BB28" s="19">
-        <v>98182</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="29" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
@@ -4241,7 +4241,7 @@
       <c r="BA29" s="1"/>
       <c r="BB29" s="1"/>
     </row>
-    <row r="30" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
@@ -4296,7 +4296,7 @@
       <c r="BA30" s="1"/>
       <c r="BB30" s="1"/>
     </row>
-    <row r="31" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
@@ -4351,7 +4351,7 @@
       <c r="BA31" s="1"/>
       <c r="BB31" s="1"/>
     </row>
-    <row r="32" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B32" s="7" t="s">
         <v>75</v>
       </c>
@@ -4508,7 +4508,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="33" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
@@ -4563,7 +4563,7 @@
       <c r="BA33" s="1"/>
       <c r="BB33" s="1"/>
     </row>
-    <row r="34" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B34" s="8" t="s">
         <v>75</v>
       </c>
@@ -4620,7 +4620,7 @@
       <c r="BA34" s="9"/>
       <c r="BB34" s="9"/>
     </row>
-    <row r="35" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B35" s="10" t="s">
         <v>55</v>
       </c>
@@ -4674,16 +4674,16 @@
         <v>0</v>
       </c>
       <c r="T35" s="11">
-        <v>0</v>
+        <v>12044</v>
       </c>
       <c r="U35" s="11">
-        <v>0</v>
+        <v>44146</v>
       </c>
       <c r="V35" s="11">
-        <v>12044</v>
+        <v>0</v>
       </c>
       <c r="W35" s="11">
-        <v>44146</v>
+        <v>0</v>
       </c>
       <c r="X35" s="11">
         <v>0</v>
@@ -4710,76 +4710,76 @@
         <v>0</v>
       </c>
       <c r="AF35" s="11">
-        <v>0</v>
+        <v>10772</v>
       </c>
       <c r="AG35" s="11">
-        <v>0</v>
+        <v>11744</v>
       </c>
       <c r="AH35" s="11">
-        <v>10772</v>
+        <v>28965</v>
       </c>
       <c r="AI35" s="11">
-        <v>11744</v>
+        <v>31368</v>
       </c>
       <c r="AJ35" s="11">
-        <v>28965</v>
+        <v>16854</v>
       </c>
       <c r="AK35" s="11">
-        <v>31368</v>
+        <v>43079</v>
       </c>
       <c r="AL35" s="11">
-        <v>16854</v>
+        <v>31384</v>
       </c>
       <c r="AM35" s="11">
-        <v>43079</v>
+        <v>13733</v>
       </c>
       <c r="AN35" s="11">
-        <v>31384</v>
+        <v>33445</v>
       </c>
       <c r="AO35" s="11">
-        <v>13733</v>
+        <v>3346</v>
       </c>
       <c r="AP35" s="11">
-        <v>33445</v>
+        <v>6378</v>
       </c>
       <c r="AQ35" s="11">
-        <v>3346</v>
+        <v>25855</v>
       </c>
       <c r="AR35" s="11">
-        <v>6378</v>
+        <v>11734</v>
       </c>
       <c r="AS35" s="11">
-        <v>25855</v>
+        <v>11847</v>
       </c>
       <c r="AT35" s="11">
-        <v>11734</v>
+        <v>40787</v>
       </c>
       <c r="AU35" s="11">
-        <v>11847</v>
+        <v>38770</v>
       </c>
       <c r="AV35" s="11">
-        <v>40787</v>
+        <v>77842</v>
       </c>
       <c r="AW35" s="11">
-        <v>38770</v>
+        <v>26739</v>
       </c>
       <c r="AX35" s="11">
-        <v>77842</v>
+        <v>30565</v>
       </c>
       <c r="AY35" s="11">
-        <v>26739</v>
+        <v>22900</v>
       </c>
       <c r="AZ35" s="11">
-        <v>30565</v>
+        <v>19039</v>
       </c>
       <c r="BA35" s="11">
-        <v>22900</v>
+        <v>28919</v>
       </c>
       <c r="BB35" s="11">
-        <v>19039</v>
+        <v>20688</v>
       </c>
     </row>
-    <row r="36" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B36" s="12" t="s">
         <v>57</v>
       </c>
@@ -4869,76 +4869,76 @@
         <v>0</v>
       </c>
       <c r="AF36" s="13">
-        <v>0</v>
+        <v>263</v>
       </c>
       <c r="AG36" s="13">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="AH36" s="13">
-        <v>263</v>
+        <v>218</v>
       </c>
       <c r="AI36" s="13">
-        <v>180</v>
+        <v>119</v>
       </c>
       <c r="AJ36" s="13">
-        <v>218</v>
+        <v>0</v>
       </c>
       <c r="AK36" s="13">
-        <v>119</v>
+        <v>39</v>
       </c>
       <c r="AL36" s="13">
-        <v>0</v>
+        <v>197</v>
       </c>
       <c r="AM36" s="13">
-        <v>39</v>
+        <v>858</v>
       </c>
       <c r="AN36" s="13">
-        <v>197</v>
+        <v>1265</v>
       </c>
       <c r="AO36" s="13">
-        <v>858</v>
+        <v>1315</v>
       </c>
       <c r="AP36" s="13">
-        <v>1265</v>
+        <v>278</v>
       </c>
       <c r="AQ36" s="13">
-        <v>1315</v>
+        <v>80</v>
       </c>
       <c r="AR36" s="13">
-        <v>278</v>
+        <v>1449</v>
       </c>
       <c r="AS36" s="13">
-        <v>80</v>
+        <v>2214</v>
       </c>
       <c r="AT36" s="13">
-        <v>1449</v>
+        <v>2569</v>
       </c>
       <c r="AU36" s="13">
-        <v>2214</v>
+        <v>2294</v>
       </c>
       <c r="AV36" s="13">
-        <v>2569</v>
+        <v>3097</v>
       </c>
       <c r="AW36" s="13">
-        <v>2294</v>
+        <v>3751</v>
       </c>
       <c r="AX36" s="13">
-        <v>3097</v>
+        <v>4159</v>
       </c>
       <c r="AY36" s="13">
-        <v>3751</v>
+        <v>3758</v>
       </c>
       <c r="AZ36" s="13">
-        <v>4159</v>
+        <v>1897</v>
       </c>
       <c r="BA36" s="13">
-        <v>3758</v>
+        <v>1294</v>
       </c>
       <c r="BB36" s="13">
-        <v>1897</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="37" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B37" s="10" t="s">
         <v>58</v>
       </c>
@@ -4947,157 +4947,157 @@
       </c>
       <c r="D37" s="11"/>
       <c r="E37" s="11">
-        <v>3872</v>
+        <v>2309</v>
       </c>
       <c r="F37" s="11">
-        <v>3430</v>
+        <v>3334</v>
       </c>
       <c r="G37" s="11">
-        <v>2309</v>
+        <v>4397</v>
       </c>
       <c r="H37" s="11">
-        <v>3334</v>
+        <v>3554</v>
       </c>
       <c r="I37" s="11">
-        <v>4397</v>
+        <v>4881</v>
       </c>
       <c r="J37" s="11">
-        <v>3554</v>
+        <v>3954</v>
       </c>
       <c r="K37" s="11">
-        <v>4881</v>
+        <v>2403</v>
       </c>
       <c r="L37" s="11">
-        <v>3954</v>
+        <v>3721</v>
       </c>
       <c r="M37" s="11">
-        <v>2403</v>
+        <v>3236</v>
       </c>
       <c r="N37" s="11">
-        <v>3721</v>
+        <v>3315</v>
       </c>
       <c r="O37" s="11">
-        <v>3236</v>
+        <v>7335</v>
       </c>
       <c r="P37" s="11">
-        <v>3315</v>
+        <v>5347</v>
       </c>
       <c r="Q37" s="11">
-        <v>7335</v>
+        <v>3601</v>
       </c>
       <c r="R37" s="11">
-        <v>5347</v>
+        <v>722</v>
       </c>
       <c r="S37" s="11">
-        <v>3601</v>
+        <v>360</v>
       </c>
       <c r="T37" s="11">
-        <v>722</v>
+        <v>460</v>
       </c>
       <c r="U37" s="11">
-        <v>360</v>
+        <v>1499</v>
       </c>
       <c r="V37" s="11">
-        <v>460</v>
+        <v>827</v>
       </c>
       <c r="W37" s="11">
-        <v>1499</v>
+        <v>1291</v>
       </c>
       <c r="X37" s="11">
-        <v>827</v>
+        <v>4250</v>
       </c>
       <c r="Y37" s="11">
-        <v>1291</v>
+        <v>3394</v>
       </c>
       <c r="Z37" s="11">
-        <v>4250</v>
+        <v>1609</v>
       </c>
       <c r="AA37" s="11">
-        <v>3394</v>
+        <v>3248</v>
       </c>
       <c r="AB37" s="11">
-        <v>1609</v>
+        <v>2191</v>
       </c>
       <c r="AC37" s="11">
-        <v>3248</v>
+        <v>1030</v>
       </c>
       <c r="AD37" s="11">
-        <v>2191</v>
+        <v>591</v>
       </c>
       <c r="AE37" s="11">
-        <v>1030</v>
+        <v>2746</v>
       </c>
       <c r="AF37" s="11">
-        <v>591</v>
+        <v>2603</v>
       </c>
       <c r="AG37" s="11">
-        <v>2746</v>
+        <v>1579</v>
       </c>
       <c r="AH37" s="11">
-        <v>2603</v>
+        <v>913</v>
       </c>
       <c r="AI37" s="11">
-        <v>1579</v>
+        <v>230</v>
       </c>
       <c r="AJ37" s="11">
-        <v>913</v>
+        <v>1589</v>
       </c>
       <c r="AK37" s="11">
-        <v>230</v>
+        <v>1755</v>
       </c>
       <c r="AL37" s="11">
-        <v>1589</v>
+        <v>385</v>
       </c>
       <c r="AM37" s="11">
-        <v>1755</v>
+        <v>1940</v>
       </c>
       <c r="AN37" s="11">
-        <v>385</v>
+        <v>955</v>
       </c>
       <c r="AO37" s="11">
-        <v>1940</v>
+        <v>430</v>
       </c>
       <c r="AP37" s="11">
-        <v>955</v>
+        <v>265</v>
       </c>
       <c r="AQ37" s="11">
-        <v>430</v>
+        <v>474</v>
       </c>
       <c r="AR37" s="11">
-        <v>265</v>
+        <v>910</v>
       </c>
       <c r="AS37" s="11">
-        <v>474</v>
+        <v>553</v>
       </c>
       <c r="AT37" s="11">
-        <v>910</v>
+        <v>296</v>
       </c>
       <c r="AU37" s="11">
-        <v>553</v>
+        <v>2975</v>
       </c>
       <c r="AV37" s="11">
-        <v>296</v>
+        <v>920</v>
       </c>
       <c r="AW37" s="11">
-        <v>2975</v>
+        <v>110</v>
       </c>
       <c r="AX37" s="11">
-        <v>920</v>
+        <v>1066</v>
       </c>
       <c r="AY37" s="11">
-        <v>110</v>
+        <v>594</v>
       </c>
       <c r="AZ37" s="11">
-        <v>1066</v>
+        <v>4242</v>
       </c>
       <c r="BA37" s="11">
-        <v>594</v>
+        <v>1927</v>
       </c>
       <c r="BB37" s="11">
-        <v>4242</v>
+        <v>911</v>
       </c>
     </row>
-    <row r="38" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B38" s="12" t="s">
         <v>59</v>
       </c>
@@ -5106,92 +5106,92 @@
       </c>
       <c r="D38" s="13"/>
       <c r="E38" s="13">
-        <v>18597</v>
+        <v>37541</v>
       </c>
       <c r="F38" s="13">
-        <v>29930</v>
+        <v>35504</v>
       </c>
       <c r="G38" s="13">
-        <v>37541</v>
+        <v>31575</v>
       </c>
       <c r="H38" s="13">
-        <v>35504</v>
+        <v>10253</v>
       </c>
       <c r="I38" s="13">
-        <v>31575</v>
+        <v>15388</v>
       </c>
       <c r="J38" s="13">
-        <v>10253</v>
+        <v>44718</v>
       </c>
       <c r="K38" s="13">
-        <v>15388</v>
+        <v>34852</v>
       </c>
       <c r="L38" s="13">
-        <v>44718</v>
+        <v>27926</v>
       </c>
       <c r="M38" s="13">
-        <v>34852</v>
+        <v>31680</v>
       </c>
       <c r="N38" s="13">
-        <v>27926</v>
+        <v>27241</v>
       </c>
       <c r="O38" s="13">
-        <v>31680</v>
+        <v>24236</v>
       </c>
       <c r="P38" s="13">
-        <v>27241</v>
+        <v>37692</v>
       </c>
       <c r="Q38" s="13">
-        <v>24236</v>
+        <v>48917</v>
       </c>
       <c r="R38" s="13">
-        <v>37692</v>
+        <v>8861</v>
       </c>
       <c r="S38" s="13">
-        <v>48917</v>
-      </c>
-      <c r="T38" s="13">
-        <v>8861</v>
-      </c>
-      <c r="U38" s="13">
         <v>44470</v>
       </c>
-      <c r="V38" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="W38" s="13" t="s">
-        <v>60</v>
+      <c r="T38" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="U38" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="V38" s="13">
+        <v>7613</v>
+      </c>
+      <c r="W38" s="13">
+        <v>7621</v>
       </c>
       <c r="X38" s="13">
-        <v>7613</v>
+        <v>17148</v>
       </c>
       <c r="Y38" s="13">
-        <v>7621</v>
+        <v>23002</v>
       </c>
       <c r="Z38" s="13">
-        <v>17148</v>
+        <v>22386</v>
       </c>
       <c r="AA38" s="13">
-        <v>23002</v>
+        <v>26850</v>
       </c>
       <c r="AB38" s="13">
-        <v>22386</v>
+        <v>40056</v>
       </c>
       <c r="AC38" s="13">
-        <v>26850</v>
+        <v>35203</v>
       </c>
       <c r="AD38" s="13">
-        <v>40056</v>
+        <v>13981</v>
       </c>
       <c r="AE38" s="13">
-        <v>35203</v>
-      </c>
-      <c r="AF38" s="13">
-        <v>13981</v>
-      </c>
-      <c r="AG38" s="13">
         <v>21137</v>
       </c>
+      <c r="AF38" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="AG38" s="13" t="s">
+        <v>60</v>
+      </c>
       <c r="AH38" s="13" t="s">
         <v>60</v>
       </c>
@@ -5256,7 +5256,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="39" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B39" s="10" t="s">
         <v>61</v>
       </c>
@@ -5346,76 +5346,76 @@
         <v>0</v>
       </c>
       <c r="AF39" s="11">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AG39" s="11">
-        <v>0</v>
+        <v>392</v>
       </c>
       <c r="AH39" s="11">
-        <v>100</v>
+        <v>1214</v>
       </c>
       <c r="AI39" s="11">
-        <v>392</v>
+        <v>507</v>
       </c>
       <c r="AJ39" s="11">
-        <v>1214</v>
+        <v>508</v>
       </c>
       <c r="AK39" s="11">
+        <v>1733</v>
+      </c>
+      <c r="AL39" s="11">
+        <v>534</v>
+      </c>
+      <c r="AM39" s="11">
+        <v>476</v>
+      </c>
+      <c r="AN39" s="11">
+        <v>407</v>
+      </c>
+      <c r="AO39" s="11">
+        <v>200</v>
+      </c>
+      <c r="AP39" s="11">
+        <v>200</v>
+      </c>
+      <c r="AQ39" s="11">
+        <v>300</v>
+      </c>
+      <c r="AR39" s="11">
         <v>507</v>
       </c>
-      <c r="AL39" s="11">
-        <v>508</v>
-      </c>
-      <c r="AM39" s="11">
-        <v>1733</v>
-      </c>
-      <c r="AN39" s="11">
-        <v>534</v>
-      </c>
-      <c r="AO39" s="11">
-        <v>476</v>
-      </c>
-      <c r="AP39" s="11">
-        <v>407</v>
-      </c>
-      <c r="AQ39" s="11">
+      <c r="AS39" s="11">
+        <v>460</v>
+      </c>
+      <c r="AT39" s="11">
+        <v>345</v>
+      </c>
+      <c r="AU39" s="11">
+        <v>0</v>
+      </c>
+      <c r="AV39" s="11">
+        <v>0</v>
+      </c>
+      <c r="AW39" s="11">
+        <v>598</v>
+      </c>
+      <c r="AX39" s="11">
+        <v>0</v>
+      </c>
+      <c r="AY39" s="11">
+        <v>674</v>
+      </c>
+      <c r="AZ39" s="11">
+        <v>410</v>
+      </c>
+      <c r="BA39" s="11">
         <v>200</v>
       </c>
-      <c r="AR39" s="11">
-        <v>200</v>
-      </c>
-      <c r="AS39" s="11">
-        <v>300</v>
-      </c>
-      <c r="AT39" s="11">
-        <v>507</v>
-      </c>
-      <c r="AU39" s="11">
-        <v>460</v>
-      </c>
-      <c r="AV39" s="11">
-        <v>345</v>
-      </c>
-      <c r="AW39" s="11">
-        <v>0</v>
-      </c>
-      <c r="AX39" s="11">
-        <v>0</v>
-      </c>
-      <c r="AY39" s="11">
-        <v>598</v>
-      </c>
-      <c r="AZ39" s="11">
-        <v>0</v>
-      </c>
-      <c r="BA39" s="11">
-        <v>674</v>
-      </c>
       <c r="BB39" s="11">
-        <v>410</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="40" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B40" s="12" t="s">
         <v>62</v>
       </c>
@@ -5471,11 +5471,11 @@
       <c r="T40" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="U40" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="V40" s="13" t="s">
-        <v>60</v>
+      <c r="U40" s="13">
+        <v>0</v>
+      </c>
+      <c r="V40" s="13">
+        <v>0</v>
       </c>
       <c r="W40" s="13">
         <v>0</v>
@@ -5504,11 +5504,11 @@
       <c r="AE40" s="13">
         <v>0</v>
       </c>
-      <c r="AF40" s="13">
-        <v>0</v>
-      </c>
-      <c r="AG40" s="13">
-        <v>0</v>
+      <c r="AF40" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="AG40" s="13" t="s">
+        <v>60</v>
       </c>
       <c r="AH40" s="13" t="s">
         <v>60</v>
@@ -5574,7 +5574,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="41" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B41" s="10" t="s">
         <v>63</v>
       </c>
@@ -5627,18 +5627,18 @@
       <c r="S41" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="T41" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="U41" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="V41" s="11">
+      <c r="T41" s="11">
         <v>1289</v>
       </c>
-      <c r="W41" s="11">
+      <c r="U41" s="11">
         <v>1204</v>
       </c>
+      <c r="V41" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="W41" s="11" t="s">
+        <v>60</v>
+      </c>
       <c r="X41" s="11" t="s">
         <v>60</v>
       </c>
@@ -5699,41 +5699,41 @@
       <c r="AQ41" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="AR41" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="AS41" s="11" t="s">
-        <v>60</v>
+      <c r="AR41" s="11">
+        <v>703</v>
+      </c>
+      <c r="AS41" s="11">
+        <v>1355</v>
       </c>
       <c r="AT41" s="11">
-        <v>703</v>
+        <v>1574</v>
       </c>
       <c r="AU41" s="11">
-        <v>1355</v>
+        <v>1507</v>
       </c>
       <c r="AV41" s="11">
-        <v>1574</v>
+        <v>1682</v>
       </c>
       <c r="AW41" s="11">
-        <v>1507</v>
+        <v>1252</v>
       </c>
       <c r="AX41" s="11">
-        <v>1682</v>
+        <v>1157</v>
       </c>
       <c r="AY41" s="11">
-        <v>1252</v>
+        <v>1499</v>
       </c>
       <c r="AZ41" s="11">
-        <v>1157</v>
+        <v>1406</v>
       </c>
       <c r="BA41" s="11">
-        <v>1499</v>
+        <v>240</v>
       </c>
       <c r="BB41" s="11">
-        <v>1406</v>
+        <v>24</v>
       </c>
     </row>
-    <row r="42" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B42" s="12" t="s">
         <v>64</v>
       </c>
@@ -5892,7 +5892,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B43" s="10" t="s">
         <v>65</v>
       </c>
@@ -6051,7 +6051,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B44" s="12" t="s">
         <v>66</v>
       </c>
@@ -6210,7 +6210,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B45" s="10" t="s">
         <v>67</v>
       </c>
@@ -6219,92 +6219,92 @@
       </c>
       <c r="D45" s="11"/>
       <c r="E45" s="11">
-        <v>230</v>
+        <v>387</v>
       </c>
       <c r="F45" s="11">
-        <v>496</v>
+        <v>285</v>
       </c>
       <c r="G45" s="11">
-        <v>387</v>
+        <v>552</v>
       </c>
       <c r="H45" s="11">
-        <v>285</v>
+        <v>414</v>
       </c>
       <c r="I45" s="11">
-        <v>552</v>
+        <v>118</v>
       </c>
       <c r="J45" s="11">
-        <v>414</v>
+        <v>83</v>
       </c>
       <c r="K45" s="11">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="L45" s="11">
-        <v>83</v>
+        <v>104</v>
       </c>
       <c r="M45" s="11">
-        <v>123</v>
+        <v>146</v>
       </c>
       <c r="N45" s="11">
-        <v>104</v>
+        <v>128</v>
       </c>
       <c r="O45" s="11">
-        <v>146</v>
+        <v>80</v>
       </c>
       <c r="P45" s="11">
-        <v>128</v>
+        <v>41</v>
       </c>
       <c r="Q45" s="11">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="R45" s="11">
-        <v>41</v>
+        <v>0</v>
       </c>
       <c r="S45" s="11">
         <v>0</v>
       </c>
-      <c r="T45" s="11">
-        <v>0</v>
-      </c>
-      <c r="U45" s="11">
-        <v>0</v>
-      </c>
-      <c r="V45" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="W45" s="11" t="s">
-        <v>60</v>
+      <c r="T45" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="U45" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="V45" s="11">
+        <v>0</v>
+      </c>
+      <c r="W45" s="11">
+        <v>0</v>
       </c>
       <c r="X45" s="11">
         <v>0</v>
       </c>
       <c r="Y45" s="11">
-        <v>0</v>
+        <v>139</v>
       </c>
       <c r="Z45" s="11">
-        <v>0</v>
+        <v>771</v>
       </c>
       <c r="AA45" s="11">
-        <v>139</v>
+        <v>523</v>
       </c>
       <c r="AB45" s="11">
-        <v>771</v>
+        <v>529</v>
       </c>
       <c r="AC45" s="11">
-        <v>523</v>
+        <v>365</v>
       </c>
       <c r="AD45" s="11">
-        <v>529</v>
+        <v>0</v>
       </c>
       <c r="AE45" s="11">
-        <v>365</v>
-      </c>
-      <c r="AF45" s="11">
-        <v>0</v>
-      </c>
-      <c r="AG45" s="11">
         <v>142</v>
       </c>
+      <c r="AF45" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="AG45" s="11" t="s">
+        <v>60</v>
+      </c>
       <c r="AH45" s="11" t="s">
         <v>60</v>
       </c>
@@ -6369,7 +6369,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="46" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B46" s="12" t="s">
         <v>68</v>
       </c>
@@ -6378,128 +6378,128 @@
       </c>
       <c r="D46" s="13"/>
       <c r="E46" s="13">
-        <v>1576</v>
+        <v>1836</v>
       </c>
       <c r="F46" s="13">
-        <v>1807</v>
+        <v>1937</v>
       </c>
       <c r="G46" s="13">
-        <v>1836</v>
+        <v>1898</v>
       </c>
       <c r="H46" s="13">
-        <v>1937</v>
+        <v>2380</v>
       </c>
       <c r="I46" s="13">
-        <v>1898</v>
+        <v>2579</v>
       </c>
       <c r="J46" s="13">
-        <v>2380</v>
+        <v>2211</v>
       </c>
       <c r="K46" s="13">
-        <v>2579</v>
+        <v>2241</v>
       </c>
       <c r="L46" s="13">
-        <v>2211</v>
+        <v>1746</v>
       </c>
       <c r="M46" s="13">
-        <v>2241</v>
+        <v>1986</v>
       </c>
       <c r="N46" s="13">
-        <v>1746</v>
+        <v>2057</v>
       </c>
       <c r="O46" s="13">
-        <v>1986</v>
+        <v>2142</v>
       </c>
       <c r="P46" s="13">
-        <v>2057</v>
+        <v>2216</v>
       </c>
       <c r="Q46" s="13">
-        <v>2142</v>
+        <v>2188</v>
       </c>
       <c r="R46" s="13">
-        <v>2216</v>
+        <v>1665</v>
       </c>
       <c r="S46" s="13">
-        <v>2188</v>
-      </c>
-      <c r="T46" s="13">
-        <v>1665</v>
-      </c>
-      <c r="U46" s="13">
-        <v>0</v>
-      </c>
-      <c r="V46" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="W46" s="13" t="s">
-        <v>60</v>
+        <v>0</v>
+      </c>
+      <c r="T46" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="U46" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="V46" s="13">
+        <v>0</v>
+      </c>
+      <c r="W46" s="13">
+        <v>88</v>
       </c>
       <c r="X46" s="13">
-        <v>0</v>
+        <v>571</v>
       </c>
       <c r="Y46" s="13">
-        <v>88</v>
+        <v>1516</v>
       </c>
       <c r="Z46" s="13">
-        <v>571</v>
+        <v>1949</v>
       </c>
       <c r="AA46" s="13">
-        <v>1516</v>
+        <v>1826</v>
       </c>
       <c r="AB46" s="13">
-        <v>1949</v>
+        <v>1687</v>
       </c>
       <c r="AC46" s="13">
-        <v>1826</v>
+        <v>824</v>
       </c>
       <c r="AD46" s="13">
-        <v>1687</v>
+        <v>0</v>
       </c>
       <c r="AE46" s="13">
-        <v>824</v>
+        <v>732</v>
       </c>
       <c r="AF46" s="13">
-        <v>0</v>
+        <v>1942</v>
       </c>
       <c r="AG46" s="13">
-        <v>732</v>
+        <v>1921</v>
       </c>
       <c r="AH46" s="13">
-        <v>1942</v>
+        <v>1491</v>
       </c>
       <c r="AI46" s="13">
-        <v>1921</v>
+        <v>1444</v>
       </c>
       <c r="AJ46" s="13">
-        <v>1491</v>
+        <v>1321</v>
       </c>
       <c r="AK46" s="13">
-        <v>1444</v>
+        <v>1181</v>
       </c>
       <c r="AL46" s="13">
-        <v>1321</v>
+        <v>1172</v>
       </c>
       <c r="AM46" s="13">
-        <v>1181</v>
+        <v>1918</v>
       </c>
       <c r="AN46" s="13">
-        <v>1172</v>
+        <v>2464</v>
       </c>
       <c r="AO46" s="13">
-        <v>1918</v>
+        <v>2664</v>
       </c>
       <c r="AP46" s="13">
-        <v>2464</v>
+        <v>2048</v>
       </c>
       <c r="AQ46" s="13">
-        <v>2664</v>
-      </c>
-      <c r="AR46" s="13">
-        <v>2048</v>
-      </c>
-      <c r="AS46" s="13">
         <v>1549</v>
       </c>
+      <c r="AR46" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="AS46" s="13" t="s">
+        <v>60</v>
+      </c>
       <c r="AT46" s="13" t="s">
         <v>60</v>
       </c>
@@ -6528,7 +6528,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="47" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B47" s="10" t="s">
         <v>69</v>
       </c>
@@ -6537,157 +6537,157 @@
       </c>
       <c r="D47" s="11"/>
       <c r="E47" s="11">
-        <v>11109</v>
+        <v>5220</v>
       </c>
       <c r="F47" s="11">
-        <v>15799</v>
+        <v>19404</v>
       </c>
       <c r="G47" s="11">
-        <v>5220</v>
+        <v>12454</v>
       </c>
       <c r="H47" s="11">
-        <v>19404</v>
+        <v>22154</v>
       </c>
       <c r="I47" s="11">
-        <v>12454</v>
+        <v>8285</v>
       </c>
       <c r="J47" s="11">
-        <v>22154</v>
+        <v>7633</v>
       </c>
       <c r="K47" s="11">
-        <v>8285</v>
+        <v>4591</v>
       </c>
       <c r="L47" s="11">
-        <v>7633</v>
+        <v>24565</v>
       </c>
       <c r="M47" s="11">
-        <v>4591</v>
+        <v>10944</v>
       </c>
       <c r="N47" s="11">
-        <v>24565</v>
+        <v>14989</v>
       </c>
       <c r="O47" s="11">
-        <v>10944</v>
+        <v>26</v>
       </c>
       <c r="P47" s="11">
-        <v>14989</v>
+        <v>6682</v>
       </c>
       <c r="Q47" s="11">
-        <v>26</v>
+        <v>4706</v>
       </c>
       <c r="R47" s="11">
-        <v>6682</v>
+        <v>4005</v>
       </c>
       <c r="S47" s="11">
-        <v>4706</v>
+        <v>18700</v>
       </c>
       <c r="T47" s="11">
-        <v>4005</v>
+        <v>22442</v>
       </c>
       <c r="U47" s="11">
-        <v>18700</v>
+        <v>21188</v>
       </c>
       <c r="V47" s="11">
-        <v>22442</v>
+        <v>6713</v>
       </c>
       <c r="W47" s="11">
-        <v>21188</v>
+        <v>9897</v>
       </c>
       <c r="X47" s="11">
-        <v>6713</v>
+        <v>16176</v>
       </c>
       <c r="Y47" s="11">
-        <v>9897</v>
+        <v>8603</v>
       </c>
       <c r="Z47" s="11">
-        <v>16176</v>
+        <v>16034</v>
       </c>
       <c r="AA47" s="11">
-        <v>8603</v>
+        <v>14940</v>
       </c>
       <c r="AB47" s="11">
-        <v>16034</v>
+        <v>16641</v>
       </c>
       <c r="AC47" s="11">
-        <v>14940</v>
+        <v>8217</v>
       </c>
       <c r="AD47" s="11">
-        <v>16641</v>
+        <v>7790</v>
       </c>
       <c r="AE47" s="11">
-        <v>8217</v>
+        <v>20719</v>
       </c>
       <c r="AF47" s="11">
-        <v>7790</v>
+        <v>26222</v>
       </c>
       <c r="AG47" s="11">
-        <v>20719</v>
+        <v>23595</v>
       </c>
       <c r="AH47" s="11">
-        <v>26222</v>
+        <v>11048</v>
       </c>
       <c r="AI47" s="11">
-        <v>23595</v>
+        <v>16038</v>
       </c>
       <c r="AJ47" s="11">
-        <v>11048</v>
+        <v>11798</v>
       </c>
       <c r="AK47" s="11">
-        <v>16038</v>
+        <v>11582</v>
       </c>
       <c r="AL47" s="11">
-        <v>11798</v>
+        <v>15692</v>
       </c>
       <c r="AM47" s="11">
-        <v>11582</v>
+        <v>16688</v>
       </c>
       <c r="AN47" s="11">
-        <v>15692</v>
+        <v>19395</v>
       </c>
       <c r="AO47" s="11">
-        <v>16688</v>
+        <v>14541</v>
       </c>
       <c r="AP47" s="11">
-        <v>19395</v>
+        <v>10672</v>
       </c>
       <c r="AQ47" s="11">
-        <v>14541</v>
+        <v>9504</v>
       </c>
       <c r="AR47" s="11">
-        <v>10672</v>
+        <v>15303</v>
       </c>
       <c r="AS47" s="11">
-        <v>9504</v>
+        <v>15558</v>
       </c>
       <c r="AT47" s="11">
-        <v>15303</v>
+        <v>17980</v>
       </c>
       <c r="AU47" s="11">
-        <v>15558</v>
+        <v>10974</v>
       </c>
       <c r="AV47" s="11">
-        <v>17980</v>
+        <v>1813</v>
       </c>
       <c r="AW47" s="11">
-        <v>10974</v>
+        <v>14934</v>
       </c>
       <c r="AX47" s="11">
-        <v>1813</v>
+        <v>10860</v>
       </c>
       <c r="AY47" s="11">
-        <v>14934</v>
+        <v>14654</v>
       </c>
       <c r="AZ47" s="11">
-        <v>10860</v>
+        <v>9411</v>
       </c>
       <c r="BA47" s="11">
-        <v>14654</v>
+        <v>0</v>
       </c>
       <c r="BB47" s="11">
-        <v>9411</v>
+        <v>4648</v>
       </c>
     </row>
-    <row r="48" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B48" s="12" t="s">
         <v>70</v>
       </c>
@@ -6696,128 +6696,128 @@
       </c>
       <c r="D48" s="13"/>
       <c r="E48" s="13">
-        <v>959</v>
+        <v>507</v>
       </c>
       <c r="F48" s="13">
-        <v>939</v>
+        <v>514</v>
       </c>
       <c r="G48" s="13">
-        <v>507</v>
+        <v>1011</v>
       </c>
       <c r="H48" s="13">
-        <v>514</v>
+        <v>619</v>
       </c>
       <c r="I48" s="13">
-        <v>1011</v>
+        <v>1975</v>
       </c>
       <c r="J48" s="13">
-        <v>619</v>
+        <v>861</v>
       </c>
       <c r="K48" s="13">
-        <v>1975</v>
+        <v>906</v>
       </c>
       <c r="L48" s="13">
-        <v>861</v>
+        <v>701</v>
       </c>
       <c r="M48" s="13">
-        <v>906</v>
+        <v>725</v>
       </c>
       <c r="N48" s="13">
-        <v>701</v>
+        <v>592</v>
       </c>
       <c r="O48" s="13">
-        <v>725</v>
+        <v>729</v>
       </c>
       <c r="P48" s="13">
-        <v>592</v>
+        <v>1081</v>
       </c>
       <c r="Q48" s="13">
-        <v>729</v>
+        <v>674</v>
       </c>
       <c r="R48" s="13">
-        <v>1081</v>
+        <v>145</v>
       </c>
       <c r="S48" s="13">
-        <v>674</v>
-      </c>
-      <c r="T48" s="13">
-        <v>145</v>
-      </c>
-      <c r="U48" s="13">
         <v>534</v>
       </c>
-      <c r="V48" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="W48" s="13" t="s">
-        <v>60</v>
+      <c r="T48" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="U48" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="V48" s="13">
+        <v>1077</v>
+      </c>
+      <c r="W48" s="13">
+        <v>1032</v>
       </c>
       <c r="X48" s="13">
-        <v>1077</v>
+        <v>1405</v>
       </c>
       <c r="Y48" s="13">
-        <v>1032</v>
+        <v>1280</v>
       </c>
       <c r="Z48" s="13">
-        <v>1405</v>
+        <v>1189</v>
       </c>
       <c r="AA48" s="13">
-        <v>1280</v>
+        <v>1203</v>
       </c>
       <c r="AB48" s="13">
-        <v>1189</v>
+        <v>1061</v>
       </c>
       <c r="AC48" s="13">
-        <v>1203</v>
+        <v>760</v>
       </c>
       <c r="AD48" s="13">
-        <v>1061</v>
+        <v>543</v>
       </c>
       <c r="AE48" s="13">
-        <v>760</v>
+        <v>1552</v>
       </c>
       <c r="AF48" s="13">
-        <v>543</v>
+        <v>782</v>
       </c>
       <c r="AG48" s="13">
-        <v>1552</v>
+        <v>1245</v>
       </c>
       <c r="AH48" s="13">
-        <v>782</v>
+        <v>1074</v>
       </c>
       <c r="AI48" s="13">
-        <v>1245</v>
+        <v>1133</v>
       </c>
       <c r="AJ48" s="13">
-        <v>1074</v>
+        <v>687</v>
       </c>
       <c r="AK48" s="13">
-        <v>1133</v>
+        <v>1316</v>
       </c>
       <c r="AL48" s="13">
-        <v>687</v>
+        <v>1163</v>
       </c>
       <c r="AM48" s="13">
-        <v>1316</v>
+        <v>1194</v>
       </c>
       <c r="AN48" s="13">
-        <v>1163</v>
+        <v>1192</v>
       </c>
       <c r="AO48" s="13">
-        <v>1194</v>
+        <v>1371</v>
       </c>
       <c r="AP48" s="13">
-        <v>1192</v>
+        <v>748</v>
       </c>
       <c r="AQ48" s="13">
-        <v>1371</v>
-      </c>
-      <c r="AR48" s="13">
-        <v>748</v>
-      </c>
-      <c r="AS48" s="13">
         <v>788</v>
       </c>
+      <c r="AR48" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="AS48" s="13" t="s">
+        <v>60</v>
+      </c>
       <c r="AT48" s="13" t="s">
         <v>60</v>
       </c>
@@ -6846,7 +6846,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="49" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B49" s="10" t="s">
         <v>71</v>
       </c>
@@ -6855,92 +6855,92 @@
       </c>
       <c r="D49" s="11"/>
       <c r="E49" s="11">
-        <v>280</v>
+        <v>424</v>
       </c>
       <c r="F49" s="11">
+        <v>820</v>
+      </c>
+      <c r="G49" s="11">
+        <v>840</v>
+      </c>
+      <c r="H49" s="11">
+        <v>216</v>
+      </c>
+      <c r="I49" s="11">
+        <v>1548</v>
+      </c>
+      <c r="J49" s="11">
+        <v>600</v>
+      </c>
+      <c r="K49" s="11">
+        <v>800</v>
+      </c>
+      <c r="L49" s="11">
+        <v>1220</v>
+      </c>
+      <c r="M49" s="11">
+        <v>1212</v>
+      </c>
+      <c r="N49" s="11">
+        <v>1286</v>
+      </c>
+      <c r="O49" s="11">
+        <v>2952</v>
+      </c>
+      <c r="P49" s="11">
+        <v>1968</v>
+      </c>
+      <c r="Q49" s="11">
+        <v>1616</v>
+      </c>
+      <c r="R49" s="11">
+        <v>144</v>
+      </c>
+      <c r="S49" s="11">
+        <v>540</v>
+      </c>
+      <c r="T49" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="U49" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="V49" s="11">
+        <v>96</v>
+      </c>
+      <c r="W49" s="11">
         <v>72</v>
       </c>
-      <c r="G49" s="11">
-        <v>424</v>
-      </c>
-      <c r="H49" s="11">
-        <v>820</v>
-      </c>
-      <c r="I49" s="11">
-        <v>840</v>
-      </c>
-      <c r="J49" s="11">
-        <v>216</v>
-      </c>
-      <c r="K49" s="11">
-        <v>1548</v>
-      </c>
-      <c r="L49" s="11">
-        <v>600</v>
-      </c>
-      <c r="M49" s="11">
-        <v>800</v>
-      </c>
-      <c r="N49" s="11">
-        <v>1220</v>
-      </c>
-      <c r="O49" s="11">
-        <v>1212</v>
-      </c>
-      <c r="P49" s="11">
-        <v>1286</v>
-      </c>
-      <c r="Q49" s="11">
-        <v>2952</v>
-      </c>
-      <c r="R49" s="11">
-        <v>1968</v>
-      </c>
-      <c r="S49" s="11">
-        <v>1616</v>
-      </c>
-      <c r="T49" s="11">
-        <v>144</v>
-      </c>
-      <c r="U49" s="11">
-        <v>540</v>
-      </c>
-      <c r="V49" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="W49" s="11" t="s">
-        <v>60</v>
-      </c>
       <c r="X49" s="11">
-        <v>96</v>
+        <v>204</v>
       </c>
       <c r="Y49" s="11">
-        <v>72</v>
+        <v>496</v>
       </c>
       <c r="Z49" s="11">
-        <v>204</v>
+        <v>636</v>
       </c>
       <c r="AA49" s="11">
+        <v>808</v>
+      </c>
+      <c r="AB49" s="11">
+        <v>836</v>
+      </c>
+      <c r="AC49" s="11">
         <v>496</v>
       </c>
-      <c r="AB49" s="11">
-        <v>636</v>
-      </c>
-      <c r="AC49" s="11">
-        <v>808</v>
-      </c>
       <c r="AD49" s="11">
-        <v>836</v>
+        <v>196</v>
       </c>
       <c r="AE49" s="11">
-        <v>496</v>
-      </c>
-      <c r="AF49" s="11">
-        <v>196</v>
-      </c>
-      <c r="AG49" s="11">
         <v>100</v>
       </c>
+      <c r="AF49" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="AG49" s="11" t="s">
+        <v>60</v>
+      </c>
       <c r="AH49" s="11" t="s">
         <v>60</v>
       </c>
@@ -7005,7 +7005,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="50" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B50" s="14" t="s">
         <v>72</v>
       </c>
@@ -7062,7 +7062,7 @@
       <c r="BA50" s="15"/>
       <c r="BB50" s="15"/>
     </row>
-    <row r="51" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B51" s="16" t="s">
         <v>73</v>
       </c>
@@ -7119,11 +7119,11 @@
       <c r="U51" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="V51" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="W51" s="17" t="s">
-        <v>60</v>
+      <c r="V51" s="17">
+        <v>0</v>
+      </c>
+      <c r="W51" s="17">
+        <v>0</v>
       </c>
       <c r="X51" s="17">
         <v>0</v>
@@ -7219,7 +7219,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B52" s="14" t="s">
         <v>76</v>
       </c>
@@ -7276,7 +7276,7 @@
       <c r="BA52" s="15"/>
       <c r="BB52" s="15"/>
     </row>
-    <row r="53" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B53" s="16" t="s">
         <v>77</v>
       </c>
@@ -7333,11 +7333,11 @@
       <c r="U53" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="V53" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="W53" s="17" t="s">
-        <v>60</v>
+      <c r="V53" s="17">
+        <v>0</v>
+      </c>
+      <c r="W53" s="17">
+        <v>0</v>
       </c>
       <c r="X53" s="17">
         <v>0</v>
@@ -7433,164 +7433,164 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B54" s="18" t="s">
         <v>74</v>
       </c>
       <c r="C54" s="19"/>
       <c r="D54" s="19"/>
       <c r="E54" s="19">
-        <v>36623</v>
+        <v>48224</v>
       </c>
       <c r="F54" s="19">
-        <v>52473</v>
+        <v>61798</v>
       </c>
       <c r="G54" s="19">
-        <v>48224</v>
+        <v>52727</v>
       </c>
       <c r="H54" s="19">
-        <v>61798</v>
+        <v>39590</v>
       </c>
       <c r="I54" s="19">
-        <v>52727</v>
+        <v>34774</v>
       </c>
       <c r="J54" s="19">
-        <v>39590</v>
+        <v>60060</v>
       </c>
       <c r="K54" s="19">
-        <v>34774</v>
+        <v>45916</v>
       </c>
       <c r="L54" s="19">
-        <v>60060</v>
+        <v>59983</v>
       </c>
       <c r="M54" s="19">
-        <v>45916</v>
+        <v>49929</v>
       </c>
       <c r="N54" s="19">
-        <v>59983</v>
+        <v>49608</v>
       </c>
       <c r="O54" s="19">
-        <v>49929</v>
+        <v>37500</v>
       </c>
       <c r="P54" s="19">
-        <v>49608</v>
+        <v>55027</v>
       </c>
       <c r="Q54" s="19">
-        <v>37500</v>
+        <v>61702</v>
       </c>
       <c r="R54" s="19">
-        <v>55027</v>
+        <v>15542</v>
       </c>
       <c r="S54" s="19">
-        <v>61702</v>
+        <v>64604</v>
       </c>
       <c r="T54" s="19">
-        <v>15542</v>
+        <v>36235</v>
       </c>
       <c r="U54" s="19">
-        <v>64604</v>
+        <v>68037</v>
       </c>
       <c r="V54" s="19">
-        <v>36235</v>
+        <v>16326</v>
       </c>
       <c r="W54" s="19">
-        <v>68037</v>
+        <v>20001</v>
       </c>
       <c r="X54" s="19">
-        <v>16326</v>
+        <v>39754</v>
       </c>
       <c r="Y54" s="19">
-        <v>20001</v>
+        <v>38430</v>
       </c>
       <c r="Z54" s="19">
-        <v>39754</v>
+        <v>44574</v>
       </c>
       <c r="AA54" s="19">
-        <v>38430</v>
+        <v>49398</v>
       </c>
       <c r="AB54" s="19">
-        <v>44574</v>
+        <v>63001</v>
       </c>
       <c r="AC54" s="19">
-        <v>49398</v>
+        <v>46895</v>
       </c>
       <c r="AD54" s="19">
-        <v>63001</v>
+        <v>23101</v>
       </c>
       <c r="AE54" s="19">
-        <v>46895</v>
+        <v>47128</v>
       </c>
       <c r="AF54" s="19">
-        <v>23101</v>
+        <v>42684</v>
       </c>
       <c r="AG54" s="19">
-        <v>47128</v>
+        <v>40656</v>
       </c>
       <c r="AH54" s="19">
-        <v>42684</v>
+        <v>44923</v>
       </c>
       <c r="AI54" s="19">
-        <v>40656</v>
+        <v>50839</v>
       </c>
       <c r="AJ54" s="19">
-        <v>44923</v>
+        <v>32757</v>
       </c>
       <c r="AK54" s="19">
-        <v>50839</v>
+        <v>60685</v>
       </c>
       <c r="AL54" s="19">
-        <v>32757</v>
+        <v>50527</v>
       </c>
       <c r="AM54" s="19">
-        <v>60685</v>
+        <v>36807</v>
       </c>
       <c r="AN54" s="19">
-        <v>50527</v>
+        <v>59123</v>
       </c>
       <c r="AO54" s="19">
-        <v>36807</v>
+        <v>23867</v>
       </c>
       <c r="AP54" s="19">
-        <v>59123</v>
+        <v>20589</v>
       </c>
       <c r="AQ54" s="19">
-        <v>23867</v>
+        <v>38550</v>
       </c>
       <c r="AR54" s="19">
-        <v>20589</v>
+        <v>30606</v>
       </c>
       <c r="AS54" s="19">
-        <v>38550</v>
+        <v>31987</v>
       </c>
       <c r="AT54" s="19">
-        <v>30606</v>
+        <v>63551</v>
       </c>
       <c r="AU54" s="19">
-        <v>31987</v>
+        <v>56520</v>
       </c>
       <c r="AV54" s="19">
-        <v>63551</v>
+        <v>85354</v>
       </c>
       <c r="AW54" s="19">
-        <v>56520</v>
+        <v>47383</v>
       </c>
       <c r="AX54" s="19">
-        <v>85354</v>
+        <v>47807</v>
       </c>
       <c r="AY54" s="19">
-        <v>47383</v>
+        <v>44079</v>
       </c>
       <c r="AZ54" s="19">
-        <v>47807</v>
+        <v>36405</v>
       </c>
       <c r="BA54" s="19">
-        <v>44079</v>
+        <v>32580</v>
       </c>
       <c r="BB54" s="19">
-        <v>36405</v>
+        <v>26271</v>
       </c>
     </row>
-    <row r="55" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
@@ -7645,7 +7645,7 @@
       <c r="BA55" s="1"/>
       <c r="BB55" s="1"/>
     </row>
-    <row r="56" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
@@ -7700,7 +7700,7 @@
       <c r="BA56" s="1"/>
       <c r="BB56" s="1"/>
     </row>
-    <row r="57" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
@@ -7755,7 +7755,7 @@
       <c r="BA57" s="1"/>
       <c r="BB57" s="1"/>
     </row>
-    <row r="58" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B58" s="7" t="s">
         <v>78</v>
       </c>
@@ -7912,7 +7912,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="59" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
@@ -7967,7 +7967,7 @@
       <c r="BA59" s="1"/>
       <c r="BB59" s="1"/>
     </row>
-    <row r="60" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B60" s="8" t="s">
         <v>78</v>
       </c>
@@ -8024,7 +8024,7 @@
       <c r="BA60" s="9"/>
       <c r="BB60" s="9"/>
     </row>
-    <row r="61" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B61" s="10" t="s">
         <v>55</v>
       </c>
@@ -8078,16 +8078,16 @@
         <v>0</v>
       </c>
       <c r="T61" s="11">
-        <v>0</v>
+        <v>326918</v>
       </c>
       <c r="U61" s="11">
-        <v>0</v>
+        <v>1249585</v>
       </c>
       <c r="V61" s="11">
-        <v>326918</v>
+        <v>0</v>
       </c>
       <c r="W61" s="11">
-        <v>1249585</v>
+        <v>0</v>
       </c>
       <c r="X61" s="11">
         <v>0</v>
@@ -8114,76 +8114,76 @@
         <v>0</v>
       </c>
       <c r="AF61" s="11">
-        <v>0</v>
+        <v>710423</v>
       </c>
       <c r="AG61" s="11">
-        <v>0</v>
+        <v>838020</v>
       </c>
       <c r="AH61" s="11">
-        <v>710423</v>
+        <v>1749803</v>
       </c>
       <c r="AI61" s="11">
-        <v>838020</v>
+        <v>1949841</v>
       </c>
       <c r="AJ61" s="11">
-        <v>1749803</v>
+        <v>1286243</v>
       </c>
       <c r="AK61" s="11">
-        <v>1949841</v>
+        <v>3693907</v>
       </c>
       <c r="AL61" s="11">
-        <v>1286243</v>
+        <v>2971758</v>
       </c>
       <c r="AM61" s="11">
-        <v>3693907</v>
+        <v>1390588</v>
       </c>
       <c r="AN61" s="11">
-        <v>2971758</v>
+        <v>5771432</v>
       </c>
       <c r="AO61" s="11">
-        <v>1390588</v>
+        <v>649202</v>
       </c>
       <c r="AP61" s="11">
-        <v>5771432</v>
+        <v>928419</v>
       </c>
       <c r="AQ61" s="11">
-        <v>649202</v>
+        <v>3286459</v>
       </c>
       <c r="AR61" s="11">
-        <v>928419</v>
+        <v>1569222</v>
       </c>
       <c r="AS61" s="11">
-        <v>3286459</v>
+        <v>2058045</v>
       </c>
       <c r="AT61" s="11">
-        <v>1569222</v>
+        <v>6024641</v>
       </c>
       <c r="AU61" s="11">
-        <v>2058045</v>
+        <v>5393480</v>
       </c>
       <c r="AV61" s="11">
-        <v>6024641</v>
+        <v>10255317</v>
       </c>
       <c r="AW61" s="11">
-        <v>5393480</v>
+        <v>3831900</v>
       </c>
       <c r="AX61" s="11">
-        <v>10255317</v>
+        <v>4814331</v>
       </c>
       <c r="AY61" s="11">
-        <v>3831900</v>
+        <v>3680527</v>
       </c>
       <c r="AZ61" s="11">
-        <v>4814331</v>
+        <v>2692036</v>
       </c>
       <c r="BA61" s="11">
-        <v>3680527</v>
+        <v>3880465</v>
       </c>
       <c r="BB61" s="11">
-        <v>2692036</v>
+        <v>2599304</v>
       </c>
     </row>
-    <row r="62" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B62" s="12" t="s">
         <v>57</v>
       </c>
@@ -8273,76 +8273,76 @@
         <v>0</v>
       </c>
       <c r="AF62" s="13">
-        <v>0</v>
+        <v>7922</v>
       </c>
       <c r="AG62" s="13">
-        <v>0</v>
+        <v>10147</v>
       </c>
       <c r="AH62" s="13">
-        <v>7922</v>
+        <v>11514</v>
       </c>
       <c r="AI62" s="13">
-        <v>10147</v>
+        <v>6199</v>
       </c>
       <c r="AJ62" s="13">
-        <v>11514</v>
+        <v>0</v>
       </c>
       <c r="AK62" s="13">
-        <v>6199</v>
+        <v>2668</v>
       </c>
       <c r="AL62" s="13">
-        <v>0</v>
+        <v>13570</v>
       </c>
       <c r="AM62" s="13">
-        <v>2668</v>
+        <v>70217</v>
       </c>
       <c r="AN62" s="13">
-        <v>13570</v>
+        <v>132653</v>
       </c>
       <c r="AO62" s="13">
-        <v>70217</v>
+        <v>190495</v>
       </c>
       <c r="AP62" s="13">
-        <v>132653</v>
+        <v>43340</v>
       </c>
       <c r="AQ62" s="13">
-        <v>190495</v>
+        <v>12866</v>
       </c>
       <c r="AR62" s="13">
-        <v>43340</v>
+        <v>199663</v>
       </c>
       <c r="AS62" s="13">
-        <v>12866</v>
+        <v>373111</v>
       </c>
       <c r="AT62" s="13">
-        <v>199663</v>
+        <v>466230</v>
       </c>
       <c r="AU62" s="13">
-        <v>373111</v>
+        <v>431603</v>
       </c>
       <c r="AV62" s="13">
-        <v>466230</v>
+        <v>591735</v>
       </c>
       <c r="AW62" s="13">
-        <v>431603</v>
+        <v>731246</v>
       </c>
       <c r="AX62" s="13">
-        <v>591735</v>
+        <v>847477</v>
       </c>
       <c r="AY62" s="13">
-        <v>731246</v>
+        <v>769776</v>
       </c>
       <c r="AZ62" s="13">
-        <v>847477</v>
+        <v>377988</v>
       </c>
       <c r="BA62" s="13">
-        <v>769776</v>
+        <v>255020</v>
       </c>
       <c r="BB62" s="13">
-        <v>377988</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="63" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B63" s="10" t="s">
         <v>58</v>
       </c>
@@ -8351,157 +8351,157 @@
       </c>
       <c r="D63" s="11"/>
       <c r="E63" s="11">
-        <v>90713</v>
+        <v>45414</v>
       </c>
       <c r="F63" s="11">
-        <v>69868</v>
+        <v>58857</v>
       </c>
       <c r="G63" s="11">
-        <v>45414</v>
+        <v>65582</v>
       </c>
       <c r="H63" s="11">
-        <v>58857</v>
+        <v>55751</v>
       </c>
       <c r="I63" s="11">
-        <v>65582</v>
+        <v>86950</v>
       </c>
       <c r="J63" s="11">
-        <v>55751</v>
+        <v>83931</v>
       </c>
       <c r="K63" s="11">
-        <v>86950</v>
+        <v>54988</v>
       </c>
       <c r="L63" s="11">
-        <v>83931</v>
+        <v>85649</v>
       </c>
       <c r="M63" s="11">
-        <v>54988</v>
+        <v>68111</v>
       </c>
       <c r="N63" s="11">
-        <v>85649</v>
+        <v>64947</v>
       </c>
       <c r="O63" s="11">
-        <v>68111</v>
+        <v>140634</v>
       </c>
       <c r="P63" s="11">
-        <v>64947</v>
+        <v>100402</v>
       </c>
       <c r="Q63" s="11">
-        <v>140634</v>
+        <v>69676</v>
       </c>
       <c r="R63" s="11">
-        <v>100402</v>
+        <v>14199</v>
       </c>
       <c r="S63" s="11">
-        <v>69676</v>
+        <v>8867</v>
       </c>
       <c r="T63" s="11">
-        <v>14199</v>
+        <v>11705</v>
       </c>
       <c r="U63" s="11">
-        <v>8867</v>
+        <v>39443</v>
       </c>
       <c r="V63" s="11">
-        <v>11705</v>
+        <v>21855</v>
       </c>
       <c r="W63" s="11">
-        <v>39443</v>
+        <v>35174</v>
       </c>
       <c r="X63" s="11">
-        <v>21855</v>
+        <v>139497</v>
       </c>
       <c r="Y63" s="11">
-        <v>35174</v>
+        <v>121118</v>
       </c>
       <c r="Z63" s="11">
-        <v>139497</v>
+        <v>70375</v>
       </c>
       <c r="AA63" s="11">
-        <v>121118</v>
+        <v>159820</v>
       </c>
       <c r="AB63" s="11">
-        <v>70375</v>
+        <v>108828</v>
       </c>
       <c r="AC63" s="11">
-        <v>159820</v>
+        <v>49481</v>
       </c>
       <c r="AD63" s="11">
-        <v>108828</v>
+        <v>29382</v>
       </c>
       <c r="AE63" s="11">
-        <v>49481</v>
+        <v>147671</v>
       </c>
       <c r="AF63" s="11">
-        <v>29382</v>
+        <v>127661</v>
       </c>
       <c r="AG63" s="11">
-        <v>147671</v>
+        <v>92683</v>
       </c>
       <c r="AH63" s="11">
-        <v>127661</v>
+        <v>53417</v>
       </c>
       <c r="AI63" s="11">
-        <v>92683</v>
+        <v>17454</v>
       </c>
       <c r="AJ63" s="11">
-        <v>53417</v>
+        <v>131018</v>
       </c>
       <c r="AK63" s="11">
-        <v>17454</v>
+        <v>152099</v>
       </c>
       <c r="AL63" s="11">
-        <v>131018</v>
+        <v>37169</v>
       </c>
       <c r="AM63" s="11">
-        <v>152099</v>
+        <v>289916</v>
       </c>
       <c r="AN63" s="11">
-        <v>37169</v>
+        <v>159180</v>
       </c>
       <c r="AO63" s="11">
-        <v>289916</v>
+        <v>87158</v>
       </c>
       <c r="AP63" s="11">
-        <v>159180</v>
+        <v>41028</v>
       </c>
       <c r="AQ63" s="11">
-        <v>87158</v>
+        <v>56138</v>
       </c>
       <c r="AR63" s="11">
-        <v>41028</v>
+        <v>117674</v>
       </c>
       <c r="AS63" s="11">
-        <v>56138</v>
+        <v>107031</v>
       </c>
       <c r="AT63" s="11">
-        <v>117674</v>
+        <v>41738</v>
       </c>
       <c r="AU63" s="11">
-        <v>107031</v>
+        <v>367207</v>
       </c>
       <c r="AV63" s="11">
-        <v>41738</v>
+        <v>110629</v>
       </c>
       <c r="AW63" s="11">
-        <v>367207</v>
+        <v>15100</v>
       </c>
       <c r="AX63" s="11">
-        <v>110629</v>
+        <v>145601</v>
       </c>
       <c r="AY63" s="11">
-        <v>15100</v>
+        <v>74871</v>
       </c>
       <c r="AZ63" s="11">
-        <v>145601</v>
+        <v>545754</v>
       </c>
       <c r="BA63" s="11">
-        <v>74871</v>
+        <v>245163</v>
       </c>
       <c r="BB63" s="11">
-        <v>545754</v>
+        <v>105478</v>
       </c>
     </row>
-    <row r="64" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B64" s="12" t="s">
         <v>59</v>
       </c>
@@ -8510,92 +8510,92 @@
       </c>
       <c r="D64" s="13"/>
       <c r="E64" s="13">
-        <v>371271</v>
+        <v>690545</v>
       </c>
       <c r="F64" s="13">
-        <v>567355</v>
+        <v>659279</v>
       </c>
       <c r="G64" s="13">
-        <v>690545</v>
+        <v>670485</v>
       </c>
       <c r="H64" s="13">
-        <v>659279</v>
+        <v>215469</v>
       </c>
       <c r="I64" s="13">
-        <v>670485</v>
+        <v>331203</v>
       </c>
       <c r="J64" s="13">
-        <v>215469</v>
+        <v>1060241</v>
       </c>
       <c r="K64" s="13">
-        <v>331203</v>
+        <v>846544</v>
       </c>
       <c r="L64" s="13">
-        <v>1060241</v>
+        <v>718940</v>
       </c>
       <c r="M64" s="13">
-        <v>846544</v>
+        <v>782302</v>
       </c>
       <c r="N64" s="13">
-        <v>718940</v>
+        <v>657713</v>
       </c>
       <c r="O64" s="13">
-        <v>782302</v>
+        <v>564968</v>
       </c>
       <c r="P64" s="13">
-        <v>657713</v>
+        <v>870517</v>
       </c>
       <c r="Q64" s="13">
-        <v>564968</v>
+        <v>1149900</v>
       </c>
       <c r="R64" s="13">
-        <v>870517</v>
+        <v>213473</v>
       </c>
       <c r="S64" s="13">
-        <v>1149900</v>
-      </c>
-      <c r="T64" s="13">
-        <v>213473</v>
-      </c>
-      <c r="U64" s="13">
         <v>1168719</v>
       </c>
-      <c r="V64" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="W64" s="13" t="s">
-        <v>60</v>
+      <c r="T64" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="U64" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="V64" s="13">
+        <v>214518</v>
+      </c>
+      <c r="W64" s="13">
+        <v>225348</v>
       </c>
       <c r="X64" s="13">
-        <v>214518</v>
+        <v>576343</v>
       </c>
       <c r="Y64" s="13">
-        <v>225348</v>
+        <v>923602</v>
       </c>
       <c r="Z64" s="13">
-        <v>576343</v>
+        <v>1030510</v>
       </c>
       <c r="AA64" s="13">
-        <v>923602</v>
+        <v>1393693</v>
       </c>
       <c r="AB64" s="13">
-        <v>1030510</v>
+        <v>2180643</v>
       </c>
       <c r="AC64" s="13">
-        <v>1393693</v>
+        <v>1968007</v>
       </c>
       <c r="AD64" s="13">
-        <v>2180643</v>
+        <v>709926</v>
       </c>
       <c r="AE64" s="13">
-        <v>1968007</v>
-      </c>
-      <c r="AF64" s="13">
-        <v>709926</v>
-      </c>
-      <c r="AG64" s="13">
         <v>1169321</v>
       </c>
+      <c r="AF64" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="AG64" s="13" t="s">
+        <v>60</v>
+      </c>
       <c r="AH64" s="13" t="s">
         <v>60</v>
       </c>
@@ -8660,7 +8660,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="65" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B65" s="10" t="s">
         <v>61</v>
       </c>
@@ -8750,76 +8750,76 @@
         <v>0</v>
       </c>
       <c r="AF65" s="11">
-        <v>0</v>
+        <v>42300</v>
       </c>
       <c r="AG65" s="11">
-        <v>0</v>
+        <v>170859</v>
       </c>
       <c r="AH65" s="11">
-        <v>42300</v>
+        <v>533976</v>
       </c>
       <c r="AI65" s="11">
-        <v>170859</v>
+        <v>237112</v>
       </c>
       <c r="AJ65" s="11">
-        <v>533976</v>
+        <v>282486</v>
       </c>
       <c r="AK65" s="11">
-        <v>237112</v>
+        <v>1014750</v>
       </c>
       <c r="AL65" s="11">
-        <v>282486</v>
+        <v>430547</v>
       </c>
       <c r="AM65" s="11">
-        <v>1014750</v>
+        <v>447606</v>
       </c>
       <c r="AN65" s="11">
-        <v>430547</v>
+        <v>397644</v>
       </c>
       <c r="AO65" s="11">
-        <v>447606</v>
+        <v>176773</v>
       </c>
       <c r="AP65" s="11">
-        <v>397644</v>
+        <v>154174</v>
       </c>
       <c r="AQ65" s="11">
-        <v>176773</v>
+        <v>202630</v>
       </c>
       <c r="AR65" s="11">
-        <v>154174</v>
+        <v>348127</v>
       </c>
       <c r="AS65" s="11">
-        <v>202630</v>
+        <v>284913</v>
       </c>
       <c r="AT65" s="11">
-        <v>348127</v>
+        <v>183796</v>
       </c>
       <c r="AU65" s="11">
-        <v>284913</v>
+        <v>0</v>
       </c>
       <c r="AV65" s="11">
-        <v>183796</v>
+        <v>0</v>
       </c>
       <c r="AW65" s="11">
-        <v>0</v>
+        <v>263567</v>
       </c>
       <c r="AX65" s="11">
         <v>0</v>
       </c>
       <c r="AY65" s="11">
-        <v>263567</v>
+        <v>284176</v>
       </c>
       <c r="AZ65" s="11">
-        <v>0</v>
+        <v>161480</v>
       </c>
       <c r="BA65" s="11">
-        <v>284176</v>
+        <v>81527</v>
       </c>
       <c r="BB65" s="11">
-        <v>161480</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="66" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B66" s="12" t="s">
         <v>62</v>
       </c>
@@ -8875,11 +8875,11 @@
       <c r="T66" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="U66" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="V66" s="13" t="s">
-        <v>60</v>
+      <c r="U66" s="13">
+        <v>0</v>
+      </c>
+      <c r="V66" s="13">
+        <v>0</v>
       </c>
       <c r="W66" s="13">
         <v>0</v>
@@ -8908,11 +8908,11 @@
       <c r="AE66" s="13">
         <v>0</v>
       </c>
-      <c r="AF66" s="13">
-        <v>0</v>
-      </c>
-      <c r="AG66" s="13">
-        <v>0</v>
+      <c r="AF66" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="AG66" s="13" t="s">
+        <v>60</v>
       </c>
       <c r="AH66" s="13" t="s">
         <v>60</v>
@@ -8978,7 +8978,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="67" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B67" s="10" t="s">
         <v>63</v>
       </c>
@@ -9031,18 +9031,18 @@
       <c r="S67" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="T67" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="U67" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="V67" s="11">
+      <c r="T67" s="11">
         <v>170619</v>
       </c>
-      <c r="W67" s="11">
+      <c r="U67" s="11">
         <v>176847</v>
       </c>
+      <c r="V67" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="W67" s="11" t="s">
+        <v>60</v>
+      </c>
       <c r="X67" s="11" t="s">
         <v>60</v>
       </c>
@@ -9103,41 +9103,41 @@
       <c r="AQ67" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="AR67" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="AS67" s="11" t="s">
-        <v>60</v>
+      <c r="AR67" s="11">
+        <v>414455</v>
+      </c>
+      <c r="AS67" s="11">
+        <v>758883</v>
       </c>
       <c r="AT67" s="11">
-        <v>414455</v>
+        <v>888542</v>
       </c>
       <c r="AU67" s="11">
-        <v>758883</v>
+        <v>746878</v>
       </c>
       <c r="AV67" s="11">
-        <v>888542</v>
+        <v>759812</v>
       </c>
       <c r="AW67" s="11">
-        <v>746878</v>
+        <v>546846</v>
       </c>
       <c r="AX67" s="11">
-        <v>759812</v>
+        <v>489317</v>
       </c>
       <c r="AY67" s="11">
-        <v>546846</v>
+        <v>611076</v>
       </c>
       <c r="AZ67" s="11">
-        <v>489317</v>
+        <v>567439</v>
       </c>
       <c r="BA67" s="11">
-        <v>611076</v>
+        <v>99191</v>
       </c>
       <c r="BB67" s="11">
-        <v>567439</v>
+        <v>9838</v>
       </c>
     </row>
-    <row r="68" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B68" s="12" t="s">
         <v>64</v>
       </c>
@@ -9296,7 +9296,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B69" s="10" t="s">
         <v>65</v>
       </c>
@@ -9455,7 +9455,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B70" s="12" t="s">
         <v>66</v>
       </c>
@@ -9614,7 +9614,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B71" s="10" t="s">
         <v>67</v>
       </c>
@@ -9623,92 +9623,92 @@
       </c>
       <c r="D71" s="11"/>
       <c r="E71" s="11">
-        <v>2793</v>
+        <v>5014</v>
       </c>
       <c r="F71" s="11">
-        <v>6407</v>
+        <v>3654</v>
       </c>
       <c r="G71" s="11">
-        <v>5014</v>
+        <v>7984</v>
       </c>
       <c r="H71" s="11">
-        <v>3654</v>
+        <v>5932</v>
       </c>
       <c r="I71" s="11">
-        <v>7984</v>
+        <v>1677</v>
       </c>
       <c r="J71" s="11">
-        <v>5932</v>
+        <v>1245</v>
       </c>
       <c r="K71" s="11">
-        <v>1677</v>
+        <v>2113</v>
       </c>
       <c r="L71" s="11">
-        <v>1245</v>
+        <v>1551</v>
       </c>
       <c r="M71" s="11">
-        <v>2113</v>
+        <v>2170</v>
       </c>
       <c r="N71" s="11">
-        <v>1551</v>
+        <v>1925</v>
       </c>
       <c r="O71" s="11">
-        <v>2170</v>
+        <v>1210</v>
       </c>
       <c r="P71" s="11">
-        <v>1925</v>
+        <v>618</v>
       </c>
       <c r="Q71" s="11">
-        <v>1210</v>
+        <v>0</v>
       </c>
       <c r="R71" s="11">
-        <v>618</v>
+        <v>0</v>
       </c>
       <c r="S71" s="11">
         <v>0</v>
       </c>
-      <c r="T71" s="11">
-        <v>0</v>
-      </c>
-      <c r="U71" s="11">
-        <v>0</v>
-      </c>
-      <c r="V71" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="W71" s="11" t="s">
-        <v>60</v>
+      <c r="T71" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="U71" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="V71" s="11">
+        <v>0</v>
+      </c>
+      <c r="W71" s="11">
+        <v>0</v>
       </c>
       <c r="X71" s="11">
         <v>0</v>
       </c>
       <c r="Y71" s="11">
-        <v>0</v>
+        <v>3360</v>
       </c>
       <c r="Z71" s="11">
-        <v>0</v>
+        <v>19422</v>
       </c>
       <c r="AA71" s="11">
-        <v>3360</v>
+        <v>15145</v>
       </c>
       <c r="AB71" s="11">
-        <v>19422</v>
+        <v>16992</v>
       </c>
       <c r="AC71" s="11">
-        <v>15145</v>
+        <v>11716</v>
       </c>
       <c r="AD71" s="11">
-        <v>16992</v>
+        <v>0</v>
       </c>
       <c r="AE71" s="11">
-        <v>11716</v>
-      </c>
-      <c r="AF71" s="11">
-        <v>0</v>
-      </c>
-      <c r="AG71" s="11">
         <v>4769</v>
       </c>
+      <c r="AF71" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="AG71" s="11" t="s">
+        <v>60</v>
+      </c>
       <c r="AH71" s="11" t="s">
         <v>60</v>
       </c>
@@ -9773,7 +9773,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="72" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B72" s="12" t="s">
         <v>68</v>
       </c>
@@ -9782,128 +9782,128 @@
       </c>
       <c r="D72" s="13"/>
       <c r="E72" s="13">
-        <v>21842</v>
+        <v>32247</v>
       </c>
       <c r="F72" s="13">
-        <v>31367</v>
+        <v>29303</v>
       </c>
       <c r="G72" s="13">
-        <v>32247</v>
+        <v>24344</v>
       </c>
       <c r="H72" s="13">
-        <v>29303</v>
+        <v>28716</v>
       </c>
       <c r="I72" s="13">
-        <v>24344</v>
+        <v>29067</v>
       </c>
       <c r="J72" s="13">
-        <v>28716</v>
+        <v>25240</v>
       </c>
       <c r="K72" s="13">
-        <v>29067</v>
+        <v>26393</v>
       </c>
       <c r="L72" s="13">
-        <v>25240</v>
+        <v>21270</v>
       </c>
       <c r="M72" s="13">
-        <v>26393</v>
+        <v>23623</v>
       </c>
       <c r="N72" s="13">
-        <v>21270</v>
+        <v>26943</v>
       </c>
       <c r="O72" s="13">
-        <v>23623</v>
+        <v>28070</v>
       </c>
       <c r="P72" s="13">
-        <v>26943</v>
+        <v>29386</v>
       </c>
       <c r="Q72" s="13">
-        <v>28070</v>
+        <v>28603</v>
       </c>
       <c r="R72" s="13">
-        <v>29386</v>
+        <v>22352</v>
       </c>
       <c r="S72" s="13">
-        <v>28603</v>
-      </c>
-      <c r="T72" s="13">
-        <v>22352</v>
-      </c>
-      <c r="U72" s="13">
-        <v>0</v>
-      </c>
-      <c r="V72" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="W72" s="13" t="s">
-        <v>60</v>
+        <v>0</v>
+      </c>
+      <c r="T72" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="U72" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="V72" s="13">
+        <v>0</v>
+      </c>
+      <c r="W72" s="13">
+        <v>1694</v>
       </c>
       <c r="X72" s="13">
-        <v>0</v>
+        <v>13306</v>
       </c>
       <c r="Y72" s="13">
-        <v>1694</v>
+        <v>36306</v>
       </c>
       <c r="Z72" s="13">
-        <v>13306</v>
+        <v>53495</v>
       </c>
       <c r="AA72" s="13">
-        <v>36306</v>
+        <v>50134</v>
       </c>
       <c r="AB72" s="13">
-        <v>53495</v>
+        <v>48541</v>
       </c>
       <c r="AC72" s="13">
-        <v>50134</v>
+        <v>23780</v>
       </c>
       <c r="AD72" s="13">
-        <v>48541</v>
+        <v>0</v>
       </c>
       <c r="AE72" s="13">
-        <v>23780</v>
+        <v>24849</v>
       </c>
       <c r="AF72" s="13">
-        <v>0</v>
+        <v>72841</v>
       </c>
       <c r="AG72" s="13">
-        <v>24849</v>
+        <v>89374</v>
       </c>
       <c r="AH72" s="13">
-        <v>72841</v>
+        <v>80898</v>
       </c>
       <c r="AI72" s="13">
-        <v>89374</v>
+        <v>94970</v>
       </c>
       <c r="AJ72" s="13">
-        <v>80898</v>
+        <v>93552</v>
       </c>
       <c r="AK72" s="13">
-        <v>94970</v>
+        <v>92792</v>
       </c>
       <c r="AL72" s="13">
-        <v>93552</v>
+        <v>95731</v>
       </c>
       <c r="AM72" s="13">
-        <v>92792</v>
+        <v>180191</v>
       </c>
       <c r="AN72" s="13">
-        <v>95731</v>
+        <v>298146</v>
       </c>
       <c r="AO72" s="13">
-        <v>180191</v>
+        <v>386754</v>
       </c>
       <c r="AP72" s="13">
-        <v>298146</v>
+        <v>304996</v>
       </c>
       <c r="AQ72" s="13">
-        <v>386754</v>
-      </c>
-      <c r="AR72" s="13">
-        <v>304996</v>
-      </c>
-      <c r="AS72" s="13">
         <v>192037</v>
       </c>
+      <c r="AR72" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="AS72" s="13" t="s">
+        <v>60</v>
+      </c>
       <c r="AT72" s="13" t="s">
         <v>60</v>
       </c>
@@ -9932,7 +9932,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="73" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B73" s="10" t="s">
         <v>69</v>
       </c>
@@ -9941,157 +9941,157 @@
       </c>
       <c r="D73" s="11"/>
       <c r="E73" s="11">
-        <v>68040</v>
+        <v>31973</v>
       </c>
       <c r="F73" s="11">
-        <v>96765</v>
+        <v>118850</v>
       </c>
       <c r="G73" s="11">
-        <v>31973</v>
+        <v>156165</v>
       </c>
       <c r="H73" s="11">
-        <v>118850</v>
+        <v>325502</v>
       </c>
       <c r="I73" s="11">
-        <v>156165</v>
+        <v>133881</v>
       </c>
       <c r="J73" s="11">
-        <v>325502</v>
+        <v>136507</v>
       </c>
       <c r="K73" s="11">
-        <v>133881</v>
+        <v>78001</v>
       </c>
       <c r="L73" s="11">
-        <v>136507</v>
+        <v>417359</v>
       </c>
       <c r="M73" s="11">
-        <v>78001</v>
+        <v>166327</v>
       </c>
       <c r="N73" s="11">
-        <v>417359</v>
+        <v>267228</v>
       </c>
       <c r="O73" s="11">
-        <v>166327</v>
+        <v>403</v>
       </c>
       <c r="P73" s="11">
-        <v>267228</v>
+        <v>122628</v>
       </c>
       <c r="Q73" s="11">
-        <v>403</v>
+        <v>86355</v>
       </c>
       <c r="R73" s="11">
-        <v>122628</v>
+        <v>73509</v>
       </c>
       <c r="S73" s="11">
-        <v>86355</v>
+        <v>343192</v>
       </c>
       <c r="T73" s="11">
-        <v>73509</v>
+        <v>486796</v>
       </c>
       <c r="U73" s="11">
-        <v>343192</v>
+        <v>471009</v>
       </c>
       <c r="V73" s="11">
-        <v>486796</v>
+        <v>149241</v>
       </c>
       <c r="W73" s="11">
-        <v>471009</v>
+        <v>220011</v>
       </c>
       <c r="X73" s="11">
-        <v>149241</v>
+        <v>359581</v>
       </c>
       <c r="Y73" s="11">
-        <v>220011</v>
+        <v>191234</v>
       </c>
       <c r="Z73" s="11">
-        <v>359581</v>
+        <v>577183</v>
       </c>
       <c r="AA73" s="11">
-        <v>191234</v>
+        <v>537840</v>
       </c>
       <c r="AB73" s="11">
-        <v>577183</v>
+        <v>599058</v>
       </c>
       <c r="AC73" s="11">
-        <v>537840</v>
+        <v>295794</v>
       </c>
       <c r="AD73" s="11">
-        <v>599058</v>
+        <v>280422</v>
       </c>
       <c r="AE73" s="11">
-        <v>295794</v>
+        <v>795715</v>
       </c>
       <c r="AF73" s="11">
-        <v>280422</v>
+        <v>1143076</v>
       </c>
       <c r="AG73" s="11">
-        <v>795715</v>
+        <v>1076147</v>
       </c>
       <c r="AH73" s="11">
-        <v>1143076</v>
+        <v>467487</v>
       </c>
       <c r="AI73" s="11">
-        <v>1076147</v>
+        <v>737725</v>
       </c>
       <c r="AJ73" s="11">
-        <v>467487</v>
+        <v>542708</v>
       </c>
       <c r="AK73" s="11">
-        <v>737725</v>
+        <v>558439</v>
       </c>
       <c r="AL73" s="11">
-        <v>542708</v>
+        <v>1071763</v>
       </c>
       <c r="AM73" s="11">
-        <v>558439</v>
+        <v>1138590</v>
       </c>
       <c r="AN73" s="11">
-        <v>1071763</v>
+        <v>1750037</v>
       </c>
       <c r="AO73" s="11">
-        <v>1138590</v>
+        <v>1312020</v>
       </c>
       <c r="AP73" s="11">
-        <v>1750037</v>
+        <v>962968</v>
       </c>
       <c r="AQ73" s="11">
-        <v>1312020</v>
+        <v>857536</v>
       </c>
       <c r="AR73" s="11">
-        <v>962968</v>
+        <v>2220649</v>
       </c>
       <c r="AS73" s="11">
-        <v>857536</v>
+        <v>2257652</v>
       </c>
       <c r="AT73" s="11">
-        <v>2220649</v>
+        <v>2097349</v>
       </c>
       <c r="AU73" s="11">
-        <v>1379255</v>
+        <v>1280048</v>
       </c>
       <c r="AV73" s="11">
-        <v>2097349</v>
+        <v>211485</v>
       </c>
       <c r="AW73" s="11">
-        <v>1280048</v>
+        <v>1621823</v>
       </c>
       <c r="AX73" s="11">
-        <v>-284370</v>
+        <v>1179429</v>
       </c>
       <c r="AY73" s="11">
-        <v>1621823</v>
+        <v>1591522</v>
       </c>
       <c r="AZ73" s="11">
-        <v>1179429</v>
+        <v>1022009</v>
       </c>
       <c r="BA73" s="11">
-        <v>1591522</v>
+        <v>0</v>
       </c>
       <c r="BB73" s="11">
-        <v>1022009</v>
+        <v>504787</v>
       </c>
     </row>
-    <row r="74" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B74" s="12" t="s">
         <v>70</v>
       </c>
@@ -10100,128 +10100,128 @@
       </c>
       <c r="D74" s="13"/>
       <c r="E74" s="13">
-        <v>154823</v>
+        <v>57133</v>
       </c>
       <c r="F74" s="13">
-        <v>114894</v>
+        <v>45861</v>
       </c>
       <c r="G74" s="13">
-        <v>57133</v>
+        <v>87546</v>
       </c>
       <c r="H74" s="13">
-        <v>45861</v>
+        <v>54189</v>
       </c>
       <c r="I74" s="13">
-        <v>87546</v>
+        <v>184061</v>
       </c>
       <c r="J74" s="13">
-        <v>54189</v>
+        <v>84830</v>
       </c>
       <c r="K74" s="13">
-        <v>184061</v>
+        <v>94909</v>
       </c>
       <c r="L74" s="13">
-        <v>84830</v>
+        <v>76165</v>
       </c>
       <c r="M74" s="13">
-        <v>94909</v>
+        <v>73649</v>
       </c>
       <c r="N74" s="13">
-        <v>76165</v>
+        <v>57400</v>
       </c>
       <c r="O74" s="13">
-        <v>73649</v>
+        <v>65625</v>
       </c>
       <c r="P74" s="13">
-        <v>57400</v>
+        <v>93198</v>
       </c>
       <c r="Q74" s="13">
-        <v>65625</v>
+        <v>62797</v>
       </c>
       <c r="R74" s="13">
-        <v>93198</v>
+        <v>14040</v>
       </c>
       <c r="S74" s="13">
-        <v>62797</v>
-      </c>
-      <c r="T74" s="13">
-        <v>14040</v>
-      </c>
-      <c r="U74" s="13">
         <v>90009</v>
       </c>
-      <c r="V74" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="W74" s="13" t="s">
-        <v>60</v>
+      <c r="T74" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="U74" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="V74" s="13">
+        <v>195730</v>
+      </c>
+      <c r="W74" s="13">
+        <v>187355</v>
       </c>
       <c r="X74" s="13">
-        <v>195730</v>
+        <v>270995</v>
       </c>
       <c r="Y74" s="13">
-        <v>187355</v>
+        <v>218159</v>
       </c>
       <c r="Z74" s="13">
-        <v>270995</v>
+        <v>263785</v>
       </c>
       <c r="AA74" s="13">
-        <v>218159</v>
+        <v>293343</v>
       </c>
       <c r="AB74" s="13">
-        <v>263785</v>
+        <v>284632</v>
       </c>
       <c r="AC74" s="13">
-        <v>293343</v>
+        <v>218598</v>
       </c>
       <c r="AD74" s="13">
-        <v>284632</v>
+        <v>188558</v>
       </c>
       <c r="AE74" s="13">
-        <v>218598</v>
+        <v>505989</v>
       </c>
       <c r="AF74" s="13">
-        <v>188558</v>
+        <v>253843</v>
       </c>
       <c r="AG74" s="13">
-        <v>505989</v>
+        <v>454310</v>
       </c>
       <c r="AH74" s="13">
-        <v>253843</v>
+        <v>400182</v>
       </c>
       <c r="AI74" s="13">
-        <v>454310</v>
+        <v>421902</v>
       </c>
       <c r="AJ74" s="13">
-        <v>400182</v>
+        <v>310702</v>
       </c>
       <c r="AK74" s="13">
-        <v>421902</v>
+        <v>655112</v>
       </c>
       <c r="AL74" s="13">
-        <v>310702</v>
+        <v>723808</v>
       </c>
       <c r="AM74" s="13">
-        <v>655112</v>
+        <v>1053712</v>
       </c>
       <c r="AN74" s="13">
-        <v>723808</v>
+        <v>1111035</v>
       </c>
       <c r="AO74" s="13">
-        <v>1053712</v>
+        <v>974868</v>
       </c>
       <c r="AP74" s="13">
-        <v>1111035</v>
+        <v>478426</v>
       </c>
       <c r="AQ74" s="13">
-        <v>974868</v>
-      </c>
-      <c r="AR74" s="13">
-        <v>478426</v>
-      </c>
-      <c r="AS74" s="13">
         <v>524251</v>
       </c>
+      <c r="AR74" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="AS74" s="13" t="s">
+        <v>60</v>
+      </c>
       <c r="AT74" s="13" t="s">
         <v>60</v>
       </c>
@@ -10250,7 +10250,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="75" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B75" s="10" t="s">
         <v>71</v>
       </c>
@@ -10259,92 +10259,92 @@
       </c>
       <c r="D75" s="11"/>
       <c r="E75" s="11">
-        <v>31592</v>
+        <v>45571</v>
       </c>
       <c r="F75" s="11">
-        <v>7586</v>
+        <v>71709</v>
       </c>
       <c r="G75" s="11">
-        <v>45571</v>
+        <v>84404</v>
       </c>
       <c r="H75" s="11">
-        <v>71709</v>
+        <v>22158</v>
       </c>
       <c r="I75" s="11">
-        <v>84404</v>
+        <v>149310</v>
       </c>
       <c r="J75" s="11">
-        <v>22158</v>
+        <v>66080</v>
       </c>
       <c r="K75" s="11">
-        <v>149310</v>
+        <v>85530</v>
       </c>
       <c r="L75" s="11">
-        <v>66080</v>
+        <v>128458</v>
       </c>
       <c r="M75" s="11">
-        <v>85530</v>
+        <v>125532</v>
       </c>
       <c r="N75" s="11">
-        <v>128458</v>
+        <v>126254</v>
       </c>
       <c r="O75" s="11">
-        <v>125532</v>
+        <v>268380</v>
       </c>
       <c r="P75" s="11">
-        <v>126254</v>
+        <v>175924</v>
       </c>
       <c r="Q75" s="11">
-        <v>268380</v>
+        <v>153681</v>
       </c>
       <c r="R75" s="11">
-        <v>175924</v>
+        <v>14151</v>
       </c>
       <c r="S75" s="11">
-        <v>153681</v>
-      </c>
-      <c r="T75" s="11">
-        <v>14151</v>
-      </c>
-      <c r="U75" s="11">
         <v>61958</v>
       </c>
-      <c r="V75" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="W75" s="11" t="s">
-        <v>60</v>
+      <c r="T75" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="U75" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="V75" s="11">
+        <v>11142</v>
+      </c>
+      <c r="W75" s="11">
+        <v>9258</v>
       </c>
       <c r="X75" s="11">
-        <v>11142</v>
+        <v>28107</v>
       </c>
       <c r="Y75" s="11">
-        <v>9258</v>
+        <v>72924</v>
       </c>
       <c r="Z75" s="11">
-        <v>28107</v>
+        <v>100681</v>
       </c>
       <c r="AA75" s="11">
-        <v>72924</v>
+        <v>161004</v>
       </c>
       <c r="AB75" s="11">
-        <v>100681</v>
+        <v>178084</v>
       </c>
       <c r="AC75" s="11">
-        <v>161004</v>
+        <v>137314</v>
       </c>
       <c r="AD75" s="11">
-        <v>178084</v>
+        <v>56460</v>
       </c>
       <c r="AE75" s="11">
-        <v>137314</v>
-      </c>
-      <c r="AF75" s="11">
-        <v>56460</v>
-      </c>
-      <c r="AG75" s="11">
         <v>38640</v>
       </c>
+      <c r="AF75" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="AG75" s="11" t="s">
+        <v>60</v>
+      </c>
       <c r="AH75" s="11" t="s">
         <v>60</v>
       </c>
@@ -10409,7 +10409,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="76" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B76" s="14" t="s">
         <v>80</v>
       </c>
@@ -10466,7 +10466,7 @@
       <c r="BA76" s="15"/>
       <c r="BB76" s="15"/>
     </row>
-    <row r="77" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B77" s="16" t="s">
         <v>73</v>
       </c>
@@ -10525,11 +10525,11 @@
       <c r="U77" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="V77" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="W77" s="17" t="s">
-        <v>60</v>
+      <c r="V77" s="17">
+        <v>0</v>
+      </c>
+      <c r="W77" s="17">
+        <v>0</v>
       </c>
       <c r="X77" s="17">
         <v>0</v>
@@ -10625,7 +10625,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B78" s="14" t="s">
         <v>81</v>
       </c>
@@ -10682,7 +10682,7 @@
       <c r="BA78" s="15"/>
       <c r="BB78" s="15"/>
     </row>
-    <row r="79" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B79" s="16" t="s">
         <v>77</v>
       </c>
@@ -10741,11 +10741,11 @@
       <c r="U79" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="V79" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="W79" s="17" t="s">
-        <v>60</v>
+      <c r="V79" s="17">
+        <v>0</v>
+      </c>
+      <c r="W79" s="17">
+        <v>0</v>
       </c>
       <c r="X79" s="17">
         <v>0</v>
@@ -10841,7 +10841,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B80" s="8" t="s">
         <v>82</v>
       </c>
@@ -10898,7 +10898,7 @@
       <c r="BA80" s="9"/>
       <c r="BB80" s="9"/>
     </row>
-    <row r="81" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="81" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B81" s="10" t="s">
         <v>83</v>
       </c>
@@ -10957,17 +10957,17 @@
       <c r="U81" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="V81" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="W81" s="11" t="s">
-        <v>60</v>
+      <c r="V81" s="11">
+        <v>0</v>
+      </c>
+      <c r="W81" s="11">
+        <v>-238</v>
       </c>
       <c r="X81" s="11">
         <v>0</v>
       </c>
       <c r="Y81" s="11">
-        <v>-238</v>
+        <v>0</v>
       </c>
       <c r="Z81" s="11">
         <v>0</v>
@@ -10997,37 +10997,37 @@
         <v>0</v>
       </c>
       <c r="AI81" s="11">
-        <v>0</v>
+        <v>-4469</v>
       </c>
       <c r="AJ81" s="11">
-        <v>0</v>
+        <v>-4759</v>
       </c>
       <c r="AK81" s="11">
-        <v>-4469</v>
+        <v>-3795</v>
       </c>
       <c r="AL81" s="11">
-        <v>-4759</v>
+        <v>-1713</v>
       </c>
       <c r="AM81" s="11">
-        <v>-3795</v>
+        <v>-5940</v>
       </c>
       <c r="AN81" s="11">
-        <v>-1713</v>
+        <v>-7451</v>
       </c>
       <c r="AO81" s="11">
-        <v>-5940</v>
+        <v>-8693</v>
       </c>
       <c r="AP81" s="11">
-        <v>-7451</v>
+        <v>-7060</v>
       </c>
       <c r="AQ81" s="11">
-        <v>-8693</v>
+        <v>-19</v>
       </c>
       <c r="AR81" s="11">
-        <v>-7060</v>
+        <v>0</v>
       </c>
       <c r="AS81" s="11">
-        <v>-19</v>
+        <v>0</v>
       </c>
       <c r="AT81" s="11">
         <v>0</v>
@@ -11045,176 +11045,176 @@
         <v>0</v>
       </c>
       <c r="AY81" s="11">
-        <v>0</v>
+        <v>-486</v>
       </c>
       <c r="AZ81" s="11">
-        <v>0</v>
+        <v>-830</v>
       </c>
       <c r="BA81" s="11">
-        <v>-486</v>
+        <v>-551</v>
       </c>
       <c r="BB81" s="11">
-        <v>-830</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="82" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="82" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B82" s="18" t="s">
         <v>74</v>
       </c>
       <c r="C82" s="19"/>
       <c r="D82" s="19"/>
       <c r="E82" s="19">
-        <v>741074</v>
+        <v>907897</v>
       </c>
       <c r="F82" s="19">
-        <v>894242</v>
+        <v>987513</v>
       </c>
       <c r="G82" s="19">
-        <v>907897</v>
+        <v>1096510</v>
       </c>
       <c r="H82" s="19">
-        <v>987513</v>
+        <v>707717</v>
       </c>
       <c r="I82" s="19">
-        <v>1096510</v>
+        <v>916149</v>
       </c>
       <c r="J82" s="19">
-        <v>707717</v>
+        <v>1458074</v>
       </c>
       <c r="K82" s="19">
-        <v>916149</v>
+        <v>1188478</v>
       </c>
       <c r="L82" s="19">
-        <v>1458074</v>
+        <v>1449392</v>
       </c>
       <c r="M82" s="19">
-        <v>1188478</v>
+        <v>1241714</v>
       </c>
       <c r="N82" s="19">
-        <v>1449392</v>
+        <v>1202410</v>
       </c>
       <c r="O82" s="19">
-        <v>1241714</v>
+        <v>1069290</v>
       </c>
       <c r="P82" s="19">
-        <v>1202410</v>
+        <v>1392673</v>
       </c>
       <c r="Q82" s="19">
-        <v>1069290</v>
+        <v>1551012</v>
       </c>
       <c r="R82" s="19">
-        <v>1392673</v>
+        <v>351724</v>
       </c>
       <c r="S82" s="19">
-        <v>1551012</v>
+        <v>1672745</v>
       </c>
       <c r="T82" s="19">
-        <v>351724</v>
+        <v>996038</v>
       </c>
       <c r="U82" s="19">
-        <v>1672745</v>
+        <v>1936884</v>
       </c>
       <c r="V82" s="19">
-        <v>996038</v>
+        <v>592486</v>
       </c>
       <c r="W82" s="19">
-        <v>1936884</v>
+        <v>678602</v>
       </c>
       <c r="X82" s="19">
-        <v>592486</v>
+        <v>1387829</v>
       </c>
       <c r="Y82" s="19">
-        <v>678602</v>
+        <v>1566703</v>
       </c>
       <c r="Z82" s="19">
-        <v>1387829</v>
+        <v>2115451</v>
       </c>
       <c r="AA82" s="19">
-        <v>1566703</v>
+        <v>2610979</v>
       </c>
       <c r="AB82" s="19">
-        <v>2115451</v>
+        <v>3416778</v>
       </c>
       <c r="AC82" s="19">
-        <v>2610979</v>
+        <v>2704690</v>
       </c>
       <c r="AD82" s="19">
-        <v>3416778</v>
+        <v>1264748</v>
       </c>
       <c r="AE82" s="19">
-        <v>2704690</v>
+        <v>2686954</v>
       </c>
       <c r="AF82" s="19">
-        <v>1264748</v>
+        <v>2358066</v>
       </c>
       <c r="AG82" s="19">
-        <v>2686954</v>
+        <v>2731540</v>
       </c>
       <c r="AH82" s="19">
-        <v>2358066</v>
+        <v>3297277</v>
       </c>
       <c r="AI82" s="19">
-        <v>2731540</v>
+        <v>3460734</v>
       </c>
       <c r="AJ82" s="19">
-        <v>3297277</v>
+        <v>2641950</v>
       </c>
       <c r="AK82" s="19">
-        <v>3460734</v>
+        <v>6165972</v>
       </c>
       <c r="AL82" s="19">
-        <v>2641950</v>
+        <v>5342633</v>
       </c>
       <c r="AM82" s="19">
-        <v>6165972</v>
+        <v>4564880</v>
       </c>
       <c r="AN82" s="19">
-        <v>5342633</v>
+        <v>9612676</v>
       </c>
       <c r="AO82" s="19">
-        <v>4564880</v>
+        <v>3768577</v>
       </c>
       <c r="AP82" s="19">
-        <v>9612676</v>
+        <v>2906291</v>
       </c>
       <c r="AQ82" s="19">
-        <v>3768577</v>
+        <v>5131898</v>
       </c>
       <c r="AR82" s="19">
-        <v>2906291</v>
+        <v>4869790</v>
       </c>
       <c r="AS82" s="19">
-        <v>5131898</v>
+        <v>5839635</v>
       </c>
       <c r="AT82" s="19">
-        <v>4869790</v>
+        <v>9702296</v>
       </c>
       <c r="AU82" s="19">
-        <v>4961238</v>
+        <v>8219216</v>
       </c>
       <c r="AV82" s="19">
-        <v>9702296</v>
+        <v>11928978</v>
       </c>
       <c r="AW82" s="19">
-        <v>8219216</v>
+        <v>7010482</v>
       </c>
       <c r="AX82" s="19">
-        <v>11433123</v>
+        <v>7476155</v>
       </c>
       <c r="AY82" s="19">
-        <v>7010482</v>
+        <v>7011462</v>
       </c>
       <c r="AZ82" s="19">
-        <v>7476155</v>
+        <v>5365876</v>
       </c>
       <c r="BA82" s="19">
-        <v>7011462</v>
+        <v>4560815</v>
       </c>
       <c r="BB82" s="19">
-        <v>5365876</v>
+        <v>3219407</v>
       </c>
     </row>
-    <row r="83" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="83" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
       <c r="D83" s="1"/>
@@ -11269,7 +11269,7 @@
       <c r="BA83" s="1"/>
       <c r="BB83" s="1"/>
     </row>
-    <row r="84" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="84" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
       <c r="D84" s="1"/>
@@ -11324,7 +11324,7 @@
       <c r="BA84" s="1"/>
       <c r="BB84" s="1"/>
     </row>
-    <row r="85" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="85" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
       <c r="D85" s="1"/>
@@ -11379,7 +11379,7 @@
       <c r="BA85" s="1"/>
       <c r="BB85" s="1"/>
     </row>
-    <row r="86" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="86" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B86" s="7" t="s">
         <v>84</v>
       </c>
@@ -11536,7 +11536,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="87" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="87" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
       <c r="D87" s="1"/>
@@ -11591,7 +11591,7 @@
       <c r="BA87" s="1"/>
       <c r="BB87" s="1"/>
     </row>
-    <row r="88" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="88" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B88" s="8" t="s">
         <v>85</v>
       </c>
@@ -11648,7 +11648,7 @@
       <c r="BA88" s="9"/>
       <c r="BB88" s="9"/>
     </row>
-    <row r="89" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="89" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B89" s="10" t="s">
         <v>55</v>
       </c>
@@ -11702,17 +11702,17 @@
         <v>0</v>
       </c>
       <c r="T89" s="11">
-        <v>0</v>
+        <v>27143640</v>
       </c>
       <c r="U89" s="11">
-        <v>0</v>
-      </c>
-      <c r="V89" s="11">
-        <v>27143640</v>
-      </c>
-      <c r="W89" s="11">
         <v>28305736</v>
       </c>
+      <c r="V89" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="W89" s="11" t="s">
+        <v>60</v>
+      </c>
       <c r="X89" s="11" t="s">
         <v>60</v>
       </c>
@@ -11737,77 +11737,77 @@
       <c r="AE89" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="AF89" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="AG89" s="11" t="s">
-        <v>60</v>
+      <c r="AF89" s="11">
+        <v>65950891</v>
+      </c>
+      <c r="AG89" s="11">
+        <v>71357289</v>
       </c>
       <c r="AH89" s="11">
-        <v>65950891</v>
+        <v>60410944</v>
       </c>
       <c r="AI89" s="11">
-        <v>71357289</v>
+        <v>62160195</v>
       </c>
       <c r="AJ89" s="11">
-        <v>60410944</v>
+        <v>76316779</v>
       </c>
       <c r="AK89" s="11">
-        <v>62160195</v>
+        <v>85747278</v>
       </c>
       <c r="AL89" s="11">
-        <v>76316779</v>
+        <v>94690224</v>
       </c>
       <c r="AM89" s="11">
-        <v>85747278</v>
+        <v>101258866</v>
       </c>
       <c r="AN89" s="11">
-        <v>94690224</v>
+        <v>172564868</v>
       </c>
       <c r="AO89" s="11">
-        <v>101258866</v>
+        <v>194023311</v>
       </c>
       <c r="AP89" s="11">
-        <v>172564868</v>
+        <v>145565851</v>
       </c>
       <c r="AQ89" s="11">
-        <v>194023311</v>
+        <v>127111158</v>
       </c>
       <c r="AR89" s="11">
-        <v>145565851</v>
+        <v>133732913</v>
       </c>
       <c r="AS89" s="11">
-        <v>127111158</v>
+        <v>173718663</v>
       </c>
       <c r="AT89" s="11">
-        <v>133732913</v>
+        <v>147709834</v>
       </c>
       <c r="AU89" s="11">
-        <v>173718663</v>
+        <v>139114779</v>
       </c>
       <c r="AV89" s="11">
-        <v>147709834</v>
+        <v>131745292</v>
       </c>
       <c r="AW89" s="11">
-        <v>139114779</v>
+        <v>143308868</v>
       </c>
       <c r="AX89" s="11">
-        <v>131745292</v>
+        <v>157511238</v>
       </c>
       <c r="AY89" s="11">
-        <v>143308868</v>
+        <v>160721703</v>
       </c>
       <c r="AZ89" s="11">
-        <v>157511238</v>
+        <v>141395872</v>
       </c>
       <c r="BA89" s="11">
-        <v>160721703</v>
+        <v>134183928</v>
       </c>
       <c r="BB89" s="11">
-        <v>141395872</v>
+        <v>125643078</v>
       </c>
     </row>
-    <row r="90" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="90" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B90" s="12" t="s">
         <v>57</v>
       </c>
@@ -11860,11 +11860,11 @@
       <c r="S90" s="13">
         <v>0</v>
       </c>
-      <c r="T90" s="13">
-        <v>0</v>
-      </c>
-      <c r="U90" s="13">
-        <v>0</v>
+      <c r="T90" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="U90" s="13" t="s">
+        <v>60</v>
       </c>
       <c r="V90" s="13" t="s">
         <v>60</v>
@@ -11896,77 +11896,77 @@
       <c r="AE90" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="AF90" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="AG90" s="13" t="s">
-        <v>60</v>
+      <c r="AF90" s="13">
+        <v>30121673</v>
+      </c>
+      <c r="AG90" s="13">
+        <v>56372222</v>
       </c>
       <c r="AH90" s="13">
-        <v>30121673</v>
+        <v>52816514</v>
       </c>
       <c r="AI90" s="13">
-        <v>56372222</v>
-      </c>
-      <c r="AJ90" s="13">
-        <v>52816514</v>
+        <v>52092437</v>
+      </c>
+      <c r="AJ90" s="13" t="s">
+        <v>60</v>
       </c>
       <c r="AK90" s="13">
-        <v>52092437</v>
-      </c>
-      <c r="AL90" s="13" t="s">
-        <v>60</v>
+        <v>68410256</v>
+      </c>
+      <c r="AL90" s="13">
+        <v>68883249</v>
       </c>
       <c r="AM90" s="13">
-        <v>68410256</v>
+        <v>81837995</v>
       </c>
       <c r="AN90" s="13">
-        <v>68883249</v>
+        <v>104864032</v>
       </c>
       <c r="AO90" s="13">
-        <v>81837995</v>
+        <v>144863118</v>
       </c>
       <c r="AP90" s="13">
-        <v>104864032</v>
+        <v>155899281</v>
       </c>
       <c r="AQ90" s="13">
-        <v>144863118</v>
+        <v>160825000</v>
       </c>
       <c r="AR90" s="13">
-        <v>155899281</v>
+        <v>137793651</v>
       </c>
       <c r="AS90" s="13">
-        <v>160825000</v>
+        <v>168523487</v>
       </c>
       <c r="AT90" s="13">
-        <v>137793651</v>
+        <v>181483067</v>
       </c>
       <c r="AU90" s="13">
-        <v>168523487</v>
+        <v>188144289</v>
       </c>
       <c r="AV90" s="13">
-        <v>181483067</v>
+        <v>191067162</v>
       </c>
       <c r="AW90" s="13">
-        <v>188144289</v>
+        <v>194945388</v>
       </c>
       <c r="AX90" s="13">
-        <v>191067162</v>
+        <v>203769416</v>
       </c>
       <c r="AY90" s="13">
-        <v>194945388</v>
+        <v>204836615</v>
       </c>
       <c r="AZ90" s="13">
-        <v>203769416</v>
+        <v>199255667</v>
       </c>
       <c r="BA90" s="13">
-        <v>204836615</v>
-      </c>
-      <c r="BB90" s="13">
-        <v>199255667</v>
+        <v>197078825</v>
+      </c>
+      <c r="BB90" s="13" t="s">
+        <v>60</v>
       </c>
     </row>
-    <row r="91" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="91" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B91" s="10" t="s">
         <v>58</v>
       </c>
@@ -11975,157 +11975,157 @@
       </c>
       <c r="D91" s="11"/>
       <c r="E91" s="11">
-        <v>23427944</v>
+        <v>19668255</v>
       </c>
       <c r="F91" s="11">
-        <v>20369679</v>
+        <v>17653569</v>
       </c>
       <c r="G91" s="11">
-        <v>19668255</v>
+        <v>14915169</v>
       </c>
       <c r="H91" s="11">
-        <v>17653569</v>
+        <v>15686832</v>
       </c>
       <c r="I91" s="11">
-        <v>14915169</v>
+        <v>17813973</v>
       </c>
       <c r="J91" s="11">
-        <v>15686832</v>
+        <v>21226859</v>
       </c>
       <c r="K91" s="11">
-        <v>17813973</v>
+        <v>22883063</v>
       </c>
       <c r="L91" s="11">
-        <v>21226859</v>
+        <v>23017737</v>
       </c>
       <c r="M91" s="11">
-        <v>22883063</v>
+        <v>21047899</v>
       </c>
       <c r="N91" s="11">
-        <v>23017737</v>
+        <v>19591855</v>
       </c>
       <c r="O91" s="11">
-        <v>21047899</v>
+        <v>19173006</v>
       </c>
       <c r="P91" s="11">
-        <v>19591855</v>
+        <v>18777258</v>
       </c>
       <c r="Q91" s="11">
-        <v>19173006</v>
+        <v>19349070</v>
       </c>
       <c r="R91" s="11">
-        <v>18777258</v>
+        <v>19666205</v>
       </c>
       <c r="S91" s="11">
-        <v>19349070</v>
+        <v>24630556</v>
       </c>
       <c r="T91" s="11">
-        <v>19666205</v>
+        <v>25445652</v>
       </c>
       <c r="U91" s="11">
-        <v>24630556</v>
+        <v>26312875</v>
       </c>
       <c r="V91" s="11">
-        <v>25445652</v>
+        <v>26426844</v>
       </c>
       <c r="W91" s="11">
-        <v>26312875</v>
+        <v>27245546</v>
       </c>
       <c r="X91" s="11">
-        <v>26426844</v>
+        <v>32822824</v>
       </c>
       <c r="Y91" s="11">
-        <v>27245546</v>
+        <v>35685916</v>
       </c>
       <c r="Z91" s="11">
-        <v>32822824</v>
+        <v>43738347</v>
       </c>
       <c r="AA91" s="11">
-        <v>35685916</v>
+        <v>49205665</v>
       </c>
       <c r="AB91" s="11">
-        <v>43738347</v>
+        <v>49670470</v>
       </c>
       <c r="AC91" s="11">
-        <v>49205665</v>
+        <v>48039806</v>
       </c>
       <c r="AD91" s="11">
-        <v>49670470</v>
+        <v>49715736</v>
       </c>
       <c r="AE91" s="11">
-        <v>48039806</v>
+        <v>53776766</v>
       </c>
       <c r="AF91" s="11">
-        <v>49715736</v>
+        <v>49043796</v>
       </c>
       <c r="AG91" s="11">
-        <v>53776766</v>
+        <v>58697277</v>
       </c>
       <c r="AH91" s="11">
-        <v>49043796</v>
+        <v>58507119</v>
       </c>
       <c r="AI91" s="11">
-        <v>58697277</v>
+        <v>75886957</v>
       </c>
       <c r="AJ91" s="11">
-        <v>58507119</v>
+        <v>82453115</v>
       </c>
       <c r="AK91" s="11">
-        <v>75886957</v>
+        <v>86666097</v>
       </c>
       <c r="AL91" s="11">
-        <v>82453115</v>
+        <v>96542857</v>
       </c>
       <c r="AM91" s="11">
-        <v>86666097</v>
+        <v>149441237</v>
       </c>
       <c r="AN91" s="11">
-        <v>96542857</v>
+        <v>166680628</v>
       </c>
       <c r="AO91" s="11">
-        <v>149441237</v>
+        <v>202693023</v>
       </c>
       <c r="AP91" s="11">
-        <v>166680628</v>
+        <v>154822642</v>
       </c>
       <c r="AQ91" s="11">
-        <v>202693023</v>
+        <v>118434599</v>
       </c>
       <c r="AR91" s="11">
-        <v>154822642</v>
+        <v>129312088</v>
       </c>
       <c r="AS91" s="11">
-        <v>118434599</v>
+        <v>193546112</v>
       </c>
       <c r="AT91" s="11">
-        <v>129312088</v>
+        <v>141006757</v>
       </c>
       <c r="AU91" s="11">
-        <v>193546112</v>
+        <v>123430924</v>
       </c>
       <c r="AV91" s="11">
-        <v>141006757</v>
+        <v>120248913</v>
       </c>
       <c r="AW91" s="11">
-        <v>123430924</v>
+        <v>137210359</v>
       </c>
       <c r="AX91" s="11">
-        <v>120248913</v>
+        <v>136586304</v>
       </c>
       <c r="AY91" s="11">
-        <v>137210359</v>
+        <v>126045455</v>
       </c>
       <c r="AZ91" s="11">
-        <v>136586304</v>
+        <v>128654880</v>
       </c>
       <c r="BA91" s="11">
-        <v>126045455</v>
+        <v>127225221</v>
       </c>
       <c r="BB91" s="11">
-        <v>128654880</v>
+        <v>115782656</v>
       </c>
     </row>
-    <row r="92" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="92" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B92" s="12" t="s">
         <v>59</v>
       </c>
@@ -12134,92 +12134,92 @@
       </c>
       <c r="D92" s="13"/>
       <c r="E92" s="13">
-        <v>19964026</v>
+        <v>18394422</v>
       </c>
       <c r="F92" s="13">
-        <v>18956064</v>
+        <v>18569147</v>
       </c>
       <c r="G92" s="13">
-        <v>18394422</v>
+        <v>21234679</v>
       </c>
       <c r="H92" s="13">
-        <v>18569147</v>
+        <v>21015215</v>
       </c>
       <c r="I92" s="13">
-        <v>21234679</v>
+        <v>21523460</v>
       </c>
       <c r="J92" s="13">
-        <v>21015215</v>
+        <v>23709491</v>
       </c>
       <c r="K92" s="13">
-        <v>21523460</v>
+        <v>24289682</v>
       </c>
       <c r="L92" s="13">
-        <v>23709491</v>
+        <v>25744468</v>
       </c>
       <c r="M92" s="13">
-        <v>24289682</v>
+        <v>24693876</v>
       </c>
       <c r="N92" s="13">
-        <v>25744468</v>
+        <v>24144231</v>
       </c>
       <c r="O92" s="13">
-        <v>24693876</v>
+        <v>23311107</v>
       </c>
       <c r="P92" s="13">
-        <v>24144231</v>
+        <v>23095538</v>
       </c>
       <c r="Q92" s="13">
-        <v>23311107</v>
+        <v>23507165</v>
       </c>
       <c r="R92" s="13">
-        <v>23095538</v>
+        <v>24091299</v>
       </c>
       <c r="S92" s="13">
-        <v>23507165</v>
-      </c>
-      <c r="T92" s="13">
-        <v>24091299</v>
-      </c>
-      <c r="U92" s="13">
         <v>26281066</v>
       </c>
-      <c r="V92" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="W92" s="13" t="s">
-        <v>60</v>
+      <c r="T92" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="U92" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="V92" s="13">
+        <v>28177854</v>
+      </c>
+      <c r="W92" s="13">
+        <v>29569348</v>
       </c>
       <c r="X92" s="13">
-        <v>28177854</v>
+        <v>33609925</v>
       </c>
       <c r="Y92" s="13">
-        <v>29569348</v>
+        <v>40153117</v>
       </c>
       <c r="Z92" s="13">
-        <v>33609925</v>
+        <v>46033682</v>
       </c>
       <c r="AA92" s="13">
-        <v>40153117</v>
+        <v>51906629</v>
       </c>
       <c r="AB92" s="13">
-        <v>46033682</v>
+        <v>54439859</v>
       </c>
       <c r="AC92" s="13">
-        <v>51906629</v>
+        <v>55904525</v>
       </c>
       <c r="AD92" s="13">
-        <v>54439859</v>
+        <v>50777913</v>
       </c>
       <c r="AE92" s="13">
-        <v>55904525</v>
-      </c>
-      <c r="AF92" s="13">
-        <v>50777913</v>
-      </c>
-      <c r="AG92" s="13">
         <v>55321048</v>
       </c>
+      <c r="AF92" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="AG92" s="13" t="s">
+        <v>60</v>
+      </c>
       <c r="AH92" s="13" t="s">
         <v>60</v>
       </c>
@@ -12284,7 +12284,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="93" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="93" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B93" s="10" t="s">
         <v>61</v>
       </c>
@@ -12337,11 +12337,11 @@
       <c r="S93" s="11">
         <v>0</v>
       </c>
-      <c r="T93" s="11">
-        <v>0</v>
-      </c>
-      <c r="U93" s="11">
-        <v>0</v>
+      <c r="T93" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="U93" s="11" t="s">
+        <v>60</v>
       </c>
       <c r="V93" s="11" t="s">
         <v>60</v>
@@ -12373,77 +12373,77 @@
       <c r="AE93" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="AF93" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="AG93" s="11" t="s">
-        <v>60</v>
+      <c r="AF93" s="11">
+        <v>423000000</v>
+      </c>
+      <c r="AG93" s="11">
+        <v>435864796</v>
       </c>
       <c r="AH93" s="11">
-        <v>423000000</v>
+        <v>439848435</v>
       </c>
       <c r="AI93" s="11">
-        <v>435864796</v>
+        <v>467676529</v>
       </c>
       <c r="AJ93" s="11">
-        <v>439848435</v>
+        <v>556074803</v>
       </c>
       <c r="AK93" s="11">
-        <v>467676529</v>
+        <v>585545297</v>
       </c>
       <c r="AL93" s="11">
-        <v>556074803</v>
+        <v>806267790</v>
       </c>
       <c r="AM93" s="11">
-        <v>585545297</v>
+        <v>940348740</v>
       </c>
       <c r="AN93" s="11">
-        <v>806267790</v>
+        <v>977012285</v>
       </c>
       <c r="AO93" s="11">
-        <v>940348740</v>
+        <v>883865000</v>
       </c>
       <c r="AP93" s="11">
-        <v>977012285</v>
+        <v>770870000</v>
       </c>
       <c r="AQ93" s="11">
-        <v>883865000</v>
+        <v>675433333</v>
       </c>
       <c r="AR93" s="11">
-        <v>770870000</v>
+        <v>686641026</v>
       </c>
       <c r="AS93" s="11">
-        <v>675433333</v>
+        <v>619376087</v>
       </c>
       <c r="AT93" s="11">
-        <v>686641026</v>
-      </c>
-      <c r="AU93" s="11">
-        <v>619376087</v>
-      </c>
-      <c r="AV93" s="11">
         <v>532742029</v>
       </c>
-      <c r="AW93" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="AX93" s="11">
-        <v>0</v>
+      <c r="AU93" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="AV93" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="AW93" s="11">
+        <v>440747492</v>
+      </c>
+      <c r="AX93" s="11" t="s">
+        <v>60</v>
       </c>
       <c r="AY93" s="11">
-        <v>440747492</v>
-      </c>
-      <c r="AZ93" s="11" t="s">
-        <v>60</v>
+        <v>421626113</v>
+      </c>
+      <c r="AZ93" s="11">
+        <v>393853659</v>
       </c>
       <c r="BA93" s="11">
-        <v>421626113</v>
-      </c>
-      <c r="BB93" s="11">
-        <v>393853659</v>
+        <v>407635000</v>
+      </c>
+      <c r="BB93" s="11" t="s">
+        <v>60</v>
       </c>
     </row>
-    <row r="94" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="94" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B94" s="12" t="s">
         <v>63</v>
       </c>
@@ -12496,18 +12496,18 @@
       <c r="S94" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="T94" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="U94" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="V94" s="13">
+      <c r="T94" s="13">
         <v>132365400</v>
       </c>
-      <c r="W94" s="13">
+      <c r="U94" s="13">
         <v>146882890</v>
       </c>
+      <c r="V94" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="W94" s="13" t="s">
+        <v>60</v>
+      </c>
       <c r="X94" s="13" t="s">
         <v>60</v>
       </c>
@@ -12568,41 +12568,41 @@
       <c r="AQ94" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="AR94" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="AS94" s="13" t="s">
-        <v>60</v>
+      <c r="AR94" s="13">
+        <v>589551920</v>
+      </c>
+      <c r="AS94" s="13">
+        <v>560061255</v>
       </c>
       <c r="AT94" s="13">
-        <v>589551920</v>
+        <v>564512071</v>
       </c>
       <c r="AU94" s="13">
-        <v>560061255</v>
+        <v>495605839</v>
       </c>
       <c r="AV94" s="13">
-        <v>564512071</v>
+        <v>451731272</v>
       </c>
       <c r="AW94" s="13">
-        <v>495605839</v>
+        <v>436777955</v>
       </c>
       <c r="AX94" s="13">
-        <v>451731272</v>
+        <v>422918755</v>
       </c>
       <c r="AY94" s="13">
-        <v>436777955</v>
+        <v>407655771</v>
       </c>
       <c r="AZ94" s="13">
-        <v>422918755</v>
+        <v>403583926</v>
       </c>
       <c r="BA94" s="13">
-        <v>407655771</v>
+        <v>413295833</v>
       </c>
       <c r="BB94" s="13">
-        <v>403583926</v>
+        <v>409916667</v>
       </c>
     </row>
-    <row r="95" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="95" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B95" s="10" t="s">
         <v>64</v>
       </c>
@@ -12655,11 +12655,11 @@
       <c r="S95" s="11">
         <v>0</v>
       </c>
-      <c r="T95" s="11">
-        <v>0</v>
-      </c>
-      <c r="U95" s="11">
-        <v>0</v>
+      <c r="T95" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="U95" s="11" t="s">
+        <v>60</v>
       </c>
       <c r="V95" s="11" t="s">
         <v>60</v>
@@ -12761,7 +12761,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="96" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="96" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B96" s="12" t="s">
         <v>65</v>
       </c>
@@ -12814,11 +12814,11 @@
       <c r="S96" s="13">
         <v>0</v>
       </c>
-      <c r="T96" s="13">
-        <v>0</v>
-      </c>
-      <c r="U96" s="13">
-        <v>0</v>
+      <c r="T96" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="U96" s="13" t="s">
+        <v>60</v>
       </c>
       <c r="V96" s="13" t="s">
         <v>60</v>
@@ -12920,7 +12920,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="97" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="97" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B97" s="10" t="s">
         <v>66</v>
       </c>
@@ -12973,11 +12973,11 @@
       <c r="S97" s="11">
         <v>0</v>
       </c>
-      <c r="T97" s="11">
-        <v>0</v>
-      </c>
-      <c r="U97" s="11">
-        <v>0</v>
+      <c r="T97" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="U97" s="11" t="s">
+        <v>60</v>
       </c>
       <c r="V97" s="11" t="s">
         <v>60</v>
@@ -13079,7 +13079,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="98" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="98" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B98" s="12" t="s">
         <v>67</v>
       </c>
@@ -13088,55 +13088,55 @@
       </c>
       <c r="D98" s="13"/>
       <c r="E98" s="13">
-        <v>12143478</v>
+        <v>12956072</v>
       </c>
       <c r="F98" s="13">
-        <v>12917339</v>
+        <v>12821053</v>
       </c>
       <c r="G98" s="13">
-        <v>12956072</v>
+        <v>14463768</v>
       </c>
       <c r="H98" s="13">
-        <v>12821053</v>
+        <v>14328502</v>
       </c>
       <c r="I98" s="13">
-        <v>14463768</v>
+        <v>14211864</v>
       </c>
       <c r="J98" s="13">
-        <v>14328502</v>
+        <v>15000000</v>
       </c>
       <c r="K98" s="13">
-        <v>14211864</v>
+        <v>17178862</v>
       </c>
       <c r="L98" s="13">
-        <v>15000000</v>
+        <v>14913462</v>
       </c>
       <c r="M98" s="13">
-        <v>17178862</v>
+        <v>14863014</v>
       </c>
       <c r="N98" s="13">
-        <v>14913462</v>
+        <v>15039062</v>
       </c>
       <c r="O98" s="13">
-        <v>14863014</v>
+        <v>15125000</v>
       </c>
       <c r="P98" s="13">
-        <v>15039062</v>
+        <v>15073171</v>
       </c>
       <c r="Q98" s="13">
-        <v>15125000</v>
+        <v>0</v>
       </c>
       <c r="R98" s="13">
-        <v>15073171</v>
+        <v>0</v>
       </c>
       <c r="S98" s="13">
         <v>0</v>
       </c>
-      <c r="T98" s="13">
-        <v>0</v>
-      </c>
-      <c r="U98" s="13">
-        <v>0</v>
+      <c r="T98" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="U98" s="13" t="s">
+        <v>60</v>
       </c>
       <c r="V98" s="13" t="s">
         <v>60</v>
@@ -13147,32 +13147,32 @@
       <c r="X98" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="Y98" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="Z98" s="13" t="s">
-        <v>60</v>
+      <c r="Y98" s="13">
+        <v>24172662</v>
+      </c>
+      <c r="Z98" s="13">
+        <v>25190661</v>
       </c>
       <c r="AA98" s="13">
-        <v>24172662</v>
+        <v>28957935</v>
       </c>
       <c r="AB98" s="13">
-        <v>25190661</v>
+        <v>32120983</v>
       </c>
       <c r="AC98" s="13">
-        <v>28957935</v>
-      </c>
-      <c r="AD98" s="13">
-        <v>32120983</v>
+        <v>32098630</v>
+      </c>
+      <c r="AD98" s="13" t="s">
+        <v>60</v>
       </c>
       <c r="AE98" s="13">
-        <v>32098630</v>
+        <v>33584507</v>
       </c>
       <c r="AF98" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="AG98" s="13">
-        <v>33584507</v>
+      <c r="AG98" s="13" t="s">
+        <v>60</v>
       </c>
       <c r="AH98" s="13" t="s">
         <v>60</v>
@@ -13238,7 +13238,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="99" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="99" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B99" s="10" t="s">
         <v>68</v>
       </c>
@@ -13247,128 +13247,128 @@
       </c>
       <c r="D99" s="11"/>
       <c r="E99" s="11">
-        <v>13859137</v>
+        <v>17563725</v>
       </c>
       <c r="F99" s="11">
-        <v>17358605</v>
+        <v>15128033</v>
       </c>
       <c r="G99" s="11">
-        <v>17563725</v>
+        <v>12826133</v>
       </c>
       <c r="H99" s="11">
-        <v>15128033</v>
+        <v>12065546</v>
       </c>
       <c r="I99" s="11">
-        <v>12826133</v>
+        <v>11270648</v>
       </c>
       <c r="J99" s="11">
-        <v>12065546</v>
+        <v>11415649</v>
       </c>
       <c r="K99" s="11">
-        <v>11270648</v>
+        <v>11777332</v>
       </c>
       <c r="L99" s="11">
-        <v>11415649</v>
+        <v>12182131</v>
       </c>
       <c r="M99" s="11">
-        <v>11777332</v>
+        <v>11894763</v>
       </c>
       <c r="N99" s="11">
-        <v>12182131</v>
+        <v>13098201</v>
       </c>
       <c r="O99" s="11">
-        <v>11894763</v>
+        <v>13104575</v>
       </c>
       <c r="P99" s="11">
-        <v>13098201</v>
+        <v>13260830</v>
       </c>
       <c r="Q99" s="11">
-        <v>13104575</v>
+        <v>13072669</v>
       </c>
       <c r="R99" s="11">
-        <v>13260830</v>
+        <v>13424625</v>
       </c>
       <c r="S99" s="11">
-        <v>13072669</v>
-      </c>
-      <c r="T99" s="11">
-        <v>13424625</v>
-      </c>
-      <c r="U99" s="11">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="T99" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="U99" s="11" t="s">
+        <v>60</v>
       </c>
       <c r="V99" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="W99" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="X99" s="11" t="s">
-        <v>60</v>
+      <c r="W99" s="11">
+        <v>19250000</v>
+      </c>
+      <c r="X99" s="11">
+        <v>23302977</v>
       </c>
       <c r="Y99" s="11">
-        <v>19250000</v>
+        <v>23948549</v>
       </c>
       <c r="Z99" s="11">
-        <v>23302977</v>
+        <v>27447409</v>
       </c>
       <c r="AA99" s="11">
-        <v>23948549</v>
+        <v>27455641</v>
       </c>
       <c r="AB99" s="11">
-        <v>27447409</v>
+        <v>28773563</v>
       </c>
       <c r="AC99" s="11">
-        <v>27455641</v>
-      </c>
-      <c r="AD99" s="11">
-        <v>28773563</v>
+        <v>28859223</v>
+      </c>
+      <c r="AD99" s="11" t="s">
+        <v>60</v>
       </c>
       <c r="AE99" s="11">
-        <v>28859223</v>
-      </c>
-      <c r="AF99" s="11" t="s">
-        <v>60</v>
+        <v>33946721</v>
+      </c>
+      <c r="AF99" s="11">
+        <v>37508239</v>
       </c>
       <c r="AG99" s="11">
-        <v>33946721</v>
+        <v>46524727</v>
       </c>
       <c r="AH99" s="11">
-        <v>37508239</v>
+        <v>54257545</v>
       </c>
       <c r="AI99" s="11">
-        <v>46524727</v>
+        <v>65768698</v>
       </c>
       <c r="AJ99" s="11">
-        <v>54257545</v>
+        <v>70819076</v>
       </c>
       <c r="AK99" s="11">
-        <v>65768698</v>
+        <v>78570703</v>
       </c>
       <c r="AL99" s="11">
-        <v>70819076</v>
+        <v>81681741</v>
       </c>
       <c r="AM99" s="11">
-        <v>78570703</v>
+        <v>93947341</v>
       </c>
       <c r="AN99" s="11">
-        <v>81681741</v>
+        <v>121000812</v>
       </c>
       <c r="AO99" s="11">
-        <v>93947341</v>
+        <v>145177928</v>
       </c>
       <c r="AP99" s="11">
-        <v>121000812</v>
+        <v>148923828</v>
       </c>
       <c r="AQ99" s="11">
-        <v>145177928</v>
-      </c>
-      <c r="AR99" s="11">
-        <v>148923828</v>
-      </c>
-      <c r="AS99" s="11">
         <v>123974822</v>
       </c>
+      <c r="AR99" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="AS99" s="11" t="s">
+        <v>60</v>
+      </c>
       <c r="AT99" s="11" t="s">
         <v>60</v>
       </c>
@@ -13397,7 +13397,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="100" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="100" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B100" s="12" t="s">
         <v>69</v>
       </c>
@@ -13406,157 +13406,157 @@
       </c>
       <c r="D100" s="13"/>
       <c r="E100" s="13">
-        <v>6124764</v>
+        <v>6125096</v>
       </c>
       <c r="F100" s="13">
-        <v>6124755</v>
+        <v>6125026</v>
       </c>
       <c r="G100" s="13">
-        <v>6125096</v>
+        <v>12539345</v>
       </c>
       <c r="H100" s="13">
-        <v>6125026</v>
+        <v>14692697</v>
       </c>
       <c r="I100" s="13">
-        <v>12539345</v>
+        <v>16159445</v>
       </c>
       <c r="J100" s="13">
-        <v>14692697</v>
+        <v>17883794</v>
       </c>
       <c r="K100" s="13">
-        <v>16159445</v>
+        <v>16989980</v>
       </c>
       <c r="L100" s="13">
-        <v>17883794</v>
+        <v>16989986</v>
       </c>
       <c r="M100" s="13">
-        <v>16989980</v>
+        <v>15198008</v>
       </c>
       <c r="N100" s="13">
-        <v>16989986</v>
+        <v>17828274</v>
       </c>
       <c r="O100" s="13">
-        <v>15198008</v>
+        <v>15500000</v>
       </c>
       <c r="P100" s="13">
-        <v>17828274</v>
+        <v>18351990</v>
       </c>
       <c r="Q100" s="13">
-        <v>15500000</v>
+        <v>18349979</v>
       </c>
       <c r="R100" s="13">
-        <v>18351990</v>
+        <v>18354307</v>
       </c>
       <c r="S100" s="13">
-        <v>18349979</v>
+        <v>18352513</v>
       </c>
       <c r="T100" s="13">
-        <v>18354307</v>
+        <v>21691293</v>
       </c>
       <c r="U100" s="13">
-        <v>18352513</v>
+        <v>22229989</v>
       </c>
       <c r="V100" s="13">
-        <v>21691293</v>
+        <v>22231640</v>
       </c>
       <c r="W100" s="13">
-        <v>22229989</v>
+        <v>22230070</v>
       </c>
       <c r="X100" s="13">
-        <v>22231640</v>
+        <v>22229290</v>
       </c>
       <c r="Y100" s="13">
-        <v>22230070</v>
+        <v>22228757</v>
       </c>
       <c r="Z100" s="13">
-        <v>22229290</v>
+        <v>35997443</v>
       </c>
       <c r="AA100" s="13">
-        <v>22228757</v>
+        <v>36000000</v>
       </c>
       <c r="AB100" s="13">
-        <v>35997443</v>
+        <v>35998918</v>
       </c>
       <c r="AC100" s="13">
-        <v>36000000</v>
+        <v>35997809</v>
       </c>
       <c r="AD100" s="13">
-        <v>35998918</v>
+        <v>35997689</v>
       </c>
       <c r="AE100" s="13">
-        <v>35997809</v>
+        <v>38405087</v>
       </c>
       <c r="AF100" s="13">
-        <v>35997689</v>
+        <v>43592251</v>
       </c>
       <c r="AG100" s="13">
-        <v>38405087</v>
+        <v>45609112</v>
       </c>
       <c r="AH100" s="13">
-        <v>43592251</v>
+        <v>42314175</v>
       </c>
       <c r="AI100" s="13">
-        <v>45609112</v>
+        <v>45998566</v>
       </c>
       <c r="AJ100" s="13">
-        <v>42314175</v>
+        <v>46000000</v>
       </c>
       <c r="AK100" s="13">
-        <v>45998566</v>
+        <v>48216111</v>
       </c>
       <c r="AL100" s="13">
-        <v>46000000</v>
+        <v>68299962</v>
       </c>
       <c r="AM100" s="13">
-        <v>48216111</v>
+        <v>68228068</v>
       </c>
       <c r="AN100" s="13">
-        <v>68299962</v>
+        <v>90231348</v>
       </c>
       <c r="AO100" s="13">
-        <v>68228068</v>
+        <v>90229008</v>
       </c>
       <c r="AP100" s="13">
-        <v>90231348</v>
+        <v>90233133</v>
       </c>
       <c r="AQ100" s="13">
-        <v>90229008</v>
+        <v>90228956</v>
       </c>
       <c r="AR100" s="13">
-        <v>90233133</v>
+        <v>145112004</v>
       </c>
       <c r="AS100" s="13">
-        <v>90228956</v>
+        <v>145111968</v>
       </c>
       <c r="AT100" s="13">
-        <v>145112004</v>
+        <v>116648999</v>
       </c>
       <c r="AU100" s="13">
-        <v>116648957</v>
+        <v>116643703</v>
       </c>
       <c r="AV100" s="13">
-        <v>116648999</v>
+        <v>116649200</v>
       </c>
       <c r="AW100" s="13">
-        <v>116643703</v>
+        <v>108603007</v>
       </c>
       <c r="AX100" s="13">
-        <v>108603263</v>
+        <v>108603039</v>
       </c>
       <c r="AY100" s="13">
-        <v>108603007</v>
+        <v>108606660</v>
       </c>
       <c r="AZ100" s="13">
-        <v>108603039</v>
-      </c>
-      <c r="BA100" s="13">
-        <v>108606660</v>
+        <v>108597280</v>
+      </c>
+      <c r="BA100" s="13" t="s">
+        <v>60</v>
       </c>
       <c r="BB100" s="13">
-        <v>108597280</v>
+        <v>108603055</v>
       </c>
     </row>
-    <row r="101" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="101" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B101" s="10" t="s">
         <v>70</v>
       </c>
@@ -13565,128 +13565,128 @@
       </c>
       <c r="D101" s="11"/>
       <c r="E101" s="11">
-        <v>161442127</v>
+        <v>112688363</v>
       </c>
       <c r="F101" s="11">
-        <v>122357827</v>
+        <v>89223735</v>
       </c>
       <c r="G101" s="11">
-        <v>112688363</v>
+        <v>86593472</v>
       </c>
       <c r="H101" s="11">
-        <v>89223735</v>
+        <v>87542811</v>
       </c>
       <c r="I101" s="11">
-        <v>86593472</v>
+        <v>93195443</v>
       </c>
       <c r="J101" s="11">
-        <v>87542811</v>
+        <v>98524971</v>
       </c>
       <c r="K101" s="11">
-        <v>93195443</v>
+        <v>104756071</v>
       </c>
       <c r="L101" s="11">
-        <v>98524971</v>
+        <v>108651926</v>
       </c>
       <c r="M101" s="11">
-        <v>104756071</v>
+        <v>101584828</v>
       </c>
       <c r="N101" s="11">
-        <v>108651926</v>
+        <v>96959459</v>
       </c>
       <c r="O101" s="11">
-        <v>101584828</v>
+        <v>90020576</v>
       </c>
       <c r="P101" s="11">
-        <v>96959459</v>
+        <v>86214616</v>
       </c>
       <c r="Q101" s="11">
-        <v>90020576</v>
+        <v>93170623</v>
       </c>
       <c r="R101" s="11">
-        <v>86214616</v>
+        <v>96827586</v>
       </c>
       <c r="S101" s="11">
-        <v>93170623</v>
-      </c>
-      <c r="T101" s="11">
-        <v>96827586</v>
-      </c>
-      <c r="U101" s="11">
         <v>168556180</v>
       </c>
-      <c r="V101" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="W101" s="11" t="s">
-        <v>60</v>
+      <c r="T101" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="U101" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="V101" s="11">
+        <v>181736305</v>
+      </c>
+      <c r="W101" s="11">
+        <v>181545543</v>
       </c>
       <c r="X101" s="11">
-        <v>181736305</v>
+        <v>192879004</v>
       </c>
       <c r="Y101" s="11">
-        <v>181545543</v>
+        <v>170436719</v>
       </c>
       <c r="Z101" s="11">
-        <v>192879004</v>
+        <v>221854500</v>
       </c>
       <c r="AA101" s="11">
-        <v>170436719</v>
+        <v>243842893</v>
       </c>
       <c r="AB101" s="11">
-        <v>221854500</v>
+        <v>268267672</v>
       </c>
       <c r="AC101" s="11">
-        <v>243842893</v>
+        <v>287628947</v>
       </c>
       <c r="AD101" s="11">
-        <v>268267672</v>
+        <v>347252302</v>
       </c>
       <c r="AE101" s="11">
-        <v>287628947</v>
+        <v>326023840</v>
       </c>
       <c r="AF101" s="11">
-        <v>347252302</v>
+        <v>324607417</v>
       </c>
       <c r="AG101" s="11">
-        <v>326023840</v>
+        <v>364907631</v>
       </c>
       <c r="AH101" s="11">
-        <v>324607417</v>
+        <v>372608939</v>
       </c>
       <c r="AI101" s="11">
-        <v>364907631</v>
+        <v>372375993</v>
       </c>
       <c r="AJ101" s="11">
-        <v>372608939</v>
+        <v>452259098</v>
       </c>
       <c r="AK101" s="11">
-        <v>372375993</v>
+        <v>497805471</v>
       </c>
       <c r="AL101" s="11">
-        <v>452259098</v>
+        <v>622362855</v>
       </c>
       <c r="AM101" s="11">
-        <v>497805471</v>
+        <v>882505863</v>
       </c>
       <c r="AN101" s="11">
-        <v>622362855</v>
+        <v>932076342</v>
       </c>
       <c r="AO101" s="11">
-        <v>882505863</v>
+        <v>711063457</v>
       </c>
       <c r="AP101" s="11">
-        <v>932076342</v>
+        <v>639606952</v>
       </c>
       <c r="AQ101" s="11">
-        <v>711063457</v>
-      </c>
-      <c r="AR101" s="11">
-        <v>639606952</v>
-      </c>
-      <c r="AS101" s="11">
         <v>665293147</v>
       </c>
+      <c r="AR101" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="AS101" s="11" t="s">
+        <v>60</v>
+      </c>
       <c r="AT101" s="11" t="s">
         <v>60</v>
       </c>
@@ -13715,7 +13715,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="102" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="102" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B102" s="12" t="s">
         <v>71</v>
       </c>
@@ -13724,91 +13724,91 @@
       </c>
       <c r="D102" s="13"/>
       <c r="E102" s="13">
-        <v>112828571</v>
+        <v>107478774</v>
       </c>
       <c r="F102" s="13">
-        <v>105361111</v>
+        <v>87450000</v>
       </c>
       <c r="G102" s="13">
-        <v>107478774</v>
+        <v>100480952</v>
       </c>
       <c r="H102" s="13">
-        <v>87450000</v>
+        <v>102583333</v>
       </c>
       <c r="I102" s="13">
-        <v>100480952</v>
+        <v>96453488</v>
       </c>
       <c r="J102" s="13">
-        <v>102583333</v>
+        <v>110133333</v>
       </c>
       <c r="K102" s="13">
-        <v>96453488</v>
+        <v>106912500</v>
       </c>
       <c r="L102" s="13">
-        <v>110133333</v>
+        <v>105293443</v>
       </c>
       <c r="M102" s="13">
-        <v>106912500</v>
+        <v>103574257</v>
       </c>
       <c r="N102" s="13">
-        <v>105293443</v>
+        <v>98175739</v>
       </c>
       <c r="O102" s="13">
-        <v>103574257</v>
+        <v>90914634</v>
       </c>
       <c r="P102" s="13">
-        <v>98175739</v>
+        <v>89392276</v>
       </c>
       <c r="Q102" s="13">
-        <v>90914634</v>
+        <v>95099629</v>
       </c>
       <c r="R102" s="13">
-        <v>89392276</v>
+        <v>98270833</v>
       </c>
       <c r="S102" s="13">
-        <v>95099629</v>
-      </c>
-      <c r="T102" s="13">
-        <v>98270833</v>
-      </c>
-      <c r="U102" s="13">
         <v>114737037</v>
       </c>
-      <c r="V102" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="W102" s="13" t="s">
-        <v>60</v>
+      <c r="T102" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="U102" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="V102" s="13">
+        <v>116062500</v>
+      </c>
+      <c r="W102" s="13">
+        <v>128583333</v>
       </c>
       <c r="X102" s="13">
-        <v>116062500</v>
+        <v>137779412</v>
       </c>
       <c r="Y102" s="13">
-        <v>128583333</v>
+        <v>147024194</v>
       </c>
       <c r="Z102" s="13">
-        <v>137779412</v>
+        <v>158303459</v>
       </c>
       <c r="AA102" s="13">
-        <v>147024194</v>
+        <v>199262376</v>
       </c>
       <c r="AB102" s="13">
-        <v>158303459</v>
+        <v>213019139</v>
       </c>
       <c r="AC102" s="13">
-        <v>199262376</v>
+        <v>276842742</v>
       </c>
       <c r="AD102" s="13">
-        <v>213019139</v>
+        <v>288061224</v>
       </c>
       <c r="AE102" s="13">
-        <v>276842742</v>
-      </c>
-      <c r="AF102" s="13">
-        <v>288061224</v>
-      </c>
-      <c r="AG102" s="13">
         <v>386400000</v>
+      </c>
+      <c r="AF102" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="AG102" s="13" t="s">
+        <v>60</v>
       </c>
       <c r="AH102" s="13" t="s">
         <v>60</v>

--- a/database/industries/urea/khorasan/product/monthly.xlsx
+++ b/database/industries/urea/khorasan/product/monthly.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1285" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1299" uniqueCount="87">
   <si>
     <t xml:space="preserve">Pouya Finance</t>
   </si>
@@ -81,7 +81,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">11 </t>
+      <t xml:space="preserve">12 </t>
     </r>
     <r>
       <rPr>
@@ -100,7 +100,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1397/11</t>
+      <t xml:space="preserve">1397/12</t>
     </r>
   </si>
   <si>
@@ -121,7 +121,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">12 </t>
+      <t xml:space="preserve">1 </t>
     </r>
     <r>
       <rPr>
@@ -140,7 +140,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1397/12</t>
+      <t xml:space="preserve">1398/01</t>
     </r>
   </si>
   <si>
@@ -161,7 +161,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1 </t>
+      <t xml:space="preserve">2 </t>
     </r>
     <r>
       <rPr>
@@ -180,7 +180,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/01</t>
+      <t xml:space="preserve">1398/02</t>
     </r>
   </si>
   <si>
@@ -201,7 +201,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">2 </t>
+      <t xml:space="preserve">3 </t>
     </r>
     <r>
       <rPr>
@@ -220,7 +220,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/02</t>
+      <t xml:space="preserve">1398/03</t>
     </r>
   </si>
   <si>
@@ -241,7 +241,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">3 </t>
+      <t xml:space="preserve">4 </t>
     </r>
     <r>
       <rPr>
@@ -260,7 +260,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/03</t>
+      <t xml:space="preserve">1398/04</t>
     </r>
   </si>
   <si>
@@ -281,7 +281,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">4 </t>
+      <t xml:space="preserve">5 </t>
     </r>
     <r>
       <rPr>
@@ -300,7 +300,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/04</t>
+      <t xml:space="preserve">1398/05</t>
     </r>
   </si>
   <si>
@@ -321,7 +321,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">5 </t>
+      <t xml:space="preserve">6 </t>
     </r>
     <r>
       <rPr>
@@ -340,7 +340,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/05</t>
+      <t xml:space="preserve">1398/06</t>
     </r>
   </si>
   <si>
@@ -361,7 +361,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">6 </t>
+      <t xml:space="preserve">7 </t>
     </r>
     <r>
       <rPr>
@@ -380,7 +380,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/06</t>
+      <t xml:space="preserve">1398/07</t>
     </r>
   </si>
   <si>
@@ -401,7 +401,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">7 </t>
+      <t xml:space="preserve">8 </t>
     </r>
     <r>
       <rPr>
@@ -420,7 +420,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/07</t>
+      <t xml:space="preserve">1398/08</t>
     </r>
   </si>
   <si>
@@ -441,7 +441,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">8 </t>
+      <t xml:space="preserve">9 </t>
     </r>
     <r>
       <rPr>
@@ -460,7 +460,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/08</t>
+      <t xml:space="preserve">1398/09</t>
     </r>
   </si>
   <si>
@@ -481,7 +481,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">9 </t>
+      <t xml:space="preserve">10 </t>
     </r>
     <r>
       <rPr>
@@ -500,7 +500,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/09</t>
+      <t xml:space="preserve">1398/10</t>
     </r>
   </si>
   <si>
@@ -521,7 +521,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">10 </t>
+      <t xml:space="preserve">11 </t>
     </r>
     <r>
       <rPr>
@@ -540,7 +540,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/10</t>
+      <t xml:space="preserve">1398/11</t>
     </r>
   </si>
   <si>
@@ -561,7 +561,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">11 </t>
+      <t xml:space="preserve">12 </t>
     </r>
     <r>
       <rPr>
@@ -580,7 +580,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/11</t>
+      <t xml:space="preserve">1398/12</t>
     </r>
   </si>
   <si>
@@ -601,7 +601,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">12 </t>
+      <t xml:space="preserve">1 </t>
     </r>
     <r>
       <rPr>
@@ -620,7 +620,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/12</t>
+      <t xml:space="preserve">1399/01</t>
     </r>
   </si>
   <si>
@@ -641,7 +641,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1 </t>
+      <t xml:space="preserve">2 </t>
     </r>
     <r>
       <rPr>
@@ -660,7 +660,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/01</t>
+      <t xml:space="preserve">1399/02</t>
     </r>
   </si>
   <si>
@@ -681,7 +681,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">2 </t>
+      <t xml:space="preserve">3 </t>
     </r>
     <r>
       <rPr>
@@ -700,7 +700,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/02</t>
+      <t xml:space="preserve">1399/03</t>
     </r>
   </si>
   <si>
@@ -721,7 +721,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">3 </t>
+      <t xml:space="preserve">4 </t>
     </r>
     <r>
       <rPr>
@@ -740,7 +740,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/03</t>
+      <t xml:space="preserve">1399/04</t>
     </r>
   </si>
   <si>
@@ -761,7 +761,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">4 </t>
+      <t xml:space="preserve">5 </t>
     </r>
     <r>
       <rPr>
@@ -780,7 +780,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/04</t>
+      <t xml:space="preserve">1399/05</t>
     </r>
   </si>
   <si>
@@ -801,7 +801,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">5 </t>
+      <t xml:space="preserve">6 </t>
     </r>
     <r>
       <rPr>
@@ -820,7 +820,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/05</t>
+      <t xml:space="preserve">1399/06</t>
     </r>
   </si>
   <si>
@@ -841,7 +841,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">6 </t>
+      <t xml:space="preserve">7 </t>
     </r>
     <r>
       <rPr>
@@ -860,7 +860,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/06</t>
+      <t xml:space="preserve">1399/07</t>
     </r>
   </si>
   <si>
@@ -881,7 +881,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">7 </t>
+      <t xml:space="preserve">8 </t>
     </r>
     <r>
       <rPr>
@@ -900,7 +900,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/07</t>
+      <t xml:space="preserve">1399/08</t>
     </r>
   </si>
   <si>
@@ -921,7 +921,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">8 </t>
+      <t xml:space="preserve">9 </t>
     </r>
     <r>
       <rPr>
@@ -940,7 +940,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/08</t>
+      <t xml:space="preserve">1399/09</t>
     </r>
   </si>
   <si>
@@ -961,7 +961,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">9 </t>
+      <t xml:space="preserve">10 </t>
     </r>
     <r>
       <rPr>
@@ -980,7 +980,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/09</t>
+      <t xml:space="preserve">1399/10</t>
     </r>
   </si>
   <si>
@@ -1001,7 +1001,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">10 </t>
+      <t xml:space="preserve">11 </t>
     </r>
     <r>
       <rPr>
@@ -1020,7 +1020,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/10</t>
+      <t xml:space="preserve">1399/11</t>
     </r>
   </si>
   <si>
@@ -1041,7 +1041,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">11 </t>
+      <t xml:space="preserve">12 </t>
     </r>
     <r>
       <rPr>
@@ -1060,7 +1060,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/11</t>
+      <t xml:space="preserve">1399/12</t>
     </r>
   </si>
   <si>
@@ -1081,7 +1081,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">12 </t>
+      <t xml:space="preserve">1 </t>
     </r>
     <r>
       <rPr>
@@ -1100,7 +1100,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/12</t>
+      <t xml:space="preserve">1400/01</t>
     </r>
   </si>
   <si>
@@ -1121,7 +1121,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1 </t>
+      <t xml:space="preserve">2 </t>
     </r>
     <r>
       <rPr>
@@ -1140,7 +1140,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/01</t>
+      <t xml:space="preserve">1400/02</t>
     </r>
   </si>
   <si>
@@ -1161,7 +1161,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">2 </t>
+      <t xml:space="preserve">3 </t>
     </r>
     <r>
       <rPr>
@@ -1180,7 +1180,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/02</t>
+      <t xml:space="preserve">1400/03</t>
     </r>
   </si>
   <si>
@@ -1201,7 +1201,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">3 </t>
+      <t xml:space="preserve">4 </t>
     </r>
     <r>
       <rPr>
@@ -1220,7 +1220,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/03</t>
+      <t xml:space="preserve">1400/04</t>
     </r>
   </si>
   <si>
@@ -1241,7 +1241,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">4 </t>
+      <t xml:space="preserve">5 </t>
     </r>
     <r>
       <rPr>
@@ -1260,7 +1260,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/04</t>
+      <t xml:space="preserve">1400/05</t>
     </r>
   </si>
   <si>
@@ -1281,7 +1281,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">5 </t>
+      <t xml:space="preserve">6 </t>
     </r>
     <r>
       <rPr>
@@ -1300,7 +1300,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/05</t>
+      <t xml:space="preserve">1400/06</t>
     </r>
   </si>
   <si>
@@ -1321,7 +1321,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">6 </t>
+      <t xml:space="preserve">7 </t>
     </r>
     <r>
       <rPr>
@@ -1340,7 +1340,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/06</t>
+      <t xml:space="preserve">1400/07</t>
     </r>
   </si>
   <si>
@@ -1361,7 +1361,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">7 </t>
+      <t xml:space="preserve">8 </t>
     </r>
     <r>
       <rPr>
@@ -1380,7 +1380,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/07</t>
+      <t xml:space="preserve">1400/08</t>
     </r>
   </si>
   <si>
@@ -1401,7 +1401,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">8 </t>
+      <t xml:space="preserve">9 </t>
     </r>
     <r>
       <rPr>
@@ -1420,7 +1420,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/08</t>
+      <t xml:space="preserve">1400/09</t>
     </r>
   </si>
   <si>
@@ -1441,7 +1441,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">9 </t>
+      <t xml:space="preserve">10 </t>
     </r>
     <r>
       <rPr>
@@ -1460,7 +1460,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/09</t>
+      <t xml:space="preserve">1400/10</t>
     </r>
   </si>
   <si>
@@ -1481,7 +1481,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">10 </t>
+      <t xml:space="preserve">11 </t>
     </r>
     <r>
       <rPr>
@@ -1500,7 +1500,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/10</t>
+      <t xml:space="preserve">1400/11</t>
     </r>
   </si>
   <si>
@@ -1521,7 +1521,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">11 </t>
+      <t xml:space="preserve">12 </t>
     </r>
     <r>
       <rPr>
@@ -1540,7 +1540,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/11</t>
+      <t xml:space="preserve">1400/12</t>
     </r>
   </si>
   <si>
@@ -1561,7 +1561,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">12 </t>
+      <t xml:space="preserve">1 </t>
     </r>
     <r>
       <rPr>
@@ -1580,7 +1580,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/12</t>
+      <t xml:space="preserve">1401/01</t>
     </r>
   </si>
   <si>
@@ -1601,7 +1601,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1 </t>
+      <t xml:space="preserve">2 </t>
     </r>
     <r>
       <rPr>
@@ -1620,7 +1620,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/01</t>
+      <t xml:space="preserve">1401/02</t>
     </r>
   </si>
   <si>
@@ -1641,7 +1641,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">2 </t>
+      <t xml:space="preserve">3 </t>
     </r>
     <r>
       <rPr>
@@ -1660,7 +1660,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/02</t>
+      <t xml:space="preserve">1401/03</t>
     </r>
   </si>
   <si>
@@ -1681,7 +1681,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">3 </t>
+      <t xml:space="preserve">4 </t>
     </r>
     <r>
       <rPr>
@@ -1700,7 +1700,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/03</t>
+      <t xml:space="preserve">1401/04</t>
     </r>
   </si>
   <si>
@@ -1721,7 +1721,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">4 </t>
+      <t xml:space="preserve">5 </t>
     </r>
     <r>
       <rPr>
@@ -1740,7 +1740,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/04</t>
+      <t xml:space="preserve">1401/05</t>
     </r>
   </si>
   <si>
@@ -1761,7 +1761,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">5 </t>
+      <t xml:space="preserve">6 </t>
     </r>
     <r>
       <rPr>
@@ -1780,7 +1780,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/05</t>
+      <t xml:space="preserve">1401/06</t>
     </r>
   </si>
   <si>
@@ -1801,7 +1801,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">6 </t>
+      <t xml:space="preserve">7 </t>
     </r>
     <r>
       <rPr>
@@ -1820,7 +1820,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/06</t>
+      <t xml:space="preserve">1401/07</t>
     </r>
   </si>
   <si>
@@ -1841,7 +1841,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">7 </t>
+      <t xml:space="preserve">8 </t>
     </r>
     <r>
       <rPr>
@@ -1860,7 +1860,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/07</t>
+      <t xml:space="preserve">1401/08</t>
     </r>
   </si>
   <si>
@@ -1881,7 +1881,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">8 </t>
+      <t xml:space="preserve">9 </t>
     </r>
     <r>
       <rPr>
@@ -1900,7 +1900,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/08</t>
+      <t xml:space="preserve">1401/09</t>
     </r>
   </si>
   <si>
@@ -1921,7 +1921,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">9 </t>
+      <t xml:space="preserve">10 </t>
     </r>
     <r>
       <rPr>
@@ -1940,7 +1940,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/09</t>
+      <t xml:space="preserve">1401/10</t>
     </r>
   </si>
   <si>
@@ -1961,7 +1961,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">10 </t>
+      <t xml:space="preserve">11 </t>
     </r>
     <r>
       <rPr>
@@ -1980,7 +1980,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/10</t>
+      <t xml:space="preserve">1401/11</t>
     </r>
   </si>
   <si>
@@ -2001,7 +2001,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">11 </t>
+      <t xml:space="preserve">12 </t>
     </r>
     <r>
       <rPr>
@@ -2020,7 +2020,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/11</t>
+      <t xml:space="preserve">1401/12</t>
     </r>
   </si>
   <si>
@@ -2041,7 +2041,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">12 </t>
+      <t xml:space="preserve">1 </t>
     </r>
     <r>
       <rPr>
@@ -2060,7 +2060,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/12</t>
+      <t xml:space="preserve">1402/01</t>
     </r>
   </si>
   <si>
@@ -3246,154 +3246,154 @@
       </c>
       <c r="D11" s="12"/>
       <c r="E11" s="12" t="n">
-        <v>51278</v>
+        <v>50091</v>
       </c>
       <c r="F11" s="12" t="n">
-        <v>50091</v>
+        <v>53710</v>
       </c>
       <c r="G11" s="12" t="n">
-        <v>53710</v>
+        <v>53731</v>
       </c>
       <c r="H11" s="12" t="n">
-        <v>53731</v>
+        <v>53716</v>
       </c>
       <c r="I11" s="12" t="n">
+        <v>53704</v>
+      </c>
+      <c r="J11" s="12" t="n">
         <v>53716</v>
       </c>
-      <c r="J11" s="12" t="n">
-        <v>53704</v>
-      </c>
       <c r="K11" s="12" t="n">
-        <v>53716</v>
+        <v>53834</v>
       </c>
       <c r="L11" s="12" t="n">
-        <v>53834</v>
+        <v>52058</v>
       </c>
       <c r="M11" s="12" t="n">
-        <v>52058</v>
+        <v>51291</v>
       </c>
       <c r="N11" s="12" t="n">
-        <v>51291</v>
+        <v>48472</v>
       </c>
       <c r="O11" s="12" t="n">
-        <v>48472</v>
+        <v>39548</v>
       </c>
       <c r="P11" s="12" t="n">
-        <v>39548</v>
+        <v>20399</v>
       </c>
       <c r="Q11" s="12" t="n">
-        <v>20399</v>
+        <v>41346</v>
       </c>
       <c r="R11" s="12" t="n">
-        <v>41346</v>
+        <v>40433</v>
       </c>
       <c r="S11" s="12" t="n">
-        <v>40433</v>
+        <v>47457</v>
       </c>
       <c r="T11" s="12" t="n">
-        <v>47457</v>
+        <v>15691</v>
       </c>
       <c r="U11" s="12" t="n">
-        <v>15691</v>
+        <v>32210</v>
       </c>
       <c r="V11" s="12" t="n">
-        <v>32210</v>
+        <v>53078</v>
       </c>
       <c r="W11" s="12" t="n">
-        <v>53078</v>
+        <v>53170</v>
       </c>
       <c r="X11" s="12" t="n">
-        <v>53170</v>
+        <v>51384</v>
       </c>
       <c r="Y11" s="12" t="n">
-        <v>51384</v>
+        <v>51372</v>
       </c>
       <c r="Z11" s="12" t="n">
-        <v>51372</v>
+        <v>50473</v>
       </c>
       <c r="AA11" s="12" t="n">
-        <v>50473</v>
+        <v>27459</v>
       </c>
       <c r="AB11" s="12" t="n">
-        <v>27459</v>
+        <v>29484</v>
       </c>
       <c r="AC11" s="12" t="n">
-        <v>29484</v>
+        <v>51095</v>
       </c>
       <c r="AD11" s="12" t="n">
-        <v>51095</v>
+        <v>53131</v>
       </c>
       <c r="AE11" s="12" t="n">
-        <v>53131</v>
+        <v>53107</v>
       </c>
       <c r="AF11" s="12" t="n">
-        <v>53107</v>
+        <v>53127</v>
       </c>
       <c r="AG11" s="12" t="n">
-        <v>53127</v>
+        <v>53044</v>
       </c>
       <c r="AH11" s="12" t="n">
-        <v>53044</v>
+        <v>53080</v>
       </c>
       <c r="AI11" s="12" t="n">
-        <v>53080</v>
+        <v>49666</v>
       </c>
       <c r="AJ11" s="12" t="n">
-        <v>49666</v>
+        <v>51404</v>
       </c>
       <c r="AK11" s="12" t="n">
-        <v>51404</v>
+        <v>51366</v>
       </c>
       <c r="AL11" s="12" t="n">
-        <v>51366</v>
+        <v>51348</v>
       </c>
       <c r="AM11" s="12" t="n">
-        <v>51348</v>
+        <v>45940</v>
       </c>
       <c r="AN11" s="12" t="n">
-        <v>45940</v>
+        <v>5880</v>
       </c>
       <c r="AO11" s="12" t="n">
-        <v>5880</v>
+        <v>47514</v>
       </c>
       <c r="AP11" s="12" t="n">
-        <v>47514</v>
+        <v>52878</v>
       </c>
       <c r="AQ11" s="12" t="n">
-        <v>52878</v>
+        <v>52908</v>
       </c>
       <c r="AR11" s="12" t="n">
-        <v>52908</v>
+        <v>52744</v>
       </c>
       <c r="AS11" s="12" t="n">
-        <v>52744</v>
+        <v>52863</v>
       </c>
       <c r="AT11" s="12" t="n">
-        <v>52863</v>
+        <v>52876</v>
       </c>
       <c r="AU11" s="12" t="n">
-        <v>52876</v>
+        <v>52970</v>
       </c>
       <c r="AV11" s="12" t="n">
-        <v>52970</v>
+        <v>49925</v>
       </c>
       <c r="AW11" s="12" t="n">
-        <v>49925</v>
+        <v>50864</v>
       </c>
       <c r="AX11" s="12" t="n">
-        <v>50864</v>
+        <v>43382</v>
       </c>
       <c r="AY11" s="12" t="n">
-        <v>43382</v>
+        <v>20595</v>
       </c>
       <c r="AZ11" s="12" t="n">
-        <v>20595</v>
+        <v>0</v>
       </c>
       <c r="BA11" s="12" t="n">
-        <v>0</v>
+        <v>33048</v>
       </c>
       <c r="BB11" s="12" t="n">
-        <v>33048</v>
+        <v>52948</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3405,100 +3405,100 @@
       </c>
       <c r="D12" s="14"/>
       <c r="E12" s="14" t="n">
-        <v>29841</v>
+        <v>28859</v>
       </c>
       <c r="F12" s="14" t="n">
-        <v>28859</v>
+        <v>30917</v>
       </c>
       <c r="G12" s="14" t="n">
-        <v>30917</v>
+        <v>30989</v>
       </c>
       <c r="H12" s="14" t="n">
-        <v>30989</v>
+        <v>31000</v>
       </c>
       <c r="I12" s="14" t="n">
-        <v>31000</v>
+        <v>30899</v>
       </c>
       <c r="J12" s="14" t="n">
-        <v>30899</v>
+        <v>30812</v>
       </c>
       <c r="K12" s="14" t="n">
-        <v>30812</v>
+        <v>30721</v>
       </c>
       <c r="L12" s="14" t="n">
-        <v>30721</v>
+        <v>29789</v>
       </c>
       <c r="M12" s="14" t="n">
-        <v>29789</v>
+        <v>29366</v>
       </c>
       <c r="N12" s="14" t="n">
-        <v>29366</v>
+        <v>28019</v>
       </c>
       <c r="O12" s="14" t="n">
-        <v>28019</v>
+        <v>21402</v>
       </c>
       <c r="P12" s="14" t="n">
-        <v>21402</v>
+        <v>10332</v>
       </c>
       <c r="Q12" s="14" t="n">
-        <v>10332</v>
+        <v>18866</v>
       </c>
       <c r="R12" s="14" t="n">
-        <v>18866</v>
+        <v>21607</v>
       </c>
       <c r="S12" s="14" t="n">
-        <v>21607</v>
+        <v>25227</v>
       </c>
       <c r="T12" s="14" t="n">
-        <v>25227</v>
+        <v>8460</v>
       </c>
       <c r="U12" s="14" t="n">
-        <v>8460</v>
+        <v>19051</v>
       </c>
       <c r="V12" s="14" t="n">
-        <v>19051</v>
+        <v>31516</v>
       </c>
       <c r="W12" s="14" t="n">
-        <v>31516</v>
+        <v>31366</v>
       </c>
       <c r="X12" s="14" t="n">
-        <v>31366</v>
+        <v>29980</v>
       </c>
       <c r="Y12" s="14" t="n">
-        <v>29980</v>
+        <v>30070</v>
       </c>
       <c r="Z12" s="14" t="n">
-        <v>30070</v>
+        <v>29493</v>
       </c>
       <c r="AA12" s="14" t="n">
-        <v>29493</v>
+        <v>14118</v>
       </c>
       <c r="AB12" s="14" t="n">
-        <v>14118</v>
+        <v>12740</v>
       </c>
       <c r="AC12" s="14" t="n">
-        <v>12740</v>
+        <v>28960</v>
       </c>
       <c r="AD12" s="14" t="n">
-        <v>28960</v>
+        <v>31008</v>
       </c>
       <c r="AE12" s="14" t="n">
-        <v>31008</v>
+        <v>31043</v>
       </c>
       <c r="AF12" s="14" t="n">
-        <v>31043</v>
+        <v>30170</v>
       </c>
       <c r="AG12" s="14" t="n">
-        <v>30170</v>
+        <v>31002</v>
       </c>
       <c r="AH12" s="14" t="n">
-        <v>31002</v>
+        <v>30993</v>
       </c>
       <c r="AI12" s="14" t="n">
-        <v>30993</v>
+        <v>30938</v>
       </c>
       <c r="AJ12" s="14" t="n">
-        <v>30938</v>
+        <v>30000</v>
       </c>
       <c r="AK12" s="14" t="n">
         <v>30000</v>
@@ -3507,19 +3507,19 @@
         <v>30000</v>
       </c>
       <c r="AM12" s="14" t="n">
-        <v>30000</v>
+        <v>27000</v>
       </c>
       <c r="AN12" s="14" t="n">
-        <v>27000</v>
+        <v>2807</v>
       </c>
       <c r="AO12" s="14" t="n">
-        <v>2807</v>
+        <v>27684</v>
       </c>
       <c r="AP12" s="14" t="n">
-        <v>27684</v>
+        <v>31005</v>
       </c>
       <c r="AQ12" s="14" t="n">
-        <v>31005</v>
+        <v>31000</v>
       </c>
       <c r="AR12" s="14" t="n">
         <v>31000</v>
@@ -3531,28 +3531,28 @@
         <v>31000</v>
       </c>
       <c r="AU12" s="14" t="n">
-        <v>31000</v>
+        <v>31040</v>
       </c>
       <c r="AV12" s="14" t="n">
-        <v>31040</v>
+        <v>30000</v>
       </c>
       <c r="AW12" s="14" t="n">
         <v>30000</v>
       </c>
       <c r="AX12" s="14" t="n">
-        <v>30000</v>
+        <v>26796</v>
       </c>
       <c r="AY12" s="14" t="n">
-        <v>26796</v>
+        <v>12846</v>
       </c>
       <c r="AZ12" s="14" t="n">
-        <v>12846</v>
+        <v>0</v>
       </c>
       <c r="BA12" s="14" t="n">
-        <v>0</v>
+        <v>20768</v>
       </c>
       <c r="BB12" s="14" t="n">
-        <v>20768</v>
+        <v>31270</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3761,14 +3761,14 @@
       <c r="Q14" s="14" t="n">
         <v>0</v>
       </c>
-      <c r="R14" s="14" t="n">
-        <v>0</v>
+      <c r="R14" s="15" t="s">
+        <v>60</v>
       </c>
       <c r="S14" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="T14" s="15" t="s">
-        <v>60</v>
+      <c r="T14" s="15" t="n">
+        <v>0</v>
       </c>
       <c r="U14" s="15" t="n">
         <v>0</v>
@@ -3797,8 +3797,8 @@
       <c r="AC14" s="15" t="n">
         <v>0</v>
       </c>
-      <c r="AD14" s="15" t="n">
-        <v>0</v>
+      <c r="AD14" s="15" t="s">
+        <v>60</v>
       </c>
       <c r="AE14" s="15" t="s">
         <v>60</v>
@@ -3882,19 +3882,19 @@
       </c>
       <c r="D15" s="12"/>
       <c r="E15" s="12" t="n">
-        <v>1818</v>
+        <v>1734</v>
       </c>
       <c r="F15" s="12" t="n">
-        <v>1734</v>
+        <v>1876</v>
       </c>
       <c r="G15" s="12" t="n">
-        <v>1876</v>
+        <v>1879</v>
       </c>
       <c r="H15" s="12" t="n">
-        <v>1879</v>
+        <v>1885</v>
       </c>
       <c r="I15" s="12" t="n">
-        <v>1885</v>
+        <v>1891</v>
       </c>
       <c r="J15" s="12" t="n">
         <v>1891</v>
@@ -3903,79 +3903,79 @@
         <v>1891</v>
       </c>
       <c r="L15" s="12" t="n">
-        <v>1891</v>
+        <v>1830</v>
       </c>
       <c r="M15" s="12" t="n">
-        <v>1830</v>
+        <v>1822</v>
       </c>
       <c r="N15" s="12" t="n">
-        <v>1822</v>
+        <v>1706</v>
       </c>
       <c r="O15" s="12" t="n">
-        <v>1706</v>
+        <v>1218</v>
       </c>
       <c r="P15" s="12" t="n">
-        <v>1218</v>
+        <v>509</v>
       </c>
       <c r="Q15" s="12" t="n">
-        <v>509</v>
+        <v>1235</v>
       </c>
       <c r="R15" s="12" t="n">
-        <v>1235</v>
+        <v>1175</v>
       </c>
       <c r="S15" s="12" t="n">
-        <v>1175</v>
+        <v>1791</v>
       </c>
       <c r="T15" s="12" t="n">
-        <v>1791</v>
+        <v>589</v>
       </c>
       <c r="U15" s="12" t="n">
-        <v>589</v>
+        <v>1026</v>
       </c>
       <c r="V15" s="12" t="n">
-        <v>1026</v>
+        <v>1858</v>
       </c>
       <c r="W15" s="12" t="n">
-        <v>1858</v>
+        <v>1879</v>
       </c>
       <c r="X15" s="12" t="n">
-        <v>1879</v>
+        <v>1818</v>
       </c>
       <c r="Y15" s="12" t="n">
         <v>1818</v>
       </c>
       <c r="Z15" s="12" t="n">
-        <v>1818</v>
+        <v>1808</v>
       </c>
       <c r="AA15" s="12" t="n">
-        <v>1808</v>
+        <v>951</v>
       </c>
       <c r="AB15" s="12" t="n">
-        <v>951</v>
+        <v>981</v>
       </c>
       <c r="AC15" s="12" t="n">
-        <v>981</v>
+        <v>1804</v>
       </c>
       <c r="AD15" s="12" t="n">
-        <v>1804</v>
+        <v>1881</v>
       </c>
       <c r="AE15" s="12" t="n">
-        <v>1881</v>
+        <v>1879</v>
       </c>
       <c r="AF15" s="12" t="n">
+        <v>1878</v>
+      </c>
+      <c r="AG15" s="12" t="n">
         <v>1879</v>
-      </c>
-      <c r="AG15" s="12" t="n">
-        <v>1878</v>
       </c>
       <c r="AH15" s="12" t="n">
         <v>1879</v>
       </c>
       <c r="AI15" s="12" t="n">
-        <v>1879</v>
+        <v>1803</v>
       </c>
       <c r="AJ15" s="12" t="n">
-        <v>1803</v>
+        <v>1818</v>
       </c>
       <c r="AK15" s="12" t="n">
         <v>1818</v>
@@ -3984,52 +3984,52 @@
         <v>1818</v>
       </c>
       <c r="AM15" s="12" t="n">
-        <v>1818</v>
+        <v>1576</v>
       </c>
       <c r="AN15" s="12" t="n">
-        <v>1576</v>
+        <v>0</v>
       </c>
       <c r="AO15" s="12" t="n">
-        <v>0</v>
+        <v>1434</v>
       </c>
       <c r="AP15" s="12" t="n">
-        <v>1434</v>
+        <v>1879</v>
       </c>
       <c r="AQ15" s="12" t="n">
         <v>1879</v>
       </c>
       <c r="AR15" s="12" t="n">
+        <v>1697</v>
+      </c>
+      <c r="AS15" s="12" t="n">
         <v>1879</v>
-      </c>
-      <c r="AS15" s="12" t="n">
-        <v>1697</v>
       </c>
       <c r="AT15" s="12" t="n">
         <v>1879</v>
       </c>
       <c r="AU15" s="12" t="n">
+        <v>1880</v>
+      </c>
+      <c r="AV15" s="12" t="n">
+        <v>787</v>
+      </c>
+      <c r="AW15" s="12" t="n">
+        <v>1818</v>
+      </c>
+      <c r="AX15" s="12" t="n">
+        <v>888</v>
+      </c>
+      <c r="AY15" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ15" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA15" s="12" t="n">
+        <v>912</v>
+      </c>
+      <c r="BB15" s="12" t="n">
         <v>1879</v>
-      </c>
-      <c r="AV15" s="12" t="n">
-        <v>1880</v>
-      </c>
-      <c r="AW15" s="12" t="n">
-        <v>787</v>
-      </c>
-      <c r="AX15" s="12" t="n">
-        <v>1818</v>
-      </c>
-      <c r="AY15" s="12" t="n">
-        <v>888</v>
-      </c>
-      <c r="AZ15" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA15" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB15" s="12" t="n">
-        <v>912</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4082,8 +4082,8 @@
       <c r="R16" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="S16" s="15" t="s">
-        <v>60</v>
+      <c r="S16" s="15" t="n">
+        <v>0</v>
       </c>
       <c r="T16" s="15" t="n">
         <v>0</v>
@@ -4115,8 +4115,8 @@
       <c r="AC16" s="15" t="n">
         <v>0</v>
       </c>
-      <c r="AD16" s="15" t="n">
-        <v>0</v>
+      <c r="AD16" s="15" t="s">
+        <v>60</v>
       </c>
       <c r="AE16" s="15" t="s">
         <v>60</v>
@@ -4238,14 +4238,14 @@
       <c r="Q17" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="R17" s="16" t="s">
-        <v>60</v>
+      <c r="R17" s="16" t="n">
+        <v>0</v>
       </c>
       <c r="S17" s="16" t="n">
         <v>0</v>
       </c>
-      <c r="T17" s="16" t="n">
-        <v>0</v>
+      <c r="T17" s="16" t="s">
+        <v>60</v>
       </c>
       <c r="U17" s="16" t="s">
         <v>60</v>
@@ -4310,8 +4310,8 @@
       <c r="AO17" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="AP17" s="16" t="s">
-        <v>60</v>
+      <c r="AP17" s="16" t="n">
+        <v>0</v>
       </c>
       <c r="AQ17" s="16" t="n">
         <v>0</v>
@@ -4359,154 +4359,154 @@
       </c>
       <c r="D18" s="15"/>
       <c r="E18" s="15" t="n">
-        <v>26188</v>
+        <v>25554</v>
       </c>
       <c r="F18" s="15" t="n">
-        <v>25554</v>
+        <v>27296</v>
       </c>
       <c r="G18" s="15" t="n">
-        <v>27296</v>
+        <v>27239</v>
       </c>
       <c r="H18" s="15" t="n">
-        <v>27239</v>
+        <v>27250</v>
       </c>
       <c r="I18" s="15" t="n">
-        <v>27250</v>
+        <v>27151</v>
       </c>
       <c r="J18" s="15" t="n">
-        <v>27151</v>
+        <v>27154</v>
       </c>
       <c r="K18" s="15" t="n">
-        <v>27154</v>
+        <v>27259</v>
       </c>
       <c r="L18" s="15" t="n">
-        <v>27259</v>
+        <v>26329</v>
       </c>
       <c r="M18" s="15" t="n">
-        <v>26329</v>
+        <v>26072</v>
       </c>
       <c r="N18" s="15" t="n">
-        <v>26072</v>
+        <v>24872</v>
       </c>
       <c r="O18" s="15" t="n">
-        <v>24872</v>
+        <v>18610</v>
       </c>
       <c r="P18" s="15" t="n">
-        <v>18610</v>
+        <v>10907</v>
       </c>
       <c r="Q18" s="15" t="n">
-        <v>10907</v>
+        <v>21178</v>
       </c>
       <c r="R18" s="15" t="n">
-        <v>21178</v>
+        <v>20726</v>
       </c>
       <c r="S18" s="15" t="n">
-        <v>20726</v>
+        <v>24038</v>
       </c>
       <c r="T18" s="15" t="n">
-        <v>24038</v>
+        <v>7920</v>
       </c>
       <c r="U18" s="15" t="n">
-        <v>7920</v>
+        <v>16402</v>
       </c>
       <c r="V18" s="15" t="n">
-        <v>16402</v>
+        <v>27179</v>
       </c>
       <c r="W18" s="15" t="n">
-        <v>27179</v>
+        <v>27207</v>
       </c>
       <c r="X18" s="15" t="n">
-        <v>27207</v>
+        <v>26204</v>
       </c>
       <c r="Y18" s="15" t="n">
-        <v>26204</v>
+        <v>26181</v>
       </c>
       <c r="Z18" s="15" t="n">
-        <v>26181</v>
+        <v>25679</v>
       </c>
       <c r="AA18" s="15" t="n">
-        <v>25679</v>
+        <v>13270</v>
       </c>
       <c r="AB18" s="15" t="n">
-        <v>13270</v>
+        <v>14863</v>
       </c>
       <c r="AC18" s="15" t="n">
-        <v>14863</v>
+        <v>25947</v>
       </c>
       <c r="AD18" s="15" t="n">
-        <v>25947</v>
+        <v>27097</v>
       </c>
       <c r="AE18" s="15" t="n">
-        <v>27097</v>
+        <v>27075</v>
       </c>
       <c r="AF18" s="15" t="n">
-        <v>27075</v>
+        <v>27096</v>
       </c>
       <c r="AG18" s="15" t="n">
-        <v>27096</v>
+        <v>27199</v>
       </c>
       <c r="AH18" s="15" t="n">
-        <v>27199</v>
+        <v>27242</v>
       </c>
       <c r="AI18" s="15" t="n">
-        <v>27242</v>
+        <v>25376</v>
       </c>
       <c r="AJ18" s="15" t="n">
-        <v>25376</v>
+        <v>26327</v>
       </c>
       <c r="AK18" s="15" t="n">
-        <v>26327</v>
+        <v>26286</v>
       </c>
       <c r="AL18" s="15" t="n">
-        <v>26286</v>
+        <v>26277</v>
       </c>
       <c r="AM18" s="15" t="n">
-        <v>26277</v>
+        <v>23636</v>
       </c>
       <c r="AN18" s="15" t="n">
-        <v>23636</v>
+        <v>3365</v>
       </c>
       <c r="AO18" s="15" t="n">
-        <v>3365</v>
+        <v>24208</v>
       </c>
       <c r="AP18" s="15" t="n">
-        <v>24208</v>
+        <v>27054</v>
       </c>
       <c r="AQ18" s="15" t="n">
-        <v>27054</v>
+        <v>27039</v>
       </c>
       <c r="AR18" s="15" t="n">
-        <v>27039</v>
+        <v>27040</v>
       </c>
       <c r="AS18" s="15" t="n">
-        <v>27040</v>
+        <v>26985</v>
       </c>
       <c r="AT18" s="15" t="n">
-        <v>26985</v>
+        <v>27032</v>
       </c>
       <c r="AU18" s="15" t="n">
-        <v>27032</v>
+        <v>27152</v>
       </c>
       <c r="AV18" s="15" t="n">
-        <v>27152</v>
+        <v>27000</v>
       </c>
       <c r="AW18" s="15" t="n">
-        <v>27000</v>
+        <v>26330</v>
       </c>
       <c r="AX18" s="15" t="n">
-        <v>26330</v>
+        <v>23462</v>
       </c>
       <c r="AY18" s="15" t="n">
-        <v>23462</v>
+        <v>11923</v>
       </c>
       <c r="AZ18" s="15" t="n">
-        <v>11923</v>
+        <v>0</v>
       </c>
       <c r="BA18" s="15" t="n">
-        <v>0</v>
+        <v>16794</v>
       </c>
       <c r="BB18" s="15" t="n">
-        <v>16794</v>
+        <v>27148</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4518,154 +4518,154 @@
       </c>
       <c r="D19" s="16"/>
       <c r="E19" s="16" t="n">
-        <v>5853</v>
+        <v>5557</v>
       </c>
       <c r="F19" s="16" t="n">
-        <v>5557</v>
+        <v>6032</v>
       </c>
       <c r="G19" s="16" t="n">
-        <v>6032</v>
+        <v>6056</v>
       </c>
       <c r="H19" s="16" t="n">
-        <v>6056</v>
+        <v>6064</v>
       </c>
       <c r="I19" s="16" t="n">
-        <v>6064</v>
+        <v>6019</v>
       </c>
       <c r="J19" s="16" t="n">
-        <v>6019</v>
+        <v>5992</v>
       </c>
       <c r="K19" s="16" t="n">
-        <v>5992</v>
+        <v>6036</v>
       </c>
       <c r="L19" s="16" t="n">
-        <v>6036</v>
+        <v>5858</v>
       </c>
       <c r="M19" s="16" t="n">
-        <v>5858</v>
+        <v>5801</v>
       </c>
       <c r="N19" s="16" t="n">
-        <v>5801</v>
+        <v>5438</v>
       </c>
       <c r="O19" s="16" t="n">
-        <v>5438</v>
+        <v>3902</v>
       </c>
       <c r="P19" s="16" t="n">
-        <v>3902</v>
+        <v>1783</v>
       </c>
       <c r="Q19" s="16" t="n">
-        <v>1783</v>
+        <v>4002</v>
       </c>
       <c r="R19" s="16" t="n">
-        <v>4002</v>
+        <v>3795</v>
       </c>
       <c r="S19" s="16" t="n">
-        <v>3795</v>
+        <v>5666</v>
       </c>
       <c r="T19" s="16" t="n">
-        <v>5666</v>
+        <v>1800</v>
       </c>
       <c r="U19" s="16" t="n">
-        <v>1800</v>
+        <v>3377</v>
       </c>
       <c r="V19" s="16" t="n">
-        <v>3377</v>
+        <v>5983</v>
       </c>
       <c r="W19" s="16" t="n">
-        <v>5983</v>
+        <v>6033</v>
       </c>
       <c r="X19" s="16" t="n">
-        <v>6033</v>
+        <v>5844</v>
       </c>
       <c r="Y19" s="16" t="n">
         <v>5844</v>
       </c>
       <c r="Z19" s="16" t="n">
-        <v>5844</v>
+        <v>5739</v>
       </c>
       <c r="AA19" s="16" t="n">
-        <v>5739</v>
+        <v>2958</v>
       </c>
       <c r="AB19" s="16" t="n">
-        <v>2958</v>
+        <v>3220</v>
       </c>
       <c r="AC19" s="16" t="n">
-        <v>3220</v>
+        <v>5740</v>
       </c>
       <c r="AD19" s="16" t="n">
-        <v>5740</v>
+        <v>6076</v>
       </c>
       <c r="AE19" s="16" t="n">
-        <v>6076</v>
+        <v>6078</v>
       </c>
       <c r="AF19" s="16" t="n">
-        <v>6078</v>
+        <v>6087</v>
       </c>
       <c r="AG19" s="16" t="n">
-        <v>6087</v>
+        <v>5985</v>
       </c>
       <c r="AH19" s="16" t="n">
-        <v>5985</v>
+        <v>5980</v>
       </c>
       <c r="AI19" s="16" t="n">
-        <v>5980</v>
+        <v>5745</v>
       </c>
       <c r="AJ19" s="16" t="n">
-        <v>5745</v>
+        <v>5820</v>
       </c>
       <c r="AK19" s="16" t="n">
-        <v>5820</v>
+        <v>5814</v>
       </c>
       <c r="AL19" s="16" t="n">
-        <v>5814</v>
+        <v>5822</v>
       </c>
       <c r="AM19" s="16" t="n">
-        <v>5822</v>
+        <v>5051</v>
       </c>
       <c r="AN19" s="16" t="n">
-        <v>5051</v>
+        <v>0</v>
       </c>
       <c r="AO19" s="16" t="n">
-        <v>0</v>
+        <v>4566</v>
       </c>
       <c r="AP19" s="16" t="n">
-        <v>4566</v>
+        <v>6049</v>
       </c>
       <c r="AQ19" s="16" t="n">
-        <v>6049</v>
+        <v>6043</v>
       </c>
       <c r="AR19" s="16" t="n">
-        <v>6043</v>
+        <v>5427</v>
       </c>
       <c r="AS19" s="16" t="n">
-        <v>5427</v>
+        <v>6002</v>
       </c>
       <c r="AT19" s="16" t="n">
-        <v>6002</v>
+        <v>6033</v>
       </c>
       <c r="AU19" s="16" t="n">
-        <v>6033</v>
+        <v>6066</v>
       </c>
       <c r="AV19" s="16" t="n">
-        <v>6066</v>
+        <v>2698</v>
       </c>
       <c r="AW19" s="16" t="n">
-        <v>2698</v>
+        <v>5862</v>
       </c>
       <c r="AX19" s="16" t="n">
-        <v>5862</v>
+        <v>2897</v>
       </c>
       <c r="AY19" s="16" t="n">
-        <v>2897</v>
+        <v>0</v>
       </c>
       <c r="AZ19" s="16" t="n">
         <v>0</v>
       </c>
       <c r="BA19" s="16" t="n">
-        <v>0</v>
+        <v>2954</v>
       </c>
       <c r="BB19" s="16" t="n">
-        <v>2954</v>
+        <v>6117</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4677,154 +4677,154 @@
       </c>
       <c r="D20" s="15"/>
       <c r="E20" s="15" t="n">
-        <v>1412</v>
+        <v>1338</v>
       </c>
       <c r="F20" s="15" t="n">
-        <v>1338</v>
+        <v>1416</v>
       </c>
       <c r="G20" s="15" t="n">
-        <v>1416</v>
+        <v>1442</v>
       </c>
       <c r="H20" s="15" t="n">
         <v>1442</v>
       </c>
       <c r="I20" s="15" t="n">
-        <v>1442</v>
+        <v>1429</v>
       </c>
       <c r="J20" s="15" t="n">
-        <v>1429</v>
+        <v>1457</v>
       </c>
       <c r="K20" s="15" t="n">
-        <v>1457</v>
+        <v>1430</v>
       </c>
       <c r="L20" s="15" t="n">
-        <v>1430</v>
+        <v>1426</v>
       </c>
       <c r="M20" s="15" t="n">
-        <v>1426</v>
+        <v>1433</v>
       </c>
       <c r="N20" s="15" t="n">
-        <v>1433</v>
+        <v>1407</v>
       </c>
       <c r="O20" s="15" t="n">
+        <v>988</v>
+      </c>
+      <c r="P20" s="15" t="n">
+        <v>677</v>
+      </c>
+      <c r="Q20" s="15" t="n">
+        <v>1238</v>
+      </c>
+      <c r="R20" s="15" t="n">
+        <v>1183</v>
+      </c>
+      <c r="S20" s="15" t="n">
         <v>1407</v>
       </c>
-      <c r="P20" s="15" t="n">
-        <v>988</v>
-      </c>
-      <c r="Q20" s="15" t="n">
-        <v>677</v>
-      </c>
-      <c r="R20" s="15" t="n">
-        <v>1238</v>
-      </c>
-      <c r="S20" s="15" t="n">
-        <v>1183</v>
-      </c>
       <c r="T20" s="15" t="n">
-        <v>1407</v>
+        <v>512</v>
       </c>
       <c r="U20" s="15" t="n">
-        <v>512</v>
+        <v>857</v>
       </c>
       <c r="V20" s="15" t="n">
-        <v>857</v>
+        <v>1360</v>
       </c>
       <c r="W20" s="15" t="n">
-        <v>1360</v>
+        <v>1395</v>
       </c>
       <c r="X20" s="15" t="n">
-        <v>1395</v>
+        <v>1356</v>
       </c>
       <c r="Y20" s="15" t="n">
-        <v>1356</v>
+        <v>1367</v>
       </c>
       <c r="Z20" s="15" t="n">
-        <v>1367</v>
+        <v>1403</v>
       </c>
       <c r="AA20" s="15" t="n">
-        <v>1403</v>
+        <v>977</v>
       </c>
       <c r="AB20" s="15" t="n">
-        <v>977</v>
+        <v>806</v>
       </c>
       <c r="AC20" s="15" t="n">
-        <v>806</v>
+        <v>1334</v>
       </c>
       <c r="AD20" s="15" t="n">
-        <v>1334</v>
+        <v>1397</v>
       </c>
       <c r="AE20" s="15" t="n">
-        <v>1397</v>
+        <v>1412</v>
       </c>
       <c r="AF20" s="15" t="n">
-        <v>1412</v>
+        <v>1420</v>
       </c>
       <c r="AG20" s="15" t="n">
-        <v>1420</v>
+        <v>1346</v>
       </c>
       <c r="AH20" s="15" t="n">
-        <v>1346</v>
+        <v>1332</v>
       </c>
       <c r="AI20" s="15" t="n">
-        <v>1332</v>
+        <v>1316</v>
       </c>
       <c r="AJ20" s="15" t="n">
-        <v>1316</v>
+        <v>1289</v>
       </c>
       <c r="AK20" s="15" t="n">
-        <v>1289</v>
+        <v>1345</v>
       </c>
       <c r="AL20" s="15" t="n">
-        <v>1345</v>
+        <v>1355</v>
       </c>
       <c r="AM20" s="15" t="n">
-        <v>1355</v>
+        <v>1272</v>
       </c>
       <c r="AN20" s="15" t="n">
-        <v>1272</v>
+        <v>0</v>
       </c>
       <c r="AO20" s="15" t="n">
-        <v>0</v>
+        <v>1205</v>
       </c>
       <c r="AP20" s="15" t="n">
-        <v>1205</v>
+        <v>1341</v>
       </c>
       <c r="AQ20" s="15" t="n">
-        <v>1341</v>
+        <v>1350</v>
       </c>
       <c r="AR20" s="15" t="n">
+        <v>1331</v>
+      </c>
+      <c r="AS20" s="15" t="n">
+        <v>1366</v>
+      </c>
+      <c r="AT20" s="15" t="n">
+        <v>1380</v>
+      </c>
+      <c r="AU20" s="15" t="n">
         <v>1350</v>
       </c>
-      <c r="AS20" s="15" t="n">
-        <v>1331</v>
-      </c>
-      <c r="AT20" s="15" t="n">
-        <v>1366</v>
-      </c>
-      <c r="AU20" s="15" t="n">
-        <v>1380</v>
-      </c>
       <c r="AV20" s="15" t="n">
-        <v>1350</v>
+        <v>762</v>
       </c>
       <c r="AW20" s="15" t="n">
-        <v>762</v>
+        <v>1260</v>
       </c>
       <c r="AX20" s="15" t="n">
-        <v>1260</v>
+        <v>757</v>
       </c>
       <c r="AY20" s="15" t="n">
-        <v>757</v>
+        <v>0</v>
       </c>
       <c r="AZ20" s="15" t="n">
         <v>0</v>
       </c>
       <c r="BA20" s="15" t="n">
-        <v>0</v>
+        <v>779</v>
       </c>
       <c r="BB20" s="15" t="n">
-        <v>779</v>
+        <v>1302</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4874,14 +4874,14 @@
       <c r="Q21" s="16" t="n">
         <v>0</v>
       </c>
-      <c r="R21" s="16" t="n">
-        <v>0</v>
+      <c r="R21" s="16" t="s">
+        <v>60</v>
       </c>
       <c r="S21" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="T21" s="16" t="s">
-        <v>60</v>
+      <c r="T21" s="16" t="n">
+        <v>0</v>
       </c>
       <c r="U21" s="16" t="n">
         <v>0</v>
@@ -4910,8 +4910,8 @@
       <c r="AC21" s="16" t="n">
         <v>0</v>
       </c>
-      <c r="AD21" s="16" t="n">
-        <v>0</v>
+      <c r="AD21" s="16" t="s">
+        <v>60</v>
       </c>
       <c r="AE21" s="16" t="s">
         <v>60</v>
@@ -5033,14 +5033,14 @@
       <c r="Q22" s="15" t="n">
         <v>0</v>
       </c>
-      <c r="R22" s="15" t="n">
-        <v>0</v>
+      <c r="R22" s="15" t="s">
+        <v>60</v>
       </c>
       <c r="S22" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="T22" s="15" t="s">
-        <v>60</v>
+      <c r="T22" s="15" t="n">
+        <v>0</v>
       </c>
       <c r="U22" s="15" t="n">
         <v>0</v>
@@ -5105,8 +5105,8 @@
       <c r="AO22" s="15" t="n">
         <v>0</v>
       </c>
-      <c r="AP22" s="15" t="n">
-        <v>0</v>
+      <c r="AP22" s="15" t="s">
+        <v>60</v>
       </c>
       <c r="AQ22" s="15" t="s">
         <v>60</v>
@@ -5351,14 +5351,14 @@
       <c r="Q24" s="15" t="n">
         <v>0</v>
       </c>
-      <c r="R24" s="15" t="n">
-        <v>0</v>
+      <c r="R24" s="15" t="s">
+        <v>60</v>
       </c>
       <c r="S24" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="T24" s="15" t="s">
-        <v>60</v>
+      <c r="T24" s="15" t="n">
+        <v>0</v>
       </c>
       <c r="U24" s="15" t="n">
         <v>0</v>
@@ -5423,8 +5423,8 @@
       <c r="AO24" s="15" t="n">
         <v>0</v>
       </c>
-      <c r="AP24" s="15" t="n">
-        <v>0</v>
+      <c r="AP24" s="15" t="s">
+        <v>60</v>
       </c>
       <c r="AQ24" s="15" t="s">
         <v>60</v>
@@ -5510,14 +5510,14 @@
       <c r="Q25" s="16" t="n">
         <v>0</v>
       </c>
-      <c r="R25" s="16" t="n">
-        <v>0</v>
+      <c r="R25" s="16" t="s">
+        <v>60</v>
       </c>
       <c r="S25" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="T25" s="16" t="s">
-        <v>60</v>
+      <c r="T25" s="16" t="n">
+        <v>0</v>
       </c>
       <c r="U25" s="16" t="n">
         <v>0</v>
@@ -5546,8 +5546,8 @@
       <c r="AC25" s="16" t="n">
         <v>0</v>
       </c>
-      <c r="AD25" s="16" t="n">
-        <v>0</v>
+      <c r="AD25" s="16" t="s">
+        <v>60</v>
       </c>
       <c r="AE25" s="16" t="s">
         <v>60</v>
@@ -5730,8 +5730,8 @@
       <c r="S27" s="20" t="s">
         <v>60</v>
       </c>
-      <c r="T27" s="20" t="s">
-        <v>60</v>
+      <c r="T27" s="20" t="n">
+        <v>0</v>
       </c>
       <c r="U27" s="20" t="n">
         <v>0</v>
@@ -5843,154 +5843,154 @@
       <c r="C28" s="22"/>
       <c r="D28" s="22"/>
       <c r="E28" s="22" t="n">
-        <v>116390</v>
+        <v>113133</v>
       </c>
       <c r="F28" s="22" t="n">
-        <v>113133</v>
+        <v>121247</v>
       </c>
       <c r="G28" s="22" t="n">
-        <v>121247</v>
+        <v>121336</v>
       </c>
       <c r="H28" s="22" t="n">
-        <v>121336</v>
+        <v>121357</v>
       </c>
       <c r="I28" s="22" t="n">
-        <v>121357</v>
+        <v>121093</v>
       </c>
       <c r="J28" s="22" t="n">
-        <v>121093</v>
+        <v>121022</v>
       </c>
       <c r="K28" s="22" t="n">
-        <v>121022</v>
+        <v>121171</v>
       </c>
       <c r="L28" s="22" t="n">
-        <v>121171</v>
+        <v>117290</v>
       </c>
       <c r="M28" s="22" t="n">
-        <v>117290</v>
+        <v>115785</v>
       </c>
       <c r="N28" s="22" t="n">
-        <v>115785</v>
+        <v>109914</v>
       </c>
       <c r="O28" s="22" t="n">
-        <v>109914</v>
+        <v>85668</v>
       </c>
       <c r="P28" s="22" t="n">
-        <v>85668</v>
+        <v>44607</v>
       </c>
       <c r="Q28" s="22" t="n">
-        <v>44607</v>
+        <v>87865</v>
       </c>
       <c r="R28" s="22" t="n">
-        <v>87865</v>
+        <v>88919</v>
       </c>
       <c r="S28" s="22" t="n">
-        <v>88919</v>
+        <v>105586</v>
       </c>
       <c r="T28" s="22" t="n">
-        <v>105586</v>
+        <v>34972</v>
       </c>
       <c r="U28" s="22" t="n">
-        <v>34972</v>
+        <v>72923</v>
       </c>
       <c r="V28" s="22" t="n">
-        <v>72923</v>
+        <v>120974</v>
       </c>
       <c r="W28" s="22" t="n">
-        <v>120974</v>
+        <v>121050</v>
       </c>
       <c r="X28" s="22" t="n">
-        <v>121050</v>
+        <v>116586</v>
       </c>
       <c r="Y28" s="22" t="n">
-        <v>116586</v>
+        <v>116652</v>
       </c>
       <c r="Z28" s="22" t="n">
-        <v>116652</v>
+        <v>114595</v>
       </c>
       <c r="AA28" s="22" t="n">
-        <v>114595</v>
+        <v>59733</v>
       </c>
       <c r="AB28" s="22" t="n">
-        <v>59733</v>
+        <v>62094</v>
       </c>
       <c r="AC28" s="22" t="n">
-        <v>62094</v>
+        <v>114880</v>
       </c>
       <c r="AD28" s="22" t="n">
-        <v>114880</v>
+        <v>120590</v>
       </c>
       <c r="AE28" s="22" t="n">
-        <v>120590</v>
+        <v>120594</v>
       </c>
       <c r="AF28" s="22" t="n">
-        <v>120594</v>
+        <v>119778</v>
       </c>
       <c r="AG28" s="22" t="n">
-        <v>119778</v>
+        <v>120455</v>
       </c>
       <c r="AH28" s="22" t="n">
-        <v>120455</v>
+        <v>120506</v>
       </c>
       <c r="AI28" s="22" t="n">
-        <v>120506</v>
+        <v>114844</v>
       </c>
       <c r="AJ28" s="22" t="n">
-        <v>114844</v>
+        <v>116658</v>
       </c>
       <c r="AK28" s="22" t="n">
-        <v>116658</v>
+        <v>116629</v>
       </c>
       <c r="AL28" s="22" t="n">
-        <v>116629</v>
+        <v>116620</v>
       </c>
       <c r="AM28" s="22" t="n">
-        <v>116620</v>
+        <v>104475</v>
       </c>
       <c r="AN28" s="22" t="n">
-        <v>104475</v>
+        <v>12052</v>
       </c>
       <c r="AO28" s="22" t="n">
-        <v>12052</v>
+        <v>106611</v>
       </c>
       <c r="AP28" s="22" t="n">
-        <v>106611</v>
+        <v>120206</v>
       </c>
       <c r="AQ28" s="22" t="n">
-        <v>120206</v>
+        <v>120219</v>
       </c>
       <c r="AR28" s="22" t="n">
-        <v>120219</v>
+        <v>119239</v>
       </c>
       <c r="AS28" s="22" t="n">
-        <v>119239</v>
+        <v>120095</v>
       </c>
       <c r="AT28" s="22" t="n">
-        <v>120095</v>
+        <v>120200</v>
       </c>
       <c r="AU28" s="22" t="n">
-        <v>120200</v>
+        <v>120458</v>
       </c>
       <c r="AV28" s="22" t="n">
-        <v>120458</v>
+        <v>111172</v>
       </c>
       <c r="AW28" s="22" t="n">
-        <v>111172</v>
+        <v>116134</v>
       </c>
       <c r="AX28" s="22" t="n">
-        <v>116134</v>
+        <v>98182</v>
       </c>
       <c r="AY28" s="22" t="n">
-        <v>98182</v>
+        <v>45364</v>
       </c>
       <c r="AZ28" s="22" t="n">
-        <v>45364</v>
+        <v>0</v>
       </c>
       <c r="BA28" s="22" t="n">
-        <v>0</v>
+        <v>75255</v>
       </c>
       <c r="BB28" s="22" t="n">
-        <v>75255</v>
+        <v>120664</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6475,13 +6475,13 @@
         <v>0</v>
       </c>
       <c r="R35" s="16" t="n">
-        <v>0</v>
+        <v>12044</v>
       </c>
       <c r="S35" s="16" t="n">
-        <v>12044</v>
+        <v>44146</v>
       </c>
       <c r="T35" s="16" t="n">
-        <v>44146</v>
+        <v>0</v>
       </c>
       <c r="U35" s="16" t="n">
         <v>0</v>
@@ -6511,79 +6511,79 @@
         <v>0</v>
       </c>
       <c r="AD35" s="16" t="n">
-        <v>0</v>
+        <v>10772</v>
       </c>
       <c r="AE35" s="16" t="n">
-        <v>10772</v>
+        <v>11744</v>
       </c>
       <c r="AF35" s="16" t="n">
-        <v>11744</v>
+        <v>28965</v>
       </c>
       <c r="AG35" s="16" t="n">
-        <v>28965</v>
+        <v>31368</v>
       </c>
       <c r="AH35" s="16" t="n">
-        <v>31368</v>
+        <v>16854</v>
       </c>
       <c r="AI35" s="16" t="n">
-        <v>16854</v>
+        <v>43079</v>
       </c>
       <c r="AJ35" s="16" t="n">
-        <v>43079</v>
+        <v>31384</v>
       </c>
       <c r="AK35" s="16" t="n">
-        <v>31384</v>
+        <v>13733</v>
       </c>
       <c r="AL35" s="16" t="n">
-        <v>13733</v>
+        <v>33445</v>
       </c>
       <c r="AM35" s="16" t="n">
-        <v>33445</v>
+        <v>3346</v>
       </c>
       <c r="AN35" s="16" t="n">
-        <v>3346</v>
+        <v>6378</v>
       </c>
       <c r="AO35" s="16" t="n">
-        <v>6378</v>
+        <v>25855</v>
       </c>
       <c r="AP35" s="16" t="n">
-        <v>25855</v>
+        <v>11734</v>
       </c>
       <c r="AQ35" s="16" t="n">
-        <v>11734</v>
+        <v>11847</v>
       </c>
       <c r="AR35" s="16" t="n">
-        <v>11847</v>
+        <v>40787</v>
       </c>
       <c r="AS35" s="16" t="n">
-        <v>40787</v>
+        <v>38770</v>
       </c>
       <c r="AT35" s="16" t="n">
-        <v>38770</v>
+        <v>77842</v>
       </c>
       <c r="AU35" s="16" t="n">
-        <v>77842</v>
+        <v>26739</v>
       </c>
       <c r="AV35" s="16" t="n">
-        <v>26739</v>
+        <v>30565</v>
       </c>
       <c r="AW35" s="16" t="n">
-        <v>30565</v>
+        <v>22900</v>
       </c>
       <c r="AX35" s="16" t="n">
-        <v>22900</v>
+        <v>19039</v>
       </c>
       <c r="AY35" s="16" t="n">
-        <v>19039</v>
+        <v>28919</v>
       </c>
       <c r="AZ35" s="16" t="n">
-        <v>28919</v>
+        <v>20688</v>
       </c>
       <c r="BA35" s="16" t="n">
-        <v>20688</v>
+        <v>42038</v>
       </c>
       <c r="BB35" s="16" t="n">
-        <v>42038</v>
+        <v>19834</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6670,79 +6670,79 @@
         <v>0</v>
       </c>
       <c r="AD36" s="15" t="n">
-        <v>0</v>
+        <v>263</v>
       </c>
       <c r="AE36" s="15" t="n">
-        <v>263</v>
+        <v>180</v>
       </c>
       <c r="AF36" s="15" t="n">
-        <v>180</v>
+        <v>218</v>
       </c>
       <c r="AG36" s="15" t="n">
-        <v>218</v>
+        <v>119</v>
       </c>
       <c r="AH36" s="15" t="n">
-        <v>119</v>
+        <v>0</v>
       </c>
       <c r="AI36" s="15" t="n">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="AJ36" s="15" t="n">
-        <v>39</v>
+        <v>197</v>
       </c>
       <c r="AK36" s="15" t="n">
-        <v>197</v>
+        <v>858</v>
       </c>
       <c r="AL36" s="15" t="n">
-        <v>858</v>
+        <v>1265</v>
       </c>
       <c r="AM36" s="15" t="n">
-        <v>1265</v>
+        <v>1315</v>
       </c>
       <c r="AN36" s="15" t="n">
-        <v>1315</v>
+        <v>278</v>
       </c>
       <c r="AO36" s="15" t="n">
-        <v>278</v>
+        <v>80</v>
       </c>
       <c r="AP36" s="15" t="n">
-        <v>80</v>
+        <v>1449</v>
       </c>
       <c r="AQ36" s="15" t="n">
-        <v>1449</v>
+        <v>2214</v>
       </c>
       <c r="AR36" s="15" t="n">
-        <v>2214</v>
+        <v>2569</v>
       </c>
       <c r="AS36" s="15" t="n">
-        <v>2569</v>
+        <v>2294</v>
       </c>
       <c r="AT36" s="15" t="n">
-        <v>2294</v>
+        <v>3097</v>
       </c>
       <c r="AU36" s="15" t="n">
-        <v>3097</v>
+        <v>3751</v>
       </c>
       <c r="AV36" s="15" t="n">
-        <v>3751</v>
+        <v>4159</v>
       </c>
       <c r="AW36" s="15" t="n">
-        <v>4159</v>
+        <v>3758</v>
       </c>
       <c r="AX36" s="15" t="n">
-        <v>3758</v>
+        <v>1897</v>
       </c>
       <c r="AY36" s="15" t="n">
-        <v>1897</v>
+        <v>1294</v>
       </c>
       <c r="AZ36" s="15" t="n">
-        <v>1294</v>
+        <v>0</v>
       </c>
       <c r="BA36" s="15" t="n">
-        <v>0</v>
+        <v>2149</v>
       </c>
       <c r="BB36" s="15" t="n">
-        <v>2149</v>
+        <v>2823</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6754,154 +6754,154 @@
       </c>
       <c r="D37" s="16"/>
       <c r="E37" s="16" t="n">
-        <v>3334</v>
+        <v>4397</v>
       </c>
       <c r="F37" s="16" t="n">
-        <v>4397</v>
+        <v>3554</v>
       </c>
       <c r="G37" s="16" t="n">
-        <v>3554</v>
+        <v>4881</v>
       </c>
       <c r="H37" s="16" t="n">
-        <v>4881</v>
+        <v>3954</v>
       </c>
       <c r="I37" s="16" t="n">
-        <v>3954</v>
+        <v>2403</v>
       </c>
       <c r="J37" s="16" t="n">
-        <v>2403</v>
+        <v>3721</v>
       </c>
       <c r="K37" s="16" t="n">
-        <v>3721</v>
+        <v>3236</v>
       </c>
       <c r="L37" s="16" t="n">
-        <v>3236</v>
+        <v>3315</v>
       </c>
       <c r="M37" s="16" t="n">
-        <v>3315</v>
+        <v>7335</v>
       </c>
       <c r="N37" s="16" t="n">
-        <v>7335</v>
+        <v>5347</v>
       </c>
       <c r="O37" s="16" t="n">
-        <v>5347</v>
+        <v>3601</v>
       </c>
       <c r="P37" s="16" t="n">
-        <v>3601</v>
+        <v>722</v>
       </c>
       <c r="Q37" s="16" t="n">
-        <v>722</v>
+        <v>360</v>
       </c>
       <c r="R37" s="16" t="n">
-        <v>360</v>
+        <v>460</v>
       </c>
       <c r="S37" s="16" t="n">
-        <v>460</v>
+        <v>1499</v>
       </c>
       <c r="T37" s="16" t="n">
-        <v>1499</v>
+        <v>827</v>
       </c>
       <c r="U37" s="16" t="n">
-        <v>827</v>
+        <v>1291</v>
       </c>
       <c r="V37" s="16" t="n">
-        <v>1291</v>
+        <v>4250</v>
       </c>
       <c r="W37" s="16" t="n">
-        <v>4250</v>
+        <v>3394</v>
       </c>
       <c r="X37" s="16" t="n">
-        <v>3394</v>
+        <v>1609</v>
       </c>
       <c r="Y37" s="16" t="n">
-        <v>1609</v>
+        <v>3248</v>
       </c>
       <c r="Z37" s="16" t="n">
-        <v>3248</v>
+        <v>2191</v>
       </c>
       <c r="AA37" s="16" t="n">
-        <v>2191</v>
+        <v>1030</v>
       </c>
       <c r="AB37" s="16" t="n">
-        <v>1030</v>
+        <v>591</v>
       </c>
       <c r="AC37" s="16" t="n">
-        <v>591</v>
+        <v>2746</v>
       </c>
       <c r="AD37" s="16" t="n">
-        <v>2746</v>
+        <v>2603</v>
       </c>
       <c r="AE37" s="16" t="n">
-        <v>2603</v>
+        <v>1579</v>
       </c>
       <c r="AF37" s="16" t="n">
-        <v>1579</v>
+        <v>913</v>
       </c>
       <c r="AG37" s="16" t="n">
-        <v>913</v>
+        <v>230</v>
       </c>
       <c r="AH37" s="16" t="n">
-        <v>230</v>
+        <v>1589</v>
       </c>
       <c r="AI37" s="16" t="n">
-        <v>1589</v>
+        <v>1755</v>
       </c>
       <c r="AJ37" s="16" t="n">
-        <v>1755</v>
+        <v>385</v>
       </c>
       <c r="AK37" s="16" t="n">
-        <v>385</v>
+        <v>1940</v>
       </c>
       <c r="AL37" s="16" t="n">
-        <v>1940</v>
+        <v>955</v>
       </c>
       <c r="AM37" s="16" t="n">
-        <v>955</v>
+        <v>430</v>
       </c>
       <c r="AN37" s="16" t="n">
-        <v>430</v>
+        <v>265</v>
       </c>
       <c r="AO37" s="16" t="n">
-        <v>265</v>
+        <v>474</v>
       </c>
       <c r="AP37" s="16" t="n">
-        <v>474</v>
+        <v>910</v>
       </c>
       <c r="AQ37" s="16" t="n">
-        <v>910</v>
+        <v>553</v>
       </c>
       <c r="AR37" s="16" t="n">
-        <v>553</v>
+        <v>296</v>
       </c>
       <c r="AS37" s="16" t="n">
-        <v>296</v>
+        <v>2975</v>
       </c>
       <c r="AT37" s="16" t="n">
-        <v>2975</v>
+        <v>920</v>
       </c>
       <c r="AU37" s="16" t="n">
-        <v>920</v>
+        <v>110</v>
       </c>
       <c r="AV37" s="16" t="n">
-        <v>110</v>
+        <v>1066</v>
       </c>
       <c r="AW37" s="16" t="n">
-        <v>1066</v>
+        <v>594</v>
       </c>
       <c r="AX37" s="16" t="n">
-        <v>594</v>
+        <v>4242</v>
       </c>
       <c r="AY37" s="16" t="n">
-        <v>4242</v>
+        <v>1927</v>
       </c>
       <c r="AZ37" s="16" t="n">
-        <v>1927</v>
+        <v>911</v>
       </c>
       <c r="BA37" s="16" t="n">
-        <v>911</v>
+        <v>1009</v>
       </c>
       <c r="BB37" s="16" t="n">
-        <v>1009</v>
+        <v>985</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6913,82 +6913,82 @@
       </c>
       <c r="D38" s="15"/>
       <c r="E38" s="15" t="n">
-        <v>35504</v>
+        <v>31575</v>
       </c>
       <c r="F38" s="15" t="n">
-        <v>31575</v>
+        <v>10253</v>
       </c>
       <c r="G38" s="15" t="n">
-        <v>10253</v>
+        <v>15388</v>
       </c>
       <c r="H38" s="15" t="n">
-        <v>15388</v>
+        <v>44718</v>
       </c>
       <c r="I38" s="15" t="n">
-        <v>44718</v>
+        <v>34852</v>
       </c>
       <c r="J38" s="15" t="n">
-        <v>34852</v>
+        <v>27926</v>
       </c>
       <c r="K38" s="15" t="n">
-        <v>27926</v>
+        <v>31680</v>
       </c>
       <c r="L38" s="15" t="n">
-        <v>31680</v>
+        <v>27241</v>
       </c>
       <c r="M38" s="15" t="n">
-        <v>27241</v>
+        <v>24236</v>
       </c>
       <c r="N38" s="15" t="n">
-        <v>24236</v>
+        <v>37692</v>
       </c>
       <c r="O38" s="15" t="n">
-        <v>37692</v>
+        <v>48917</v>
       </c>
       <c r="P38" s="15" t="n">
-        <v>48917</v>
+        <v>8861</v>
       </c>
       <c r="Q38" s="15" t="n">
-        <v>8861</v>
-      </c>
-      <c r="R38" s="15" t="n">
         <v>44470</v>
       </c>
+      <c r="R38" s="15" t="s">
+        <v>60</v>
+      </c>
       <c r="S38" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="T38" s="15" t="s">
-        <v>60</v>
+      <c r="T38" s="15" t="n">
+        <v>7613</v>
       </c>
       <c r="U38" s="15" t="n">
-        <v>7613</v>
+        <v>7621</v>
       </c>
       <c r="V38" s="15" t="n">
-        <v>7621</v>
+        <v>17148</v>
       </c>
       <c r="W38" s="15" t="n">
-        <v>17148</v>
+        <v>23002</v>
       </c>
       <c r="X38" s="15" t="n">
-        <v>23002</v>
+        <v>22386</v>
       </c>
       <c r="Y38" s="15" t="n">
-        <v>22386</v>
+        <v>26850</v>
       </c>
       <c r="Z38" s="15" t="n">
-        <v>26850</v>
+        <v>40056</v>
       </c>
       <c r="AA38" s="15" t="n">
-        <v>40056</v>
+        <v>35203</v>
       </c>
       <c r="AB38" s="15" t="n">
-        <v>35203</v>
+        <v>13981</v>
       </c>
       <c r="AC38" s="15" t="n">
-        <v>13981</v>
-      </c>
-      <c r="AD38" s="15" t="n">
         <v>21137</v>
+      </c>
+      <c r="AD38" s="15" t="s">
+        <v>60</v>
       </c>
       <c r="AE38" s="15" t="s">
         <v>60</v>
@@ -7147,73 +7147,73 @@
         <v>0</v>
       </c>
       <c r="AD39" s="16" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AE39" s="16" t="n">
-        <v>100</v>
+        <v>392</v>
       </c>
       <c r="AF39" s="16" t="n">
-        <v>392</v>
+        <v>1214</v>
       </c>
       <c r="AG39" s="16" t="n">
-        <v>1214</v>
+        <v>507</v>
       </c>
       <c r="AH39" s="16" t="n">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="AI39" s="16" t="n">
-        <v>508</v>
+        <v>1733</v>
       </c>
       <c r="AJ39" s="16" t="n">
-        <v>1733</v>
+        <v>534</v>
       </c>
       <c r="AK39" s="16" t="n">
-        <v>534</v>
+        <v>476</v>
       </c>
       <c r="AL39" s="16" t="n">
-        <v>476</v>
+        <v>407</v>
       </c>
       <c r="AM39" s="16" t="n">
-        <v>407</v>
+        <v>200</v>
       </c>
       <c r="AN39" s="16" t="n">
         <v>200</v>
       </c>
       <c r="AO39" s="16" t="n">
+        <v>300</v>
+      </c>
+      <c r="AP39" s="16" t="n">
+        <v>507</v>
+      </c>
+      <c r="AQ39" s="16" t="n">
+        <v>460</v>
+      </c>
+      <c r="AR39" s="16" t="n">
+        <v>345</v>
+      </c>
+      <c r="AS39" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT39" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU39" s="16" t="n">
+        <v>598</v>
+      </c>
+      <c r="AV39" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW39" s="16" t="n">
+        <v>674</v>
+      </c>
+      <c r="AX39" s="16" t="n">
+        <v>410</v>
+      </c>
+      <c r="AY39" s="16" t="n">
         <v>200</v>
       </c>
-      <c r="AP39" s="16" t="n">
-        <v>300</v>
-      </c>
-      <c r="AQ39" s="16" t="n">
-        <v>507</v>
-      </c>
-      <c r="AR39" s="16" t="n">
-        <v>460</v>
-      </c>
-      <c r="AS39" s="16" t="n">
-        <v>345</v>
-      </c>
-      <c r="AT39" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU39" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV39" s="16" t="n">
-        <v>598</v>
-      </c>
-      <c r="AW39" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX39" s="16" t="n">
-        <v>674</v>
-      </c>
-      <c r="AY39" s="16" t="n">
-        <v>410</v>
-      </c>
       <c r="AZ39" s="16" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="BA39" s="16" t="n">
         <v>0</v>
@@ -7272,8 +7272,8 @@
       <c r="R40" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="S40" s="15" t="s">
-        <v>60</v>
+      <c r="S40" s="15" t="n">
+        <v>0</v>
       </c>
       <c r="T40" s="15" t="n">
         <v>0</v>
@@ -7305,8 +7305,8 @@
       <c r="AC40" s="15" t="n">
         <v>0</v>
       </c>
-      <c r="AD40" s="15" t="n">
-        <v>0</v>
+      <c r="AD40" s="15" t="s">
+        <v>60</v>
       </c>
       <c r="AE40" s="15" t="s">
         <v>60</v>
@@ -7428,15 +7428,15 @@
       <c r="Q41" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="R41" s="16" t="s">
-        <v>60</v>
+      <c r="R41" s="16" t="n">
+        <v>1289</v>
       </c>
       <c r="S41" s="16" t="n">
-        <v>1289</v>
-      </c>
-      <c r="T41" s="16" t="n">
         <v>1204</v>
       </c>
+      <c r="T41" s="16" t="s">
+        <v>60</v>
+      </c>
       <c r="U41" s="16" t="s">
         <v>60</v>
       </c>
@@ -7500,44 +7500,44 @@
       <c r="AO41" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="AP41" s="16" t="s">
-        <v>60</v>
+      <c r="AP41" s="16" t="n">
+        <v>703</v>
       </c>
       <c r="AQ41" s="16" t="n">
-        <v>703</v>
+        <v>1355</v>
       </c>
       <c r="AR41" s="16" t="n">
-        <v>1355</v>
+        <v>1574</v>
       </c>
       <c r="AS41" s="16" t="n">
-        <v>1574</v>
+        <v>1507</v>
       </c>
       <c r="AT41" s="16" t="n">
-        <v>1507</v>
+        <v>1682</v>
       </c>
       <c r="AU41" s="16" t="n">
-        <v>1682</v>
+        <v>1252</v>
       </c>
       <c r="AV41" s="16" t="n">
-        <v>1252</v>
+        <v>1157</v>
       </c>
       <c r="AW41" s="16" t="n">
-        <v>1157</v>
+        <v>1499</v>
       </c>
       <c r="AX41" s="16" t="n">
-        <v>1499</v>
+        <v>1406</v>
       </c>
       <c r="AY41" s="16" t="n">
-        <v>1406</v>
+        <v>240</v>
       </c>
       <c r="AZ41" s="16" t="n">
-        <v>240</v>
+        <v>24</v>
       </c>
       <c r="BA41" s="16" t="n">
-        <v>24</v>
+        <v>541</v>
       </c>
       <c r="BB41" s="16" t="n">
-        <v>541</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8026,37 +8026,37 @@
       </c>
       <c r="D45" s="16"/>
       <c r="E45" s="16" t="n">
-        <v>285</v>
+        <v>552</v>
       </c>
       <c r="F45" s="16" t="n">
-        <v>552</v>
+        <v>414</v>
       </c>
       <c r="G45" s="16" t="n">
-        <v>414</v>
+        <v>118</v>
       </c>
       <c r="H45" s="16" t="n">
-        <v>118</v>
+        <v>83</v>
       </c>
       <c r="I45" s="16" t="n">
-        <v>83</v>
+        <v>123</v>
       </c>
       <c r="J45" s="16" t="n">
-        <v>123</v>
+        <v>104</v>
       </c>
       <c r="K45" s="16" t="n">
-        <v>104</v>
+        <v>146</v>
       </c>
       <c r="L45" s="16" t="n">
-        <v>146</v>
+        <v>128</v>
       </c>
       <c r="M45" s="16" t="n">
-        <v>128</v>
+        <v>80</v>
       </c>
       <c r="N45" s="16" t="n">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="O45" s="16" t="n">
-        <v>41</v>
+        <v>0</v>
       </c>
       <c r="P45" s="16" t="n">
         <v>0</v>
@@ -8064,14 +8064,14 @@
       <c r="Q45" s="16" t="n">
         <v>0</v>
       </c>
-      <c r="R45" s="16" t="n">
-        <v>0</v>
+      <c r="R45" s="16" t="s">
+        <v>60</v>
       </c>
       <c r="S45" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="T45" s="16" t="s">
-        <v>60</v>
+      <c r="T45" s="16" t="n">
+        <v>0</v>
       </c>
       <c r="U45" s="16" t="n">
         <v>0</v>
@@ -8080,28 +8080,28 @@
         <v>0</v>
       </c>
       <c r="W45" s="16" t="n">
-        <v>0</v>
+        <v>139</v>
       </c>
       <c r="X45" s="16" t="n">
-        <v>139</v>
+        <v>771</v>
       </c>
       <c r="Y45" s="16" t="n">
-        <v>771</v>
+        <v>523</v>
       </c>
       <c r="Z45" s="16" t="n">
-        <v>523</v>
+        <v>529</v>
       </c>
       <c r="AA45" s="16" t="n">
-        <v>529</v>
+        <v>365</v>
       </c>
       <c r="AB45" s="16" t="n">
-        <v>365</v>
+        <v>0</v>
       </c>
       <c r="AC45" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD45" s="16" t="n">
         <v>142</v>
+      </c>
+      <c r="AD45" s="16" t="s">
+        <v>60</v>
       </c>
       <c r="AE45" s="16" t="s">
         <v>60</v>
@@ -8185,118 +8185,118 @@
       </c>
       <c r="D46" s="15"/>
       <c r="E46" s="15" t="n">
-        <v>1937</v>
+        <v>1898</v>
       </c>
       <c r="F46" s="15" t="n">
-        <v>1898</v>
+        <v>2380</v>
       </c>
       <c r="G46" s="15" t="n">
-        <v>2380</v>
+        <v>2579</v>
       </c>
       <c r="H46" s="15" t="n">
-        <v>2579</v>
+        <v>2211</v>
       </c>
       <c r="I46" s="15" t="n">
-        <v>2211</v>
+        <v>2241</v>
       </c>
       <c r="J46" s="15" t="n">
-        <v>2241</v>
+        <v>1746</v>
       </c>
       <c r="K46" s="15" t="n">
-        <v>1746</v>
+        <v>1986</v>
       </c>
       <c r="L46" s="15" t="n">
-        <v>1986</v>
+        <v>2057</v>
       </c>
       <c r="M46" s="15" t="n">
-        <v>2057</v>
+        <v>2142</v>
       </c>
       <c r="N46" s="15" t="n">
-        <v>2142</v>
+        <v>2216</v>
       </c>
       <c r="O46" s="15" t="n">
-        <v>2216</v>
+        <v>2188</v>
       </c>
       <c r="P46" s="15" t="n">
-        <v>2188</v>
+        <v>1665</v>
       </c>
       <c r="Q46" s="15" t="n">
-        <v>1665</v>
-      </c>
-      <c r="R46" s="15" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="R46" s="15" t="s">
+        <v>60</v>
       </c>
       <c r="S46" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="T46" s="15" t="s">
-        <v>60</v>
+      <c r="T46" s="15" t="n">
+        <v>0</v>
       </c>
       <c r="U46" s="15" t="n">
-        <v>0</v>
+        <v>88</v>
       </c>
       <c r="V46" s="15" t="n">
-        <v>88</v>
+        <v>571</v>
       </c>
       <c r="W46" s="15" t="n">
-        <v>571</v>
+        <v>1516</v>
       </c>
       <c r="X46" s="15" t="n">
-        <v>1516</v>
+        <v>1949</v>
       </c>
       <c r="Y46" s="15" t="n">
-        <v>1949</v>
+        <v>1826</v>
       </c>
       <c r="Z46" s="15" t="n">
-        <v>1826</v>
+        <v>1687</v>
       </c>
       <c r="AA46" s="15" t="n">
-        <v>1687</v>
+        <v>824</v>
       </c>
       <c r="AB46" s="15" t="n">
-        <v>824</v>
+        <v>0</v>
       </c>
       <c r="AC46" s="15" t="n">
-        <v>0</v>
+        <v>732</v>
       </c>
       <c r="AD46" s="15" t="n">
-        <v>732</v>
+        <v>1942</v>
       </c>
       <c r="AE46" s="15" t="n">
-        <v>1942</v>
+        <v>1921</v>
       </c>
       <c r="AF46" s="15" t="n">
-        <v>1921</v>
+        <v>1491</v>
       </c>
       <c r="AG46" s="15" t="n">
-        <v>1491</v>
+        <v>1444</v>
       </c>
       <c r="AH46" s="15" t="n">
-        <v>1444</v>
+        <v>1321</v>
       </c>
       <c r="AI46" s="15" t="n">
-        <v>1321</v>
+        <v>1181</v>
       </c>
       <c r="AJ46" s="15" t="n">
-        <v>1181</v>
+        <v>1172</v>
       </c>
       <c r="AK46" s="15" t="n">
-        <v>1172</v>
+        <v>1918</v>
       </c>
       <c r="AL46" s="15" t="n">
-        <v>1918</v>
+        <v>2464</v>
       </c>
       <c r="AM46" s="15" t="n">
-        <v>2464</v>
+        <v>2664</v>
       </c>
       <c r="AN46" s="15" t="n">
-        <v>2664</v>
+        <v>2048</v>
       </c>
       <c r="AO46" s="15" t="n">
-        <v>2048</v>
-      </c>
-      <c r="AP46" s="15" t="n">
         <v>1549</v>
+      </c>
+      <c r="AP46" s="15" t="s">
+        <v>60</v>
       </c>
       <c r="AQ46" s="15" t="s">
         <v>60</v>
@@ -8344,154 +8344,154 @@
       </c>
       <c r="D47" s="16"/>
       <c r="E47" s="16" t="n">
-        <v>19404</v>
+        <v>12454</v>
       </c>
       <c r="F47" s="16" t="n">
-        <v>12454</v>
+        <v>22154</v>
       </c>
       <c r="G47" s="16" t="n">
-        <v>22154</v>
+        <v>8285</v>
       </c>
       <c r="H47" s="16" t="n">
-        <v>8285</v>
+        <v>7633</v>
       </c>
       <c r="I47" s="16" t="n">
-        <v>7633</v>
+        <v>4591</v>
       </c>
       <c r="J47" s="16" t="n">
-        <v>4591</v>
+        <v>24565</v>
       </c>
       <c r="K47" s="16" t="n">
-        <v>24565</v>
+        <v>10944</v>
       </c>
       <c r="L47" s="16" t="n">
-        <v>10944</v>
+        <v>14989</v>
       </c>
       <c r="M47" s="16" t="n">
-        <v>14989</v>
+        <v>26</v>
       </c>
       <c r="N47" s="16" t="n">
-        <v>26</v>
+        <v>6682</v>
       </c>
       <c r="O47" s="16" t="n">
-        <v>6682</v>
+        <v>4706</v>
       </c>
       <c r="P47" s="16" t="n">
-        <v>4706</v>
+        <v>4005</v>
       </c>
       <c r="Q47" s="16" t="n">
-        <v>4005</v>
+        <v>18700</v>
       </c>
       <c r="R47" s="16" t="n">
-        <v>18700</v>
+        <v>22442</v>
       </c>
       <c r="S47" s="16" t="n">
-        <v>22442</v>
+        <v>21188</v>
       </c>
       <c r="T47" s="16" t="n">
-        <v>21188</v>
+        <v>6713</v>
       </c>
       <c r="U47" s="16" t="n">
-        <v>6713</v>
+        <v>9897</v>
       </c>
       <c r="V47" s="16" t="n">
-        <v>9897</v>
+        <v>16176</v>
       </c>
       <c r="W47" s="16" t="n">
-        <v>16176</v>
+        <v>8603</v>
       </c>
       <c r="X47" s="16" t="n">
-        <v>8603</v>
+        <v>16034</v>
       </c>
       <c r="Y47" s="16" t="n">
-        <v>16034</v>
+        <v>14940</v>
       </c>
       <c r="Z47" s="16" t="n">
-        <v>14940</v>
+        <v>16641</v>
       </c>
       <c r="AA47" s="16" t="n">
-        <v>16641</v>
+        <v>8217</v>
       </c>
       <c r="AB47" s="16" t="n">
-        <v>8217</v>
+        <v>7790</v>
       </c>
       <c r="AC47" s="16" t="n">
-        <v>7790</v>
+        <v>20719</v>
       </c>
       <c r="AD47" s="16" t="n">
-        <v>20719</v>
+        <v>26222</v>
       </c>
       <c r="AE47" s="16" t="n">
-        <v>26222</v>
+        <v>23595</v>
       </c>
       <c r="AF47" s="16" t="n">
-        <v>23595</v>
+        <v>11048</v>
       </c>
       <c r="AG47" s="16" t="n">
-        <v>11048</v>
+        <v>16038</v>
       </c>
       <c r="AH47" s="16" t="n">
-        <v>16038</v>
+        <v>11798</v>
       </c>
       <c r="AI47" s="16" t="n">
-        <v>11798</v>
+        <v>11582</v>
       </c>
       <c r="AJ47" s="16" t="n">
-        <v>11582</v>
+        <v>15692</v>
       </c>
       <c r="AK47" s="16" t="n">
-        <v>15692</v>
+        <v>16688</v>
       </c>
       <c r="AL47" s="16" t="n">
-        <v>16688</v>
+        <v>19395</v>
       </c>
       <c r="AM47" s="16" t="n">
-        <v>19395</v>
+        <v>14541</v>
       </c>
       <c r="AN47" s="16" t="n">
-        <v>14541</v>
+        <v>10672</v>
       </c>
       <c r="AO47" s="16" t="n">
-        <v>10672</v>
+        <v>9504</v>
       </c>
       <c r="AP47" s="16" t="n">
-        <v>9504</v>
+        <v>15303</v>
       </c>
       <c r="AQ47" s="16" t="n">
-        <v>15303</v>
+        <v>15558</v>
       </c>
       <c r="AR47" s="16" t="n">
-        <v>15558</v>
+        <v>17980</v>
       </c>
       <c r="AS47" s="16" t="n">
-        <v>17980</v>
+        <v>10974</v>
       </c>
       <c r="AT47" s="16" t="n">
-        <v>10974</v>
+        <v>1813</v>
       </c>
       <c r="AU47" s="16" t="n">
-        <v>1813</v>
+        <v>14934</v>
       </c>
       <c r="AV47" s="16" t="n">
-        <v>14934</v>
+        <v>10860</v>
       </c>
       <c r="AW47" s="16" t="n">
-        <v>10860</v>
+        <v>14654</v>
       </c>
       <c r="AX47" s="16" t="n">
-        <v>14654</v>
+        <v>9411</v>
       </c>
       <c r="AY47" s="16" t="n">
-        <v>9411</v>
+        <v>0</v>
       </c>
       <c r="AZ47" s="16" t="n">
-        <v>0</v>
+        <v>4648</v>
       </c>
       <c r="BA47" s="16" t="n">
-        <v>4648</v>
+        <v>7077</v>
       </c>
       <c r="BB47" s="16" t="n">
-        <v>7077</v>
+        <v>19286</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8503,118 +8503,118 @@
       </c>
       <c r="D48" s="15"/>
       <c r="E48" s="15" t="n">
-        <v>514</v>
+        <v>1011</v>
       </c>
       <c r="F48" s="15" t="n">
-        <v>1011</v>
+        <v>619</v>
       </c>
       <c r="G48" s="15" t="n">
-        <v>619</v>
+        <v>1975</v>
       </c>
       <c r="H48" s="15" t="n">
-        <v>1975</v>
+        <v>861</v>
       </c>
       <c r="I48" s="15" t="n">
-        <v>861</v>
+        <v>906</v>
       </c>
       <c r="J48" s="15" t="n">
-        <v>906</v>
+        <v>701</v>
       </c>
       <c r="K48" s="15" t="n">
-        <v>701</v>
+        <v>725</v>
       </c>
       <c r="L48" s="15" t="n">
-        <v>725</v>
+        <v>592</v>
       </c>
       <c r="M48" s="15" t="n">
-        <v>592</v>
+        <v>729</v>
       </c>
       <c r="N48" s="15" t="n">
-        <v>729</v>
+        <v>1081</v>
       </c>
       <c r="O48" s="15" t="n">
-        <v>1081</v>
+        <v>674</v>
       </c>
       <c r="P48" s="15" t="n">
-        <v>674</v>
+        <v>145</v>
       </c>
       <c r="Q48" s="15" t="n">
-        <v>145</v>
-      </c>
-      <c r="R48" s="15" t="n">
         <v>534</v>
       </c>
+      <c r="R48" s="15" t="s">
+        <v>60</v>
+      </c>
       <c r="S48" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="T48" s="15" t="s">
-        <v>60</v>
+      <c r="T48" s="15" t="n">
+        <v>1077</v>
       </c>
       <c r="U48" s="15" t="n">
-        <v>1077</v>
+        <v>1032</v>
       </c>
       <c r="V48" s="15" t="n">
-        <v>1032</v>
+        <v>1405</v>
       </c>
       <c r="W48" s="15" t="n">
-        <v>1405</v>
+        <v>1280</v>
       </c>
       <c r="X48" s="15" t="n">
-        <v>1280</v>
+        <v>1189</v>
       </c>
       <c r="Y48" s="15" t="n">
-        <v>1189</v>
+        <v>1203</v>
       </c>
       <c r="Z48" s="15" t="n">
-        <v>1203</v>
+        <v>1061</v>
       </c>
       <c r="AA48" s="15" t="n">
-        <v>1061</v>
+        <v>760</v>
       </c>
       <c r="AB48" s="15" t="n">
-        <v>760</v>
+        <v>543</v>
       </c>
       <c r="AC48" s="15" t="n">
-        <v>543</v>
+        <v>1552</v>
       </c>
       <c r="AD48" s="15" t="n">
-        <v>1552</v>
+        <v>782</v>
       </c>
       <c r="AE48" s="15" t="n">
-        <v>782</v>
+        <v>1245</v>
       </c>
       <c r="AF48" s="15" t="n">
-        <v>1245</v>
+        <v>1074</v>
       </c>
       <c r="AG48" s="15" t="n">
-        <v>1074</v>
+        <v>1133</v>
       </c>
       <c r="AH48" s="15" t="n">
-        <v>1133</v>
+        <v>687</v>
       </c>
       <c r="AI48" s="15" t="n">
-        <v>687</v>
+        <v>1316</v>
       </c>
       <c r="AJ48" s="15" t="n">
-        <v>1316</v>
+        <v>1163</v>
       </c>
       <c r="AK48" s="15" t="n">
-        <v>1163</v>
+        <v>1194</v>
       </c>
       <c r="AL48" s="15" t="n">
-        <v>1194</v>
+        <v>1192</v>
       </c>
       <c r="AM48" s="15" t="n">
-        <v>1192</v>
+        <v>1371</v>
       </c>
       <c r="AN48" s="15" t="n">
-        <v>1371</v>
+        <v>748</v>
       </c>
       <c r="AO48" s="15" t="n">
-        <v>748</v>
-      </c>
-      <c r="AP48" s="15" t="n">
         <v>788</v>
+      </c>
+      <c r="AP48" s="15" t="s">
+        <v>60</v>
       </c>
       <c r="AQ48" s="15" t="s">
         <v>60</v>
@@ -8662,82 +8662,82 @@
       </c>
       <c r="D49" s="16"/>
       <c r="E49" s="16" t="n">
-        <v>820</v>
+        <v>840</v>
       </c>
       <c r="F49" s="16" t="n">
-        <v>840</v>
+        <v>216</v>
       </c>
       <c r="G49" s="16" t="n">
-        <v>216</v>
+        <v>1548</v>
       </c>
       <c r="H49" s="16" t="n">
-        <v>1548</v>
+        <v>600</v>
       </c>
       <c r="I49" s="16" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="J49" s="16" t="n">
-        <v>800</v>
+        <v>1220</v>
       </c>
       <c r="K49" s="16" t="n">
-        <v>1220</v>
+        <v>1212</v>
       </c>
       <c r="L49" s="16" t="n">
-        <v>1212</v>
+        <v>1286</v>
       </c>
       <c r="M49" s="16" t="n">
-        <v>1286</v>
+        <v>2952</v>
       </c>
       <c r="N49" s="16" t="n">
-        <v>2952</v>
+        <v>1968</v>
       </c>
       <c r="O49" s="16" t="n">
-        <v>1968</v>
+        <v>1616</v>
       </c>
       <c r="P49" s="16" t="n">
-        <v>1616</v>
+        <v>144</v>
       </c>
       <c r="Q49" s="16" t="n">
-        <v>144</v>
-      </c>
-      <c r="R49" s="16" t="n">
         <v>540</v>
       </c>
+      <c r="R49" s="16" t="s">
+        <v>60</v>
+      </c>
       <c r="S49" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="T49" s="16" t="s">
-        <v>60</v>
+      <c r="T49" s="16" t="n">
+        <v>96</v>
       </c>
       <c r="U49" s="16" t="n">
-        <v>96</v>
+        <v>72</v>
       </c>
       <c r="V49" s="16" t="n">
-        <v>72</v>
+        <v>204</v>
       </c>
       <c r="W49" s="16" t="n">
-        <v>204</v>
+        <v>496</v>
       </c>
       <c r="X49" s="16" t="n">
+        <v>636</v>
+      </c>
+      <c r="Y49" s="16" t="n">
+        <v>808</v>
+      </c>
+      <c r="Z49" s="16" t="n">
+        <v>836</v>
+      </c>
+      <c r="AA49" s="16" t="n">
         <v>496</v>
       </c>
-      <c r="Y49" s="16" t="n">
-        <v>636</v>
-      </c>
-      <c r="Z49" s="16" t="n">
-        <v>808</v>
-      </c>
-      <c r="AA49" s="16" t="n">
-        <v>836</v>
-      </c>
       <c r="AB49" s="16" t="n">
-        <v>496</v>
+        <v>196</v>
       </c>
       <c r="AC49" s="16" t="n">
-        <v>196</v>
-      </c>
-      <c r="AD49" s="16" t="n">
         <v>100</v>
+      </c>
+      <c r="AD49" s="16" t="s">
+        <v>60</v>
       </c>
       <c r="AE49" s="16" t="s">
         <v>60</v>
@@ -8920,8 +8920,8 @@
       <c r="S51" s="20" t="s">
         <v>60</v>
       </c>
-      <c r="T51" s="20" t="s">
-        <v>60</v>
+      <c r="T51" s="20" t="n">
+        <v>0</v>
       </c>
       <c r="U51" s="20" t="n">
         <v>0</v>
@@ -9134,8 +9134,8 @@
       <c r="S53" s="20" t="s">
         <v>60</v>
       </c>
-      <c r="T53" s="20" t="s">
-        <v>60</v>
+      <c r="T53" s="20" t="n">
+        <v>0</v>
       </c>
       <c r="U53" s="20" t="n">
         <v>0</v>
@@ -9247,154 +9247,154 @@
       <c r="C54" s="22"/>
       <c r="D54" s="22"/>
       <c r="E54" s="22" t="n">
-        <v>61798</v>
+        <v>52727</v>
       </c>
       <c r="F54" s="22" t="n">
-        <v>52727</v>
+        <v>39590</v>
       </c>
       <c r="G54" s="22" t="n">
-        <v>39590</v>
+        <v>34774</v>
       </c>
       <c r="H54" s="22" t="n">
-        <v>34774</v>
+        <v>60060</v>
       </c>
       <c r="I54" s="22" t="n">
-        <v>60060</v>
+        <v>45916</v>
       </c>
       <c r="J54" s="22" t="n">
-        <v>45916</v>
+        <v>59983</v>
       </c>
       <c r="K54" s="22" t="n">
-        <v>59983</v>
+        <v>49929</v>
       </c>
       <c r="L54" s="22" t="n">
-        <v>49929</v>
+        <v>49608</v>
       </c>
       <c r="M54" s="22" t="n">
-        <v>49608</v>
+        <v>37500</v>
       </c>
       <c r="N54" s="22" t="n">
-        <v>37500</v>
+        <v>55027</v>
       </c>
       <c r="O54" s="22" t="n">
-        <v>55027</v>
+        <v>61702</v>
       </c>
       <c r="P54" s="22" t="n">
-        <v>61702</v>
+        <v>15542</v>
       </c>
       <c r="Q54" s="22" t="n">
-        <v>15542</v>
+        <v>64604</v>
       </c>
       <c r="R54" s="22" t="n">
-        <v>64604</v>
+        <v>36235</v>
       </c>
       <c r="S54" s="22" t="n">
-        <v>36235</v>
+        <v>68037</v>
       </c>
       <c r="T54" s="22" t="n">
-        <v>68037</v>
+        <v>16326</v>
       </c>
       <c r="U54" s="22" t="n">
-        <v>16326</v>
+        <v>20001</v>
       </c>
       <c r="V54" s="22" t="n">
-        <v>20001</v>
+        <v>39754</v>
       </c>
       <c r="W54" s="22" t="n">
-        <v>39754</v>
+        <v>38430</v>
       </c>
       <c r="X54" s="22" t="n">
-        <v>38430</v>
+        <v>44574</v>
       </c>
       <c r="Y54" s="22" t="n">
-        <v>44574</v>
+        <v>49398</v>
       </c>
       <c r="Z54" s="22" t="n">
-        <v>49398</v>
+        <v>63001</v>
       </c>
       <c r="AA54" s="22" t="n">
-        <v>63001</v>
+        <v>46895</v>
       </c>
       <c r="AB54" s="22" t="n">
-        <v>46895</v>
+        <v>23101</v>
       </c>
       <c r="AC54" s="22" t="n">
-        <v>23101</v>
+        <v>47128</v>
       </c>
       <c r="AD54" s="22" t="n">
-        <v>47128</v>
+        <v>42684</v>
       </c>
       <c r="AE54" s="22" t="n">
-        <v>42684</v>
+        <v>40656</v>
       </c>
       <c r="AF54" s="22" t="n">
-        <v>40656</v>
+        <v>44923</v>
       </c>
       <c r="AG54" s="22" t="n">
-        <v>44923</v>
+        <v>50839</v>
       </c>
       <c r="AH54" s="22" t="n">
-        <v>50839</v>
+        <v>32757</v>
       </c>
       <c r="AI54" s="22" t="n">
-        <v>32757</v>
+        <v>60685</v>
       </c>
       <c r="AJ54" s="22" t="n">
-        <v>60685</v>
+        <v>50527</v>
       </c>
       <c r="AK54" s="22" t="n">
-        <v>50527</v>
+        <v>36807</v>
       </c>
       <c r="AL54" s="22" t="n">
-        <v>36807</v>
+        <v>59123</v>
       </c>
       <c r="AM54" s="22" t="n">
-        <v>59123</v>
+        <v>23867</v>
       </c>
       <c r="AN54" s="22" t="n">
-        <v>23867</v>
+        <v>20589</v>
       </c>
       <c r="AO54" s="22" t="n">
-        <v>20589</v>
+        <v>38550</v>
       </c>
       <c r="AP54" s="22" t="n">
-        <v>38550</v>
+        <v>30606</v>
       </c>
       <c r="AQ54" s="22" t="n">
-        <v>30606</v>
+        <v>31987</v>
       </c>
       <c r="AR54" s="22" t="n">
-        <v>31987</v>
+        <v>63551</v>
       </c>
       <c r="AS54" s="22" t="n">
-        <v>63551</v>
+        <v>56520</v>
       </c>
       <c r="AT54" s="22" t="n">
-        <v>56520</v>
+        <v>85354</v>
       </c>
       <c r="AU54" s="22" t="n">
-        <v>85354</v>
+        <v>47383</v>
       </c>
       <c r="AV54" s="22" t="n">
-        <v>47383</v>
+        <v>47807</v>
       </c>
       <c r="AW54" s="22" t="n">
-        <v>47807</v>
+        <v>44079</v>
       </c>
       <c r="AX54" s="22" t="n">
-        <v>44079</v>
+        <v>36405</v>
       </c>
       <c r="AY54" s="22" t="n">
-        <v>36405</v>
+        <v>32580</v>
       </c>
       <c r="AZ54" s="22" t="n">
-        <v>32580</v>
+        <v>26271</v>
       </c>
       <c r="BA54" s="22" t="n">
-        <v>26271</v>
+        <v>52814</v>
       </c>
       <c r="BB54" s="22" t="n">
-        <v>52814</v>
+        <v>44050</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9879,13 +9879,13 @@
         <v>0</v>
       </c>
       <c r="R61" s="16" t="n">
-        <v>0</v>
+        <v>326918</v>
       </c>
       <c r="S61" s="16" t="n">
-        <v>326918</v>
+        <v>1249585</v>
       </c>
       <c r="T61" s="16" t="n">
-        <v>1249585</v>
+        <v>0</v>
       </c>
       <c r="U61" s="16" t="n">
         <v>0</v>
@@ -9915,79 +9915,79 @@
         <v>0</v>
       </c>
       <c r="AD61" s="16" t="n">
-        <v>0</v>
+        <v>710423</v>
       </c>
       <c r="AE61" s="16" t="n">
-        <v>710423</v>
+        <v>838020</v>
       </c>
       <c r="AF61" s="16" t="n">
-        <v>838020</v>
+        <v>1749803</v>
       </c>
       <c r="AG61" s="16" t="n">
-        <v>1749803</v>
+        <v>1949841</v>
       </c>
       <c r="AH61" s="16" t="n">
-        <v>1949841</v>
+        <v>1286243</v>
       </c>
       <c r="AI61" s="16" t="n">
-        <v>1286243</v>
+        <v>3693907</v>
       </c>
       <c r="AJ61" s="16" t="n">
-        <v>3693907</v>
+        <v>2971758</v>
       </c>
       <c r="AK61" s="16" t="n">
-        <v>2971758</v>
+        <v>1390588</v>
       </c>
       <c r="AL61" s="16" t="n">
-        <v>1390588</v>
+        <v>5771432</v>
       </c>
       <c r="AM61" s="16" t="n">
-        <v>5771432</v>
+        <v>649202</v>
       </c>
       <c r="AN61" s="16" t="n">
-        <v>649202</v>
+        <v>928419</v>
       </c>
       <c r="AO61" s="16" t="n">
-        <v>928419</v>
+        <v>3286459</v>
       </c>
       <c r="AP61" s="16" t="n">
-        <v>3286459</v>
+        <v>1569222</v>
       </c>
       <c r="AQ61" s="16" t="n">
-        <v>1569222</v>
+        <v>2058045</v>
       </c>
       <c r="AR61" s="16" t="n">
-        <v>2058045</v>
+        <v>6024641</v>
       </c>
       <c r="AS61" s="16" t="n">
-        <v>6024641</v>
+        <v>5393480</v>
       </c>
       <c r="AT61" s="16" t="n">
-        <v>5393480</v>
+        <v>10255317</v>
       </c>
       <c r="AU61" s="16" t="n">
-        <v>10255317</v>
+        <v>3831900</v>
       </c>
       <c r="AV61" s="16" t="n">
-        <v>3831900</v>
+        <v>4814331</v>
       </c>
       <c r="AW61" s="16" t="n">
-        <v>4814331</v>
+        <v>3680527</v>
       </c>
       <c r="AX61" s="16" t="n">
-        <v>3680527</v>
+        <v>2692036</v>
       </c>
       <c r="AY61" s="16" t="n">
-        <v>2692036</v>
+        <v>3880465</v>
       </c>
       <c r="AZ61" s="16" t="n">
-        <v>3880465</v>
+        <v>2599304</v>
       </c>
       <c r="BA61" s="16" t="n">
-        <v>2599304</v>
+        <v>5242764</v>
       </c>
       <c r="BB61" s="16" t="n">
-        <v>5242764</v>
+        <v>2593755</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10074,79 +10074,79 @@
         <v>0</v>
       </c>
       <c r="AD62" s="15" t="n">
-        <v>0</v>
+        <v>7922</v>
       </c>
       <c r="AE62" s="15" t="n">
-        <v>7922</v>
+        <v>10147</v>
       </c>
       <c r="AF62" s="15" t="n">
-        <v>10147</v>
+        <v>11514</v>
       </c>
       <c r="AG62" s="15" t="n">
-        <v>11514</v>
+        <v>6199</v>
       </c>
       <c r="AH62" s="15" t="n">
-        <v>6199</v>
+        <v>0</v>
       </c>
       <c r="AI62" s="15" t="n">
-        <v>0</v>
+        <v>2668</v>
       </c>
       <c r="AJ62" s="15" t="n">
-        <v>2668</v>
+        <v>13570</v>
       </c>
       <c r="AK62" s="15" t="n">
-        <v>13570</v>
+        <v>70217</v>
       </c>
       <c r="AL62" s="15" t="n">
-        <v>70217</v>
+        <v>132653</v>
       </c>
       <c r="AM62" s="15" t="n">
-        <v>132653</v>
+        <v>190495</v>
       </c>
       <c r="AN62" s="15" t="n">
-        <v>190495</v>
+        <v>43340</v>
       </c>
       <c r="AO62" s="15" t="n">
-        <v>43340</v>
+        <v>12866</v>
       </c>
       <c r="AP62" s="15" t="n">
-        <v>12866</v>
+        <v>199663</v>
       </c>
       <c r="AQ62" s="15" t="n">
-        <v>199663</v>
+        <v>373111</v>
       </c>
       <c r="AR62" s="15" t="n">
-        <v>373111</v>
+        <v>466230</v>
       </c>
       <c r="AS62" s="15" t="n">
-        <v>466230</v>
+        <v>431603</v>
       </c>
       <c r="AT62" s="15" t="n">
-        <v>431603</v>
+        <v>591735</v>
       </c>
       <c r="AU62" s="15" t="n">
-        <v>591735</v>
+        <v>731246</v>
       </c>
       <c r="AV62" s="15" t="n">
-        <v>731246</v>
+        <v>847477</v>
       </c>
       <c r="AW62" s="15" t="n">
-        <v>847477</v>
+        <v>769776</v>
       </c>
       <c r="AX62" s="15" t="n">
-        <v>769776</v>
+        <v>377988</v>
       </c>
       <c r="AY62" s="15" t="n">
-        <v>377988</v>
+        <v>255020</v>
       </c>
       <c r="AZ62" s="15" t="n">
-        <v>255020</v>
+        <v>0</v>
       </c>
       <c r="BA62" s="15" t="n">
-        <v>0</v>
+        <v>385224</v>
       </c>
       <c r="BB62" s="15" t="n">
-        <v>385224</v>
+        <v>425962</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10158,154 +10158,154 @@
       </c>
       <c r="D63" s="16"/>
       <c r="E63" s="16" t="n">
-        <v>58857</v>
+        <v>65582</v>
       </c>
       <c r="F63" s="16" t="n">
-        <v>65582</v>
+        <v>55751</v>
       </c>
       <c r="G63" s="16" t="n">
-        <v>55751</v>
+        <v>86950</v>
       </c>
       <c r="H63" s="16" t="n">
-        <v>86950</v>
+        <v>83931</v>
       </c>
       <c r="I63" s="16" t="n">
-        <v>83931</v>
+        <v>54988</v>
       </c>
       <c r="J63" s="16" t="n">
-        <v>54988</v>
+        <v>85649</v>
       </c>
       <c r="K63" s="16" t="n">
-        <v>85649</v>
+        <v>68111</v>
       </c>
       <c r="L63" s="16" t="n">
-        <v>68111</v>
+        <v>64947</v>
       </c>
       <c r="M63" s="16" t="n">
-        <v>64947</v>
+        <v>140634</v>
       </c>
       <c r="N63" s="16" t="n">
-        <v>140634</v>
+        <v>100402</v>
       </c>
       <c r="O63" s="16" t="n">
-        <v>100402</v>
+        <v>69676</v>
       </c>
       <c r="P63" s="16" t="n">
-        <v>69676</v>
+        <v>14199</v>
       </c>
       <c r="Q63" s="16" t="n">
-        <v>14199</v>
+        <v>8867</v>
       </c>
       <c r="R63" s="16" t="n">
-        <v>8867</v>
+        <v>11705</v>
       </c>
       <c r="S63" s="16" t="n">
-        <v>11705</v>
+        <v>39443</v>
       </c>
       <c r="T63" s="16" t="n">
-        <v>39443</v>
+        <v>21855</v>
       </c>
       <c r="U63" s="16" t="n">
-        <v>21855</v>
+        <v>35174</v>
       </c>
       <c r="V63" s="16" t="n">
-        <v>35174</v>
+        <v>139497</v>
       </c>
       <c r="W63" s="16" t="n">
-        <v>139497</v>
+        <v>121118</v>
       </c>
       <c r="X63" s="16" t="n">
-        <v>121118</v>
+        <v>70375</v>
       </c>
       <c r="Y63" s="16" t="n">
-        <v>70375</v>
+        <v>159820</v>
       </c>
       <c r="Z63" s="16" t="n">
-        <v>159820</v>
+        <v>108828</v>
       </c>
       <c r="AA63" s="16" t="n">
-        <v>108828</v>
+        <v>49481</v>
       </c>
       <c r="AB63" s="16" t="n">
-        <v>49481</v>
+        <v>29382</v>
       </c>
       <c r="AC63" s="16" t="n">
-        <v>29382</v>
+        <v>147671</v>
       </c>
       <c r="AD63" s="16" t="n">
-        <v>147671</v>
+        <v>127661</v>
       </c>
       <c r="AE63" s="16" t="n">
-        <v>127661</v>
+        <v>92683</v>
       </c>
       <c r="AF63" s="16" t="n">
-        <v>92683</v>
+        <v>53417</v>
       </c>
       <c r="AG63" s="16" t="n">
-        <v>53417</v>
+        <v>17454</v>
       </c>
       <c r="AH63" s="16" t="n">
-        <v>17454</v>
+        <v>131018</v>
       </c>
       <c r="AI63" s="16" t="n">
-        <v>131018</v>
+        <v>152099</v>
       </c>
       <c r="AJ63" s="16" t="n">
-        <v>152099</v>
+        <v>37169</v>
       </c>
       <c r="AK63" s="16" t="n">
-        <v>37169</v>
+        <v>289916</v>
       </c>
       <c r="AL63" s="16" t="n">
-        <v>289916</v>
+        <v>159180</v>
       </c>
       <c r="AM63" s="16" t="n">
-        <v>159180</v>
+        <v>87158</v>
       </c>
       <c r="AN63" s="16" t="n">
-        <v>87158</v>
+        <v>41028</v>
       </c>
       <c r="AO63" s="16" t="n">
-        <v>41028</v>
+        <v>56138</v>
       </c>
       <c r="AP63" s="16" t="n">
-        <v>56138</v>
+        <v>117674</v>
       </c>
       <c r="AQ63" s="16" t="n">
-        <v>117674</v>
+        <v>107031</v>
       </c>
       <c r="AR63" s="16" t="n">
-        <v>107031</v>
+        <v>41738</v>
       </c>
       <c r="AS63" s="16" t="n">
-        <v>41738</v>
+        <v>367207</v>
       </c>
       <c r="AT63" s="16" t="n">
-        <v>367207</v>
+        <v>110629</v>
       </c>
       <c r="AU63" s="16" t="n">
-        <v>110629</v>
+        <v>15100</v>
       </c>
       <c r="AV63" s="16" t="n">
-        <v>15100</v>
+        <v>145601</v>
       </c>
       <c r="AW63" s="16" t="n">
-        <v>145601</v>
+        <v>74871</v>
       </c>
       <c r="AX63" s="16" t="n">
-        <v>74871</v>
+        <v>545754</v>
       </c>
       <c r="AY63" s="16" t="n">
-        <v>545754</v>
+        <v>245163</v>
       </c>
       <c r="AZ63" s="16" t="n">
-        <v>245163</v>
+        <v>105478</v>
       </c>
       <c r="BA63" s="16" t="n">
-        <v>105478</v>
+        <v>114743</v>
       </c>
       <c r="BB63" s="16" t="n">
-        <v>114743</v>
+        <v>96277</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10317,82 +10317,82 @@
       </c>
       <c r="D64" s="15"/>
       <c r="E64" s="15" t="n">
-        <v>659279</v>
+        <v>670485</v>
       </c>
       <c r="F64" s="15" t="n">
-        <v>670485</v>
+        <v>215469</v>
       </c>
       <c r="G64" s="15" t="n">
-        <v>215469</v>
+        <v>331203</v>
       </c>
       <c r="H64" s="15" t="n">
-        <v>331203</v>
+        <v>1060241</v>
       </c>
       <c r="I64" s="15" t="n">
-        <v>1060241</v>
+        <v>846544</v>
       </c>
       <c r="J64" s="15" t="n">
-        <v>846544</v>
+        <v>718940</v>
       </c>
       <c r="K64" s="15" t="n">
-        <v>718940</v>
+        <v>782302</v>
       </c>
       <c r="L64" s="15" t="n">
-        <v>782302</v>
+        <v>657713</v>
       </c>
       <c r="M64" s="15" t="n">
-        <v>657713</v>
+        <v>564968</v>
       </c>
       <c r="N64" s="15" t="n">
-        <v>564968</v>
+        <v>870517</v>
       </c>
       <c r="O64" s="15" t="n">
-        <v>870517</v>
+        <v>1149900</v>
       </c>
       <c r="P64" s="15" t="n">
-        <v>1149900</v>
+        <v>213473</v>
       </c>
       <c r="Q64" s="15" t="n">
-        <v>213473</v>
-      </c>
-      <c r="R64" s="15" t="n">
         <v>1168719</v>
       </c>
+      <c r="R64" s="15" t="s">
+        <v>60</v>
+      </c>
       <c r="S64" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="T64" s="15" t="s">
-        <v>60</v>
+      <c r="T64" s="15" t="n">
+        <v>214518</v>
       </c>
       <c r="U64" s="15" t="n">
-        <v>214518</v>
+        <v>225348</v>
       </c>
       <c r="V64" s="15" t="n">
-        <v>225348</v>
+        <v>576343</v>
       </c>
       <c r="W64" s="15" t="n">
-        <v>576343</v>
+        <v>923602</v>
       </c>
       <c r="X64" s="15" t="n">
-        <v>923602</v>
+        <v>1030510</v>
       </c>
       <c r="Y64" s="15" t="n">
-        <v>1030510</v>
+        <v>1393693</v>
       </c>
       <c r="Z64" s="15" t="n">
-        <v>1393693</v>
+        <v>2180643</v>
       </c>
       <c r="AA64" s="15" t="n">
-        <v>2180643</v>
+        <v>1968007</v>
       </c>
       <c r="AB64" s="15" t="n">
-        <v>1968007</v>
+        <v>709926</v>
       </c>
       <c r="AC64" s="15" t="n">
-        <v>709926</v>
-      </c>
-      <c r="AD64" s="15" t="n">
         <v>1169321</v>
+      </c>
+      <c r="AD64" s="15" t="s">
+        <v>60</v>
       </c>
       <c r="AE64" s="15" t="s">
         <v>60</v>
@@ -10551,73 +10551,73 @@
         <v>0</v>
       </c>
       <c r="AD65" s="16" t="n">
-        <v>0</v>
+        <v>42300</v>
       </c>
       <c r="AE65" s="16" t="n">
-        <v>42300</v>
+        <v>170859</v>
       </c>
       <c r="AF65" s="16" t="n">
-        <v>170859</v>
+        <v>533976</v>
       </c>
       <c r="AG65" s="16" t="n">
-        <v>533976</v>
+        <v>237112</v>
       </c>
       <c r="AH65" s="16" t="n">
-        <v>237112</v>
+        <v>282486</v>
       </c>
       <c r="AI65" s="16" t="n">
-        <v>282486</v>
+        <v>1014750</v>
       </c>
       <c r="AJ65" s="16" t="n">
-        <v>1014750</v>
+        <v>430547</v>
       </c>
       <c r="AK65" s="16" t="n">
-        <v>430547</v>
+        <v>447606</v>
       </c>
       <c r="AL65" s="16" t="n">
-        <v>447606</v>
+        <v>397644</v>
       </c>
       <c r="AM65" s="16" t="n">
-        <v>397644</v>
+        <v>176773</v>
       </c>
       <c r="AN65" s="16" t="n">
-        <v>176773</v>
+        <v>154174</v>
       </c>
       <c r="AO65" s="16" t="n">
-        <v>154174</v>
+        <v>202630</v>
       </c>
       <c r="AP65" s="16" t="n">
-        <v>202630</v>
+        <v>348127</v>
       </c>
       <c r="AQ65" s="16" t="n">
-        <v>348127</v>
+        <v>284913</v>
       </c>
       <c r="AR65" s="16" t="n">
-        <v>284913</v>
+        <v>183796</v>
       </c>
       <c r="AS65" s="16" t="n">
-        <v>183796</v>
+        <v>0</v>
       </c>
       <c r="AT65" s="16" t="n">
         <v>0</v>
       </c>
       <c r="AU65" s="16" t="n">
-        <v>0</v>
+        <v>263567</v>
       </c>
       <c r="AV65" s="16" t="n">
-        <v>263567</v>
+        <v>0</v>
       </c>
       <c r="AW65" s="16" t="n">
-        <v>0</v>
+        <v>284176</v>
       </c>
       <c r="AX65" s="16" t="n">
-        <v>284176</v>
+        <v>161480</v>
       </c>
       <c r="AY65" s="16" t="n">
-        <v>161480</v>
+        <v>81527</v>
       </c>
       <c r="AZ65" s="16" t="n">
-        <v>81527</v>
+        <v>0</v>
       </c>
       <c r="BA65" s="16" t="n">
         <v>0</v>
@@ -10676,8 +10676,8 @@
       <c r="R66" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="S66" s="15" t="s">
-        <v>60</v>
+      <c r="S66" s="15" t="n">
+        <v>0</v>
       </c>
       <c r="T66" s="15" t="n">
         <v>0</v>
@@ -10709,8 +10709,8 @@
       <c r="AC66" s="15" t="n">
         <v>0</v>
       </c>
-      <c r="AD66" s="15" t="n">
-        <v>0</v>
+      <c r="AD66" s="15" t="s">
+        <v>60</v>
       </c>
       <c r="AE66" s="15" t="s">
         <v>60</v>
@@ -10832,15 +10832,15 @@
       <c r="Q67" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="R67" s="16" t="s">
-        <v>60</v>
+      <c r="R67" s="16" t="n">
+        <v>170619</v>
       </c>
       <c r="S67" s="16" t="n">
-        <v>170619</v>
-      </c>
-      <c r="T67" s="16" t="n">
         <v>176847</v>
       </c>
+      <c r="T67" s="16" t="s">
+        <v>60</v>
+      </c>
       <c r="U67" s="16" t="s">
         <v>60</v>
       </c>
@@ -10904,44 +10904,44 @@
       <c r="AO67" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="AP67" s="16" t="s">
-        <v>60</v>
+      <c r="AP67" s="16" t="n">
+        <v>414455</v>
       </c>
       <c r="AQ67" s="16" t="n">
-        <v>414455</v>
+        <v>758883</v>
       </c>
       <c r="AR67" s="16" t="n">
-        <v>758883</v>
+        <v>888542</v>
       </c>
       <c r="AS67" s="16" t="n">
-        <v>888542</v>
+        <v>746878</v>
       </c>
       <c r="AT67" s="16" t="n">
-        <v>746878</v>
+        <v>759812</v>
       </c>
       <c r="AU67" s="16" t="n">
-        <v>759812</v>
+        <v>546846</v>
       </c>
       <c r="AV67" s="16" t="n">
-        <v>546846</v>
+        <v>489317</v>
       </c>
       <c r="AW67" s="16" t="n">
-        <v>489317</v>
+        <v>611076</v>
       </c>
       <c r="AX67" s="16" t="n">
-        <v>611076</v>
+        <v>567439</v>
       </c>
       <c r="AY67" s="16" t="n">
-        <v>567439</v>
+        <v>99191</v>
       </c>
       <c r="AZ67" s="16" t="n">
-        <v>99191</v>
+        <v>9838</v>
       </c>
       <c r="BA67" s="16" t="n">
-        <v>9838</v>
+        <v>298968</v>
       </c>
       <c r="BB67" s="16" t="n">
-        <v>298968</v>
+        <v>630110</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11430,37 +11430,37 @@
       </c>
       <c r="D71" s="16"/>
       <c r="E71" s="16" t="n">
-        <v>3654</v>
+        <v>7984</v>
       </c>
       <c r="F71" s="16" t="n">
-        <v>7984</v>
+        <v>5932</v>
       </c>
       <c r="G71" s="16" t="n">
-        <v>5932</v>
+        <v>1677</v>
       </c>
       <c r="H71" s="16" t="n">
-        <v>1677</v>
+        <v>1245</v>
       </c>
       <c r="I71" s="16" t="n">
-        <v>1245</v>
+        <v>2113</v>
       </c>
       <c r="J71" s="16" t="n">
-        <v>2113</v>
+        <v>1551</v>
       </c>
       <c r="K71" s="16" t="n">
-        <v>1551</v>
+        <v>2170</v>
       </c>
       <c r="L71" s="16" t="n">
-        <v>2170</v>
+        <v>1925</v>
       </c>
       <c r="M71" s="16" t="n">
-        <v>1925</v>
+        <v>1210</v>
       </c>
       <c r="N71" s="16" t="n">
-        <v>1210</v>
+        <v>618</v>
       </c>
       <c r="O71" s="16" t="n">
-        <v>618</v>
+        <v>0</v>
       </c>
       <c r="P71" s="16" t="n">
         <v>0</v>
@@ -11468,14 +11468,14 @@
       <c r="Q71" s="16" t="n">
         <v>0</v>
       </c>
-      <c r="R71" s="16" t="n">
-        <v>0</v>
+      <c r="R71" s="16" t="s">
+        <v>60</v>
       </c>
       <c r="S71" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="T71" s="16" t="s">
-        <v>60</v>
+      <c r="T71" s="16" t="n">
+        <v>0</v>
       </c>
       <c r="U71" s="16" t="n">
         <v>0</v>
@@ -11484,28 +11484,28 @@
         <v>0</v>
       </c>
       <c r="W71" s="16" t="n">
-        <v>0</v>
+        <v>3360</v>
       </c>
       <c r="X71" s="16" t="n">
-        <v>3360</v>
+        <v>19422</v>
       </c>
       <c r="Y71" s="16" t="n">
-        <v>19422</v>
+        <v>15145</v>
       </c>
       <c r="Z71" s="16" t="n">
-        <v>15145</v>
+        <v>16992</v>
       </c>
       <c r="AA71" s="16" t="n">
-        <v>16992</v>
+        <v>11716</v>
       </c>
       <c r="AB71" s="16" t="n">
-        <v>11716</v>
+        <v>0</v>
       </c>
       <c r="AC71" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD71" s="16" t="n">
         <v>4769</v>
+      </c>
+      <c r="AD71" s="16" t="s">
+        <v>60</v>
       </c>
       <c r="AE71" s="16" t="s">
         <v>60</v>
@@ -11589,118 +11589,118 @@
       </c>
       <c r="D72" s="15"/>
       <c r="E72" s="15" t="n">
-        <v>29303</v>
+        <v>24344</v>
       </c>
       <c r="F72" s="15" t="n">
-        <v>24344</v>
+        <v>28716</v>
       </c>
       <c r="G72" s="15" t="n">
-        <v>28716</v>
+        <v>29067</v>
       </c>
       <c r="H72" s="15" t="n">
-        <v>29067</v>
+        <v>25240</v>
       </c>
       <c r="I72" s="15" t="n">
-        <v>25240</v>
+        <v>26393</v>
       </c>
       <c r="J72" s="15" t="n">
-        <v>26393</v>
+        <v>21270</v>
       </c>
       <c r="K72" s="15" t="n">
-        <v>21270</v>
+        <v>23623</v>
       </c>
       <c r="L72" s="15" t="n">
-        <v>23623</v>
+        <v>26943</v>
       </c>
       <c r="M72" s="15" t="n">
-        <v>26943</v>
+        <v>28070</v>
       </c>
       <c r="N72" s="15" t="n">
-        <v>28070</v>
+        <v>29386</v>
       </c>
       <c r="O72" s="15" t="n">
-        <v>29386</v>
+        <v>28603</v>
       </c>
       <c r="P72" s="15" t="n">
-        <v>28603</v>
+        <v>22352</v>
       </c>
       <c r="Q72" s="15" t="n">
-        <v>22352</v>
-      </c>
-      <c r="R72" s="15" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="R72" s="15" t="s">
+        <v>60</v>
       </c>
       <c r="S72" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="T72" s="15" t="s">
-        <v>60</v>
+      <c r="T72" s="15" t="n">
+        <v>0</v>
       </c>
       <c r="U72" s="15" t="n">
-        <v>0</v>
+        <v>1694</v>
       </c>
       <c r="V72" s="15" t="n">
-        <v>1694</v>
+        <v>13306</v>
       </c>
       <c r="W72" s="15" t="n">
-        <v>13306</v>
+        <v>36306</v>
       </c>
       <c r="X72" s="15" t="n">
-        <v>36306</v>
+        <v>53495</v>
       </c>
       <c r="Y72" s="15" t="n">
-        <v>53495</v>
+        <v>50134</v>
       </c>
       <c r="Z72" s="15" t="n">
-        <v>50134</v>
+        <v>48541</v>
       </c>
       <c r="AA72" s="15" t="n">
-        <v>48541</v>
+        <v>23780</v>
       </c>
       <c r="AB72" s="15" t="n">
-        <v>23780</v>
+        <v>0</v>
       </c>
       <c r="AC72" s="15" t="n">
-        <v>0</v>
+        <v>24849</v>
       </c>
       <c r="AD72" s="15" t="n">
-        <v>24849</v>
+        <v>72841</v>
       </c>
       <c r="AE72" s="15" t="n">
-        <v>72841</v>
+        <v>89374</v>
       </c>
       <c r="AF72" s="15" t="n">
-        <v>89374</v>
+        <v>80898</v>
       </c>
       <c r="AG72" s="15" t="n">
-        <v>80898</v>
+        <v>94970</v>
       </c>
       <c r="AH72" s="15" t="n">
-        <v>94970</v>
+        <v>93552</v>
       </c>
       <c r="AI72" s="15" t="n">
-        <v>93552</v>
+        <v>92792</v>
       </c>
       <c r="AJ72" s="15" t="n">
-        <v>92792</v>
+        <v>95731</v>
       </c>
       <c r="AK72" s="15" t="n">
-        <v>95731</v>
+        <v>180191</v>
       </c>
       <c r="AL72" s="15" t="n">
-        <v>180191</v>
+        <v>298146</v>
       </c>
       <c r="AM72" s="15" t="n">
-        <v>298146</v>
+        <v>386754</v>
       </c>
       <c r="AN72" s="15" t="n">
-        <v>386754</v>
+        <v>304996</v>
       </c>
       <c r="AO72" s="15" t="n">
-        <v>304996</v>
-      </c>
-      <c r="AP72" s="15" t="n">
         <v>192037</v>
+      </c>
+      <c r="AP72" s="15" t="s">
+        <v>60</v>
       </c>
       <c r="AQ72" s="15" t="s">
         <v>60</v>
@@ -11748,154 +11748,154 @@
       </c>
       <c r="D73" s="16"/>
       <c r="E73" s="16" t="n">
-        <v>118850</v>
+        <v>156165</v>
       </c>
       <c r="F73" s="16" t="n">
-        <v>156165</v>
+        <v>325502</v>
       </c>
       <c r="G73" s="16" t="n">
-        <v>325502</v>
+        <v>133881</v>
       </c>
       <c r="H73" s="16" t="n">
-        <v>133881</v>
+        <v>136507</v>
       </c>
       <c r="I73" s="16" t="n">
-        <v>136507</v>
+        <v>78001</v>
       </c>
       <c r="J73" s="16" t="n">
-        <v>78001</v>
+        <v>417359</v>
       </c>
       <c r="K73" s="16" t="n">
-        <v>417359</v>
+        <v>166327</v>
       </c>
       <c r="L73" s="16" t="n">
-        <v>166327</v>
+        <v>267228</v>
       </c>
       <c r="M73" s="16" t="n">
-        <v>267228</v>
+        <v>403</v>
       </c>
       <c r="N73" s="16" t="n">
-        <v>403</v>
+        <v>122628</v>
       </c>
       <c r="O73" s="16" t="n">
-        <v>122628</v>
+        <v>86355</v>
       </c>
       <c r="P73" s="16" t="n">
-        <v>86355</v>
+        <v>73509</v>
       </c>
       <c r="Q73" s="16" t="n">
-        <v>73509</v>
+        <v>343192</v>
       </c>
       <c r="R73" s="16" t="n">
-        <v>343192</v>
+        <v>486796</v>
       </c>
       <c r="S73" s="16" t="n">
-        <v>486796</v>
+        <v>471009</v>
       </c>
       <c r="T73" s="16" t="n">
-        <v>471009</v>
+        <v>149241</v>
       </c>
       <c r="U73" s="16" t="n">
-        <v>149241</v>
+        <v>220011</v>
       </c>
       <c r="V73" s="16" t="n">
-        <v>220011</v>
+        <v>359581</v>
       </c>
       <c r="W73" s="16" t="n">
-        <v>359581</v>
+        <v>191234</v>
       </c>
       <c r="X73" s="16" t="n">
-        <v>191234</v>
+        <v>577183</v>
       </c>
       <c r="Y73" s="16" t="n">
-        <v>577183</v>
+        <v>537840</v>
       </c>
       <c r="Z73" s="16" t="n">
-        <v>537840</v>
+        <v>599058</v>
       </c>
       <c r="AA73" s="16" t="n">
-        <v>599058</v>
+        <v>295794</v>
       </c>
       <c r="AB73" s="16" t="n">
-        <v>295794</v>
+        <v>280422</v>
       </c>
       <c r="AC73" s="16" t="n">
-        <v>280422</v>
+        <v>795715</v>
       </c>
       <c r="AD73" s="16" t="n">
-        <v>795715</v>
+        <v>1143076</v>
       </c>
       <c r="AE73" s="16" t="n">
-        <v>1143076</v>
+        <v>1076147</v>
       </c>
       <c r="AF73" s="16" t="n">
-        <v>1076147</v>
+        <v>467487</v>
       </c>
       <c r="AG73" s="16" t="n">
-        <v>467487</v>
+        <v>737725</v>
       </c>
       <c r="AH73" s="16" t="n">
-        <v>737725</v>
+        <v>542708</v>
       </c>
       <c r="AI73" s="16" t="n">
-        <v>542708</v>
+        <v>558439</v>
       </c>
       <c r="AJ73" s="16" t="n">
-        <v>558439</v>
+        <v>1071763</v>
       </c>
       <c r="AK73" s="16" t="n">
-        <v>1071763</v>
+        <v>1138590</v>
       </c>
       <c r="AL73" s="16" t="n">
-        <v>1138590</v>
+        <v>1750037</v>
       </c>
       <c r="AM73" s="16" t="n">
-        <v>1750037</v>
+        <v>1312020</v>
       </c>
       <c r="AN73" s="16" t="n">
-        <v>1312020</v>
+        <v>962968</v>
       </c>
       <c r="AO73" s="16" t="n">
-        <v>962968</v>
+        <v>857536</v>
       </c>
       <c r="AP73" s="16" t="n">
-        <v>857536</v>
+        <v>2220649</v>
       </c>
       <c r="AQ73" s="16" t="n">
-        <v>2220649</v>
+        <v>2257652</v>
       </c>
       <c r="AR73" s="16" t="n">
-        <v>2257652</v>
+        <v>2097349</v>
       </c>
       <c r="AS73" s="16" t="n">
-        <v>2097349</v>
+        <v>1280048</v>
       </c>
       <c r="AT73" s="16" t="n">
-        <v>1280048</v>
+        <v>211485</v>
       </c>
       <c r="AU73" s="16" t="n">
-        <v>211485</v>
+        <v>1621823</v>
       </c>
       <c r="AV73" s="16" t="n">
-        <v>1621823</v>
+        <v>1179429</v>
       </c>
       <c r="AW73" s="16" t="n">
-        <v>1179429</v>
+        <v>1591522</v>
       </c>
       <c r="AX73" s="16" t="n">
-        <v>1591522</v>
+        <v>1022009</v>
       </c>
       <c r="AY73" s="16" t="n">
-        <v>1022009</v>
+        <v>0</v>
       </c>
       <c r="AZ73" s="16" t="n">
-        <v>0</v>
+        <v>504787</v>
       </c>
       <c r="BA73" s="16" t="n">
-        <v>504787</v>
+        <v>574725</v>
       </c>
       <c r="BB73" s="16" t="n">
-        <v>574725</v>
+        <v>1325261</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11907,118 +11907,118 @@
       </c>
       <c r="D74" s="15"/>
       <c r="E74" s="15" t="n">
-        <v>45861</v>
+        <v>87546</v>
       </c>
       <c r="F74" s="15" t="n">
-        <v>87546</v>
+        <v>54189</v>
       </c>
       <c r="G74" s="15" t="n">
-        <v>54189</v>
+        <v>184061</v>
       </c>
       <c r="H74" s="15" t="n">
-        <v>184061</v>
+        <v>84830</v>
       </c>
       <c r="I74" s="15" t="n">
-        <v>84830</v>
+        <v>94909</v>
       </c>
       <c r="J74" s="15" t="n">
-        <v>94909</v>
+        <v>76165</v>
       </c>
       <c r="K74" s="15" t="n">
-        <v>76165</v>
+        <v>73649</v>
       </c>
       <c r="L74" s="15" t="n">
-        <v>73649</v>
+        <v>57400</v>
       </c>
       <c r="M74" s="15" t="n">
-        <v>57400</v>
+        <v>65625</v>
       </c>
       <c r="N74" s="15" t="n">
-        <v>65625</v>
+        <v>93198</v>
       </c>
       <c r="O74" s="15" t="n">
-        <v>93198</v>
+        <v>62797</v>
       </c>
       <c r="P74" s="15" t="n">
-        <v>62797</v>
+        <v>14040</v>
       </c>
       <c r="Q74" s="15" t="n">
-        <v>14040</v>
-      </c>
-      <c r="R74" s="15" t="n">
         <v>90009</v>
       </c>
+      <c r="R74" s="15" t="s">
+        <v>60</v>
+      </c>
       <c r="S74" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="T74" s="15" t="s">
-        <v>60</v>
+      <c r="T74" s="15" t="n">
+        <v>195730</v>
       </c>
       <c r="U74" s="15" t="n">
-        <v>195730</v>
+        <v>187355</v>
       </c>
       <c r="V74" s="15" t="n">
-        <v>187355</v>
+        <v>270995</v>
       </c>
       <c r="W74" s="15" t="n">
-        <v>270995</v>
+        <v>218159</v>
       </c>
       <c r="X74" s="15" t="n">
-        <v>218159</v>
+        <v>263785</v>
       </c>
       <c r="Y74" s="15" t="n">
-        <v>263785</v>
+        <v>293343</v>
       </c>
       <c r="Z74" s="15" t="n">
-        <v>293343</v>
+        <v>284632</v>
       </c>
       <c r="AA74" s="15" t="n">
-        <v>284632</v>
+        <v>218598</v>
       </c>
       <c r="AB74" s="15" t="n">
-        <v>218598</v>
+        <v>188558</v>
       </c>
       <c r="AC74" s="15" t="n">
-        <v>188558</v>
+        <v>505989</v>
       </c>
       <c r="AD74" s="15" t="n">
-        <v>505989</v>
+        <v>253843</v>
       </c>
       <c r="AE74" s="15" t="n">
-        <v>253843</v>
+        <v>454310</v>
       </c>
       <c r="AF74" s="15" t="n">
-        <v>454310</v>
+        <v>400182</v>
       </c>
       <c r="AG74" s="15" t="n">
-        <v>400182</v>
+        <v>421902</v>
       </c>
       <c r="AH74" s="15" t="n">
-        <v>421902</v>
+        <v>310702</v>
       </c>
       <c r="AI74" s="15" t="n">
-        <v>310702</v>
+        <v>655112</v>
       </c>
       <c r="AJ74" s="15" t="n">
-        <v>655112</v>
+        <v>723808</v>
       </c>
       <c r="AK74" s="15" t="n">
-        <v>723808</v>
+        <v>1053712</v>
       </c>
       <c r="AL74" s="15" t="n">
-        <v>1053712</v>
+        <v>1111035</v>
       </c>
       <c r="AM74" s="15" t="n">
-        <v>1111035</v>
+        <v>974868</v>
       </c>
       <c r="AN74" s="15" t="n">
-        <v>974868</v>
+        <v>478426</v>
       </c>
       <c r="AO74" s="15" t="n">
-        <v>478426</v>
-      </c>
-      <c r="AP74" s="15" t="n">
         <v>524251</v>
+      </c>
+      <c r="AP74" s="15" t="s">
+        <v>60</v>
       </c>
       <c r="AQ74" s="15" t="s">
         <v>60</v>
@@ -12066,82 +12066,82 @@
       </c>
       <c r="D75" s="16"/>
       <c r="E75" s="16" t="n">
-        <v>71709</v>
+        <v>84404</v>
       </c>
       <c r="F75" s="16" t="n">
-        <v>84404</v>
+        <v>22158</v>
       </c>
       <c r="G75" s="16" t="n">
-        <v>22158</v>
+        <v>149310</v>
       </c>
       <c r="H75" s="16" t="n">
-        <v>149310</v>
+        <v>66080</v>
       </c>
       <c r="I75" s="16" t="n">
-        <v>66080</v>
+        <v>85530</v>
       </c>
       <c r="J75" s="16" t="n">
-        <v>85530</v>
+        <v>128458</v>
       </c>
       <c r="K75" s="16" t="n">
-        <v>128458</v>
+        <v>125532</v>
       </c>
       <c r="L75" s="16" t="n">
-        <v>125532</v>
+        <v>126254</v>
       </c>
       <c r="M75" s="16" t="n">
-        <v>126254</v>
+        <v>268380</v>
       </c>
       <c r="N75" s="16" t="n">
-        <v>268380</v>
+        <v>175924</v>
       </c>
       <c r="O75" s="16" t="n">
-        <v>175924</v>
+        <v>153681</v>
       </c>
       <c r="P75" s="16" t="n">
-        <v>153681</v>
+        <v>14151</v>
       </c>
       <c r="Q75" s="16" t="n">
-        <v>14151</v>
-      </c>
-      <c r="R75" s="16" t="n">
         <v>61958</v>
       </c>
+      <c r="R75" s="16" t="s">
+        <v>60</v>
+      </c>
       <c r="S75" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="T75" s="16" t="s">
-        <v>60</v>
+      <c r="T75" s="16" t="n">
+        <v>11142</v>
       </c>
       <c r="U75" s="16" t="n">
-        <v>11142</v>
+        <v>9258</v>
       </c>
       <c r="V75" s="16" t="n">
-        <v>9258</v>
+        <v>28107</v>
       </c>
       <c r="W75" s="16" t="n">
-        <v>28107</v>
+        <v>72924</v>
       </c>
       <c r="X75" s="16" t="n">
-        <v>72924</v>
+        <v>100681</v>
       </c>
       <c r="Y75" s="16" t="n">
-        <v>100681</v>
+        <v>161004</v>
       </c>
       <c r="Z75" s="16" t="n">
-        <v>161004</v>
+        <v>178084</v>
       </c>
       <c r="AA75" s="16" t="n">
-        <v>178084</v>
+        <v>137314</v>
       </c>
       <c r="AB75" s="16" t="n">
-        <v>137314</v>
+        <v>56460</v>
       </c>
       <c r="AC75" s="16" t="n">
-        <v>56460</v>
-      </c>
-      <c r="AD75" s="16" t="n">
         <v>38640</v>
+      </c>
+      <c r="AD75" s="16" t="s">
+        <v>60</v>
       </c>
       <c r="AE75" s="16" t="s">
         <v>60</v>
@@ -12326,8 +12326,8 @@
       <c r="S77" s="20" t="s">
         <v>60</v>
       </c>
-      <c r="T77" s="20" t="s">
-        <v>60</v>
+      <c r="T77" s="23" t="n">
+        <v>0</v>
       </c>
       <c r="U77" s="23" t="n">
         <v>0</v>
@@ -12542,8 +12542,8 @@
       <c r="S79" s="20" t="s">
         <v>60</v>
       </c>
-      <c r="T79" s="20" t="s">
-        <v>60</v>
+      <c r="T79" s="23" t="n">
+        <v>0</v>
       </c>
       <c r="U79" s="23" t="n">
         <v>0</v>
@@ -12758,14 +12758,14 @@
       <c r="S81" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="T81" s="16" t="s">
-        <v>60</v>
+      <c r="T81" s="16" t="n">
+        <v>0</v>
       </c>
       <c r="U81" s="16" t="n">
-        <v>0</v>
+        <v>-238</v>
       </c>
       <c r="V81" s="16" t="n">
-        <v>-238</v>
+        <v>0</v>
       </c>
       <c r="W81" s="16" t="n">
         <v>0</v>
@@ -12798,34 +12798,34 @@
         <v>0</v>
       </c>
       <c r="AG81" s="16" t="n">
-        <v>0</v>
+        <v>-4469</v>
       </c>
       <c r="AH81" s="16" t="n">
-        <v>-4469</v>
+        <v>-4759</v>
       </c>
       <c r="AI81" s="16" t="n">
-        <v>-4759</v>
+        <v>-3795</v>
       </c>
       <c r="AJ81" s="16" t="n">
-        <v>-3795</v>
+        <v>-1713</v>
       </c>
       <c r="AK81" s="16" t="n">
-        <v>-1713</v>
+        <v>-5940</v>
       </c>
       <c r="AL81" s="16" t="n">
-        <v>-5940</v>
+        <v>-7451</v>
       </c>
       <c r="AM81" s="16" t="n">
-        <v>-7451</v>
+        <v>-8693</v>
       </c>
       <c r="AN81" s="16" t="n">
-        <v>-8693</v>
+        <v>-7060</v>
       </c>
       <c r="AO81" s="16" t="n">
-        <v>-7060</v>
+        <v>-19</v>
       </c>
       <c r="AP81" s="16" t="n">
-        <v>-19</v>
+        <v>0</v>
       </c>
       <c r="AQ81" s="16" t="n">
         <v>0</v>
@@ -12846,22 +12846,22 @@
         <v>0</v>
       </c>
       <c r="AW81" s="16" t="n">
-        <v>0</v>
+        <v>-486</v>
       </c>
       <c r="AX81" s="16" t="n">
-        <v>-486</v>
+        <v>-830</v>
       </c>
       <c r="AY81" s="16" t="n">
-        <v>-830</v>
+        <v>-551</v>
       </c>
       <c r="AZ81" s="16" t="n">
-        <v>-551</v>
+        <v>0</v>
       </c>
       <c r="BA81" s="16" t="n">
-        <v>0</v>
+        <v>-318</v>
       </c>
       <c r="BB81" s="16" t="n">
-        <v>-318</v>
+        <v>-451</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12871,154 +12871,154 @@
       <c r="C82" s="22"/>
       <c r="D82" s="22"/>
       <c r="E82" s="22" t="n">
-        <v>987513</v>
+        <v>1096510</v>
       </c>
       <c r="F82" s="22" t="n">
-        <v>1096510</v>
+        <v>707717</v>
       </c>
       <c r="G82" s="22" t="n">
-        <v>707717</v>
+        <v>916149</v>
       </c>
       <c r="H82" s="22" t="n">
-        <v>916149</v>
+        <v>1458074</v>
       </c>
       <c r="I82" s="22" t="n">
-        <v>1458074</v>
+        <v>1188478</v>
       </c>
       <c r="J82" s="22" t="n">
-        <v>1188478</v>
+        <v>1449392</v>
       </c>
       <c r="K82" s="22" t="n">
-        <v>1449392</v>
+        <v>1241714</v>
       </c>
       <c r="L82" s="22" t="n">
-        <v>1241714</v>
+        <v>1202410</v>
       </c>
       <c r="M82" s="22" t="n">
-        <v>1202410</v>
+        <v>1069290</v>
       </c>
       <c r="N82" s="22" t="n">
-        <v>1069290</v>
+        <v>1392673</v>
       </c>
       <c r="O82" s="22" t="n">
-        <v>1392673</v>
+        <v>1551012</v>
       </c>
       <c r="P82" s="22" t="n">
-        <v>1551012</v>
+        <v>351724</v>
       </c>
       <c r="Q82" s="22" t="n">
-        <v>351724</v>
+        <v>1672745</v>
       </c>
       <c r="R82" s="22" t="n">
-        <v>1672745</v>
+        <v>996038</v>
       </c>
       <c r="S82" s="22" t="n">
-        <v>996038</v>
+        <v>1936884</v>
       </c>
       <c r="T82" s="22" t="n">
-        <v>1936884</v>
+        <v>592486</v>
       </c>
       <c r="U82" s="22" t="n">
-        <v>592486</v>
+        <v>678602</v>
       </c>
       <c r="V82" s="22" t="n">
-        <v>678602</v>
+        <v>1387829</v>
       </c>
       <c r="W82" s="22" t="n">
-        <v>1387829</v>
+        <v>1566703</v>
       </c>
       <c r="X82" s="22" t="n">
-        <v>1566703</v>
+        <v>2115451</v>
       </c>
       <c r="Y82" s="22" t="n">
-        <v>2115451</v>
+        <v>2610979</v>
       </c>
       <c r="Z82" s="22" t="n">
-        <v>2610979</v>
+        <v>3416778</v>
       </c>
       <c r="AA82" s="22" t="n">
-        <v>3416778</v>
+        <v>2704690</v>
       </c>
       <c r="AB82" s="22" t="n">
-        <v>2704690</v>
+        <v>1264748</v>
       </c>
       <c r="AC82" s="22" t="n">
-        <v>1264748</v>
+        <v>2686954</v>
       </c>
       <c r="AD82" s="22" t="n">
-        <v>2686954</v>
+        <v>2358066</v>
       </c>
       <c r="AE82" s="22" t="n">
-        <v>2358066</v>
+        <v>2731540</v>
       </c>
       <c r="AF82" s="22" t="n">
-        <v>2731540</v>
+        <v>3297277</v>
       </c>
       <c r="AG82" s="22" t="n">
-        <v>3297277</v>
+        <v>3460734</v>
       </c>
       <c r="AH82" s="22" t="n">
-        <v>3460734</v>
+        <v>2641950</v>
       </c>
       <c r="AI82" s="22" t="n">
-        <v>2641950</v>
+        <v>6165972</v>
       </c>
       <c r="AJ82" s="22" t="n">
-        <v>6165972</v>
+        <v>5342633</v>
       </c>
       <c r="AK82" s="22" t="n">
-        <v>5342633</v>
+        <v>4564880</v>
       </c>
       <c r="AL82" s="22" t="n">
-        <v>4564880</v>
+        <v>9612676</v>
       </c>
       <c r="AM82" s="22" t="n">
-        <v>9612676</v>
+        <v>3768577</v>
       </c>
       <c r="AN82" s="22" t="n">
-        <v>3768577</v>
+        <v>2906291</v>
       </c>
       <c r="AO82" s="22" t="n">
-        <v>2906291</v>
+        <v>5131898</v>
       </c>
       <c r="AP82" s="22" t="n">
-        <v>5131898</v>
+        <v>4869790</v>
       </c>
       <c r="AQ82" s="22" t="n">
-        <v>4869790</v>
+        <v>5839635</v>
       </c>
       <c r="AR82" s="22" t="n">
-        <v>5839635</v>
+        <v>9702296</v>
       </c>
       <c r="AS82" s="22" t="n">
-        <v>9702296</v>
+        <v>8219216</v>
       </c>
       <c r="AT82" s="22" t="n">
-        <v>8219216</v>
+        <v>11928978</v>
       </c>
       <c r="AU82" s="22" t="n">
-        <v>11928978</v>
+        <v>7010482</v>
       </c>
       <c r="AV82" s="22" t="n">
-        <v>7010482</v>
+        <v>7476155</v>
       </c>
       <c r="AW82" s="22" t="n">
-        <v>7476155</v>
+        <v>7011462</v>
       </c>
       <c r="AX82" s="22" t="n">
-        <v>7011462</v>
+        <v>5365876</v>
       </c>
       <c r="AY82" s="22" t="n">
-        <v>5365876</v>
+        <v>4560815</v>
       </c>
       <c r="AZ82" s="22" t="n">
-        <v>4560815</v>
+        <v>3219407</v>
       </c>
       <c r="BA82" s="22" t="n">
-        <v>3219407</v>
+        <v>6616106</v>
       </c>
       <c r="BB82" s="22" t="n">
-        <v>6616106</v>
+        <v>5070914</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13503,14 +13503,14 @@
         <v>0</v>
       </c>
       <c r="R89" s="16" t="n">
-        <v>0</v>
+        <v>27143640</v>
       </c>
       <c r="S89" s="16" t="n">
-        <v>27143640</v>
-      </c>
-      <c r="T89" s="16" t="n">
         <v>28305736</v>
       </c>
+      <c r="T89" s="16" t="s">
+        <v>60</v>
+      </c>
       <c r="U89" s="16" t="s">
         <v>60</v>
       </c>
@@ -13538,80 +13538,80 @@
       <c r="AC89" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="AD89" s="16" t="s">
-        <v>60</v>
+      <c r="AD89" s="16" t="n">
+        <v>65950891</v>
       </c>
       <c r="AE89" s="16" t="n">
-        <v>65950891</v>
+        <v>71357289</v>
       </c>
       <c r="AF89" s="16" t="n">
-        <v>71357289</v>
+        <v>60410944</v>
       </c>
       <c r="AG89" s="16" t="n">
-        <v>60410944</v>
+        <v>62160195</v>
       </c>
       <c r="AH89" s="16" t="n">
-        <v>62160195</v>
+        <v>76316779</v>
       </c>
       <c r="AI89" s="16" t="n">
-        <v>76316779</v>
+        <v>85747278</v>
       </c>
       <c r="AJ89" s="16" t="n">
-        <v>85747278</v>
+        <v>94690224</v>
       </c>
       <c r="AK89" s="16" t="n">
-        <v>94690224</v>
+        <v>101258866</v>
       </c>
       <c r="AL89" s="16" t="n">
-        <v>101258866</v>
+        <v>172564868</v>
       </c>
       <c r="AM89" s="16" t="n">
-        <v>172564868</v>
+        <v>194023311</v>
       </c>
       <c r="AN89" s="16" t="n">
-        <v>194023311</v>
+        <v>145565851</v>
       </c>
       <c r="AO89" s="16" t="n">
-        <v>145565851</v>
+        <v>127111158</v>
       </c>
       <c r="AP89" s="16" t="n">
-        <v>127111158</v>
+        <v>133732913</v>
       </c>
       <c r="AQ89" s="16" t="n">
-        <v>133732913</v>
+        <v>173718663</v>
       </c>
       <c r="AR89" s="16" t="n">
-        <v>173718663</v>
+        <v>147709834</v>
       </c>
       <c r="AS89" s="16" t="n">
-        <v>147709834</v>
+        <v>139114779</v>
       </c>
       <c r="AT89" s="16" t="n">
-        <v>139114779</v>
+        <v>131745292</v>
       </c>
       <c r="AU89" s="16" t="n">
-        <v>131745292</v>
+        <v>143308868</v>
       </c>
       <c r="AV89" s="16" t="n">
-        <v>143308868</v>
+        <v>157511238</v>
       </c>
       <c r="AW89" s="16" t="n">
-        <v>157511238</v>
+        <v>160721703</v>
       </c>
       <c r="AX89" s="16" t="n">
-        <v>160721703</v>
+        <v>141395872</v>
       </c>
       <c r="AY89" s="16" t="n">
-        <v>141395872</v>
+        <v>134183928</v>
       </c>
       <c r="AZ89" s="16" t="n">
-        <v>134183928</v>
+        <v>125643078</v>
       </c>
       <c r="BA89" s="16" t="n">
-        <v>125643078</v>
+        <v>124714877</v>
       </c>
       <c r="BB89" s="16" t="n">
-        <v>124714877</v>
+        <v>130773167</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13661,8 +13661,8 @@
       <c r="Q90" s="15" t="n">
         <v>0</v>
       </c>
-      <c r="R90" s="15" t="n">
-        <v>0</v>
+      <c r="R90" s="15" t="s">
+        <v>60</v>
       </c>
       <c r="S90" s="15" t="s">
         <v>60</v>
@@ -13697,80 +13697,80 @@
       <c r="AC90" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="AD90" s="15" t="s">
-        <v>60</v>
+      <c r="AD90" s="15" t="n">
+        <v>30121673</v>
       </c>
       <c r="AE90" s="15" t="n">
-        <v>30121673</v>
+        <v>56372222</v>
       </c>
       <c r="AF90" s="15" t="n">
-        <v>56372222</v>
+        <v>52816514</v>
       </c>
       <c r="AG90" s="15" t="n">
-        <v>52816514</v>
-      </c>
-      <c r="AH90" s="15" t="n">
         <v>52092437</v>
       </c>
-      <c r="AI90" s="15" t="s">
-        <v>60</v>
+      <c r="AH90" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="AI90" s="15" t="n">
+        <v>68410256</v>
       </c>
       <c r="AJ90" s="15" t="n">
-        <v>68410256</v>
+        <v>68883249</v>
       </c>
       <c r="AK90" s="15" t="n">
-        <v>68883249</v>
+        <v>81837995</v>
       </c>
       <c r="AL90" s="15" t="n">
-        <v>81837995</v>
+        <v>104864032</v>
       </c>
       <c r="AM90" s="15" t="n">
-        <v>104864032</v>
+        <v>144863118</v>
       </c>
       <c r="AN90" s="15" t="n">
-        <v>144863118</v>
+        <v>155899281</v>
       </c>
       <c r="AO90" s="15" t="n">
-        <v>155899281</v>
+        <v>160825000</v>
       </c>
       <c r="AP90" s="15" t="n">
-        <v>160825000</v>
+        <v>137793651</v>
       </c>
       <c r="AQ90" s="15" t="n">
-        <v>137793651</v>
+        <v>168523487</v>
       </c>
       <c r="AR90" s="15" t="n">
-        <v>168523487</v>
+        <v>181483067</v>
       </c>
       <c r="AS90" s="15" t="n">
-        <v>181483067</v>
+        <v>188144289</v>
       </c>
       <c r="AT90" s="15" t="n">
-        <v>188144289</v>
+        <v>191067162</v>
       </c>
       <c r="AU90" s="15" t="n">
-        <v>191067162</v>
+        <v>194945388</v>
       </c>
       <c r="AV90" s="15" t="n">
-        <v>194945388</v>
+        <v>203769416</v>
       </c>
       <c r="AW90" s="15" t="n">
-        <v>203769416</v>
+        <v>204836615</v>
       </c>
       <c r="AX90" s="15" t="n">
-        <v>204836615</v>
+        <v>199255667</v>
       </c>
       <c r="AY90" s="15" t="n">
-        <v>199255667</v>
-      </c>
-      <c r="AZ90" s="15" t="n">
         <v>197078825</v>
       </c>
-      <c r="BA90" s="15" t="s">
-        <v>60</v>
+      <c r="AZ90" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="BA90" s="15" t="n">
+        <v>179257329</v>
       </c>
       <c r="BB90" s="15" t="n">
-        <v>179257329</v>
+        <v>150889834</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13782,154 +13782,154 @@
       </c>
       <c r="D91" s="16"/>
       <c r="E91" s="16" t="n">
-        <v>17653569</v>
+        <v>14915169</v>
       </c>
       <c r="F91" s="16" t="n">
-        <v>14915169</v>
+        <v>15686832</v>
       </c>
       <c r="G91" s="16" t="n">
-        <v>15686832</v>
+        <v>17813973</v>
       </c>
       <c r="H91" s="16" t="n">
-        <v>17813973</v>
+        <v>21226859</v>
       </c>
       <c r="I91" s="16" t="n">
-        <v>21226859</v>
+        <v>22883063</v>
       </c>
       <c r="J91" s="16" t="n">
-        <v>22883063</v>
+        <v>23017737</v>
       </c>
       <c r="K91" s="16" t="n">
-        <v>23017737</v>
+        <v>21047899</v>
       </c>
       <c r="L91" s="16" t="n">
-        <v>21047899</v>
+        <v>19591855</v>
       </c>
       <c r="M91" s="16" t="n">
-        <v>19591855</v>
+        <v>19173006</v>
       </c>
       <c r="N91" s="16" t="n">
-        <v>19173006</v>
+        <v>18777258</v>
       </c>
       <c r="O91" s="16" t="n">
-        <v>18777258</v>
+        <v>19349070</v>
       </c>
       <c r="P91" s="16" t="n">
-        <v>19349070</v>
+        <v>19666205</v>
       </c>
       <c r="Q91" s="16" t="n">
-        <v>19666205</v>
+        <v>24630556</v>
       </c>
       <c r="R91" s="16" t="n">
-        <v>24630556</v>
+        <v>25445652</v>
       </c>
       <c r="S91" s="16" t="n">
-        <v>25445652</v>
+        <v>26312875</v>
       </c>
       <c r="T91" s="16" t="n">
-        <v>26312875</v>
+        <v>26426844</v>
       </c>
       <c r="U91" s="16" t="n">
-        <v>26426844</v>
+        <v>27245546</v>
       </c>
       <c r="V91" s="16" t="n">
-        <v>27245546</v>
+        <v>32822824</v>
       </c>
       <c r="W91" s="16" t="n">
-        <v>32822824</v>
+        <v>35685916</v>
       </c>
       <c r="X91" s="16" t="n">
-        <v>35685916</v>
+        <v>43738347</v>
       </c>
       <c r="Y91" s="16" t="n">
-        <v>43738347</v>
+        <v>49205665</v>
       </c>
       <c r="Z91" s="16" t="n">
-        <v>49205665</v>
+        <v>49670470</v>
       </c>
       <c r="AA91" s="16" t="n">
-        <v>49670470</v>
+        <v>48039806</v>
       </c>
       <c r="AB91" s="16" t="n">
-        <v>48039806</v>
+        <v>49715736</v>
       </c>
       <c r="AC91" s="16" t="n">
-        <v>49715736</v>
+        <v>53776766</v>
       </c>
       <c r="AD91" s="16" t="n">
-        <v>53776766</v>
+        <v>49043796</v>
       </c>
       <c r="AE91" s="16" t="n">
-        <v>49043796</v>
+        <v>58697277</v>
       </c>
       <c r="AF91" s="16" t="n">
-        <v>58697277</v>
+        <v>58507119</v>
       </c>
       <c r="AG91" s="16" t="n">
-        <v>58507119</v>
+        <v>75886957</v>
       </c>
       <c r="AH91" s="16" t="n">
-        <v>75886957</v>
+        <v>82453115</v>
       </c>
       <c r="AI91" s="16" t="n">
-        <v>82453115</v>
+        <v>86666097</v>
       </c>
       <c r="AJ91" s="16" t="n">
-        <v>86666097</v>
+        <v>96542857</v>
       </c>
       <c r="AK91" s="16" t="n">
-        <v>96542857</v>
+        <v>149441237</v>
       </c>
       <c r="AL91" s="16" t="n">
-        <v>149441237</v>
+        <v>166680628</v>
       </c>
       <c r="AM91" s="16" t="n">
-        <v>166680628</v>
+        <v>202693023</v>
       </c>
       <c r="AN91" s="16" t="n">
-        <v>202693023</v>
+        <v>154822642</v>
       </c>
       <c r="AO91" s="16" t="n">
-        <v>154822642</v>
+        <v>118434599</v>
       </c>
       <c r="AP91" s="16" t="n">
-        <v>118434599</v>
+        <v>129312088</v>
       </c>
       <c r="AQ91" s="16" t="n">
-        <v>129312088</v>
+        <v>193546112</v>
       </c>
       <c r="AR91" s="16" t="n">
-        <v>193546112</v>
+        <v>141006757</v>
       </c>
       <c r="AS91" s="16" t="n">
-        <v>141006757</v>
+        <v>123430924</v>
       </c>
       <c r="AT91" s="16" t="n">
-        <v>123430924</v>
+        <v>120248913</v>
       </c>
       <c r="AU91" s="16" t="n">
-        <v>120248913</v>
+        <v>137210359</v>
       </c>
       <c r="AV91" s="16" t="n">
-        <v>137210359</v>
+        <v>136586304</v>
       </c>
       <c r="AW91" s="16" t="n">
-        <v>136586304</v>
+        <v>126045455</v>
       </c>
       <c r="AX91" s="16" t="n">
-        <v>126045455</v>
+        <v>128654880</v>
       </c>
       <c r="AY91" s="16" t="n">
-        <v>128654880</v>
+        <v>127225221</v>
       </c>
       <c r="AZ91" s="16" t="n">
-        <v>127225221</v>
+        <v>115782656</v>
       </c>
       <c r="BA91" s="16" t="n">
-        <v>115782656</v>
+        <v>113719524</v>
       </c>
       <c r="BB91" s="16" t="n">
-        <v>113719524</v>
+        <v>97743147</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13941,82 +13941,82 @@
       </c>
       <c r="D92" s="15"/>
       <c r="E92" s="15" t="n">
-        <v>18569147</v>
+        <v>21234679</v>
       </c>
       <c r="F92" s="15" t="n">
-        <v>21234679</v>
+        <v>21015215</v>
       </c>
       <c r="G92" s="15" t="n">
-        <v>21015215</v>
+        <v>21523460</v>
       </c>
       <c r="H92" s="15" t="n">
-        <v>21523460</v>
+        <v>23709491</v>
       </c>
       <c r="I92" s="15" t="n">
-        <v>23709491</v>
+        <v>24289682</v>
       </c>
       <c r="J92" s="15" t="n">
-        <v>24289682</v>
+        <v>25744468</v>
       </c>
       <c r="K92" s="15" t="n">
-        <v>25744468</v>
+        <v>24693876</v>
       </c>
       <c r="L92" s="15" t="n">
-        <v>24693876</v>
+        <v>24144231</v>
       </c>
       <c r="M92" s="15" t="n">
-        <v>24144231</v>
+        <v>23311107</v>
       </c>
       <c r="N92" s="15" t="n">
-        <v>23311107</v>
+        <v>23095538</v>
       </c>
       <c r="O92" s="15" t="n">
-        <v>23095538</v>
+        <v>23507165</v>
       </c>
       <c r="P92" s="15" t="n">
-        <v>23507165</v>
+        <v>24091299</v>
       </c>
       <c r="Q92" s="15" t="n">
-        <v>24091299</v>
-      </c>
-      <c r="R92" s="15" t="n">
         <v>26281066</v>
       </c>
+      <c r="R92" s="15" t="s">
+        <v>60</v>
+      </c>
       <c r="S92" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="T92" s="15" t="s">
-        <v>60</v>
+      <c r="T92" s="15" t="n">
+        <v>28177854</v>
       </c>
       <c r="U92" s="15" t="n">
-        <v>28177854</v>
+        <v>29569348</v>
       </c>
       <c r="V92" s="15" t="n">
-        <v>29569348</v>
+        <v>33609925</v>
       </c>
       <c r="W92" s="15" t="n">
-        <v>33609925</v>
+        <v>40153117</v>
       </c>
       <c r="X92" s="15" t="n">
-        <v>40153117</v>
+        <v>46033682</v>
       </c>
       <c r="Y92" s="15" t="n">
-        <v>46033682</v>
+        <v>51906629</v>
       </c>
       <c r="Z92" s="15" t="n">
-        <v>51906629</v>
+        <v>54439859</v>
       </c>
       <c r="AA92" s="15" t="n">
-        <v>54439859</v>
+        <v>55904525</v>
       </c>
       <c r="AB92" s="15" t="n">
-        <v>55904525</v>
+        <v>50777913</v>
       </c>
       <c r="AC92" s="15" t="n">
-        <v>50777913</v>
-      </c>
-      <c r="AD92" s="15" t="n">
         <v>55321048</v>
+      </c>
+      <c r="AD92" s="15" t="s">
+        <v>60</v>
       </c>
       <c r="AE92" s="15" t="s">
         <v>60</v>
@@ -14138,8 +14138,8 @@
       <c r="Q93" s="16" t="n">
         <v>0</v>
       </c>
-      <c r="R93" s="16" t="n">
-        <v>0</v>
+      <c r="R93" s="16" t="s">
+        <v>60</v>
       </c>
       <c r="S93" s="16" t="s">
         <v>60</v>
@@ -14174,74 +14174,74 @@
       <c r="AC93" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="AD93" s="16" t="s">
-        <v>60</v>
+      <c r="AD93" s="16" t="n">
+        <v>423000000</v>
       </c>
       <c r="AE93" s="16" t="n">
-        <v>423000000</v>
+        <v>435864796</v>
       </c>
       <c r="AF93" s="16" t="n">
-        <v>435864796</v>
+        <v>439848435</v>
       </c>
       <c r="AG93" s="16" t="n">
-        <v>439848435</v>
+        <v>467676529</v>
       </c>
       <c r="AH93" s="16" t="n">
-        <v>467676529</v>
+        <v>556074803</v>
       </c>
       <c r="AI93" s="16" t="n">
-        <v>556074803</v>
+        <v>585545297</v>
       </c>
       <c r="AJ93" s="16" t="n">
-        <v>585545297</v>
+        <v>806267790</v>
       </c>
       <c r="AK93" s="16" t="n">
-        <v>806267790</v>
+        <v>940348740</v>
       </c>
       <c r="AL93" s="16" t="n">
-        <v>940348740</v>
+        <v>977012285</v>
       </c>
       <c r="AM93" s="16" t="n">
-        <v>977012285</v>
+        <v>883865000</v>
       </c>
       <c r="AN93" s="16" t="n">
-        <v>883865000</v>
+        <v>770870000</v>
       </c>
       <c r="AO93" s="16" t="n">
-        <v>770870000</v>
+        <v>675433333</v>
       </c>
       <c r="AP93" s="16" t="n">
-        <v>675433333</v>
+        <v>686641026</v>
       </c>
       <c r="AQ93" s="16" t="n">
-        <v>686641026</v>
+        <v>619376087</v>
       </c>
       <c r="AR93" s="16" t="n">
-        <v>619376087</v>
-      </c>
-      <c r="AS93" s="16" t="n">
         <v>532742029</v>
       </c>
+      <c r="AS93" s="16" t="s">
+        <v>60</v>
+      </c>
       <c r="AT93" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="AU93" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="AV93" s="16" t="n">
+      <c r="AU93" s="16" t="n">
         <v>440747492</v>
       </c>
-      <c r="AW93" s="16" t="s">
-        <v>60</v>
+      <c r="AV93" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="AW93" s="16" t="n">
+        <v>421626113</v>
       </c>
       <c r="AX93" s="16" t="n">
-        <v>421626113</v>
+        <v>393853659</v>
       </c>
       <c r="AY93" s="16" t="n">
-        <v>393853659</v>
-      </c>
-      <c r="AZ93" s="16" t="n">
         <v>407635000</v>
+      </c>
+      <c r="AZ93" s="16" t="s">
+        <v>60</v>
       </c>
       <c r="BA93" s="16" t="s">
         <v>60</v>
@@ -14297,15 +14297,15 @@
       <c r="Q94" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="R94" s="15" t="s">
-        <v>60</v>
+      <c r="R94" s="15" t="n">
+        <v>132365400</v>
       </c>
       <c r="S94" s="15" t="n">
-        <v>132365400</v>
-      </c>
-      <c r="T94" s="15" t="n">
         <v>146882890</v>
       </c>
+      <c r="T94" s="15" t="s">
+        <v>60</v>
+      </c>
       <c r="U94" s="15" t="s">
         <v>60</v>
       </c>
@@ -14369,44 +14369,44 @@
       <c r="AO94" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="AP94" s="15" t="s">
-        <v>60</v>
+      <c r="AP94" s="15" t="n">
+        <v>589551920</v>
       </c>
       <c r="AQ94" s="15" t="n">
-        <v>589551920</v>
+        <v>560061255</v>
       </c>
       <c r="AR94" s="15" t="n">
-        <v>560061255</v>
+        <v>564512071</v>
       </c>
       <c r="AS94" s="15" t="n">
-        <v>564512071</v>
+        <v>495605839</v>
       </c>
       <c r="AT94" s="15" t="n">
-        <v>495605839</v>
+        <v>451731272</v>
       </c>
       <c r="AU94" s="15" t="n">
-        <v>451731272</v>
+        <v>436777955</v>
       </c>
       <c r="AV94" s="15" t="n">
-        <v>436777955</v>
+        <v>422918755</v>
       </c>
       <c r="AW94" s="15" t="n">
-        <v>422918755</v>
+        <v>407655771</v>
       </c>
       <c r="AX94" s="15" t="n">
-        <v>407655771</v>
+        <v>403583926</v>
       </c>
       <c r="AY94" s="15" t="n">
-        <v>403583926</v>
+        <v>413295833</v>
       </c>
       <c r="AZ94" s="15" t="n">
-        <v>413295833</v>
+        <v>409916667</v>
       </c>
       <c r="BA94" s="15" t="n">
-        <v>409916667</v>
+        <v>552621072</v>
       </c>
       <c r="BB94" s="15" t="n">
-        <v>552621072</v>
+        <v>561595365</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14456,8 +14456,8 @@
       <c r="Q95" s="16" t="n">
         <v>0</v>
       </c>
-      <c r="R95" s="16" t="n">
-        <v>0</v>
+      <c r="R95" s="16" t="s">
+        <v>60</v>
       </c>
       <c r="S95" s="16" t="s">
         <v>60</v>
@@ -14615,8 +14615,8 @@
       <c r="Q96" s="15" t="n">
         <v>0</v>
       </c>
-      <c r="R96" s="15" t="n">
-        <v>0</v>
+      <c r="R96" s="15" t="s">
+        <v>60</v>
       </c>
       <c r="S96" s="15" t="s">
         <v>60</v>
@@ -14774,8 +14774,8 @@
       <c r="Q97" s="16" t="n">
         <v>0</v>
       </c>
-      <c r="R97" s="16" t="n">
-        <v>0</v>
+      <c r="R97" s="16" t="s">
+        <v>60</v>
       </c>
       <c r="S97" s="16" t="s">
         <v>60</v>
@@ -14895,37 +14895,37 @@
       </c>
       <c r="D98" s="15"/>
       <c r="E98" s="15" t="n">
-        <v>12821053</v>
+        <v>14463768</v>
       </c>
       <c r="F98" s="15" t="n">
-        <v>14463768</v>
+        <v>14328502</v>
       </c>
       <c r="G98" s="15" t="n">
-        <v>14328502</v>
+        <v>14211864</v>
       </c>
       <c r="H98" s="15" t="n">
-        <v>14211864</v>
+        <v>15000000</v>
       </c>
       <c r="I98" s="15" t="n">
-        <v>15000000</v>
+        <v>17178862</v>
       </c>
       <c r="J98" s="15" t="n">
-        <v>17178862</v>
+        <v>14913462</v>
       </c>
       <c r="K98" s="15" t="n">
-        <v>14913462</v>
+        <v>14863014</v>
       </c>
       <c r="L98" s="15" t="n">
-        <v>14863014</v>
+        <v>15039062</v>
       </c>
       <c r="M98" s="15" t="n">
-        <v>15039062</v>
+        <v>15125000</v>
       </c>
       <c r="N98" s="15" t="n">
-        <v>15125000</v>
+        <v>15073171</v>
       </c>
       <c r="O98" s="15" t="n">
-        <v>15073171</v>
+        <v>0</v>
       </c>
       <c r="P98" s="15" t="n">
         <v>0</v>
@@ -14933,8 +14933,8 @@
       <c r="Q98" s="15" t="n">
         <v>0</v>
       </c>
-      <c r="R98" s="15" t="n">
-        <v>0</v>
+      <c r="R98" s="15" t="s">
+        <v>60</v>
       </c>
       <c r="S98" s="15" t="s">
         <v>60</v>
@@ -14948,29 +14948,29 @@
       <c r="V98" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="W98" s="15" t="s">
-        <v>60</v>
+      <c r="W98" s="15" t="n">
+        <v>24172662</v>
       </c>
       <c r="X98" s="15" t="n">
-        <v>24172662</v>
+        <v>25190661</v>
       </c>
       <c r="Y98" s="15" t="n">
-        <v>25190661</v>
+        <v>28957935</v>
       </c>
       <c r="Z98" s="15" t="n">
-        <v>28957935</v>
+        <v>32120983</v>
       </c>
       <c r="AA98" s="15" t="n">
-        <v>32120983</v>
-      </c>
-      <c r="AB98" s="15" t="n">
         <v>32098630</v>
       </c>
-      <c r="AC98" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="AD98" s="15" t="n">
+      <c r="AB98" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="AC98" s="15" t="n">
         <v>33584507</v>
+      </c>
+      <c r="AD98" s="15" t="s">
+        <v>60</v>
       </c>
       <c r="AE98" s="15" t="s">
         <v>60</v>
@@ -15054,46 +15054,46 @@
       </c>
       <c r="D99" s="16"/>
       <c r="E99" s="16" t="n">
-        <v>15128033</v>
+        <v>12826133</v>
       </c>
       <c r="F99" s="16" t="n">
-        <v>12826133</v>
+        <v>12065546</v>
       </c>
       <c r="G99" s="16" t="n">
-        <v>12065546</v>
+        <v>11270648</v>
       </c>
       <c r="H99" s="16" t="n">
-        <v>11270648</v>
+        <v>11415649</v>
       </c>
       <c r="I99" s="16" t="n">
-        <v>11415649</v>
+        <v>11777332</v>
       </c>
       <c r="J99" s="16" t="n">
-        <v>11777332</v>
+        <v>12182131</v>
       </c>
       <c r="K99" s="16" t="n">
-        <v>12182131</v>
+        <v>11894763</v>
       </c>
       <c r="L99" s="16" t="n">
-        <v>11894763</v>
+        <v>13098201</v>
       </c>
       <c r="M99" s="16" t="n">
-        <v>13098201</v>
+        <v>13104575</v>
       </c>
       <c r="N99" s="16" t="n">
-        <v>13104575</v>
+        <v>13260830</v>
       </c>
       <c r="O99" s="16" t="n">
-        <v>13260830</v>
+        <v>13072669</v>
       </c>
       <c r="P99" s="16" t="n">
-        <v>13072669</v>
+        <v>13424625</v>
       </c>
       <c r="Q99" s="16" t="n">
-        <v>13424625</v>
-      </c>
-      <c r="R99" s="16" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="R99" s="16" t="s">
+        <v>60</v>
       </c>
       <c r="S99" s="16" t="s">
         <v>60</v>
@@ -15101,71 +15101,71 @@
       <c r="T99" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="U99" s="16" t="s">
-        <v>60</v>
+      <c r="U99" s="16" t="n">
+        <v>19250000</v>
       </c>
       <c r="V99" s="16" t="n">
-        <v>19250000</v>
+        <v>23302977</v>
       </c>
       <c r="W99" s="16" t="n">
-        <v>23302977</v>
+        <v>23948549</v>
       </c>
       <c r="X99" s="16" t="n">
-        <v>23948549</v>
+        <v>27447409</v>
       </c>
       <c r="Y99" s="16" t="n">
-        <v>27447409</v>
+        <v>27455641</v>
       </c>
       <c r="Z99" s="16" t="n">
-        <v>27455641</v>
+        <v>28773563</v>
       </c>
       <c r="AA99" s="16" t="n">
-        <v>28773563</v>
-      </c>
-      <c r="AB99" s="16" t="n">
         <v>28859223</v>
       </c>
-      <c r="AC99" s="16" t="s">
-        <v>60</v>
+      <c r="AB99" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="AC99" s="16" t="n">
+        <v>33946721</v>
       </c>
       <c r="AD99" s="16" t="n">
-        <v>33946721</v>
+        <v>37508239</v>
       </c>
       <c r="AE99" s="16" t="n">
-        <v>37508239</v>
+        <v>46524727</v>
       </c>
       <c r="AF99" s="16" t="n">
-        <v>46524727</v>
+        <v>54257545</v>
       </c>
       <c r="AG99" s="16" t="n">
-        <v>54257545</v>
+        <v>65768698</v>
       </c>
       <c r="AH99" s="16" t="n">
-        <v>65768698</v>
+        <v>70819076</v>
       </c>
       <c r="AI99" s="16" t="n">
-        <v>70819076</v>
+        <v>78570703</v>
       </c>
       <c r="AJ99" s="16" t="n">
-        <v>78570703</v>
+        <v>81681741</v>
       </c>
       <c r="AK99" s="16" t="n">
-        <v>81681741</v>
+        <v>93947341</v>
       </c>
       <c r="AL99" s="16" t="n">
-        <v>93947341</v>
+        <v>121000812</v>
       </c>
       <c r="AM99" s="16" t="n">
-        <v>121000812</v>
+        <v>145177928</v>
       </c>
       <c r="AN99" s="16" t="n">
-        <v>145177928</v>
+        <v>148923828</v>
       </c>
       <c r="AO99" s="16" t="n">
-        <v>148923828</v>
-      </c>
-      <c r="AP99" s="16" t="n">
         <v>123974822</v>
+      </c>
+      <c r="AP99" s="16" t="s">
+        <v>60</v>
       </c>
       <c r="AQ99" s="16" t="s">
         <v>60</v>
@@ -15213,154 +15213,154 @@
       </c>
       <c r="D100" s="15"/>
       <c r="E100" s="15" t="n">
-        <v>6125026</v>
+        <v>12539345</v>
       </c>
       <c r="F100" s="15" t="n">
-        <v>12539345</v>
+        <v>14692697</v>
       </c>
       <c r="G100" s="15" t="n">
-        <v>14692697</v>
+        <v>16159445</v>
       </c>
       <c r="H100" s="15" t="n">
-        <v>16159445</v>
+        <v>17883794</v>
       </c>
       <c r="I100" s="15" t="n">
-        <v>17883794</v>
+        <v>16989980</v>
       </c>
       <c r="J100" s="15" t="n">
-        <v>16989980</v>
+        <v>16989986</v>
       </c>
       <c r="K100" s="15" t="n">
-        <v>16989986</v>
+        <v>15198008</v>
       </c>
       <c r="L100" s="15" t="n">
-        <v>15198008</v>
+        <v>17828274</v>
       </c>
       <c r="M100" s="15" t="n">
-        <v>17828274</v>
+        <v>15500000</v>
       </c>
       <c r="N100" s="15" t="n">
-        <v>15500000</v>
+        <v>18351990</v>
       </c>
       <c r="O100" s="15" t="n">
-        <v>18351990</v>
+        <v>18349979</v>
       </c>
       <c r="P100" s="15" t="n">
-        <v>18349979</v>
+        <v>18354307</v>
       </c>
       <c r="Q100" s="15" t="n">
-        <v>18354307</v>
+        <v>18352513</v>
       </c>
       <c r="R100" s="15" t="n">
-        <v>18352513</v>
+        <v>21691293</v>
       </c>
       <c r="S100" s="15" t="n">
-        <v>21691293</v>
+        <v>22229989</v>
       </c>
       <c r="T100" s="15" t="n">
-        <v>22229989</v>
+        <v>22231640</v>
       </c>
       <c r="U100" s="15" t="n">
-        <v>22231640</v>
+        <v>22230070</v>
       </c>
       <c r="V100" s="15" t="n">
-        <v>22230070</v>
+        <v>22229290</v>
       </c>
       <c r="W100" s="15" t="n">
-        <v>22229290</v>
+        <v>22228757</v>
       </c>
       <c r="X100" s="15" t="n">
-        <v>22228757</v>
+        <v>35997443</v>
       </c>
       <c r="Y100" s="15" t="n">
-        <v>35997443</v>
+        <v>36000000</v>
       </c>
       <c r="Z100" s="15" t="n">
-        <v>36000000</v>
+        <v>35998918</v>
       </c>
       <c r="AA100" s="15" t="n">
-        <v>35998918</v>
+        <v>35997809</v>
       </c>
       <c r="AB100" s="15" t="n">
-        <v>35997809</v>
+        <v>35997689</v>
       </c>
       <c r="AC100" s="15" t="n">
-        <v>35997689</v>
+        <v>38405087</v>
       </c>
       <c r="AD100" s="15" t="n">
-        <v>38405087</v>
+        <v>43592251</v>
       </c>
       <c r="AE100" s="15" t="n">
-        <v>43592251</v>
+        <v>45609112</v>
       </c>
       <c r="AF100" s="15" t="n">
-        <v>45609112</v>
+        <v>42314175</v>
       </c>
       <c r="AG100" s="15" t="n">
-        <v>42314175</v>
+        <v>45998566</v>
       </c>
       <c r="AH100" s="15" t="n">
-        <v>45998566</v>
+        <v>46000000</v>
       </c>
       <c r="AI100" s="15" t="n">
-        <v>46000000</v>
+        <v>48216111</v>
       </c>
       <c r="AJ100" s="15" t="n">
-        <v>48216111</v>
+        <v>68299962</v>
       </c>
       <c r="AK100" s="15" t="n">
-        <v>68299962</v>
+        <v>68228068</v>
       </c>
       <c r="AL100" s="15" t="n">
-        <v>68228068</v>
+        <v>90231348</v>
       </c>
       <c r="AM100" s="15" t="n">
-        <v>90231348</v>
+        <v>90229008</v>
       </c>
       <c r="AN100" s="15" t="n">
-        <v>90229008</v>
+        <v>90233133</v>
       </c>
       <c r="AO100" s="15" t="n">
-        <v>90233133</v>
+        <v>90228956</v>
       </c>
       <c r="AP100" s="15" t="n">
-        <v>90228956</v>
+        <v>145112004</v>
       </c>
       <c r="AQ100" s="15" t="n">
-        <v>145112004</v>
+        <v>145111968</v>
       </c>
       <c r="AR100" s="15" t="n">
-        <v>145111968</v>
+        <v>116648999</v>
       </c>
       <c r="AS100" s="15" t="n">
-        <v>116648999</v>
+        <v>116643703</v>
       </c>
       <c r="AT100" s="15" t="n">
-        <v>116643703</v>
+        <v>116649200</v>
       </c>
       <c r="AU100" s="15" t="n">
-        <v>116649200</v>
+        <v>108603007</v>
       </c>
       <c r="AV100" s="15" t="n">
-        <v>108603007</v>
+        <v>108603039</v>
       </c>
       <c r="AW100" s="15" t="n">
-        <v>108603039</v>
+        <v>108606660</v>
       </c>
       <c r="AX100" s="15" t="n">
-        <v>108606660</v>
-      </c>
-      <c r="AY100" s="15" t="n">
         <v>108597280</v>
       </c>
-      <c r="AZ100" s="15" t="s">
-        <v>60</v>
+      <c r="AY100" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="AZ100" s="15" t="n">
+        <v>108603055</v>
       </c>
       <c r="BA100" s="15" t="n">
-        <v>108603055</v>
+        <v>81215997</v>
       </c>
       <c r="BB100" s="15" t="n">
-        <v>81215997</v>
+        <v>68716219</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15372,118 +15372,118 @@
       </c>
       <c r="D101" s="16"/>
       <c r="E101" s="16" t="n">
-        <v>89223735</v>
+        <v>86593472</v>
       </c>
       <c r="F101" s="16" t="n">
-        <v>86593472</v>
+        <v>87542811</v>
       </c>
       <c r="G101" s="16" t="n">
-        <v>87542811</v>
+        <v>93195443</v>
       </c>
       <c r="H101" s="16" t="n">
-        <v>93195443</v>
+        <v>98524971</v>
       </c>
       <c r="I101" s="16" t="n">
-        <v>98524971</v>
+        <v>104756071</v>
       </c>
       <c r="J101" s="16" t="n">
-        <v>104756071</v>
+        <v>108651926</v>
       </c>
       <c r="K101" s="16" t="n">
-        <v>108651926</v>
+        <v>101584828</v>
       </c>
       <c r="L101" s="16" t="n">
-        <v>101584828</v>
+        <v>96959459</v>
       </c>
       <c r="M101" s="16" t="n">
-        <v>96959459</v>
+        <v>90020576</v>
       </c>
       <c r="N101" s="16" t="n">
-        <v>90020576</v>
+        <v>86214616</v>
       </c>
       <c r="O101" s="16" t="n">
-        <v>86214616</v>
+        <v>93170623</v>
       </c>
       <c r="P101" s="16" t="n">
-        <v>93170623</v>
+        <v>96827586</v>
       </c>
       <c r="Q101" s="16" t="n">
-        <v>96827586</v>
-      </c>
-      <c r="R101" s="16" t="n">
         <v>168556180</v>
       </c>
+      <c r="R101" s="16" t="s">
+        <v>60</v>
+      </c>
       <c r="S101" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="T101" s="16" t="s">
-        <v>60</v>
+      <c r="T101" s="16" t="n">
+        <v>181736305</v>
       </c>
       <c r="U101" s="16" t="n">
-        <v>181736305</v>
+        <v>181545543</v>
       </c>
       <c r="V101" s="16" t="n">
-        <v>181545543</v>
+        <v>192879004</v>
       </c>
       <c r="W101" s="16" t="n">
-        <v>192879004</v>
+        <v>170436719</v>
       </c>
       <c r="X101" s="16" t="n">
-        <v>170436719</v>
+        <v>221854500</v>
       </c>
       <c r="Y101" s="16" t="n">
-        <v>221854500</v>
+        <v>243842893</v>
       </c>
       <c r="Z101" s="16" t="n">
-        <v>243842893</v>
+        <v>268267672</v>
       </c>
       <c r="AA101" s="16" t="n">
-        <v>268267672</v>
+        <v>287628947</v>
       </c>
       <c r="AB101" s="16" t="n">
-        <v>287628947</v>
+        <v>347252302</v>
       </c>
       <c r="AC101" s="16" t="n">
-        <v>347252302</v>
+        <v>326023840</v>
       </c>
       <c r="AD101" s="16" t="n">
-        <v>326023840</v>
+        <v>324607417</v>
       </c>
       <c r="AE101" s="16" t="n">
-        <v>324607417</v>
+        <v>364907631</v>
       </c>
       <c r="AF101" s="16" t="n">
-        <v>364907631</v>
+        <v>372608939</v>
       </c>
       <c r="AG101" s="16" t="n">
-        <v>372608939</v>
+        <v>372375993</v>
       </c>
       <c r="AH101" s="16" t="n">
-        <v>372375993</v>
+        <v>452259098</v>
       </c>
       <c r="AI101" s="16" t="n">
-        <v>452259098</v>
+        <v>497805471</v>
       </c>
       <c r="AJ101" s="16" t="n">
-        <v>497805471</v>
+        <v>622362855</v>
       </c>
       <c r="AK101" s="16" t="n">
-        <v>622362855</v>
+        <v>882505863</v>
       </c>
       <c r="AL101" s="16" t="n">
-        <v>882505863</v>
+        <v>932076342</v>
       </c>
       <c r="AM101" s="16" t="n">
-        <v>932076342</v>
+        <v>711063457</v>
       </c>
       <c r="AN101" s="16" t="n">
-        <v>711063457</v>
+        <v>639606952</v>
       </c>
       <c r="AO101" s="16" t="n">
-        <v>639606952</v>
-      </c>
-      <c r="AP101" s="16" t="n">
         <v>665293147</v>
+      </c>
+      <c r="AP101" s="16" t="s">
+        <v>60</v>
       </c>
       <c r="AQ101" s="16" t="s">
         <v>60</v>
@@ -15531,82 +15531,82 @@
       </c>
       <c r="D102" s="15"/>
       <c r="E102" s="15" t="n">
-        <v>87450000</v>
+        <v>100480952</v>
       </c>
       <c r="F102" s="15" t="n">
-        <v>100480952</v>
+        <v>102583333</v>
       </c>
       <c r="G102" s="15" t="n">
-        <v>102583333</v>
+        <v>96453488</v>
       </c>
       <c r="H102" s="15" t="n">
-        <v>96453488</v>
+        <v>110133333</v>
       </c>
       <c r="I102" s="15" t="n">
-        <v>110133333</v>
+        <v>106912500</v>
       </c>
       <c r="J102" s="15" t="n">
-        <v>106912500</v>
+        <v>105293443</v>
       </c>
       <c r="K102" s="15" t="n">
-        <v>105293443</v>
+        <v>103574257</v>
       </c>
       <c r="L102" s="15" t="n">
-        <v>103574257</v>
+        <v>98175739</v>
       </c>
       <c r="M102" s="15" t="n">
-        <v>98175739</v>
+        <v>90914634</v>
       </c>
       <c r="N102" s="15" t="n">
-        <v>90914634</v>
+        <v>89392276</v>
       </c>
       <c r="O102" s="15" t="n">
-        <v>89392276</v>
+        <v>95099629</v>
       </c>
       <c r="P102" s="15" t="n">
-        <v>95099629</v>
+        <v>98270833</v>
       </c>
       <c r="Q102" s="15" t="n">
-        <v>98270833</v>
-      </c>
-      <c r="R102" s="15" t="n">
         <v>114737037</v>
       </c>
+      <c r="R102" s="15" t="s">
+        <v>60</v>
+      </c>
       <c r="S102" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="T102" s="15" t="s">
-        <v>60</v>
+      <c r="T102" s="15" t="n">
+        <v>116062500</v>
       </c>
       <c r="U102" s="15" t="n">
-        <v>116062500</v>
+        <v>128583333</v>
       </c>
       <c r="V102" s="15" t="n">
-        <v>128583333</v>
+        <v>137779412</v>
       </c>
       <c r="W102" s="15" t="n">
-        <v>137779412</v>
+        <v>147024194</v>
       </c>
       <c r="X102" s="15" t="n">
-        <v>147024194</v>
+        <v>158303459</v>
       </c>
       <c r="Y102" s="15" t="n">
-        <v>158303459</v>
+        <v>199262376</v>
       </c>
       <c r="Z102" s="15" t="n">
-        <v>199262376</v>
+        <v>213019139</v>
       </c>
       <c r="AA102" s="15" t="n">
-        <v>213019139</v>
+        <v>276842742</v>
       </c>
       <c r="AB102" s="15" t="n">
-        <v>276842742</v>
+        <v>288061224</v>
       </c>
       <c r="AC102" s="15" t="n">
-        <v>288061224</v>
-      </c>
-      <c r="AD102" s="15" t="n">
         <v>386400000</v>
+      </c>
+      <c r="AD102" s="15" t="s">
+        <v>60</v>
       </c>
       <c r="AE102" s="15" t="s">
         <v>60</v>
